--- a/Questionnaires de personnalité0303 .xlsx
+++ b/Questionnaires de personnalité0303 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8484DB12-0A93-49A1-85D9-2760F53ECA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C7EFC2-6432-4044-97F9-6C7F004C9788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10800" yWindow="3040" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questionnaires de personnalité" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="171">
   <si>
     <t xml:space="preserve">Horodateur,"Nom d'utilisateur","Je suis ","Je suis ","Je suis","Je suis ","Je suis","Je suis","Je suis ","Je suis","Je suis","Je suis ","Je suis","Je suis","Je suis ","Je suis ","Je suis ","Je suis ","Je suis ","Je suis ","Je suis ","Je suis","Je suis ","Je suis","Je suis","Je prÃ©pare soigneusement les tÃ¢ches Ã  accomplir","Je fais les choses sans y penser","Je me dÃ©cide rapidement","J'ai tendance Ã  ne pas m'en faire","Je ne fais pas attention","J'ai des idÃ©es qui fusent","Je projette mes voyages longtemps Ã  l'avance","Je suis maÃ®tre de moi","Je me concentre facilement","Je mets de l'argent de cÃ´tÃ© rÃ©guliÃ¨rement","J'ai la ""bougeotte"" aux spectacles ou aux confÃ©rences","Je rÃ©flÃ©chis soigneusement","Je veille Ã  ma sÃ©curitÃ© d'emploi","Je dis les choses sans y penser","J'aime rÃ©flÃ©chir Ã  des problÃ¨mes complexes","Je change de travail","J'agis sur un ""coup de tÃªte""","RÃ©flÃ©chir Ã  un problÃ¨me m'ennuie vite","Je me fais faire rÃ©guliÃ¨rement des bilans de santÃ©","J'agis selon l'inspiration du moment","Je suis quelqu'un de rÃ©flÃ©chi","Je change de domicile","J'achÃ¨te les choses ""sur un coup de tÃªte""","Je ne peux penser qu'Ã  un problÃ¨me Ã  la fois","Je change de passe-temps","Je marche et bouge vite","Je rÃ©sous les problÃ¨mes par tÃ¢tonnements","Je dÃ©pense ou paye Ã  crÃ©dit plus que je ne gagne","Je parle vite","Quand je rÃ©flÃ©chis mes pensÃ©es s'Ã©garent souvent","Je m'intÃ©resse plus au prÃ©sent qu'Ã  l'avenir","Je me sens agitÃ© au spectacle ou lors de confÃ©rences","J'aime les ""casses-tÃªtes""","Je pense Ã  l'avenir","Il m'est facile de me concentrer sur mes activitÃ©s.","Il m'arrive frÃ©quemment, lorsque je travaille, de me prÃ©occuper d'autres choses.","Le temps semble toujours passer lentement.","Je me retrouve souvent Ã  l'Ã©cart, sans savoir quoi faire.","Je suis souvent pris au piÃ¨ge dans des situations oÃ¹ je dois faire des choses insignifiantes.","Le fait de devoir regarder les films familiaux ou les diapositives de voyage de quelqu'un m'ennuie Ã©normÃ©ment.","J'ai tout le temps des projets en tÃªte, des choses Ã  faire.","Je trouve qu'il est facile de se divertir.","Beaucoup de choses que j'ai Ã  faire sont rÃ©pÃ©titives et monotones.","Il faut plus de stimulation pour me faire avancer que la plupart des gens.","Je prends plaisir Ã  faire la plupart des choses que je fais.","Je suis rarement enthousiasmÃ©(e) par mon travail.","Dans n'importe quelle situation, je peux gÃ©nÃ©ralement trouver quelque chose Ã  faire ou Ã  voir pour maintenir mon intÃ©rÃªt.","La plupart du temps, je reste assis Ã  ne rien faire.","Je suis douÃ© pour attendre patiemment.","Je me retrouve souvent avec rien Ã  faire - du temps libre.","Dans les situations oÃ¹ je dois attendre, comme dans une file d'attente, je deviens trÃ¨s agitÃ©.","Je me rÃ©veille souvent avec une nouvelle idÃ©e.","Il me serait trÃ¨s difficile de trouver un travail qui soit suffisamment passionnant.","J'aimerais faire des choses plus stimulantes dans la vie. ","J'ai l'impression de travailler en dessous de mes capacitÃ©s la plupart du temps.","Beaucoup de gens diraient que je suis une personne crÃ©ative ou imaginative.","J'ai tellement d'intÃ©rÃªts que je n'ai pas le temps de tout faire.","Parmi mes amis, je suis celui qui continue Ã  faire quelque chose le plus longtemps.","Si je ne fais pas quelque-choses d'excitant, voire de dangereux, je me sens Ã  moitiÃ© mort et terne.","Il faut beaucoup de changement et de variÃ©tÃ© pour que je sois vraiment heureux.","Il semble que les mÃªmes choses passent tout le temps Ã  la tÃ©lÃ©vision ou au cinÃ©ma </t>
   </si>
@@ -1156,10 +1156,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1457,6 +1453,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1583,105 +1583,105 @@
   <tableColumns count="93">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Horodateur" queryTableFieldId="1" dataDxfId="92"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Nom d'utilisateur" queryTableFieldId="2" dataDxfId="91"/>
-    <tableColumn id="93" xr3:uid="{D5424A79-DDE0-475A-B78F-7780FA0B57D5}" uniqueName="93" name="id" queryTableFieldId="93" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Je suis " queryTableFieldId="3" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Je suis _1" queryTableFieldId="4" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Je suis" queryTableFieldId="5" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Je suis _2" queryTableFieldId="6" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Je suis_3" queryTableFieldId="7" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Je suis_4" queryTableFieldId="8" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Je suis _5" queryTableFieldId="9" dataDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Je suis_6" queryTableFieldId="10" dataDxfId="83"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Je suis_7" queryTableFieldId="11" dataDxfId="82"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Je suis _8" queryTableFieldId="12" dataDxfId="81"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Je suis_9" queryTableFieldId="13" dataDxfId="80"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="Je suis_10" queryTableFieldId="14" dataDxfId="79"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="Je suis _11" queryTableFieldId="15" dataDxfId="78"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="Je suis _12" queryTableFieldId="16" dataDxfId="77"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="Je suis _13" queryTableFieldId="17" dataDxfId="76"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="Je suis _14" queryTableFieldId="18" dataDxfId="75"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="Je suis _15" queryTableFieldId="19" dataDxfId="74"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="20" name="Je suis _16" queryTableFieldId="20" dataDxfId="73"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="21" name="Je suis _17" queryTableFieldId="21" dataDxfId="72"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="22" name="Je suis_18" queryTableFieldId="22" dataDxfId="71"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="23" name="Je suis _19" queryTableFieldId="23" dataDxfId="70"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" uniqueName="24" name="Je suis_20" queryTableFieldId="24" dataDxfId="69"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" uniqueName="25" name="Je suis_21" queryTableFieldId="25" dataDxfId="68"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" uniqueName="26" name="Je prépare soigneusement les tâches à accomplir" queryTableFieldId="26" dataDxfId="67"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="27" name="Je fais les choses sans y penser" queryTableFieldId="27" dataDxfId="66"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="28" name="Je me décide rapidement" queryTableFieldId="28" dataDxfId="65"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="29" name="J'ai tendance à ne pas m'en faire" queryTableFieldId="29" dataDxfId="64"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" uniqueName="30" name="Je ne fais pas attention" queryTableFieldId="30" dataDxfId="63"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="31" name="J'ai des idées qui fusent" queryTableFieldId="31" dataDxfId="62"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="32" name="Je projette mes voyages longtemps à l'avance" queryTableFieldId="32" dataDxfId="61"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" uniqueName="33" name="Je suis maître de moi" queryTableFieldId="33" dataDxfId="60"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="34" name="Je me concentre facilement" queryTableFieldId="34" dataDxfId="59"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" uniqueName="35" name="Je mets de l'argent de côté régulièrement" queryTableFieldId="35" dataDxfId="58"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" uniqueName="36" name="J'ai la &quot;bougeotte&quot; aux spectacles ou aux conférences" queryTableFieldId="36" dataDxfId="57"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" uniqueName="37" name="Je réfléchis soigneusement" queryTableFieldId="37" dataDxfId="56"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" uniqueName="38" name="Je veille à ma sécurité d'emploi" queryTableFieldId="38" dataDxfId="55"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" uniqueName="39" name="Je dis les choses sans y penser" queryTableFieldId="39" dataDxfId="54"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="40" name="J'aime réfléchir à des problèmes complexes" queryTableFieldId="40" dataDxfId="53"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" uniqueName="41" name="Je change de travail" queryTableFieldId="41" dataDxfId="52"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="42" name="J'agis sur un &quot;coup de tête&quot;" queryTableFieldId="42" dataDxfId="51"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" uniqueName="43" name="Réfléchir à un problème m'ennuie vite" queryTableFieldId="43" dataDxfId="50"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" uniqueName="44" name="Je me fais faire régulièrement des bilans de santé" queryTableFieldId="44" dataDxfId="49"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" uniqueName="45" name="J'agis selon l'inspiration du moment" queryTableFieldId="45" dataDxfId="48"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="Je suis quelqu'un de réfléchi" queryTableFieldId="46" dataDxfId="47"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" uniqueName="47" name="Je change de domicile" queryTableFieldId="47" dataDxfId="46"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" uniqueName="48" name="J'achète les choses &quot;sur un coup de tête&quot;" queryTableFieldId="48" dataDxfId="45"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" uniqueName="49" name="Je ne peux penser qu'à un problème à la fois" queryTableFieldId="49" dataDxfId="44"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" uniqueName="50" name="Je change de passe-temps" queryTableFieldId="50" dataDxfId="43"/>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" uniqueName="51" name="Je marche et bouge vite" queryTableFieldId="51" dataDxfId="42"/>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" uniqueName="52" name="Je résous les problèmes par tâtonnements" queryTableFieldId="52" dataDxfId="41"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" uniqueName="53" name="Je dépense ou paye à crédit plus que je ne gagne" queryTableFieldId="53" dataDxfId="40"/>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" uniqueName="54" name="Je parle vite" queryTableFieldId="54" dataDxfId="39"/>
-    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" uniqueName="55" name="Quand je réfléchis mes pensées s'égarent souvent" queryTableFieldId="55" dataDxfId="38"/>
-    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" uniqueName="56" name="Je m'intéresse plus au présent qu'à l'avenir" queryTableFieldId="56" dataDxfId="37"/>
-    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" uniqueName="57" name="Je me sens agité au spectacle ou lors de conférences" queryTableFieldId="57" dataDxfId="36"/>
-    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" uniqueName="58" name="J'aime les &quot;casses-têtes&quot;" queryTableFieldId="58" dataDxfId="35"/>
-    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" uniqueName="59" name="Je pense à l'avenir" queryTableFieldId="59" dataDxfId="34"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" uniqueName="60" name="Il m'est facile de me concentrer sur mes activités." queryTableFieldId="60" dataDxfId="33"/>
-    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" uniqueName="61" name="Il m'arrive fréquemment, lorsque je travaille, de me préoccuper d'autres choses." queryTableFieldId="61" dataDxfId="32"/>
-    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" uniqueName="62" name="Le temps semble toujours passer lentement." queryTableFieldId="62" dataDxfId="31"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" uniqueName="63" name="Je me retrouve souvent à l'écart, sans savoir quoi faire." queryTableFieldId="63" dataDxfId="30"/>
-    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" uniqueName="64" name="Je suis souvent pris au piège dans des situations où je dois faire des choses insignifiantes." queryTableFieldId="64" dataDxfId="29"/>
-    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" uniqueName="65" name="Le fait de devoir regarder les films familiaux ou les diapositives de voyage de quelqu'un m'ennuie énormément." queryTableFieldId="65" dataDxfId="28"/>
-    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" uniqueName="66" name="J'ai tout le temps des projets en tête, des choses à faire." queryTableFieldId="66" dataDxfId="27"/>
-    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" uniqueName="67" name="Je trouve qu'il est facile de se divertir." queryTableFieldId="67" dataDxfId="26"/>
-    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" uniqueName="68" name="Beaucoup de choses que j'ai à faire sont répétitives et monotones." queryTableFieldId="68" dataDxfId="25"/>
-    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" uniqueName="69" name="Il faut plus de stimulation pour me faire avancer que la plupart des gens." queryTableFieldId="69" dataDxfId="24"/>
-    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" uniqueName="70" name="Je prends plaisir à faire la plupart des choses que je fais." queryTableFieldId="70" dataDxfId="23"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" uniqueName="71" name="Je suis rarement enthousiasmé(e) par mon travail." queryTableFieldId="71" dataDxfId="22"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" uniqueName="72" name="Dans n'importe quelle situation, je peux généralement trouver quelque chose à faire ou à voir pour maintenir mon intérêt." queryTableFieldId="72" dataDxfId="21"/>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" uniqueName="73" name="La plupart du temps, je reste assis à ne rien faire." queryTableFieldId="73" dataDxfId="20"/>
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" uniqueName="74" name="Je suis doué pour attendre patiemment." queryTableFieldId="74" dataDxfId="19"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" uniqueName="75" name="Je me retrouve souvent avec rien à faire - du temps libre." queryTableFieldId="75" dataDxfId="18"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" uniqueName="76" name="Dans les situations où je dois attendre, comme dans une file d'attente, je deviens très agité." queryTableFieldId="76" dataDxfId="17"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" uniqueName="77" name="Je me réveille souvent avec une nouvelle idée." queryTableFieldId="77" dataDxfId="16"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" uniqueName="78" name="Il me serait très difficile de trouver un travail qui soit suffisamment passionnant." queryTableFieldId="78" dataDxfId="15"/>
-    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" uniqueName="79" name="J'aimerais faire des choses plus stimulantes dans la vie. " queryTableFieldId="79" dataDxfId="14"/>
-    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" uniqueName="80" name="J'ai l'impression de travailler en dessous de mes capacités la plupart du temps." queryTableFieldId="80" dataDxfId="13"/>
-    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" uniqueName="81" name="Beaucoup de gens diraient que je suis une personne créative ou imaginative." queryTableFieldId="81" dataDxfId="12"/>
-    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" uniqueName="82" name="J'ai tellement d'intérêts que je n'ai pas le temps de tout faire." queryTableFieldId="82" dataDxfId="11"/>
-    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" uniqueName="83" name="Parmi mes amis, je suis celui qui continue à faire quelque chose le plus longtemps." queryTableFieldId="83" dataDxfId="10"/>
-    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" uniqueName="84" name="Si je ne fais pas quelque-choses d'excitant, voire de dangereux, je me sens à moitié mort et terne." queryTableFieldId="84" dataDxfId="9"/>
-    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" uniqueName="85" name="Il faut beaucoup de changement et de variété pour que je sois vraiment heureux." queryTableFieldId="85" dataDxfId="8"/>
-    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" uniqueName="86" name="Il semble que les mêmes choses passent tout le temps à la télévision ou au cinéma ; ça devient vieux." queryTableFieldId="86" dataDxfId="7"/>
-    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" uniqueName="87" name="Quand j'étais jeune, j'étais souvent dans des situations monotones et fatigantes." queryTableFieldId="87" dataDxfId="6"/>
-    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0000-000058000000}" uniqueName="88" name="BPS" queryTableFieldId="88" dataDxfId="5">
+    <tableColumn id="93" xr3:uid="{D5424A79-DDE0-475A-B78F-7780FA0B57D5}" uniqueName="93" name="id" queryTableFieldId="93" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Je suis " queryTableFieldId="3" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Je suis _1" queryTableFieldId="4" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Je suis" queryTableFieldId="5" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Je suis _2" queryTableFieldId="6" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Je suis_3" queryTableFieldId="7" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Je suis_4" queryTableFieldId="8" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Je suis _5" queryTableFieldId="9" dataDxfId="83"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Je suis_6" queryTableFieldId="10" dataDxfId="82"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Je suis_7" queryTableFieldId="11" dataDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Je suis _8" queryTableFieldId="12" dataDxfId="80"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Je suis_9" queryTableFieldId="13" dataDxfId="79"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="Je suis_10" queryTableFieldId="14" dataDxfId="78"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="Je suis _11" queryTableFieldId="15" dataDxfId="77"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="Je suis _12" queryTableFieldId="16" dataDxfId="76"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="Je suis _13" queryTableFieldId="17" dataDxfId="75"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="Je suis _14" queryTableFieldId="18" dataDxfId="74"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="Je suis _15" queryTableFieldId="19" dataDxfId="73"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="20" name="Je suis _16" queryTableFieldId="20" dataDxfId="72"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="21" name="Je suis _17" queryTableFieldId="21" dataDxfId="71"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="22" name="Je suis_18" queryTableFieldId="22" dataDxfId="70"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="23" name="Je suis _19" queryTableFieldId="23" dataDxfId="69"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" uniqueName="24" name="Je suis_20" queryTableFieldId="24" dataDxfId="68"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" uniqueName="25" name="Je suis_21" queryTableFieldId="25" dataDxfId="67"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" uniqueName="26" name="Je prépare soigneusement les tâches à accomplir" queryTableFieldId="26" dataDxfId="66"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="27" name="Je fais les choses sans y penser" queryTableFieldId="27" dataDxfId="65"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="28" name="Je me décide rapidement" queryTableFieldId="28" dataDxfId="64"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="29" name="J'ai tendance à ne pas m'en faire" queryTableFieldId="29" dataDxfId="63"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" uniqueName="30" name="Je ne fais pas attention" queryTableFieldId="30" dataDxfId="62"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="31" name="J'ai des idées qui fusent" queryTableFieldId="31" dataDxfId="61"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="32" name="Je projette mes voyages longtemps à l'avance" queryTableFieldId="32" dataDxfId="60"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" uniqueName="33" name="Je suis maître de moi" queryTableFieldId="33" dataDxfId="59"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="34" name="Je me concentre facilement" queryTableFieldId="34" dataDxfId="58"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" uniqueName="35" name="Je mets de l'argent de côté régulièrement" queryTableFieldId="35" dataDxfId="57"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" uniqueName="36" name="J'ai la &quot;bougeotte&quot; aux spectacles ou aux conférences" queryTableFieldId="36" dataDxfId="56"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" uniqueName="37" name="Je réfléchis soigneusement" queryTableFieldId="37" dataDxfId="55"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" uniqueName="38" name="Je veille à ma sécurité d'emploi" queryTableFieldId="38" dataDxfId="54"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" uniqueName="39" name="Je dis les choses sans y penser" queryTableFieldId="39" dataDxfId="53"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="40" name="J'aime réfléchir à des problèmes complexes" queryTableFieldId="40" dataDxfId="52"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" uniqueName="41" name="Je change de travail" queryTableFieldId="41" dataDxfId="51"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="42" name="J'agis sur un &quot;coup de tête&quot;" queryTableFieldId="42" dataDxfId="50"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" uniqueName="43" name="Réfléchir à un problème m'ennuie vite" queryTableFieldId="43" dataDxfId="49"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" uniqueName="44" name="Je me fais faire régulièrement des bilans de santé" queryTableFieldId="44" dataDxfId="48"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" uniqueName="45" name="J'agis selon l'inspiration du moment" queryTableFieldId="45" dataDxfId="47"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="Je suis quelqu'un de réfléchi" queryTableFieldId="46" dataDxfId="46"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" uniqueName="47" name="Je change de domicile" queryTableFieldId="47" dataDxfId="45"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" uniqueName="48" name="J'achète les choses &quot;sur un coup de tête&quot;" queryTableFieldId="48" dataDxfId="44"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" uniqueName="49" name="Je ne peux penser qu'à un problème à la fois" queryTableFieldId="49" dataDxfId="43"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" uniqueName="50" name="Je change de passe-temps" queryTableFieldId="50" dataDxfId="42"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" uniqueName="51" name="Je marche et bouge vite" queryTableFieldId="51" dataDxfId="41"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" uniqueName="52" name="Je résous les problèmes par tâtonnements" queryTableFieldId="52" dataDxfId="40"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" uniqueName="53" name="Je dépense ou paye à crédit plus que je ne gagne" queryTableFieldId="53" dataDxfId="39"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" uniqueName="54" name="Je parle vite" queryTableFieldId="54" dataDxfId="38"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" uniqueName="55" name="Quand je réfléchis mes pensées s'égarent souvent" queryTableFieldId="55" dataDxfId="37"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" uniqueName="56" name="Je m'intéresse plus au présent qu'à l'avenir" queryTableFieldId="56" dataDxfId="36"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" uniqueName="57" name="Je me sens agité au spectacle ou lors de conférences" queryTableFieldId="57" dataDxfId="35"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" uniqueName="58" name="J'aime les &quot;casses-têtes&quot;" queryTableFieldId="58" dataDxfId="34"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" uniqueName="59" name="Je pense à l'avenir" queryTableFieldId="59" dataDxfId="33"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" uniqueName="60" name="Il m'est facile de me concentrer sur mes activités." queryTableFieldId="60" dataDxfId="32"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" uniqueName="61" name="Il m'arrive fréquemment, lorsque je travaille, de me préoccuper d'autres choses." queryTableFieldId="61" dataDxfId="31"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" uniqueName="62" name="Le temps semble toujours passer lentement." queryTableFieldId="62" dataDxfId="30"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" uniqueName="63" name="Je me retrouve souvent à l'écart, sans savoir quoi faire." queryTableFieldId="63" dataDxfId="29"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" uniqueName="64" name="Je suis souvent pris au piège dans des situations où je dois faire des choses insignifiantes." queryTableFieldId="64" dataDxfId="28"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" uniqueName="65" name="Le fait de devoir regarder les films familiaux ou les diapositives de voyage de quelqu'un m'ennuie énormément." queryTableFieldId="65" dataDxfId="27"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" uniqueName="66" name="J'ai tout le temps des projets en tête, des choses à faire." queryTableFieldId="66" dataDxfId="26"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" uniqueName="67" name="Je trouve qu'il est facile de se divertir." queryTableFieldId="67" dataDxfId="25"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" uniqueName="68" name="Beaucoup de choses que j'ai à faire sont répétitives et monotones." queryTableFieldId="68" dataDxfId="24"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" uniqueName="69" name="Il faut plus de stimulation pour me faire avancer que la plupart des gens." queryTableFieldId="69" dataDxfId="23"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" uniqueName="70" name="Je prends plaisir à faire la plupart des choses que je fais." queryTableFieldId="70" dataDxfId="22"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" uniqueName="71" name="Je suis rarement enthousiasmé(e) par mon travail." queryTableFieldId="71" dataDxfId="21"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" uniqueName="72" name="Dans n'importe quelle situation, je peux généralement trouver quelque chose à faire ou à voir pour maintenir mon intérêt." queryTableFieldId="72" dataDxfId="20"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" uniqueName="73" name="La plupart du temps, je reste assis à ne rien faire." queryTableFieldId="73" dataDxfId="19"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" uniqueName="74" name="Je suis doué pour attendre patiemment." queryTableFieldId="74" dataDxfId="18"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" uniqueName="75" name="Je me retrouve souvent avec rien à faire - du temps libre." queryTableFieldId="75" dataDxfId="17"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" uniqueName="76" name="Dans les situations où je dois attendre, comme dans une file d'attente, je deviens très agité." queryTableFieldId="76" dataDxfId="16"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" uniqueName="77" name="Je me réveille souvent avec une nouvelle idée." queryTableFieldId="77" dataDxfId="15"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" uniqueName="78" name="Il me serait très difficile de trouver un travail qui soit suffisamment passionnant." queryTableFieldId="78" dataDxfId="14"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" uniqueName="79" name="J'aimerais faire des choses plus stimulantes dans la vie. " queryTableFieldId="79" dataDxfId="13"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" uniqueName="80" name="J'ai l'impression de travailler en dessous de mes capacités la plupart du temps." queryTableFieldId="80" dataDxfId="12"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" uniqueName="81" name="Beaucoup de gens diraient que je suis une personne créative ou imaginative." queryTableFieldId="81" dataDxfId="11"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" uniqueName="82" name="J'ai tellement d'intérêts que je n'ai pas le temps de tout faire." queryTableFieldId="82" dataDxfId="10"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" uniqueName="83" name="Parmi mes amis, je suis celui qui continue à faire quelque chose le plus longtemps." queryTableFieldId="83" dataDxfId="9"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" uniqueName="84" name="Si je ne fais pas quelque-choses d'excitant, voire de dangereux, je me sens à moitié mort et terne." queryTableFieldId="84" dataDxfId="8"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" uniqueName="85" name="Il faut beaucoup de changement et de variété pour que je sois vraiment heureux." queryTableFieldId="85" dataDxfId="7"/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" uniqueName="86" name="Il semble que les mêmes choses passent tout le temps à la télévision ou au cinéma ; ça devient vieux." queryTableFieldId="86" dataDxfId="6"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" uniqueName="87" name="Quand j'étais jeune, j'étais souvent dans des situations monotones et fatigantes." queryTableFieldId="87" dataDxfId="5"/>
+    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0000-000058000000}" uniqueName="88" name="BPS" queryTableFieldId="88" dataDxfId="4">
       <calculatedColumnFormula>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0000-000059000000}" uniqueName="89" name="Non planning" queryTableFieldId="89" dataDxfId="4">
+    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0000-000059000000}" uniqueName="89" name="Non planning" queryTableFieldId="89" dataDxfId="3">
       <calculatedColumnFormula>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0000-00005A000000}" uniqueName="90" name="Impulsivité motrice" queryTableFieldId="90" dataDxfId="3">
+    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0000-00005A000000}" uniqueName="90" name="Impulsivité motrice" queryTableFieldId="90" dataDxfId="2">
       <calculatedColumnFormula>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="91" xr3:uid="{00000000-0010-0000-0000-00005B000000}" uniqueName="91" name="Impulsivité cognitive" queryTableFieldId="91" dataDxfId="2">
+    <tableColumn id="91" xr3:uid="{00000000-0010-0000-0000-00005B000000}" uniqueName="91" name="Impulsivité cognitive" queryTableFieldId="91" dataDxfId="1">
       <calculatedColumnFormula>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="92" xr3:uid="{00000000-0010-0000-0000-00005C000000}" uniqueName="92" name="somme impulsivité" queryTableFieldId="92" dataDxfId="1">
+    <tableColumn id="92" xr3:uid="{00000000-0010-0000-0000-00005C000000}" uniqueName="92" name="somme impulsivité" queryTableFieldId="92" dataDxfId="0">
       <calculatedColumnFormula>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1988,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CO38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7341,7 +7341,9 @@
       <c r="B21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="AA21" s="2" cm="1">
         <f t="array" ref="AA21">_xlfn.IFS(AA2="Rarement",0,AA2="Occasionnellement",1,AA2="Souvent",3,AA2="Presque toujours/Toujours",4)</f>
         <v>4</v>
@@ -7501,7 +7503,9 @@
       <c r="B22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="AA22" s="2" cm="1">
         <f t="array" ref="AA22">_xlfn.IFS(AA3="Rarement",0,AA3="Occasionnellement",1,AA3="Souvent",3,AA3="Presque toujours/Toujours",4)</f>
         <v>1</v>
@@ -7661,7 +7665,9 @@
       <c r="B23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="AA23" s="2" cm="1">
         <f t="array" ref="AA23">_xlfn.IFS(AA4="Rarement",0,AA4="Occasionnellement",1,AA4="Souvent",3,AA4="Presque toujours/Toujours",4)</f>
         <v>1</v>
@@ -7821,7 +7827,9 @@
       <c r="B24" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="AA24" s="2" cm="1">
         <f t="array" ref="AA24">_xlfn.IFS(AA5="Rarement",0,AA5="Occasionnellement",1,AA5="Souvent",3,AA5="Presque toujours/Toujours",4)</f>
         <v>3</v>
@@ -7981,7 +7989,9 @@
       <c r="B25" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="AA25" s="2" cm="1">
         <f t="array" ref="AA25">_xlfn.IFS(AA6="Rarement",0,AA6="Occasionnellement",1,AA6="Souvent",3,AA6="Presque toujours/Toujours",4)</f>
         <v>3</v>
@@ -8141,7 +8151,9 @@
       <c r="B26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="AA26" s="2" cm="1">
         <f t="array" ref="AA26">_xlfn.IFS(AA7="Rarement",0,AA7="Occasionnellement",1,AA7="Souvent",3,AA7="Presque toujours/Toujours",4)</f>
         <v>3</v>
@@ -8301,7 +8313,9 @@
       <c r="B27" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="AA27" s="2" cm="1">
         <f t="array" ref="AA27">_xlfn.IFS(AA8="Rarement",0,AA8="Occasionnellement",1,AA8="Souvent",3,AA8="Presque toujours/Toujours",4)</f>
         <v>3</v>
@@ -8461,7 +8475,9 @@
       <c r="B28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="AA28" s="2" cm="1">
         <f t="array" ref="AA28">_xlfn.IFS(AA9="Rarement",0,AA9="Occasionnellement",1,AA9="Souvent",3,AA9="Presque toujours/Toujours",4)</f>
         <v>3</v>
@@ -8621,7 +8637,9 @@
       <c r="B29" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="AA29" s="2" cm="1">
         <f t="array" ref="AA29">_xlfn.IFS(AA10="Rarement",0,AA10="Occasionnellement",1,AA10="Souvent",3,AA10="Presque toujours/Toujours",4)</f>
         <v>3</v>
@@ -8781,7 +8799,9 @@
       <c r="B30" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="AA30" s="2" cm="1">
         <f t="array" ref="AA30">_xlfn.IFS(AA11="Rarement",0,AA11="Occasionnellement",1,AA11="Souvent",3,AA11="Presque toujours/Toujours",4)</f>
         <v>3</v>
@@ -8941,7 +8961,9 @@
       <c r="B31" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="AA31" s="2" cm="1">
         <f t="array" ref="AA31">_xlfn.IFS(AA12="Rarement",0,AA12="Occasionnellement",1,AA12="Souvent",3,AA12="Presque toujours/Toujours",4)</f>
         <v>3</v>
@@ -9101,7 +9123,9 @@
       <c r="B32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="AA32" s="2" cm="1">
         <f t="array" ref="AA32">_xlfn.IFS(AA13="Rarement",0,AA13="Occasionnellement",1,AA13="Souvent",3,AA13="Presque toujours/Toujours",4)</f>
         <v>3</v>
@@ -9261,7 +9285,9 @@
       <c r="B33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="AA33" s="2" cm="1">
         <f t="array" ref="AA33">_xlfn.IFS(AA14="Rarement",0,AA14="Occasionnellement",1,AA14="Souvent",3,AA14="Presque toujours/Toujours",4)</f>
         <v>4</v>
@@ -9421,7 +9447,9 @@
       <c r="B34" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="AA34" s="2" cm="1">
         <f t="array" ref="AA34">_xlfn.IFS(AA15="Rarement",0,AA15="Occasionnellement",1,AA15="Souvent",3,AA15="Presque toujours/Toujours",4)</f>
         <v>4</v>
@@ -9581,7 +9609,9 @@
       <c r="B35" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="AA35" s="2" cm="1">
         <f t="array" ref="AA35">_xlfn.IFS(AA16="Rarement",0,AA16="Occasionnellement",1,AA16="Souvent",3,AA16="Presque toujours/Toujours",4)</f>
         <v>3</v>
@@ -9741,7 +9771,9 @@
       <c r="B36" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="AA36" s="2" cm="1">
         <f t="array" ref="AA36">_xlfn.IFS(AA17="Rarement",0,AA17="Occasionnellement",1,AA17="Souvent",3,AA17="Presque toujours/Toujours",4)</f>
         <v>3</v>
@@ -9901,7 +9933,9 @@
       <c r="B37" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="AA37" s="2" cm="1">
         <f t="array" ref="AA37">_xlfn.IFS(AA18="Rarement",0,AA18="Occasionnellement",1,AA18="Souvent",3,AA18="Presque toujours/Toujours",4)</f>
         <v>3</v>
@@ -10061,7 +10095,9 @@
       <c r="B38" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="AA38" s="2" cm="1">
         <f t="array" ref="AA38">_xlfn.IFS(AA19="Rarement",0,AA19="Occasionnellement",1,AA19="Souvent",3,AA19="Presque toujours/Toujours",4)</f>
         <v>4</v>

--- a/Questionnaires de personnalité0303 .xlsx
+++ b/Questionnaires de personnalité0303 .xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Documents\GitHub\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C7EFC2-6432-4044-97F9-6C7F004C9788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D1D2D2-90D5-4A5E-AB98-8215AFF3480C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="3040" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="2530" windowWidth="13700" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questionnaires de personnalité" sheetId="2" r:id="rId1"/>
     <sheet name="Questionnaires de personnalité " sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'Questionnaires de personnalité'!$A$1:$CJ$38</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'Questionnaires de personnalité'!$B$1:$CJ$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="192">
   <si>
     <t xml:space="preserve">Horodateur,"Nom d'utilisateur","Je suis ","Je suis ","Je suis","Je suis ","Je suis","Je suis","Je suis ","Je suis","Je suis","Je suis ","Je suis","Je suis","Je suis ","Je suis ","Je suis ","Je suis ","Je suis ","Je suis ","Je suis ","Je suis","Je suis ","Je suis","Je suis","Je prÃ©pare soigneusement les tÃ¢ches Ã  accomplir","Je fais les choses sans y penser","Je me dÃ©cide rapidement","J'ai tendance Ã  ne pas m'en faire","Je ne fais pas attention","J'ai des idÃ©es qui fusent","Je projette mes voyages longtemps Ã  l'avance","Je suis maÃ®tre de moi","Je me concentre facilement","Je mets de l'argent de cÃ´tÃ© rÃ©guliÃ¨rement","J'ai la ""bougeotte"" aux spectacles ou aux confÃ©rences","Je rÃ©flÃ©chis soigneusement","Je veille Ã  ma sÃ©curitÃ© d'emploi","Je dis les choses sans y penser","J'aime rÃ©flÃ©chir Ã  des problÃ¨mes complexes","Je change de travail","J'agis sur un ""coup de tÃªte""","RÃ©flÃ©chir Ã  un problÃ¨me m'ennuie vite","Je me fais faire rÃ©guliÃ¨rement des bilans de santÃ©","J'agis selon l'inspiration du moment","Je suis quelqu'un de rÃ©flÃ©chi","Je change de domicile","J'achÃ¨te les choses ""sur un coup de tÃªte""","Je ne peux penser qu'Ã  un problÃ¨me Ã  la fois","Je change de passe-temps","Je marche et bouge vite","Je rÃ©sous les problÃ¨mes par tÃ¢tonnements","Je dÃ©pense ou paye Ã  crÃ©dit plus que je ne gagne","Je parle vite","Quand je rÃ©flÃ©chis mes pensÃ©es s'Ã©garent souvent","Je m'intÃ©resse plus au prÃ©sent qu'Ã  l'avenir","Je me sens agitÃ© au spectacle ou lors de confÃ©rences","J'aime les ""casses-tÃªtes""","Je pense Ã  l'avenir","Il m'est facile de me concentrer sur mes activitÃ©s.","Il m'arrive frÃ©quemment, lorsque je travaille, de me prÃ©occuper d'autres choses.","Le temps semble toujours passer lentement.","Je me retrouve souvent Ã  l'Ã©cart, sans savoir quoi faire.","Je suis souvent pris au piÃ¨ge dans des situations oÃ¹ je dois faire des choses insignifiantes.","Le fait de devoir regarder les films familiaux ou les diapositives de voyage de quelqu'un m'ennuie Ã©normÃ©ment.","J'ai tout le temps des projets en tÃªte, des choses Ã  faire.","Je trouve qu'il est facile de se divertir.","Beaucoup de choses que j'ai Ã  faire sont rÃ©pÃ©titives et monotones.","Il faut plus de stimulation pour me faire avancer que la plupart des gens.","Je prends plaisir Ã  faire la plupart des choses que je fais.","Je suis rarement enthousiasmÃ©(e) par mon travail.","Dans n'importe quelle situation, je peux gÃ©nÃ©ralement trouver quelque chose Ã  faire ou Ã  voir pour maintenir mon intÃ©rÃªt.","La plupart du temps, je reste assis Ã  ne rien faire.","Je suis douÃ© pour attendre patiemment.","Je me retrouve souvent avec rien Ã  faire - du temps libre.","Dans les situations oÃ¹ je dois attendre, comme dans une file d'attente, je deviens trÃ¨s agitÃ©.","Je me rÃ©veille souvent avec une nouvelle idÃ©e.","Il me serait trÃ¨s difficile de trouver un travail qui soit suffisamment passionnant.","J'aimerais faire des choses plus stimulantes dans la vie. ","J'ai l'impression de travailler en dessous de mes capacitÃ©s la plupart du temps.","Beaucoup de gens diraient que je suis une personne crÃ©ative ou imaginative.","J'ai tellement d'intÃ©rÃªts que je n'ai pas le temps de tout faire.","Parmi mes amis, je suis celui qui continue Ã  faire quelque chose le plus longtemps.","Si je ne fais pas quelque-choses d'excitant, voire de dangereux, je me sens Ã  moitiÃ© mort et terne.","Il faut beaucoup de changement et de variÃ©tÃ© pour que je sois vraiment heureux.","Il semble que les mÃªmes choses passent tout le temps Ã  la tÃ©lÃ©vision ou au cinÃ©ma </t>
   </si>
@@ -579,13 +579,76 @@
   </si>
   <si>
     <t>sub-20EP</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>2022/03/03 11:11:32 AM UTC+1</t>
+  </si>
+  <si>
+    <t>huerta21450@gmail.com</t>
+  </si>
+  <si>
+    <t>2022/03/03 2:22:50 PM UTC+1</t>
+  </si>
+  <si>
+    <t>noemie.chalendard@hotmail.com</t>
+  </si>
+  <si>
+    <t>2022/03/03 6:20:16 PM UTC+1</t>
+  </si>
+  <si>
+    <t>shandy94@live.fr</t>
+  </si>
+  <si>
+    <t>2022/03/04 11:32:22 AM UTC+1</t>
+  </si>
+  <si>
+    <t>amelie.calvier@gmail.com</t>
+  </si>
+  <si>
+    <t>2022/03/10 4:53:51 PM UTC+1</t>
+  </si>
+  <si>
+    <t>benoit.kus@live.fr</t>
+  </si>
+  <si>
+    <t>2022/03/15 10:05:34 AM UTC+1</t>
+  </si>
+  <si>
+    <t>clospierre@gmail.com</t>
+  </si>
+  <si>
+    <t>Colonne2</t>
+  </si>
+  <si>
+    <t>Colonne3</t>
+  </si>
+  <si>
+    <t>sub-44TH</t>
+  </si>
+  <si>
+    <t>sub-37NC</t>
+  </si>
+  <si>
+    <t>sub-41SM</t>
+  </si>
+  <si>
+    <t>sub-30AC</t>
+  </si>
+  <si>
+    <t>sub-40BK</t>
+  </si>
+  <si>
+    <t>sub-02PC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,8 +783,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -919,8 +996,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1035,8 +1118,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1079,8 +1173,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -1089,8 +1184,13 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1120,6 +1220,7 @@
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -1134,8 +1235,32 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="97">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1453,10 +1578,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1477,11 +1598,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="94" unboundColumnsRight="5">
-    <queryTableFields count="93">
+  <queryTableRefresh nextId="97" unboundColumnsRight="8">
+    <queryTableFields count="95">
       <queryTableField id="1" name="Horodateur" tableColumnId="1"/>
       <queryTableField id="2" name="Nom d'utilisateur" tableColumnId="2"/>
-      <queryTableField id="93" dataBound="0" tableColumnId="93"/>
       <queryTableField id="3" name="Je suis " tableColumnId="3"/>
       <queryTableField id="4" name="Je suis _1" tableColumnId="4"/>
       <queryTableField id="5" name="Je suis" tableColumnId="5"/>
@@ -1572,118 +1692,123 @@
       <queryTableField id="90" dataBound="0" tableColumnId="90"/>
       <queryTableField id="91" dataBound="0" tableColumnId="91"/>
       <queryTableField id="92" dataBound="0" tableColumnId="92"/>
+      <queryTableField id="94" dataBound="0" tableColumnId="93"/>
+      <queryTableField id="95" dataBound="0" tableColumnId="94"/>
+      <queryTableField id="96" dataBound="0" tableColumnId="95"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Questionnaires_de_personnalité" displayName="Questionnaires_de_personnalité" ref="A1:CO38" tableType="queryTable" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
-  <autoFilter ref="A1:CO38" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="93">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Horodateur" queryTableFieldId="1" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Nom d'utilisateur" queryTableFieldId="2" dataDxfId="91"/>
-    <tableColumn id="93" xr3:uid="{D5424A79-DDE0-475A-B78F-7780FA0B57D5}" uniqueName="93" name="id" queryTableFieldId="93" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Je suis " queryTableFieldId="3" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Je suis _1" queryTableFieldId="4" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Je suis" queryTableFieldId="5" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Je suis _2" queryTableFieldId="6" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Je suis_3" queryTableFieldId="7" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Je suis_4" queryTableFieldId="8" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Je suis _5" queryTableFieldId="9" dataDxfId="83"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Je suis_6" queryTableFieldId="10" dataDxfId="82"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Je suis_7" queryTableFieldId="11" dataDxfId="81"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Je suis _8" queryTableFieldId="12" dataDxfId="80"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Je suis_9" queryTableFieldId="13" dataDxfId="79"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="Je suis_10" queryTableFieldId="14" dataDxfId="78"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="Je suis _11" queryTableFieldId="15" dataDxfId="77"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="Je suis _12" queryTableFieldId="16" dataDxfId="76"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="Je suis _13" queryTableFieldId="17" dataDxfId="75"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="Je suis _14" queryTableFieldId="18" dataDxfId="74"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="Je suis _15" queryTableFieldId="19" dataDxfId="73"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="20" name="Je suis _16" queryTableFieldId="20" dataDxfId="72"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="21" name="Je suis _17" queryTableFieldId="21" dataDxfId="71"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="22" name="Je suis_18" queryTableFieldId="22" dataDxfId="70"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="23" name="Je suis _19" queryTableFieldId="23" dataDxfId="69"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" uniqueName="24" name="Je suis_20" queryTableFieldId="24" dataDxfId="68"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" uniqueName="25" name="Je suis_21" queryTableFieldId="25" dataDxfId="67"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" uniqueName="26" name="Je prépare soigneusement les tâches à accomplir" queryTableFieldId="26" dataDxfId="66"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="27" name="Je fais les choses sans y penser" queryTableFieldId="27" dataDxfId="65"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="28" name="Je me décide rapidement" queryTableFieldId="28" dataDxfId="64"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="29" name="J'ai tendance à ne pas m'en faire" queryTableFieldId="29" dataDxfId="63"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" uniqueName="30" name="Je ne fais pas attention" queryTableFieldId="30" dataDxfId="62"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="31" name="J'ai des idées qui fusent" queryTableFieldId="31" dataDxfId="61"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="32" name="Je projette mes voyages longtemps à l'avance" queryTableFieldId="32" dataDxfId="60"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" uniqueName="33" name="Je suis maître de moi" queryTableFieldId="33" dataDxfId="59"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="34" name="Je me concentre facilement" queryTableFieldId="34" dataDxfId="58"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" uniqueName="35" name="Je mets de l'argent de côté régulièrement" queryTableFieldId="35" dataDxfId="57"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" uniqueName="36" name="J'ai la &quot;bougeotte&quot; aux spectacles ou aux conférences" queryTableFieldId="36" dataDxfId="56"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" uniqueName="37" name="Je réfléchis soigneusement" queryTableFieldId="37" dataDxfId="55"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" uniqueName="38" name="Je veille à ma sécurité d'emploi" queryTableFieldId="38" dataDxfId="54"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" uniqueName="39" name="Je dis les choses sans y penser" queryTableFieldId="39" dataDxfId="53"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="40" name="J'aime réfléchir à des problèmes complexes" queryTableFieldId="40" dataDxfId="52"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" uniqueName="41" name="Je change de travail" queryTableFieldId="41" dataDxfId="51"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="42" name="J'agis sur un &quot;coup de tête&quot;" queryTableFieldId="42" dataDxfId="50"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" uniqueName="43" name="Réfléchir à un problème m'ennuie vite" queryTableFieldId="43" dataDxfId="49"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" uniqueName="44" name="Je me fais faire régulièrement des bilans de santé" queryTableFieldId="44" dataDxfId="48"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" uniqueName="45" name="J'agis selon l'inspiration du moment" queryTableFieldId="45" dataDxfId="47"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="Je suis quelqu'un de réfléchi" queryTableFieldId="46" dataDxfId="46"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" uniqueName="47" name="Je change de domicile" queryTableFieldId="47" dataDxfId="45"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" uniqueName="48" name="J'achète les choses &quot;sur un coup de tête&quot;" queryTableFieldId="48" dataDxfId="44"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" uniqueName="49" name="Je ne peux penser qu'à un problème à la fois" queryTableFieldId="49" dataDxfId="43"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" uniqueName="50" name="Je change de passe-temps" queryTableFieldId="50" dataDxfId="42"/>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" uniqueName="51" name="Je marche et bouge vite" queryTableFieldId="51" dataDxfId="41"/>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" uniqueName="52" name="Je résous les problèmes par tâtonnements" queryTableFieldId="52" dataDxfId="40"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" uniqueName="53" name="Je dépense ou paye à crédit plus que je ne gagne" queryTableFieldId="53" dataDxfId="39"/>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" uniqueName="54" name="Je parle vite" queryTableFieldId="54" dataDxfId="38"/>
-    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" uniqueName="55" name="Quand je réfléchis mes pensées s'égarent souvent" queryTableFieldId="55" dataDxfId="37"/>
-    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" uniqueName="56" name="Je m'intéresse plus au présent qu'à l'avenir" queryTableFieldId="56" dataDxfId="36"/>
-    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" uniqueName="57" name="Je me sens agité au spectacle ou lors de conférences" queryTableFieldId="57" dataDxfId="35"/>
-    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" uniqueName="58" name="J'aime les &quot;casses-têtes&quot;" queryTableFieldId="58" dataDxfId="34"/>
-    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" uniqueName="59" name="Je pense à l'avenir" queryTableFieldId="59" dataDxfId="33"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" uniqueName="60" name="Il m'est facile de me concentrer sur mes activités." queryTableFieldId="60" dataDxfId="32"/>
-    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" uniqueName="61" name="Il m'arrive fréquemment, lorsque je travaille, de me préoccuper d'autres choses." queryTableFieldId="61" dataDxfId="31"/>
-    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" uniqueName="62" name="Le temps semble toujours passer lentement." queryTableFieldId="62" dataDxfId="30"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" uniqueName="63" name="Je me retrouve souvent à l'écart, sans savoir quoi faire." queryTableFieldId="63" dataDxfId="29"/>
-    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" uniqueName="64" name="Je suis souvent pris au piège dans des situations où je dois faire des choses insignifiantes." queryTableFieldId="64" dataDxfId="28"/>
-    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" uniqueName="65" name="Le fait de devoir regarder les films familiaux ou les diapositives de voyage de quelqu'un m'ennuie énormément." queryTableFieldId="65" dataDxfId="27"/>
-    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" uniqueName="66" name="J'ai tout le temps des projets en tête, des choses à faire." queryTableFieldId="66" dataDxfId="26"/>
-    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" uniqueName="67" name="Je trouve qu'il est facile de se divertir." queryTableFieldId="67" dataDxfId="25"/>
-    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" uniqueName="68" name="Beaucoup de choses que j'ai à faire sont répétitives et monotones." queryTableFieldId="68" dataDxfId="24"/>
-    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" uniqueName="69" name="Il faut plus de stimulation pour me faire avancer que la plupart des gens." queryTableFieldId="69" dataDxfId="23"/>
-    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" uniqueName="70" name="Je prends plaisir à faire la plupart des choses que je fais." queryTableFieldId="70" dataDxfId="22"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" uniqueName="71" name="Je suis rarement enthousiasmé(e) par mon travail." queryTableFieldId="71" dataDxfId="21"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" uniqueName="72" name="Dans n'importe quelle situation, je peux généralement trouver quelque chose à faire ou à voir pour maintenir mon intérêt." queryTableFieldId="72" dataDxfId="20"/>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" uniqueName="73" name="La plupart du temps, je reste assis à ne rien faire." queryTableFieldId="73" dataDxfId="19"/>
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" uniqueName="74" name="Je suis doué pour attendre patiemment." queryTableFieldId="74" dataDxfId="18"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" uniqueName="75" name="Je me retrouve souvent avec rien à faire - du temps libre." queryTableFieldId="75" dataDxfId="17"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" uniqueName="76" name="Dans les situations où je dois attendre, comme dans une file d'attente, je deviens très agité." queryTableFieldId="76" dataDxfId="16"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" uniqueName="77" name="Je me réveille souvent avec une nouvelle idée." queryTableFieldId="77" dataDxfId="15"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" uniqueName="78" name="Il me serait très difficile de trouver un travail qui soit suffisamment passionnant." queryTableFieldId="78" dataDxfId="14"/>
-    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" uniqueName="79" name="J'aimerais faire des choses plus stimulantes dans la vie. " queryTableFieldId="79" dataDxfId="13"/>
-    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" uniqueName="80" name="J'ai l'impression de travailler en dessous de mes capacités la plupart du temps." queryTableFieldId="80" dataDxfId="12"/>
-    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" uniqueName="81" name="Beaucoup de gens diraient que je suis une personne créative ou imaginative." queryTableFieldId="81" dataDxfId="11"/>
-    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" uniqueName="82" name="J'ai tellement d'intérêts que je n'ai pas le temps de tout faire." queryTableFieldId="82" dataDxfId="10"/>
-    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" uniqueName="83" name="Parmi mes amis, je suis celui qui continue à faire quelque chose le plus longtemps." queryTableFieldId="83" dataDxfId="9"/>
-    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" uniqueName="84" name="Si je ne fais pas quelque-choses d'excitant, voire de dangereux, je me sens à moitié mort et terne." queryTableFieldId="84" dataDxfId="8"/>
-    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" uniqueName="85" name="Il faut beaucoup de changement et de variété pour que je sois vraiment heureux." queryTableFieldId="85" dataDxfId="7"/>
-    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" uniqueName="86" name="Il semble que les mêmes choses passent tout le temps à la télévision ou au cinéma ; ça devient vieux." queryTableFieldId="86" dataDxfId="6"/>
-    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" uniqueName="87" name="Quand j'étais jeune, j'étais souvent dans des situations monotones et fatigantes." queryTableFieldId="87" dataDxfId="5"/>
-    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0000-000058000000}" uniqueName="88" name="BPS" queryTableFieldId="88" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Questionnaires_de_personnalité" displayName="Questionnaires_de_personnalité" ref="B1:CR52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+  <autoFilter ref="B1:CR52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="95">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Horodateur" queryTableFieldId="1" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Nom d'utilisateur" queryTableFieldId="2" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Je suis " queryTableFieldId="3" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Je suis _1" queryTableFieldId="4" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Je suis" queryTableFieldId="5" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Je suis _2" queryTableFieldId="6" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Je suis_3" queryTableFieldId="7" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Je suis_4" queryTableFieldId="8" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Je suis _5" queryTableFieldId="9" dataDxfId="86"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Je suis_6" queryTableFieldId="10" dataDxfId="85"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Je suis_7" queryTableFieldId="11" dataDxfId="84"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Je suis _8" queryTableFieldId="12" dataDxfId="83"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Je suis_9" queryTableFieldId="13" dataDxfId="82"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="Je suis_10" queryTableFieldId="14" dataDxfId="81"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="Je suis _11" queryTableFieldId="15" dataDxfId="80"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="Je suis _12" queryTableFieldId="16" dataDxfId="79"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="Je suis _13" queryTableFieldId="17" dataDxfId="78"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="Je suis _14" queryTableFieldId="18" dataDxfId="77"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="Je suis _15" queryTableFieldId="19" dataDxfId="76"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="20" name="Je suis _16" queryTableFieldId="20" dataDxfId="75"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="21" name="Je suis _17" queryTableFieldId="21" dataDxfId="74"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="22" name="Je suis_18" queryTableFieldId="22" dataDxfId="73"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="23" name="Je suis _19" queryTableFieldId="23" dataDxfId="72"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" uniqueName="24" name="Je suis_20" queryTableFieldId="24" dataDxfId="71"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" uniqueName="25" name="Je suis_21" queryTableFieldId="25" dataDxfId="70"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" uniqueName="26" name="Je prépare soigneusement les tâches à accomplir" queryTableFieldId="26" dataDxfId="69"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="27" name="Je fais les choses sans y penser" queryTableFieldId="27" dataDxfId="68"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="28" name="Je me décide rapidement" queryTableFieldId="28" dataDxfId="67"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="29" name="J'ai tendance à ne pas m'en faire" queryTableFieldId="29" dataDxfId="66"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" uniqueName="30" name="Je ne fais pas attention" queryTableFieldId="30" dataDxfId="65"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="31" name="J'ai des idées qui fusent" queryTableFieldId="31" dataDxfId="64"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="32" name="Je projette mes voyages longtemps à l'avance" queryTableFieldId="32" dataDxfId="63"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" uniqueName="33" name="Je suis maître de moi" queryTableFieldId="33" dataDxfId="62"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="34" name="Je me concentre facilement" queryTableFieldId="34" dataDxfId="61"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" uniqueName="35" name="Je mets de l'argent de côté régulièrement" queryTableFieldId="35" dataDxfId="60"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" uniqueName="36" name="J'ai la &quot;bougeotte&quot; aux spectacles ou aux conférences" queryTableFieldId="36" dataDxfId="59"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" uniqueName="37" name="Je réfléchis soigneusement" queryTableFieldId="37" dataDxfId="58"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" uniqueName="38" name="Je veille à ma sécurité d'emploi" queryTableFieldId="38" dataDxfId="57"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" uniqueName="39" name="Je dis les choses sans y penser" queryTableFieldId="39" dataDxfId="56"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="40" name="J'aime réfléchir à des problèmes complexes" queryTableFieldId="40" dataDxfId="55"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" uniqueName="41" name="Je change de travail" queryTableFieldId="41" dataDxfId="54"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="42" name="J'agis sur un &quot;coup de tête&quot;" queryTableFieldId="42" dataDxfId="53"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" uniqueName="43" name="Réfléchir à un problème m'ennuie vite" queryTableFieldId="43" dataDxfId="52"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" uniqueName="44" name="Je me fais faire régulièrement des bilans de santé" queryTableFieldId="44" dataDxfId="51"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" uniqueName="45" name="J'agis selon l'inspiration du moment" queryTableFieldId="45" dataDxfId="50"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="Je suis quelqu'un de réfléchi" queryTableFieldId="46" dataDxfId="49"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" uniqueName="47" name="Je change de domicile" queryTableFieldId="47" dataDxfId="48"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" uniqueName="48" name="J'achète les choses &quot;sur un coup de tête&quot;" queryTableFieldId="48" dataDxfId="47"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" uniqueName="49" name="Je ne peux penser qu'à un problème à la fois" queryTableFieldId="49" dataDxfId="46"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" uniqueName="50" name="Je change de passe-temps" queryTableFieldId="50" dataDxfId="45"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" uniqueName="51" name="Je marche et bouge vite" queryTableFieldId="51" dataDxfId="44"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" uniqueName="52" name="Je résous les problèmes par tâtonnements" queryTableFieldId="52" dataDxfId="43"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" uniqueName="53" name="Je dépense ou paye à crédit plus que je ne gagne" queryTableFieldId="53" dataDxfId="42"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" uniqueName="54" name="Je parle vite" queryTableFieldId="54" dataDxfId="41"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" uniqueName="55" name="Quand je réfléchis mes pensées s'égarent souvent" queryTableFieldId="55" dataDxfId="40"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" uniqueName="56" name="Je m'intéresse plus au présent qu'à l'avenir" queryTableFieldId="56" dataDxfId="39"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" uniqueName="57" name="Je me sens agité au spectacle ou lors de conférences" queryTableFieldId="57" dataDxfId="38"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" uniqueName="58" name="J'aime les &quot;casses-têtes&quot;" queryTableFieldId="58" dataDxfId="37"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" uniqueName="59" name="Je pense à l'avenir" queryTableFieldId="59" dataDxfId="36"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" uniqueName="60" name="Il m'est facile de me concentrer sur mes activités." queryTableFieldId="60" dataDxfId="35"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" uniqueName="61" name="Il m'arrive fréquemment, lorsque je travaille, de me préoccuper d'autres choses." queryTableFieldId="61" dataDxfId="34"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" uniqueName="62" name="Le temps semble toujours passer lentement." queryTableFieldId="62" dataDxfId="33"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" uniqueName="63" name="Je me retrouve souvent à l'écart, sans savoir quoi faire." queryTableFieldId="63" dataDxfId="32"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" uniqueName="64" name="Je suis souvent pris au piège dans des situations où je dois faire des choses insignifiantes." queryTableFieldId="64" dataDxfId="31"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" uniqueName="65" name="Le fait de devoir regarder les films familiaux ou les diapositives de voyage de quelqu'un m'ennuie énormément." queryTableFieldId="65" dataDxfId="30"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" uniqueName="66" name="J'ai tout le temps des projets en tête, des choses à faire." queryTableFieldId="66" dataDxfId="29"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" uniqueName="67" name="Je trouve qu'il est facile de se divertir." queryTableFieldId="67" dataDxfId="28"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" uniqueName="68" name="Beaucoup de choses que j'ai à faire sont répétitives et monotones." queryTableFieldId="68" dataDxfId="27"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" uniqueName="69" name="Il faut plus de stimulation pour me faire avancer que la plupart des gens." queryTableFieldId="69" dataDxfId="26"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" uniqueName="70" name="Je prends plaisir à faire la plupart des choses que je fais." queryTableFieldId="70" dataDxfId="25"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" uniqueName="71" name="Je suis rarement enthousiasmé(e) par mon travail." queryTableFieldId="71" dataDxfId="24"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" uniqueName="72" name="Dans n'importe quelle situation, je peux généralement trouver quelque chose à faire ou à voir pour maintenir mon intérêt." queryTableFieldId="72" dataDxfId="23"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" uniqueName="73" name="La plupart du temps, je reste assis à ne rien faire." queryTableFieldId="73" dataDxfId="22"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" uniqueName="74" name="Je suis doué pour attendre patiemment." queryTableFieldId="74" dataDxfId="21"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" uniqueName="75" name="Je me retrouve souvent avec rien à faire - du temps libre." queryTableFieldId="75" dataDxfId="20"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" uniqueName="76" name="Dans les situations où je dois attendre, comme dans une file d'attente, je deviens très agité." queryTableFieldId="76" dataDxfId="19"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" uniqueName="77" name="Je me réveille souvent avec une nouvelle idée." queryTableFieldId="77" dataDxfId="18"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" uniqueName="78" name="Il me serait très difficile de trouver un travail qui soit suffisamment passionnant." queryTableFieldId="78" dataDxfId="17"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0000-00004F000000}" uniqueName="79" name="J'aimerais faire des choses plus stimulantes dans la vie. " queryTableFieldId="79" dataDxfId="16"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" uniqueName="80" name="J'ai l'impression de travailler en dessous de mes capacités la plupart du temps." queryTableFieldId="80" dataDxfId="15"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" uniqueName="81" name="Beaucoup de gens diraient que je suis une personne créative ou imaginative." queryTableFieldId="81" dataDxfId="14"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" uniqueName="82" name="J'ai tellement d'intérêts que je n'ai pas le temps de tout faire." queryTableFieldId="82" dataDxfId="13"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0000-000053000000}" uniqueName="83" name="Parmi mes amis, je suis celui qui continue à faire quelque chose le plus longtemps." queryTableFieldId="83" dataDxfId="12"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" uniqueName="84" name="Si je ne fais pas quelque-choses d'excitant, voire de dangereux, je me sens à moitié mort et terne." queryTableFieldId="84" dataDxfId="11"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0000-000055000000}" uniqueName="85" name="Il faut beaucoup de changement et de variété pour que je sois vraiment heureux." queryTableFieldId="85" dataDxfId="10"/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0000-000056000000}" uniqueName="86" name="Il semble que les mêmes choses passent tout le temps à la télévision ou au cinéma ; ça devient vieux." queryTableFieldId="86" dataDxfId="9"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" uniqueName="87" name="Quand j'étais jeune, j'étais souvent dans des situations monotones et fatigantes." queryTableFieldId="87" dataDxfId="8"/>
+    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0000-000058000000}" uniqueName="88" name="BPS" queryTableFieldId="88" dataDxfId="7">
       <calculatedColumnFormula>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0000-000059000000}" uniqueName="89" name="Non planning" queryTableFieldId="89" dataDxfId="3">
+    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0000-000059000000}" uniqueName="89" name="Non planning" queryTableFieldId="89" dataDxfId="6">
       <calculatedColumnFormula>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0000-00005A000000}" uniqueName="90" name="Impulsivité motrice" queryTableFieldId="90" dataDxfId="2">
+    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0000-00005A000000}" uniqueName="90" name="Impulsivité motrice" queryTableFieldId="90" dataDxfId="5">
       <calculatedColumnFormula>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="91" xr3:uid="{00000000-0010-0000-0000-00005B000000}" uniqueName="91" name="Impulsivité cognitive" queryTableFieldId="91" dataDxfId="1">
+    <tableColumn id="91" xr3:uid="{00000000-0010-0000-0000-00005B000000}" uniqueName="91" name="Impulsivité cognitive" queryTableFieldId="91" dataDxfId="4">
       <calculatedColumnFormula>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="92" xr3:uid="{00000000-0010-0000-0000-00005C000000}" uniqueName="92" name="somme impulsivité" queryTableFieldId="92" dataDxfId="0">
+    <tableColumn id="92" xr3:uid="{00000000-0010-0000-0000-00005C000000}" uniqueName="92" name="somme impulsivité" queryTableFieldId="92" dataDxfId="3">
       <calculatedColumnFormula>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="93" xr3:uid="{2F82E8B1-89AE-40BB-B412-1D114BE267B1}" uniqueName="93" name="Colonne1" queryTableFieldId="94" dataDxfId="2"/>
+    <tableColumn id="94" xr3:uid="{5934B1C8-DF26-427C-8388-32F6FFC4D3BE}" uniqueName="94" name="Colonne2" queryTableFieldId="95" dataDxfId="1"/>
+    <tableColumn id="95" xr3:uid="{33431D5C-9845-484F-8C64-70CBF723901E}" uniqueName="95" name="Colonne3" queryTableFieldId="96" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1986,17 +2111,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CO38"/>
+  <dimension ref="A1:CR52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:Z19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CP20" sqref="CP20:CP25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
@@ -2046,18 +2171,20 @@
     <col min="59" max="59" width="23.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="23.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="88" width="5.6328125" style="1" customWidth="1"/>
-    <col min="89" max="16384" width="10.90625" style="1"/>
+    <col min="89" max="92" width="10.90625" style="1"/>
+    <col min="93" max="93" width="10.90625" style="9"/>
+    <col min="94" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -2326,19 +2453,28 @@
       <c r="CN1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CO1" s="9" t="s">
         <v>151</v>
       </c>
+      <c r="CP1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -2600,17 +2736,22 @@
         <v>120</v>
       </c>
       <c r="CN2" s="2"/>
-      <c r="CO2" s="2"/>
+      <c r="CO2" s="7"/>
+      <c r="CP2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="CQ2" s="2"/>
+      <c r="CR2" s="2"/>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="D3" s="1">
         <v>7</v>
@@ -2872,17 +3013,22 @@
         <v>123</v>
       </c>
       <c r="CN3" s="2"/>
-      <c r="CO3" s="2"/>
+      <c r="CO3" s="7"/>
+      <c r="CP3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="CQ3" s="2"/>
+      <c r="CR3" s="2"/>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -3144,17 +3290,22 @@
         <v>126</v>
       </c>
       <c r="CN4" s="2"/>
-      <c r="CO4" s="2"/>
+      <c r="CO4" s="7"/>
+      <c r="CP4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -3416,17 +3567,22 @@
         <v>139</v>
       </c>
       <c r="CN5" s="2"/>
-      <c r="CO5" s="2"/>
+      <c r="CO5" s="7"/>
+      <c r="CP5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CQ5" s="2"/>
+      <c r="CR5" s="2"/>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -3688,17 +3844,22 @@
         <v>91</v>
       </c>
       <c r="CN6" s="2"/>
-      <c r="CO6" s="2"/>
+      <c r="CO6" s="7"/>
+      <c r="CP6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CQ6" s="2"/>
+      <c r="CR6" s="2"/>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
@@ -3960,17 +4121,22 @@
         <v>129</v>
       </c>
       <c r="CN7" s="2"/>
-      <c r="CO7" s="2"/>
+      <c r="CO7" s="7"/>
+      <c r="CP7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CQ7" s="2"/>
+      <c r="CR7" s="2"/>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -4232,17 +4398,22 @@
         <v>112</v>
       </c>
       <c r="CN8" s="2"/>
-      <c r="CO8" s="2"/>
+      <c r="CO8" s="7"/>
+      <c r="CP8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="CQ8" s="2"/>
+      <c r="CR8" s="2"/>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
@@ -4504,17 +4675,22 @@
         <v>113</v>
       </c>
       <c r="CN9" s="2"/>
-      <c r="CO9" s="2"/>
+      <c r="CO9" s="7"/>
+      <c r="CP9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ9" s="2"/>
+      <c r="CR9" s="2"/>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
@@ -4776,17 +4952,22 @@
         <v>113</v>
       </c>
       <c r="CN10" s="2"/>
-      <c r="CO10" s="2"/>
+      <c r="CO10" s="7"/>
+      <c r="CP10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="CQ10" s="2"/>
+      <c r="CR10" s="2"/>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
@@ -5048,17 +5229,22 @@
         <v>77</v>
       </c>
       <c r="CN11" s="2"/>
-      <c r="CO11" s="2"/>
+      <c r="CO11" s="7"/>
+      <c r="CP11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="CQ11" s="2"/>
+      <c r="CR11" s="2"/>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -5320,17 +5506,22 @@
         <v>93</v>
       </c>
       <c r="CN12" s="2"/>
-      <c r="CO12" s="2"/>
+      <c r="CO12" s="7"/>
+      <c r="CP12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="CQ12" s="2"/>
+      <c r="CR12" s="2"/>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>
@@ -5592,17 +5783,22 @@
         <v>137</v>
       </c>
       <c r="CN13" s="2"/>
-      <c r="CO13" s="2"/>
+      <c r="CO13" s="7"/>
+      <c r="CP13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="CQ13" s="2"/>
+      <c r="CR13" s="2"/>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -5864,17 +6060,22 @@
         <v>92</v>
       </c>
       <c r="CN14" s="2"/>
-      <c r="CO14" s="2"/>
+      <c r="CO14" s="7"/>
+      <c r="CP14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ14" s="2"/>
+      <c r="CR14" s="2"/>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -6136,17 +6337,22 @@
         <v>119</v>
       </c>
       <c r="CN15" s="2"/>
-      <c r="CO15" s="2"/>
+      <c r="CO15" s="7"/>
+      <c r="CP15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="CQ15" s="2"/>
+      <c r="CR15" s="2"/>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -6408,17 +6614,22 @@
         <v>116</v>
       </c>
       <c r="CN16" s="2"/>
-      <c r="CO16" s="2"/>
+      <c r="CO16" s="7"/>
+      <c r="CP16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="CQ16" s="2"/>
+      <c r="CR16" s="2"/>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
@@ -6680,17 +6891,22 @@
         <v>104</v>
       </c>
       <c r="CN17" s="2"/>
-      <c r="CO17" s="2"/>
+      <c r="CO17" s="7"/>
+      <c r="CP17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="CQ17" s="2"/>
+      <c r="CR17" s="2"/>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -6952,17 +7168,22 @@
         <v>96</v>
       </c>
       <c r="CN18" s="2"/>
-      <c r="CO18" s="2"/>
+      <c r="CO18" s="7"/>
+      <c r="CP18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="CQ18" s="2"/>
+      <c r="CR18" s="2"/>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:96" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="D19" s="1">
         <v>8</v>
@@ -7224,2852 +7445,3388 @@
         <v>112</v>
       </c>
       <c r="CN19" s="2"/>
-      <c r="CO19" s="2"/>
+      <c r="CO19" s="7"/>
+      <c r="CP19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CQ19" s="2"/>
+      <c r="CR19" s="2"/>
     </row>
-    <row r="20" spans="1:93" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="AA20" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="5">
-        <v>2</v>
-      </c>
-      <c r="AC20" s="5">
-        <v>3</v>
-      </c>
-      <c r="AD20" s="5">
-        <v>4</v>
-      </c>
-      <c r="AE20" s="5">
-        <v>5</v>
-      </c>
-      <c r="AF20" s="5">
-        <v>6</v>
-      </c>
-      <c r="AG20" s="3">
+    <row r="20" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>9</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>8</v>
+      </c>
+      <c r="U20">
+        <v>9</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>5</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <v>9</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI20">
+        <v>5</v>
+      </c>
+      <c r="BJ20">
         <v>7</v>
       </c>
-      <c r="AH20" s="3">
+      <c r="BK20">
+        <v>1</v>
+      </c>
+      <c r="BL20">
+        <v>4</v>
+      </c>
+      <c r="BM20">
+        <v>6</v>
+      </c>
+      <c r="BN20">
+        <v>2</v>
+      </c>
+      <c r="BO20">
+        <v>7</v>
+      </c>
+      <c r="BP20">
+        <v>7</v>
+      </c>
+      <c r="BQ20">
+        <v>1</v>
+      </c>
+      <c r="BR20">
+        <v>5</v>
+      </c>
+      <c r="BS20">
+        <v>4</v>
+      </c>
+      <c r="BT20">
+        <v>5</v>
+      </c>
+      <c r="BU20">
+        <v>5</v>
+      </c>
+      <c r="BV20">
+        <v>1</v>
+      </c>
+      <c r="BW20">
+        <v>2</v>
+      </c>
+      <c r="BX20">
+        <v>1</v>
+      </c>
+      <c r="BY20">
+        <v>6</v>
+      </c>
+      <c r="BZ20">
+        <v>6</v>
+      </c>
+      <c r="CA20">
+        <v>2</v>
+      </c>
+      <c r="CB20">
+        <v>7</v>
+      </c>
+      <c r="CC20">
+        <v>6</v>
+      </c>
+      <c r="CD20">
+        <v>7</v>
+      </c>
+      <c r="CE20">
+        <v>7</v>
+      </c>
+      <c r="CF20">
+        <v>7</v>
+      </c>
+      <c r="CG20">
+        <v>7</v>
+      </c>
+      <c r="CH20">
+        <v>6</v>
+      </c>
+      <c r="CI20">
+        <v>7</v>
+      </c>
+      <c r="CJ20">
+        <v>1</v>
+      </c>
+      <c r="CK20" s="2">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>132</v>
+      </c>
+      <c r="CL20" s="2"/>
+      <c r="CM20" s="2"/>
+      <c r="CN20" s="2"/>
+      <c r="CO20" s="7"/>
+      <c r="CP20" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="CQ20" s="2"/>
+      <c r="CR20" s="2"/>
+    </row>
+    <row r="21" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
         <v>8</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>5</v>
+      </c>
+      <c r="X21">
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <v>2</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI21">
+        <v>7</v>
+      </c>
+      <c r="BJ21">
+        <v>4</v>
+      </c>
+      <c r="BK21">
+        <v>1</v>
+      </c>
+      <c r="BL21">
+        <v>2</v>
+      </c>
+      <c r="BM21">
+        <v>1</v>
+      </c>
+      <c r="BN21">
+        <v>1</v>
+      </c>
+      <c r="BO21">
+        <v>6</v>
+      </c>
+      <c r="BP21">
+        <v>6</v>
+      </c>
+      <c r="BQ21">
+        <v>1</v>
+      </c>
+      <c r="BR21">
+        <v>1</v>
+      </c>
+      <c r="BS21">
+        <v>7</v>
+      </c>
+      <c r="BT21">
+        <v>1</v>
+      </c>
+      <c r="BU21">
+        <v>6</v>
+      </c>
+      <c r="BV21">
+        <v>1</v>
+      </c>
+      <c r="BW21">
+        <v>2</v>
+      </c>
+      <c r="BX21">
+        <v>1</v>
+      </c>
+      <c r="BY21">
+        <v>2</v>
+      </c>
+      <c r="BZ21">
+        <v>5</v>
+      </c>
+      <c r="CA21">
+        <v>1</v>
+      </c>
+      <c r="CB21">
+        <v>1</v>
+      </c>
+      <c r="CC21">
+        <v>1</v>
+      </c>
+      <c r="CD21">
+        <v>6</v>
+      </c>
+      <c r="CE21">
+        <v>7</v>
+      </c>
+      <c r="CF21">
+        <v>6</v>
+      </c>
+      <c r="CG21">
+        <v>1</v>
+      </c>
+      <c r="CH21">
+        <v>1</v>
+      </c>
+      <c r="CI21">
+        <v>5</v>
+      </c>
+      <c r="CJ21">
+        <v>1</v>
+      </c>
+      <c r="CK21" s="2">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>85</v>
+      </c>
+      <c r="CL21" s="2"/>
+      <c r="CM21" s="2"/>
+      <c r="CN21" s="2"/>
+      <c r="CO21" s="7"/>
+      <c r="CP21" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="CQ21" s="2"/>
+      <c r="CR21" s="2"/>
+    </row>
+    <row r="22" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
         <v>9</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>5</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI22">
+        <v>6</v>
+      </c>
+      <c r="BJ22">
+        <v>5</v>
+      </c>
+      <c r="BK22">
+        <v>1</v>
+      </c>
+      <c r="BL22">
+        <v>1</v>
+      </c>
+      <c r="BM22">
+        <v>7</v>
+      </c>
+      <c r="BN22">
+        <v>1</v>
+      </c>
+      <c r="BO22">
+        <v>7</v>
+      </c>
+      <c r="BP22">
+        <v>7</v>
+      </c>
+      <c r="BQ22">
+        <v>5</v>
+      </c>
+      <c r="BR22">
+        <v>1</v>
+      </c>
+      <c r="BS22">
+        <v>7</v>
+      </c>
+      <c r="BT22">
+        <v>1</v>
+      </c>
+      <c r="BU22">
+        <v>6</v>
+      </c>
+      <c r="BV22">
+        <v>2</v>
+      </c>
+      <c r="BW22">
+        <v>4</v>
+      </c>
+      <c r="BX22">
+        <v>1</v>
+      </c>
+      <c r="BY22">
+        <v>1</v>
+      </c>
+      <c r="BZ22">
+        <v>4</v>
+      </c>
+      <c r="CA22">
+        <v>1</v>
+      </c>
+      <c r="CB22">
+        <v>7</v>
+      </c>
+      <c r="CC22">
+        <v>4</v>
+      </c>
+      <c r="CD22">
+        <v>6</v>
+      </c>
+      <c r="CE22">
+        <v>6</v>
+      </c>
+      <c r="CF22">
+        <v>5</v>
+      </c>
+      <c r="CG22">
+        <v>1</v>
+      </c>
+      <c r="CH22">
+        <v>4</v>
+      </c>
+      <c r="CI22">
+        <v>2</v>
+      </c>
+      <c r="CJ22">
+        <v>1</v>
+      </c>
+      <c r="CK22" s="2">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>104</v>
+      </c>
+      <c r="CL22" s="2"/>
+      <c r="CM22" s="2"/>
+      <c r="CN22" s="2"/>
+      <c r="CO22" s="7"/>
+      <c r="CP22" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="CQ22" s="2"/>
+      <c r="CR22" s="2"/>
+    </row>
+    <row r="23" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
         <v>10</v>
       </c>
-      <c r="AK20" s="3">
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>7</v>
+      </c>
+      <c r="R23">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <v>9</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI23">
+        <v>7</v>
+      </c>
+      <c r="BJ23">
+        <v>2</v>
+      </c>
+      <c r="BK23">
+        <v>1</v>
+      </c>
+      <c r="BL23">
+        <v>1</v>
+      </c>
+      <c r="BM23">
+        <v>1</v>
+      </c>
+      <c r="BN23">
+        <v>1</v>
+      </c>
+      <c r="BO23">
+        <v>7</v>
+      </c>
+      <c r="BP23">
+        <v>4</v>
+      </c>
+      <c r="BQ23">
+        <v>2</v>
+      </c>
+      <c r="BR23">
+        <v>1</v>
+      </c>
+      <c r="BS23">
+        <v>7</v>
+      </c>
+      <c r="BT23">
+        <v>1</v>
+      </c>
+      <c r="BU23">
+        <v>7</v>
+      </c>
+      <c r="BV23">
+        <v>1</v>
+      </c>
+      <c r="BW23">
+        <v>1</v>
+      </c>
+      <c r="BX23">
+        <v>1</v>
+      </c>
+      <c r="BY23">
+        <v>3</v>
+      </c>
+      <c r="BZ23">
+        <v>7</v>
+      </c>
+      <c r="CA23">
+        <v>5</v>
+      </c>
+      <c r="CB23">
+        <v>2</v>
+      </c>
+      <c r="CC23">
+        <v>2</v>
+      </c>
+      <c r="CD23">
+        <v>7</v>
+      </c>
+      <c r="CE23">
+        <v>6</v>
+      </c>
+      <c r="CF23">
+        <v>7</v>
+      </c>
+      <c r="CG23">
+        <v>2</v>
+      </c>
+      <c r="CH23">
+        <v>7</v>
+      </c>
+      <c r="CI23">
+        <v>1</v>
+      </c>
+      <c r="CJ23">
+        <v>1</v>
+      </c>
+      <c r="CK23" s="2">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>95</v>
+      </c>
+      <c r="CL23" s="2"/>
+      <c r="CM23" s="2"/>
+      <c r="CN23" s="2"/>
+      <c r="CO23" s="7"/>
+      <c r="CP23" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="CQ23" s="2"/>
+      <c r="CR23" s="2"/>
+    </row>
+    <row r="24" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>8</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+      <c r="R24">
+        <v>9</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <v>4</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>112</v>
+      </c>
+      <c r="BI24">
+        <v>4</v>
+      </c>
+      <c r="BJ24">
+        <v>4</v>
+      </c>
+      <c r="BK24">
+        <v>2</v>
+      </c>
+      <c r="BL24">
+        <v>1</v>
+      </c>
+      <c r="BM24">
+        <v>2</v>
+      </c>
+      <c r="BN24">
+        <v>7</v>
+      </c>
+      <c r="BO24">
+        <v>6</v>
+      </c>
+      <c r="BP24">
+        <v>6</v>
+      </c>
+      <c r="BQ24">
+        <v>2</v>
+      </c>
+      <c r="BR24">
+        <v>1</v>
+      </c>
+      <c r="BS24">
+        <v>6</v>
+      </c>
+      <c r="BT24">
+        <v>2</v>
+      </c>
+      <c r="BU24">
+        <v>5</v>
+      </c>
+      <c r="BV24">
+        <v>2</v>
+      </c>
+      <c r="BW24">
+        <v>6</v>
+      </c>
+      <c r="BX24">
+        <v>1</v>
+      </c>
+      <c r="BY24">
+        <v>2</v>
+      </c>
+      <c r="BZ24">
+        <v>3</v>
+      </c>
+      <c r="CA24">
+        <v>6</v>
+      </c>
+      <c r="CB24">
+        <v>7</v>
+      </c>
+      <c r="CC24">
+        <v>3</v>
+      </c>
+      <c r="CD24">
+        <v>6</v>
+      </c>
+      <c r="CE24">
+        <v>4</v>
+      </c>
+      <c r="CF24">
+        <v>6</v>
+      </c>
+      <c r="CG24">
+        <v>1</v>
+      </c>
+      <c r="CH24">
+        <v>3</v>
+      </c>
+      <c r="CI24">
+        <v>3</v>
+      </c>
+      <c r="CJ24">
+        <v>3</v>
+      </c>
+      <c r="CK24" s="2">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>104</v>
+      </c>
+      <c r="CL24" s="2"/>
+      <c r="CM24" s="2"/>
+      <c r="CN24" s="2"/>
+      <c r="CO24" s="7"/>
+      <c r="CP24" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="CQ24" s="2"/>
+      <c r="CR24" s="2"/>
+    </row>
+    <row r="25" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>7</v>
+      </c>
+      <c r="R25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>6</v>
+      </c>
+      <c r="T25">
+        <v>8</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>5</v>
+      </c>
+      <c r="W25">
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI25">
+        <v>6</v>
+      </c>
+      <c r="BJ25">
+        <v>5</v>
+      </c>
+      <c r="BK25">
+        <v>1</v>
+      </c>
+      <c r="BL25">
+        <v>2</v>
+      </c>
+      <c r="BM25">
+        <v>2</v>
+      </c>
+      <c r="BN25">
+        <v>5</v>
+      </c>
+      <c r="BO25">
+        <v>3</v>
+      </c>
+      <c r="BP25">
+        <v>6</v>
+      </c>
+      <c r="BQ25">
+        <v>2</v>
+      </c>
+      <c r="BR25">
+        <v>1</v>
+      </c>
+      <c r="BS25">
+        <v>5</v>
+      </c>
+      <c r="BT25">
+        <v>2</v>
+      </c>
+      <c r="BU25">
+        <v>6</v>
+      </c>
+      <c r="BV25">
+        <v>2</v>
+      </c>
+      <c r="BW25">
+        <v>5</v>
+      </c>
+      <c r="BX25">
+        <v>2</v>
+      </c>
+      <c r="BY25">
+        <v>5</v>
+      </c>
+      <c r="BZ25">
+        <v>5</v>
+      </c>
+      <c r="CA25">
+        <v>4</v>
+      </c>
+      <c r="CB25">
+        <v>1</v>
+      </c>
+      <c r="CC25">
+        <v>2</v>
+      </c>
+      <c r="CD25">
+        <v>3</v>
+      </c>
+      <c r="CE25">
+        <v>7</v>
+      </c>
+      <c r="CF25">
+        <v>5</v>
+      </c>
+      <c r="CG25">
+        <v>2</v>
+      </c>
+      <c r="CH25">
+        <v>5</v>
+      </c>
+      <c r="CI25">
+        <v>3</v>
+      </c>
+      <c r="CJ25">
+        <v>6</v>
+      </c>
+      <c r="CK25" s="2">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>103</v>
+      </c>
+      <c r="CL25" s="2"/>
+      <c r="CM25" s="2"/>
+      <c r="CN25" s="2"/>
+      <c r="CO25" s="7"/>
+      <c r="CP25" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="CQ25" s="2"/>
+      <c r="CR25" s="2"/>
+    </row>
+    <row r="26" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="CK26" s="2"/>
+      <c r="CL26" s="2"/>
+      <c r="CM26" s="2"/>
+      <c r="CN26" s="2"/>
+      <c r="CO26" s="7"/>
+      <c r="CP26" s="2"/>
+      <c r="CQ26" s="2"/>
+      <c r="CR26" s="2"/>
+    </row>
+    <row r="27" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="CK27" s="2"/>
+      <c r="CL27" s="2"/>
+      <c r="CM27" s="2"/>
+      <c r="CN27" s="2"/>
+      <c r="CO27" s="7"/>
+      <c r="CP27" s="2"/>
+      <c r="CQ27" s="2"/>
+      <c r="CR27" s="2"/>
+    </row>
+    <row r="28" spans="1:96" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="AA28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>4</v>
+      </c>
+      <c r="AE28" s="5">
+        <v>5</v>
+      </c>
+      <c r="AF28" s="5">
+        <v>6</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>7</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>8</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>9</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK28" s="3">
         <v>11</v>
       </c>
-      <c r="AL20" s="3">
+      <c r="AL28" s="3">
         <v>12</v>
       </c>
-      <c r="AM20" s="3">
+      <c r="AM28" s="3">
         <v>13</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AN28" s="3">
         <v>14</v>
       </c>
-      <c r="AO20" s="3">
+      <c r="AO28" s="3">
         <v>15</v>
       </c>
-      <c r="AP20" s="5">
+      <c r="AP28" s="5">
         <v>16</v>
       </c>
-      <c r="AQ20" s="5">
+      <c r="AQ28" s="5">
         <v>17</v>
       </c>
-      <c r="AR20" s="5">
+      <c r="AR28" s="5">
         <v>18</v>
       </c>
-      <c r="AS20" s="3">
+      <c r="AS28" s="3">
         <v>19</v>
       </c>
-      <c r="AT20" s="5">
+      <c r="AT28" s="5">
         <v>20</v>
       </c>
-      <c r="AU20" s="3">
+      <c r="AU28" s="3">
         <v>21</v>
       </c>
-      <c r="AV20" s="5">
+      <c r="AV28" s="5">
         <v>22</v>
       </c>
-      <c r="AW20" s="5">
+      <c r="AW28" s="5">
         <v>23</v>
       </c>
-      <c r="AX20" s="5">
+      <c r="AX28" s="5">
         <v>24</v>
       </c>
-      <c r="AY20" s="5">
+      <c r="AY28" s="5">
         <v>25</v>
       </c>
-      <c r="AZ20" s="5">
+      <c r="AZ28" s="5">
         <v>26</v>
       </c>
-      <c r="BA20" s="5">
+      <c r="BA28" s="5">
         <v>27</v>
       </c>
-      <c r="BB20" s="5">
+      <c r="BB28" s="5">
         <v>28</v>
       </c>
-      <c r="BC20" s="5">
+      <c r="BC28" s="5">
         <v>29</v>
       </c>
-      <c r="BD20" s="5">
+      <c r="BD28" s="5">
         <v>30</v>
       </c>
-      <c r="BE20" s="5">
+      <c r="BE28" s="5">
         <v>31</v>
       </c>
-      <c r="BF20" s="5">
+      <c r="BF28" s="5">
         <v>32</v>
       </c>
-      <c r="BG20" s="3">
+      <c r="BG28" s="3">
         <v>33</v>
       </c>
-      <c r="BH20" s="3">
+      <c r="BH28" s="3">
         <v>34</v>
       </c>
-      <c r="CK20" s="3"/>
-      <c r="CN20" s="3"/>
-      <c r="CO20" s="3"/>
+      <c r="CK28" s="3"/>
+      <c r="CN28" s="3"/>
+      <c r="CO28" s="10"/>
+      <c r="CP28" s="3"/>
+      <c r="CQ28" s="3"/>
+      <c r="CR28" s="3"/>
     </row>
-    <row r="21" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA21" s="2" cm="1">
-        <f t="array" ref="AA21">_xlfn.IFS(AA2="Rarement",0,AA2="Occasionnellement",1,AA2="Souvent",3,AA2="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="AB21" s="2" cm="1">
-        <f t="array" ref="AB21">_xlfn.IFS(AB2="Rarement",0,AB2="Occasionnellement",1,AB2="Souvent",3,AB2="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="2" cm="1">
-        <f t="array" ref="AC21">_xlfn.IFS(AC2="Rarement",0,AC2="Occasionnellement",1,AC2="Souvent",3,AC2="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AD21" s="2" cm="1">
-        <f t="array" ref="AD21">_xlfn.IFS(AD2="Rarement",0,AD2="Occasionnellement",1,AD2="Souvent",3,AD2="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="AE21" s="2" cm="1">
-        <f t="array" ref="AE21">_xlfn.IFS(AE2="Rarement",0,AE2="Occasionnellement",1,AE2="Souvent",3,AE2="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AF21" s="2" cm="1">
-        <f t="array" ref="AF21">_xlfn.IFS(AF2="Rarement",4,AF2="Occasionnellement",1,AF2="Souvent",3,AF2="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AG21" s="2" cm="1">
-        <f t="array" ref="AG21">_xlfn.IFS(AG2="Rarement",4,AG2="Occasionnellement",3,AG2="Souvent",1,AG2="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AH21" s="2" cm="1">
-        <f t="array" ref="AH21">_xlfn.IFS(AH2="Rarement",4,AH2="Occasionnellement",3,AH2="Souvent",1,AH2="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI21" s="2" cm="1">
-        <f t="array" ref="AI21">_xlfn.IFS(AI2="Rarement",4,AI2="Occasionnellement",3,AI2="Souvent",1,AI2="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="2" cm="1">
-        <f t="array" ref="AJ21">_xlfn.IFS(AJ2="Rarement",4,AJ2="Occasionnellement",3,AJ2="Souvent",1,AJ2="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AK21" s="2" cm="1">
-        <f t="array" ref="AK21">_xlfn.IFS(AK2="Rarement",4,AK2="Occasionnellement",3,AK2="Souvent",1,AK2="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AL21" s="2" cm="1">
-        <f t="array" ref="AL21">_xlfn.IFS(AL2="Rarement",4,AL2="Occasionnellement",3,AL2="Souvent",1,AL2="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AM21" s="2" cm="1">
-        <f t="array" ref="AM21">_xlfn.IFS(AM2="Rarement",4,AM2="Occasionnellement",3,AM2="Souvent",1,AM2="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AN21" s="2" cm="1">
-        <f t="array" ref="AN21">_xlfn.IFS(AN2="Rarement",4,AN2="Occasionnellement",3,AN2="Souvent",1,AN2="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AO21" s="2" cm="1">
-        <f t="array" ref="AO21">_xlfn.IFS(AG2="Rarement",4,AG2="Occasionnellement",3,AG2="Souvent",1,AG2="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AP21" s="2" cm="1">
-        <f t="array" ref="AP21">_xlfn.IFS(AP2="Rarement",0,AP2="Occasionnellement",1,AP2="Souvent",3,AP2="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="2" cm="1">
-        <f t="array" ref="AQ21">_xlfn.IFS(AQ2="Rarement",0,AQ2="Occasionnellement",1,AQ2="Souvent",3,AQ2="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AR21" s="2" cm="1">
-        <f t="array" ref="AR21">_xlfn.IFS(AR2="Rarement",0,AR2="Occasionnellement",1,AR2="Souvent",3,AR2="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AS21" s="2" cm="1">
-        <f t="array" ref="AS21">_xlfn.IFS(AS2="Rarement",4,AS2="Occasionnellement",3,AS2="Souvent",1,AS2="Presque toujours/Toujours",0)</f>
-        <v>4</v>
-      </c>
-      <c r="AT21" s="2" cm="1">
-        <f t="array" ref="AT21">_xlfn.IFS(AT2="Rarement",0,AT2="Occasionnellement",1,AT2="Souvent",3,AT2="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AU21" s="2" cm="1">
-        <f t="array" ref="AU21">_xlfn.IFS(AU2="Rarement",4,AU2="Occasionnellement",3,AU2="Souvent",1,AU2="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AV21" s="2" cm="1">
-        <f t="array" ref="AV21">_xlfn.IFS(AV2="Rarement",0,AV2="Occasionnellement",1,AV2="Souvent",3,AV2="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AW21" s="2" cm="1">
-        <f t="array" ref="AW21">_xlfn.IFS(AW2="Rarement",0,AW2="Occasionnellement",1,AW2="Souvent",3,AW2="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AX21" s="2" cm="1">
-        <f t="array" ref="AX21">_xlfn.IFS(AX2="Rarement",0,AX2="Occasionnellement",1,AX2="Souvent",3,AX2="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AY21" s="2" cm="1">
-        <f t="array" ref="AY21">_xlfn.IFS(AY2="Rarement",0,AY2="Occasionnellement",1,AY2="Souvent",3,AY2="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ21" s="2" cm="1">
-        <f t="array" ref="AZ21">_xlfn.IFS(AZ2="Rarement",0,AZ2="Occasionnellement",1,AZ2="Souvent",3,AZ2="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BA21" s="2" cm="1">
-        <f t="array" ref="BA21">_xlfn.IFS(BA2="Rarement",0,BA2="Occasionnellement",1,BA2="Souvent",3,BA2="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="BB21" s="2" cm="1">
-        <f t="array" ref="BB21">_xlfn.IFS(BB2="Rarement",0,BB2="Occasionnellement",1,BB2="Souvent",3,BB2="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="BC21" s="2" cm="1">
-        <f t="array" ref="BC21">_xlfn.IFS(BC2="Rarement",0,BC2="Occasionnellement",1,BC2="Souvent",3,BC2="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="BD21" s="2" cm="1">
-        <f t="array" ref="BD21">_xlfn.IFS(BD2="Rarement",0,BD2="Occasionnellement",1,BD2="Souvent",3,BD2="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="BE21" s="2" cm="1">
-        <f t="array" ref="BE21">_xlfn.IFS(BE2="Rarement",0,BE2="Occasionnellement",1,BE2="Souvent",3,BE2="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="BF21" s="2" cm="1">
-        <f t="array" ref="BF21">_xlfn.IFS(BF2="Rarement",0,BF2="Occasionnellement",1,BF2="Souvent",3,BF2="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="BG21" s="2" cm="1">
-        <f t="array" ref="BG21">_xlfn.IFS(BG2="Rarement",4,BG2="Occasionnellement",3,BG2="Souvent",1,BG2="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="BH21" s="2" cm="1">
-        <f t="array" ref="BH21">_xlfn.IFS(BH2="Rarement",4,BH2="Occasionnellement",3,BH2="Souvent",1,BH2="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="CK21" s="2"/>
-      <c r="CL21" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>26</v>
-      </c>
-      <c r="CM21" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>12</v>
-      </c>
-      <c r="CN21" s="2">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>18</v>
-      </c>
-      <c r="CO21" s="7">
-        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA22" s="2" cm="1">
-        <f t="array" ref="AA22">_xlfn.IFS(AA3="Rarement",0,AA3="Occasionnellement",1,AA3="Souvent",3,AA3="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AB22" s="2" cm="1">
-        <f t="array" ref="AB22">_xlfn.IFS(AB3="Rarement",0,AB3="Occasionnellement",1,AB3="Souvent",3,AB3="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AC22" s="2" cm="1">
-        <f t="array" ref="AC22">_xlfn.IFS(AC3="Rarement",0,AC3="Occasionnellement",1,AC3="Souvent",3,AC3="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="2" cm="1">
-        <f t="array" ref="AD22">_xlfn.IFS(AD3="Rarement",0,AD3="Occasionnellement",1,AD3="Souvent",3,AD3="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="2" cm="1">
-        <f t="array" ref="AE22">_xlfn.IFS(AE3="Rarement",0,AE3="Occasionnellement",1,AE3="Souvent",3,AE3="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AF22" s="2" cm="1">
-        <f t="array" ref="AF22">_xlfn.IFS(AF3="Rarement",0,AF3="Occasionnellement",1,AF3="Souvent",3,AF3="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="AG22" s="2" cm="1">
-        <f t="array" ref="AG22">_xlfn.IFS(AG3="Rarement",4,AG3="Occasionnellement",3,AG3="Souvent",1,AG3="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AH22" s="2" cm="1">
-        <f t="array" ref="AH22">_xlfn.IFS(AH3="Rarement",4,AH3="Occasionnellement",3,AH3="Souvent",1,AH3="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AI22" s="2" cm="1">
-        <f t="array" ref="AI22">_xlfn.IFS(AI3="Rarement",4,AI3="Occasionnellement",3,AI3="Souvent",1,AI3="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AJ22" s="2" cm="1">
-        <f t="array" ref="AJ22">_xlfn.IFS(AJ3="Rarement",4,AJ3="Occasionnellement",3,AJ3="Souvent",1,AJ3="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AK22" s="2" cm="1">
-        <f t="array" ref="AK22">_xlfn.IFS(AK3="Rarement",4,AK3="Occasionnellement",3,AK3="Souvent",1,AK3="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AL22" s="2" cm="1">
-        <f t="array" ref="AL22">_xlfn.IFS(AL3="Rarement",4,AL3="Occasionnellement",3,AL3="Souvent",1,AL3="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AM22" s="2" cm="1">
-        <f t="array" ref="AM22">_xlfn.IFS(AM3="Rarement",4,AM3="Occasionnellement",3,AM3="Souvent",1,AM3="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN22" s="2" cm="1">
-        <f t="array" ref="AN22">_xlfn.IFS(AN3="Rarement",4,AN3="Occasionnellement",3,AN3="Souvent",1,AN3="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AO22" s="2" cm="1">
-        <f t="array" ref="AO22">_xlfn.IFS(AG3="Rarement",4,AG3="Occasionnellement",3,AG3="Souvent",1,AG3="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AP22" s="2" cm="1">
-        <f t="array" ref="AP22">_xlfn.IFS(AP3="Rarement",0,AP3="Occasionnellement",1,AP3="Souvent",3,AP3="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="2" cm="1">
-        <f t="array" ref="AQ22">_xlfn.IFS(AQ3="Rarement",0,AQ3="Occasionnellement",1,AQ3="Souvent",3,AQ3="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AR22" s="2" cm="1">
-        <f t="array" ref="AR22">_xlfn.IFS(AR3="Rarement",0,AR3="Occasionnellement",1,AR3="Souvent",3,AR3="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AS22" s="2" cm="1">
-        <f t="array" ref="AS22">_xlfn.IFS(AS3="Rarement",4,AS3="Occasionnellement",3,AS3="Souvent",1,AS3="Presque toujours/Toujours",0)</f>
-        <v>4</v>
-      </c>
-      <c r="AT22" s="2" cm="1">
-        <f t="array" ref="AT22">_xlfn.IFS(AT3="Rarement",0,AT3="Occasionnellement",1,AT3="Souvent",3,AT3="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AU22" s="2" cm="1">
-        <f t="array" ref="AU22">_xlfn.IFS(AU3="Rarement",4,AU3="Occasionnellement",3,AU3="Souvent",1,AU3="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AV22" s="2" cm="1">
-        <f t="array" ref="AV22">_xlfn.IFS(AV3="Rarement",0,AV3="Occasionnellement",1,AV3="Souvent",3,AV3="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AW22" s="2" cm="1">
-        <f t="array" ref="AW22">_xlfn.IFS(AW3="Rarement",0,AW3="Occasionnellement",1,AW3="Souvent",3,AW3="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AX22" s="2" cm="1">
-        <f t="array" ref="AX22">_xlfn.IFS(AX3="Rarement",0,AX3="Occasionnellement",1,AX3="Souvent",3,AX3="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AY22" s="2" cm="1">
-        <f t="array" ref="AY22">_xlfn.IFS(AY3="Rarement",0,AY3="Occasionnellement",1,AY3="Souvent",3,AY3="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ22" s="2" cm="1">
-        <f t="array" ref="AZ22">_xlfn.IFS(AZ3="Rarement",0,AZ3="Occasionnellement",1,AZ3="Souvent",3,AZ3="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="BA22" s="2" cm="1">
-        <f t="array" ref="BA22">_xlfn.IFS(BA3="Rarement",0,BA3="Occasionnellement",1,BA3="Souvent",3,BA3="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="BB22" s="2" cm="1">
-        <f t="array" ref="BB22">_xlfn.IFS(BB3="Rarement",0,BB3="Occasionnellement",1,BB3="Souvent",3,BB3="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="BC22" s="2" cm="1">
-        <f t="array" ref="BC22">_xlfn.IFS(BC3="Rarement",0,BC3="Occasionnellement",1,BC3="Souvent",3,BC3="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BD22" s="2" cm="1">
-        <f t="array" ref="BD22">_xlfn.IFS(BD3="Rarement",0,BD3="Occasionnellement",1,BD3="Souvent",3,BD3="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BE22" s="2" cm="1">
-        <f t="array" ref="BE22">_xlfn.IFS(BE3="Rarement",0,BE3="Occasionnellement",1,BE3="Souvent",3,BE3="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="BF22" s="2" cm="1">
-        <f t="array" ref="BF22">_xlfn.IFS(BF3="Rarement",0,BF3="Occasionnellement",1,BF3="Souvent",3,BF3="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="BG22" s="2" cm="1">
-        <f t="array" ref="BG22">_xlfn.IFS(BG3="Rarement",4,BG3="Occasionnellement",3,BG3="Souvent",1,BG3="Presque toujours/Toujours",0)</f>
-        <v>4</v>
-      </c>
-      <c r="BH22" s="2" cm="1">
-        <f t="array" ref="BH22">_xlfn.IFS(BH3="Rarement",4,BH3="Occasionnellement",3,BH3="Souvent",1,BH3="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="CK22" s="2"/>
-      <c r="CL22" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>14</v>
-      </c>
-      <c r="CM22" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>21</v>
-      </c>
-      <c r="CN22" s="2">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>23</v>
-      </c>
-      <c r="CO22" s="7">
-        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA23" s="2" cm="1">
-        <f t="array" ref="AA23">_xlfn.IFS(AA4="Rarement",0,AA4="Occasionnellement",1,AA4="Souvent",3,AA4="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AB23" s="2" cm="1">
-        <f t="array" ref="AB23">_xlfn.IFS(AB4="Rarement",0,AB4="Occasionnellement",1,AB4="Souvent",3,AB4="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AC23" s="2" cm="1">
-        <f t="array" ref="AC23">_xlfn.IFS(AC4="Rarement",0,AC4="Occasionnellement",1,AC4="Souvent",3,AC4="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AD23" s="2" cm="1">
-        <f t="array" ref="AD23">_xlfn.IFS(AD4="Rarement",0,AD4="Occasionnellement",1,AD4="Souvent",3,AD4="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="AE23" s="2" cm="1">
-        <f t="array" ref="AE23">_xlfn.IFS(AE4="Rarement",0,AE4="Occasionnellement",1,AE4="Souvent",3,AE4="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AF23" s="2" cm="1">
-        <f t="array" ref="AF23">_xlfn.IFS(AF4="Rarement",0,AF4="Occasionnellement",1,AF4="Souvent",3,AF4="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AG23" s="2" cm="1">
-        <f t="array" ref="AG23">_xlfn.IFS(AG4="Rarement",4,AG4="Occasionnellement",3,AG4="Souvent",1,AG4="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AH23" s="2" cm="1">
-        <f t="array" ref="AH23">_xlfn.IFS(AH4="Rarement",4,AH4="Occasionnellement",3,AH4="Souvent",1,AH4="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI23" s="2" cm="1">
-        <f t="array" ref="AI23">_xlfn.IFS(AI4="Rarement",4,AI4="Occasionnellement",3,AI4="Souvent",1,AI4="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AJ23" s="2" cm="1">
-        <f t="array" ref="AJ23">_xlfn.IFS(AJ4="Rarement",4,AJ4="Occasionnellement",3,AJ4="Souvent",1,AJ4="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AK23" s="2" cm="1">
-        <f t="array" ref="AK23">_xlfn.IFS(AK4="Rarement",4,AK4="Occasionnellement",3,AK4="Souvent",1,AK4="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="AL23" s="2" cm="1">
-        <f t="array" ref="AL23">_xlfn.IFS(AL4="Rarement",4,AL4="Occasionnellement",3,AL4="Souvent",1,AL4="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AM23" s="2" cm="1">
-        <f t="array" ref="AM23">_xlfn.IFS(AM4="Rarement",4,AM4="Occasionnellement",3,AM4="Souvent",1,AM4="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AN23" s="2" cm="1">
-        <f t="array" ref="AN23">_xlfn.IFS(AN4="Rarement",4,AN4="Occasionnellement",3,AN4="Souvent",1,AN4="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AO23" s="2" cm="1">
-        <f t="array" ref="AO23">_xlfn.IFS(AG4="Rarement",4,AG4="Occasionnellement",3,AG4="Souvent",1,AG4="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AP23" s="2" cm="1">
-        <f t="array" ref="AP23">_xlfn.IFS(AP4="Rarement",0,AP4="Occasionnellement",1,AP4="Souvent",3,AP4="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="2" cm="1">
-        <f t="array" ref="AQ23">_xlfn.IFS(AQ4="Rarement",0,AQ4="Occasionnellement",1,AQ4="Souvent",3,AQ4="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AR23" s="2" cm="1">
-        <f t="array" ref="AR23">_xlfn.IFS(AR4="Rarement",0,AR4="Occasionnellement",1,AR4="Souvent",3,AR4="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AS23" s="2" cm="1">
-        <f t="array" ref="AS23">_xlfn.IFS(AS4="Rarement",4,AS4="Occasionnellement",3,AS4="Souvent",1,AS4="Presque toujours/Toujours",0)</f>
-        <v>4</v>
-      </c>
-      <c r="AT23" s="2" cm="1">
-        <f t="array" ref="AT23">_xlfn.IFS(AT4="Rarement",0,AT4="Occasionnellement",1,AT4="Souvent",3,AT4="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AU23" s="2" cm="1">
-        <f t="array" ref="AU23">_xlfn.IFS(AU4="Rarement",4,AU4="Occasionnellement",3,AU4="Souvent",1,AU4="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="AV23" s="2" cm="1">
-        <f t="array" ref="AV23">_xlfn.IFS(AV4="Rarement",0,AV4="Occasionnellement",1,AV4="Souvent",3,AV4="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AW23" s="2" cm="1">
-        <f t="array" ref="AW23">_xlfn.IFS(AW4="Rarement",0,AW4="Occasionnellement",1,AW4="Souvent",3,AW4="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AX23" s="2" cm="1">
-        <f t="array" ref="AX23">_xlfn.IFS(AX4="Rarement",0,AX4="Occasionnellement",1,AX4="Souvent",3,AX4="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AY23" s="2" cm="1">
-        <f t="array" ref="AY23">_xlfn.IFS(AY4="Rarement",0,AY4="Occasionnellement",1,AY4="Souvent",3,AY4="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="2" cm="1">
-        <f t="array" ref="AZ23">_xlfn.IFS(AZ4="Rarement",0,AZ4="Occasionnellement",1,AZ4="Souvent",3,AZ4="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BA23" s="2" cm="1">
-        <f t="array" ref="BA23">_xlfn.IFS(BA4="Rarement",0,BA4="Occasionnellement",1,BA4="Souvent",3,BA4="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="BB23" s="2" cm="1">
-        <f t="array" ref="BB23">_xlfn.IFS(BB4="Rarement",0,BB4="Occasionnellement",1,BB4="Souvent",3,BB4="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="BC23" s="2" cm="1">
-        <f t="array" ref="BC23">_xlfn.IFS(BC4="Rarement",0,BC4="Occasionnellement",1,BC4="Souvent",3,BC4="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="BD23" s="2" cm="1">
-        <f t="array" ref="BD23">_xlfn.IFS(BD4="Rarement",0,BD4="Occasionnellement",1,BD4="Souvent",3,BD4="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BE23" s="2" cm="1">
-        <f t="array" ref="BE23">_xlfn.IFS(BE4="Rarement",0,BE4="Occasionnellement",1,BE4="Souvent",3,BE4="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BF23" s="2" cm="1">
-        <f t="array" ref="BF23">_xlfn.IFS(BF4="Rarement",0,BF4="Occasionnellement",1,BF4="Souvent",3,BF4="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BG23" s="2" cm="1">
-        <f t="array" ref="BG23">_xlfn.IFS(BG4="Rarement",4,BG4="Occasionnellement",3,BG4="Souvent",1,BG4="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="BH23" s="2" cm="1">
-        <f t="array" ref="BH23">_xlfn.IFS(BH4="Rarement",4,BH4="Occasionnellement",3,BH4="Souvent",1,BH4="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="CK23" s="2"/>
-      <c r="CL23" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>24</v>
-      </c>
-      <c r="CM23" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>18</v>
-      </c>
-      <c r="CN23" s="2">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>21</v>
-      </c>
-      <c r="CO23" s="7">
-        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA24" s="2" cm="1">
-        <f t="array" ref="AA24">_xlfn.IFS(AA5="Rarement",0,AA5="Occasionnellement",1,AA5="Souvent",3,AA5="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AB24" s="2" cm="1">
-        <f t="array" ref="AB24">_xlfn.IFS(AB5="Rarement",0,AB5="Occasionnellement",1,AB5="Souvent",3,AB5="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AC24" s="2" cm="1">
-        <f t="array" ref="AC24">_xlfn.IFS(AC5="Rarement",0,AC5="Occasionnellement",1,AC5="Souvent",3,AC5="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AD24" s="2" cm="1">
-        <f t="array" ref="AD24">_xlfn.IFS(AD5="Rarement",0,AD5="Occasionnellement",1,AD5="Souvent",3,AD5="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="2" cm="1">
-        <f t="array" ref="AE24">_xlfn.IFS(AE5="Rarement",0,AE5="Occasionnellement",1,AE5="Souvent",3,AE5="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="2" cm="1">
-        <f t="array" ref="AF24">_xlfn.IFS(AF5="Rarement",0,AF5="Occasionnellement",1,AF5="Souvent",3,AF5="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AG24" s="2" cm="1">
-        <f t="array" ref="AG24">_xlfn.IFS(AG5="Rarement",4,AG5="Occasionnellement",3,AG5="Souvent",1,AG5="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AH24" s="2" cm="1">
-        <f t="array" ref="AH24">_xlfn.IFS(AH5="Rarement",4,AH5="Occasionnellement",3,AH5="Souvent",1,AH5="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AI24" s="2" cm="1">
-        <f t="array" ref="AI24">_xlfn.IFS(AI5="Rarement",4,AI5="Occasionnellement",3,AI5="Souvent",1,AI5="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="2" cm="1">
-        <f t="array" ref="AJ24">_xlfn.IFS(AJ5="Rarement",4,AJ5="Occasionnellement",3,AJ5="Souvent",1,AJ5="Presque toujours/Toujours",0)</f>
-        <v>4</v>
-      </c>
-      <c r="AK24" s="2" cm="1">
-        <f t="array" ref="AK24">_xlfn.IFS(AK5="Rarement",4,AK5="Occasionnellement",3,AK5="Souvent",1,AK5="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AL24" s="2" cm="1">
-        <f t="array" ref="AL24">_xlfn.IFS(AL5="Rarement",4,AL5="Occasionnellement",3,AL5="Souvent",1,AL5="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AM24" s="2" cm="1">
-        <f t="array" ref="AM24">_xlfn.IFS(AM5="Rarement",4,AM5="Occasionnellement",3,AM5="Souvent",1,AM5="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AN24" s="2" cm="1">
-        <f t="array" ref="AN24">_xlfn.IFS(AN5="Rarement",4,AN5="Occasionnellement",3,AN5="Souvent",1,AN5="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AO24" s="2" cm="1">
-        <f t="array" ref="AO24">_xlfn.IFS(AG5="Rarement",4,AG5="Occasionnellement",3,AG5="Souvent",1,AG5="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AP24" s="2" cm="1">
-        <f t="array" ref="AP24">_xlfn.IFS(AP5="Rarement",0,AP5="Occasionnellement",1,AP5="Souvent",3,AP5="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="AQ24" s="2" cm="1">
-        <f t="array" ref="AQ24">_xlfn.IFS(AQ5="Rarement",0,AQ5="Occasionnellement",1,AQ5="Souvent",3,AQ5="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AR24" s="2" cm="1">
-        <f t="array" ref="AR24">_xlfn.IFS(AR5="Rarement",0,AR5="Occasionnellement",1,AR5="Souvent",3,AR5="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AS24" s="2" cm="1">
-        <f t="array" ref="AS24">_xlfn.IFS(AS5="Rarement",4,AS5="Occasionnellement",3,AS5="Souvent",1,AS5="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AT24" s="2" cm="1">
-        <f t="array" ref="AT24">_xlfn.IFS(AT5="Rarement",0,AT5="Occasionnellement",1,AT5="Souvent",3,AT5="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AU24" s="2" cm="1">
-        <f t="array" ref="AU24">_xlfn.IFS(AU5="Rarement",4,AU5="Occasionnellement",3,AU5="Souvent",1,AU5="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AV24" s="2" cm="1">
-        <f t="array" ref="AV24">_xlfn.IFS(AV5="Rarement",0,AV5="Occasionnellement",1,AV5="Souvent",3,AV5="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AW24" s="2" cm="1">
-        <f t="array" ref="AW24">_xlfn.IFS(AW5="Rarement",0,AW5="Occasionnellement",1,AW5="Souvent",3,AW5="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AX24" s="2" cm="1">
-        <f t="array" ref="AX24">_xlfn.IFS(AX5="Rarement",0,AX5="Occasionnellement",1,AX5="Souvent",3,AX5="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AY24" s="2" cm="1">
-        <f t="array" ref="AY24">_xlfn.IFS(AY5="Rarement",0,AY5="Occasionnellement",1,AY5="Souvent",3,AY5="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AZ24" s="2" cm="1">
-        <f t="array" ref="AZ24">_xlfn.IFS(AZ5="Rarement",0,AZ5="Occasionnellement",1,AZ5="Souvent",3,AZ5="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="BA24" s="2" cm="1">
-        <f t="array" ref="BA24">_xlfn.IFS(BA5="Rarement",0,BA5="Occasionnellement",1,BA5="Souvent",3,BA5="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="BB24" s="2" cm="1">
-        <f t="array" ref="BB24">_xlfn.IFS(BB5="Rarement",0,BB5="Occasionnellement",1,BB5="Souvent",3,BB5="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="BC24" s="2" cm="1">
-        <f t="array" ref="BC24">_xlfn.IFS(BC5="Rarement",0,BC5="Occasionnellement",1,BC5="Souvent",3,BC5="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="BD24" s="2" cm="1">
-        <f t="array" ref="BD24">_xlfn.IFS(BD5="Rarement",0,BD5="Occasionnellement",1,BD5="Souvent",3,BD5="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="BE24" s="2" cm="1">
-        <f t="array" ref="BE24">_xlfn.IFS(BE5="Rarement",0,BE5="Occasionnellement",1,BE5="Souvent",3,BE5="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="BF24" s="2" cm="1">
-        <f t="array" ref="BF24">_xlfn.IFS(BF5="Rarement",0,BF5="Occasionnellement",1,BF5="Souvent",3,BF5="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="BG24" s="2" cm="1">
-        <f t="array" ref="BG24">_xlfn.IFS(BG5="Rarement",4,BG5="Occasionnellement",3,BG5="Souvent",1,BG5="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="BH24" s="2" cm="1">
-        <f t="array" ref="BH24">_xlfn.IFS(BH5="Rarement",4,BH5="Occasionnellement",3,BH5="Souvent",1,BH5="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="CK24" s="2"/>
-      <c r="CL24" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>22</v>
-      </c>
-      <c r="CM24" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>24</v>
-      </c>
-      <c r="CN24" s="2">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>25</v>
-      </c>
-      <c r="CO24" s="7">
-        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA25" s="2" cm="1">
-        <f t="array" ref="AA25">_xlfn.IFS(AA6="Rarement",0,AA6="Occasionnellement",1,AA6="Souvent",3,AA6="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AB25" s="2" cm="1">
-        <f t="array" ref="AB25">_xlfn.IFS(AB6="Rarement",0,AB6="Occasionnellement",1,AB6="Souvent",3,AB6="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AC25" s="2" cm="1">
-        <f t="array" ref="AC25">_xlfn.IFS(AC6="Rarement",0,AC6="Occasionnellement",1,AC6="Souvent",3,AC6="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AD25" s="2" cm="1">
-        <f t="array" ref="AD25">_xlfn.IFS(AD6="Rarement",0,AD6="Occasionnellement",1,AD6="Souvent",3,AD6="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AE25" s="2" cm="1">
-        <f t="array" ref="AE25">_xlfn.IFS(AE6="Rarement",0,AE6="Occasionnellement",1,AE6="Souvent",3,AE6="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AF25" s="2" cm="1">
-        <f t="array" ref="AF25">_xlfn.IFS(AF6="Rarement",0,AF6="Occasionnellement",1,AF6="Souvent",3,AF6="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="AG25" s="2" cm="1">
-        <f t="array" ref="AG25">_xlfn.IFS(AG6="Rarement",4,AG6="Occasionnellement",3,AG6="Souvent",1,AG6="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AH25" s="2" cm="1">
-        <f t="array" ref="AH25">_xlfn.IFS(AH6="Rarement",4,AH6="Occasionnellement",3,AH6="Souvent",1,AH6="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AI25" s="2" cm="1">
-        <f t="array" ref="AI25">_xlfn.IFS(AI6="Rarement",4,AI6="Occasionnellement",3,AI6="Souvent",1,AI6="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="2" cm="1">
-        <f t="array" ref="AJ25">_xlfn.IFS(AJ6="Rarement",4,AJ6="Occasionnellement",3,AJ6="Souvent",1,AJ6="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="2" cm="1">
-        <f t="array" ref="AK25">_xlfn.IFS(AK6="Rarement",4,AK6="Occasionnellement",3,AK6="Souvent",1,AK6="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AL25" s="2" cm="1">
-        <f t="array" ref="AL25">_xlfn.IFS(AL6="Rarement",4,AL6="Occasionnellement",3,AL6="Souvent",1,AL6="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM25" s="2" cm="1">
-        <f t="array" ref="AM25">_xlfn.IFS(AM6="Rarement",4,AM6="Occasionnellement",3,AM6="Souvent",1,AM6="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AN25" s="2" cm="1">
-        <f t="array" ref="AN25">_xlfn.IFS(AN6="Rarement",4,AN6="Occasionnellement",3,AN6="Souvent",1,AN6="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AO25" s="2" cm="1">
-        <f t="array" ref="AO25">_xlfn.IFS(AG6="Rarement",4,AG6="Occasionnellement",3,AG6="Souvent",1,AG6="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AP25" s="2" cm="1">
-        <f t="array" ref="AP25">_xlfn.IFS(AP6="Rarement",0,AP6="Occasionnellement",1,AP6="Souvent",3,AP6="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AQ25" s="2" cm="1">
-        <f t="array" ref="AQ25">_xlfn.IFS(AQ6="Rarement",0,AQ6="Occasionnellement",1,AQ6="Souvent",3,AQ6="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AR25" s="2" cm="1">
-        <f t="array" ref="AR25">_xlfn.IFS(AR6="Rarement",0,AR6="Occasionnellement",1,AR6="Souvent",3,AR6="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AS25" s="2" cm="1">
-        <f t="array" ref="AS25">_xlfn.IFS(AS6="Rarement",4,AS6="Occasionnellement",3,AS6="Souvent",1,AS6="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AT25" s="2" cm="1">
-        <f t="array" ref="AT25">_xlfn.IFS(AT6="Rarement",0,AT6="Occasionnellement",1,AT6="Souvent",3,AT6="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AU25" s="2" cm="1">
-        <f t="array" ref="AU25">_xlfn.IFS(AU6="Rarement",4,AU6="Occasionnellement",3,AU6="Souvent",1,AU6="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AV25" s="2" cm="1">
-        <f t="array" ref="AV25">_xlfn.IFS(AV6="Rarement",0,AV6="Occasionnellement",1,AV6="Souvent",3,AV6="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AW25" s="2" cm="1">
-        <f t="array" ref="AW25">_xlfn.IFS(AW6="Rarement",0,AW6="Occasionnellement",1,AW6="Souvent",3,AW6="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AX25" s="2" cm="1">
-        <f t="array" ref="AX25">_xlfn.IFS(AX6="Rarement",0,AX6="Occasionnellement",1,AX6="Souvent",3,AX6="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AY25" s="2" cm="1">
-        <f t="array" ref="AY25">_xlfn.IFS(AY6="Rarement",0,AY6="Occasionnellement",1,AY6="Souvent",3,AY6="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="2" cm="1">
-        <f t="array" ref="AZ25">_xlfn.IFS(AZ6="Rarement",0,AZ6="Occasionnellement",1,AZ6="Souvent",3,AZ6="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="BA25" s="2" cm="1">
-        <f t="array" ref="BA25">_xlfn.IFS(BA6="Rarement",0,BA6="Occasionnellement",1,BA6="Souvent",3,BA6="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="BB25" s="2" cm="1">
-        <f t="array" ref="BB25">_xlfn.IFS(BB6="Rarement",0,BB6="Occasionnellement",1,BB6="Souvent",3,BB6="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="BC25" s="2" cm="1">
-        <f t="array" ref="BC25">_xlfn.IFS(BC6="Rarement",0,BC6="Occasionnellement",1,BC6="Souvent",3,BC6="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BD25" s="2" cm="1">
-        <f t="array" ref="BD25">_xlfn.IFS(BD6="Rarement",0,BD6="Occasionnellement",1,BD6="Souvent",3,BD6="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BE25" s="2" cm="1">
-        <f t="array" ref="BE25">_xlfn.IFS(BE6="Rarement",0,BE6="Occasionnellement",1,BE6="Souvent",3,BE6="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="BF25" s="2" cm="1">
-        <f t="array" ref="BF25">_xlfn.IFS(BF6="Rarement",0,BF6="Occasionnellement",1,BF6="Souvent",3,BF6="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="BG25" s="2" cm="1">
-        <f t="array" ref="BG25">_xlfn.IFS(BG6="Rarement",4,BG6="Occasionnellement",3,BG6="Souvent",1,BG6="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="BH25" s="2" cm="1">
-        <f t="array" ref="BH25">_xlfn.IFS(BH6="Rarement",4,BH6="Occasionnellement",3,BH6="Souvent",1,BH6="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="CK25" s="2"/>
-      <c r="CL25" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>14</v>
-      </c>
-      <c r="CM25" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>21</v>
-      </c>
-      <c r="CN25" s="2">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>16</v>
-      </c>
-      <c r="CO25" s="7">
-        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA26" s="2" cm="1">
-        <f t="array" ref="AA26">_xlfn.IFS(AA7="Rarement",0,AA7="Occasionnellement",1,AA7="Souvent",3,AA7="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AB26" s="2" cm="1">
-        <f t="array" ref="AB26">_xlfn.IFS(AB7="Rarement",0,AB7="Occasionnellement",1,AB7="Souvent",3,AB7="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="2" cm="1">
-        <f t="array" ref="AC26">_xlfn.IFS(AC7="Rarement",0,AC7="Occasionnellement",1,AC7="Souvent",3,AC7="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="2" cm="1">
-        <f t="array" ref="AD26">_xlfn.IFS(AD7="Rarement",0,AD7="Occasionnellement",1,AD7="Souvent",3,AD7="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="2" cm="1">
-        <f t="array" ref="AE26">_xlfn.IFS(AE7="Rarement",0,AE7="Occasionnellement",1,AE7="Souvent",3,AE7="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="2" cm="1">
-        <f t="array" ref="AF26">_xlfn.IFS(AF7="Rarement",0,AF7="Occasionnellement",1,AF7="Souvent",3,AF7="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AG26" s="2" cm="1">
-        <f t="array" ref="AG26">_xlfn.IFS(AG7="Rarement",4,AG7="Occasionnellement",3,AG7="Souvent",1,AG7="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AH26" s="2" cm="1">
-        <f t="array" ref="AH26">_xlfn.IFS(AH7="Rarement",4,AH7="Occasionnellement",3,AH7="Souvent",1,AH7="Presque toujours/Toujours",0)</f>
-        <v>4</v>
-      </c>
-      <c r="AI26" s="2" cm="1">
-        <f t="array" ref="AI26">_xlfn.IFS(AI7="Rarement",4,AI7="Occasionnellement",3,AI7="Souvent",1,AI7="Presque toujours/Toujours",0)</f>
-        <v>4</v>
-      </c>
-      <c r="AJ26" s="2" cm="1">
-        <f t="array" ref="AJ26">_xlfn.IFS(AJ7="Rarement",4,AJ7="Occasionnellement",3,AJ7="Souvent",1,AJ7="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AK26" s="2" cm="1">
-        <f t="array" ref="AK26">_xlfn.IFS(AK7="Rarement",4,AK7="Occasionnellement",3,AK7="Souvent",1,AK7="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="AL26" s="2" cm="1">
-        <f t="array" ref="AL26">_xlfn.IFS(AL7="Rarement",4,AL7="Occasionnellement",3,AL7="Souvent",1,AL7="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AM26" s="2" cm="1">
-        <f t="array" ref="AM26">_xlfn.IFS(AM7="Rarement",4,AM7="Occasionnellement",3,AM7="Souvent",1,AM7="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AN26" s="2" cm="1">
-        <f t="array" ref="AN26">_xlfn.IFS(AN7="Rarement",4,AN7="Occasionnellement",3,AN7="Souvent",1,AN7="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AO26" s="2" cm="1">
-        <f t="array" ref="AO26">_xlfn.IFS(AG7="Rarement",4,AG7="Occasionnellement",3,AG7="Souvent",1,AG7="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AP26" s="2" cm="1">
-        <f t="array" ref="AP26">_xlfn.IFS(AP7="Rarement",0,AP7="Occasionnellement",1,AP7="Souvent",3,AP7="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AQ26" s="2" cm="1">
-        <f t="array" ref="AQ26">_xlfn.IFS(AQ7="Rarement",0,AQ7="Occasionnellement",1,AQ7="Souvent",3,AQ7="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="AR26" s="2" cm="1">
-        <f t="array" ref="AR26">_xlfn.IFS(AR7="Rarement",0,AR7="Occasionnellement",1,AR7="Souvent",3,AR7="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AS26" s="2" cm="1">
-        <f t="array" ref="AS26">_xlfn.IFS(AS7="Rarement",4,AS7="Occasionnellement",3,AS7="Souvent",1,AS7="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AT26" s="2" cm="1">
-        <f t="array" ref="AT26">_xlfn.IFS(AT7="Rarement",0,AT7="Occasionnellement",1,AT7="Souvent",3,AT7="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AU26" s="2" cm="1">
-        <f t="array" ref="AU26">_xlfn.IFS(AU7="Rarement",4,AU7="Occasionnellement",3,AU7="Souvent",1,AU7="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AV26" s="2" cm="1">
-        <f t="array" ref="AV26">_xlfn.IFS(AV7="Rarement",0,AV7="Occasionnellement",1,AV7="Souvent",3,AV7="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AW26" s="2" cm="1">
-        <f t="array" ref="AW26">_xlfn.IFS(AW7="Rarement",0,AW7="Occasionnellement",1,AW7="Souvent",3,AW7="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="AX26" s="2" cm="1">
-        <f t="array" ref="AX26">_xlfn.IFS(AX7="Rarement",0,AX7="Occasionnellement",1,AX7="Souvent",3,AX7="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AY26" s="2" cm="1">
-        <f t="array" ref="AY26">_xlfn.IFS(AY7="Rarement",0,AY7="Occasionnellement",1,AY7="Souvent",3,AY7="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="AZ26" s="2" cm="1">
-        <f t="array" ref="AZ26">_xlfn.IFS(AZ7="Rarement",0,AZ7="Occasionnellement",1,AZ7="Souvent",3,AZ7="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BA26" s="2" cm="1">
-        <f t="array" ref="BA26">_xlfn.IFS(BA7="Rarement",0,BA7="Occasionnellement",1,BA7="Souvent",3,BA7="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="BB26" s="2" cm="1">
-        <f t="array" ref="BB26">_xlfn.IFS(BB7="Rarement",0,BB7="Occasionnellement",1,BB7="Souvent",3,BB7="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="BC26" s="2" cm="1">
-        <f t="array" ref="BC26">_xlfn.IFS(BC7="Rarement",0,BC7="Occasionnellement",1,BC7="Souvent",3,BC7="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="BD26" s="2" cm="1">
-        <f t="array" ref="BD26">_xlfn.IFS(BD7="Rarement",0,BD7="Occasionnellement",1,BD7="Souvent",3,BD7="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BE26" s="2" cm="1">
-        <f t="array" ref="BE26">_xlfn.IFS(BE7="Rarement",0,BE7="Occasionnellement",1,BE7="Souvent",3,BE7="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="BF26" s="2" cm="1">
-        <f t="array" ref="BF26">_xlfn.IFS(BF7="Rarement",0,BF7="Occasionnellement",1,BF7="Souvent",3,BF7="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BG26" s="2" cm="1">
-        <f t="array" ref="BG26">_xlfn.IFS(BG7="Rarement",4,BG7="Occasionnellement",3,BG7="Souvent",1,BG7="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="BH26" s="2" cm="1">
-        <f t="array" ref="BH26">_xlfn.IFS(BH7="Rarement",4,BH7="Occasionnellement",3,BH7="Souvent",1,BH7="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="CK26" s="2"/>
-      <c r="CL26" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>20</v>
-      </c>
-      <c r="CM26" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>27</v>
-      </c>
-      <c r="CN26" s="2">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>26</v>
-      </c>
-      <c r="CO26" s="7">
-        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA27" s="2" cm="1">
-        <f t="array" ref="AA27">_xlfn.IFS(AA8="Rarement",0,AA8="Occasionnellement",1,AA8="Souvent",3,AA8="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AB27" s="2" cm="1">
-        <f t="array" ref="AB27">_xlfn.IFS(AB8="Rarement",0,AB8="Occasionnellement",1,AB8="Souvent",3,AB8="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AC27" s="2" cm="1">
-        <f t="array" ref="AC27">_xlfn.IFS(AC8="Rarement",0,AC8="Occasionnellement",1,AC8="Souvent",3,AC8="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AD27" s="2" cm="1">
-        <f t="array" ref="AD27">_xlfn.IFS(AD8="Rarement",0,AD8="Occasionnellement",1,AD8="Souvent",3,AD8="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AE27" s="2" cm="1">
-        <f t="array" ref="AE27">_xlfn.IFS(AE8="Rarement",0,AE8="Occasionnellement",1,AE8="Souvent",3,AE8="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AF27" s="2" cm="1">
-        <f t="array" ref="AF27">_xlfn.IFS(AF8="Rarement",0,AF8="Occasionnellement",1,AF8="Souvent",3,AF8="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AG27" s="2" cm="1">
-        <f t="array" ref="AG27">_xlfn.IFS(AG8="Rarement",4,AG8="Occasionnellement",3,AG8="Souvent",1,AG8="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="2" cm="1">
-        <f t="array" ref="AH27">_xlfn.IFS(AH8="Rarement",4,AH8="Occasionnellement",3,AH8="Souvent",1,AH8="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AI27" s="2" cm="1">
-        <f t="array" ref="AI27">_xlfn.IFS(AI8="Rarement",4,AI8="Occasionnellement",3,AI8="Souvent",1,AI8="Presque toujours/Toujours",0)</f>
-        <v>4</v>
-      </c>
-      <c r="AJ27" s="2" cm="1">
-        <f t="array" ref="AJ27">_xlfn.IFS(AJ8="Rarement",4,AJ8="Occasionnellement",3,AJ8="Souvent",1,AJ8="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AK27" s="2" cm="1">
-        <f t="array" ref="AK27">_xlfn.IFS(AK8="Rarement",4,AK8="Occasionnellement",3,AK8="Souvent",1,AK8="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AL27" s="2" cm="1">
-        <f t="array" ref="AL27">_xlfn.IFS(AL8="Rarement",4,AL8="Occasionnellement",3,AL8="Souvent",1,AL8="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AM27" s="2" cm="1">
-        <f t="array" ref="AM27">_xlfn.IFS(AM8="Rarement",4,AM8="Occasionnellement",3,AM8="Souvent",1,AM8="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AN27" s="2" cm="1">
-        <f t="array" ref="AN27">_xlfn.IFS(AN8="Rarement",4,AN8="Occasionnellement",3,AN8="Souvent",1,AN8="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AO27" s="2" cm="1">
-        <f t="array" ref="AO27">_xlfn.IFS(AG8="Rarement",4,AG8="Occasionnellement",3,AG8="Souvent",1,AG8="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="AP27" s="2" cm="1">
-        <f t="array" ref="AP27">_xlfn.IFS(AP8="Rarement",0,AP8="Occasionnellement",1,AP8="Souvent",3,AP8="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AQ27" s="2" cm="1">
-        <f t="array" ref="AQ27">_xlfn.IFS(AQ8="Rarement",0,AQ8="Occasionnellement",1,AQ8="Souvent",3,AQ8="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AR27" s="2" cm="1">
-        <f t="array" ref="AR27">_xlfn.IFS(AR8="Rarement",0,AR8="Occasionnellement",1,AR8="Souvent",3,AR8="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="AS27" s="2" cm="1">
-        <f t="array" ref="AS27">_xlfn.IFS(AS8="Rarement",4,AS8="Occasionnellement",3,AS8="Souvent",1,AS8="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AT27" s="2" cm="1">
-        <f t="array" ref="AT27">_xlfn.IFS(AT8="Rarement",0,AT8="Occasionnellement",1,AT8="Souvent",3,AT8="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AU27" s="2" cm="1">
-        <f t="array" ref="AU27">_xlfn.IFS(AU8="Rarement",4,AU8="Occasionnellement",3,AU8="Souvent",1,AU8="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AV27" s="2" cm="1">
-        <f t="array" ref="AV27">_xlfn.IFS(AV8="Rarement",0,AV8="Occasionnellement",1,AV8="Souvent",3,AV8="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AW27" s="2" cm="1">
-        <f t="array" ref="AW27">_xlfn.IFS(AW8="Rarement",0,AW8="Occasionnellement",1,AW8="Souvent",3,AW8="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AX27" s="2" cm="1">
-        <f t="array" ref="AX27">_xlfn.IFS(AX8="Rarement",0,AX8="Occasionnellement",1,AX8="Souvent",3,AX8="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AY27" s="2" cm="1">
-        <f t="array" ref="AY27">_xlfn.IFS(AY8="Rarement",0,AY8="Occasionnellement",1,AY8="Souvent",3,AY8="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AZ27" s="2" cm="1">
-        <f t="array" ref="AZ27">_xlfn.IFS(AZ8="Rarement",0,AZ8="Occasionnellement",1,AZ8="Souvent",3,AZ8="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="BA27" s="2" cm="1">
-        <f t="array" ref="BA27">_xlfn.IFS(BA8="Rarement",0,BA8="Occasionnellement",1,BA8="Souvent",3,BA8="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="BB27" s="2" cm="1">
-        <f t="array" ref="BB27">_xlfn.IFS(BB8="Rarement",0,BB8="Occasionnellement",1,BB8="Souvent",3,BB8="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="BC27" s="2" cm="1">
-        <f t="array" ref="BC27">_xlfn.IFS(BC8="Rarement",0,BC8="Occasionnellement",1,BC8="Souvent",3,BC8="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="BD27" s="2" cm="1">
-        <f t="array" ref="BD27">_xlfn.IFS(BD8="Rarement",0,BD8="Occasionnellement",1,BD8="Souvent",3,BD8="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BE27" s="2" cm="1">
-        <f t="array" ref="BE27">_xlfn.IFS(BE8="Rarement",0,BE8="Occasionnellement",1,BE8="Souvent",3,BE8="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="BF27" s="2" cm="1">
-        <f t="array" ref="BF27">_xlfn.IFS(BF8="Rarement",0,BF8="Occasionnellement",1,BF8="Souvent",3,BF8="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="BG27" s="2" cm="1">
-        <f t="array" ref="BG27">_xlfn.IFS(BG8="Rarement",4,BG8="Occasionnellement",3,BG8="Souvent",1,BG8="Presque toujours/Toujours",0)</f>
-        <v>4</v>
-      </c>
-      <c r="BH27" s="2" cm="1">
-        <f t="array" ref="BH27">_xlfn.IFS(BH8="Rarement",4,BH8="Occasionnellement",3,BH8="Souvent",1,BH8="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="CK27" s="2"/>
-      <c r="CL27" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>24</v>
-      </c>
-      <c r="CM27" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>21</v>
-      </c>
-      <c r="CN27" s="2">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>34</v>
-      </c>
-      <c r="CO27" s="7">
-        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA28" s="2" cm="1">
-        <f t="array" ref="AA28">_xlfn.IFS(AA9="Rarement",0,AA9="Occasionnellement",1,AA9="Souvent",3,AA9="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AB28" s="2" cm="1">
-        <f t="array" ref="AB28">_xlfn.IFS(AB9="Rarement",0,AB9="Occasionnellement",1,AB9="Souvent",3,AB9="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AC28" s="2" cm="1">
-        <f t="array" ref="AC28">_xlfn.IFS(AC9="Rarement",0,AC9="Occasionnellement",1,AC9="Souvent",3,AC9="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AD28" s="2" cm="1">
-        <f t="array" ref="AD28">_xlfn.IFS(AD9="Rarement",0,AD9="Occasionnellement",1,AD9="Souvent",3,AD9="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="2" cm="1">
-        <f t="array" ref="AE28">_xlfn.IFS(AE9="Rarement",0,AE9="Occasionnellement",1,AE9="Souvent",3,AE9="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AF28" s="2" cm="1">
-        <f t="array" ref="AF28">_xlfn.IFS(AF9="Rarement",0,AF9="Occasionnellement",1,AF9="Souvent",3,AF9="Presque toujours/Toujours",4)</f>
-        <v>3</v>
-      </c>
-      <c r="AG28" s="2" cm="1">
-        <f t="array" ref="AG28">_xlfn.IFS(AG9="Rarement",4,AG9="Occasionnellement",3,AG9="Souvent",1,AG9="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="2" cm="1">
-        <f t="array" ref="AH28">_xlfn.IFS(AH9="Rarement",4,AH9="Occasionnellement",3,AH9="Souvent",1,AH9="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AI28" s="2" cm="1">
-        <f t="array" ref="AI28">_xlfn.IFS(AI9="Rarement",4,AI9="Occasionnellement",3,AI9="Souvent",1,AI9="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AJ28" s="2" cm="1">
-        <f t="array" ref="AJ28">_xlfn.IFS(AJ9="Rarement",4,AJ9="Occasionnellement",3,AJ9="Souvent",1,AJ9="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK28" s="2" cm="1">
-        <f t="array" ref="AK28">_xlfn.IFS(AK9="Rarement",4,AK9="Occasionnellement",3,AK9="Souvent",1,AK9="Presque toujours/Toujours",0)</f>
-        <v>4</v>
-      </c>
-      <c r="AL28" s="2" cm="1">
-        <f t="array" ref="AL28">_xlfn.IFS(AL9="Rarement",4,AL9="Occasionnellement",3,AL9="Souvent",1,AL9="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AM28" s="2" cm="1">
-        <f t="array" ref="AM28">_xlfn.IFS(AM9="Rarement",4,AM9="Occasionnellement",3,AM9="Souvent",1,AM9="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="AN28" s="2" cm="1">
-        <f t="array" ref="AN28">_xlfn.IFS(AN9="Rarement",4,AN9="Occasionnellement",3,AN9="Souvent",1,AN9="Presque toujours/Toujours",0)</f>
-        <v>4</v>
-      </c>
-      <c r="AO28" s="2" cm="1">
-        <f t="array" ref="AO28">_xlfn.IFS(AG9="Rarement",4,AG9="Occasionnellement",3,AG9="Souvent",1,AG9="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="AP28" s="2" cm="1">
-        <f t="array" ref="AP28">_xlfn.IFS(AP9="Rarement",0,AP9="Occasionnellement",1,AP9="Souvent",3,AP9="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="2" cm="1">
-        <f t="array" ref="AQ28">_xlfn.IFS(AQ9="Rarement",0,AQ9="Occasionnellement",1,AQ9="Souvent",3,AQ9="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AR28" s="2" cm="1">
-        <f t="array" ref="AR28">_xlfn.IFS(AR9="Rarement",0,AR9="Occasionnellement",1,AR9="Souvent",3,AR9="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="AS28" s="2" cm="1">
-        <f t="array" ref="AS28">_xlfn.IFS(AS9="Rarement",4,AS9="Occasionnellement",3,AS9="Souvent",1,AS9="Presque toujours/Toujours",0)</f>
-        <v>3</v>
-      </c>
-      <c r="AT28" s="2" cm="1">
-        <f t="array" ref="AT28">_xlfn.IFS(AT9="Rarement",0,AT9="Occasionnellement",1,AT9="Souvent",3,AT9="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="AU28" s="2" cm="1">
-        <f t="array" ref="AU28">_xlfn.IFS(AU9="Rarement",4,AU9="Occasionnellement",3,AU9="Souvent",1,AU9="Presque toujours/Toujours",0)</f>
-        <v>1</v>
-      </c>
-      <c r="AV28" s="2" cm="1">
-        <f t="array" ref="AV28">_xlfn.IFS(AV9="Rarement",0,AV9="Occasionnellement",1,AV9="Souvent",3,AV9="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AW28" s="2" cm="1">
-        <f t="array" ref="AW28">_xlfn.IFS(AW9="Rarement",0,AW9="Occasionnellement",1,AW9="Souvent",3,AW9="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AX28" s="2" cm="1">
-        <f t="array" ref="AX28">_xlfn.IFS(AX9="Rarement",0,AX9="Occasionnellement",1,AX9="Souvent",3,AX9="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="AY28" s="2" cm="1">
-        <f t="array" ref="AY28">_xlfn.IFS(AY9="Rarement",0,AY9="Occasionnellement",1,AY9="Souvent",3,AY9="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="2" cm="1">
-        <f t="array" ref="AZ28">_xlfn.IFS(AZ9="Rarement",0,AZ9="Occasionnellement",1,AZ9="Souvent",3,AZ9="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BA28" s="2" cm="1">
-        <f t="array" ref="BA28">_xlfn.IFS(BA9="Rarement",0,BA9="Occasionnellement",1,BA9="Souvent",3,BA9="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BB28" s="2" cm="1">
-        <f t="array" ref="BB28">_xlfn.IFS(BB9="Rarement",0,BB9="Occasionnellement",1,BB9="Souvent",3,BB9="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="BC28" s="2" cm="1">
-        <f t="array" ref="BC28">_xlfn.IFS(BC9="Rarement",0,BC9="Occasionnellement",1,BC9="Souvent",3,BC9="Presque toujours/Toujours",4)</f>
-        <v>4</v>
-      </c>
-      <c r="BD28" s="2" cm="1">
-        <f t="array" ref="BD28">_xlfn.IFS(BD9="Rarement",0,BD9="Occasionnellement",1,BD9="Souvent",3,BD9="Presque toujours/Toujours",4)</f>
-        <v>1</v>
-      </c>
-      <c r="BE28" s="2" cm="1">
-        <f t="array" ref="BE28">_xlfn.IFS(BE9="Rarement",0,BE9="Occasionnellement",1,BE9="Souvent",3,BE9="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="BF28" s="2" cm="1">
-        <f t="array" ref="BF28">_xlfn.IFS(BF9="Rarement",0,BF9="Occasionnellement",1,BF9="Souvent",3,BF9="Presque toujours/Toujours",4)</f>
-        <v>0</v>
-      </c>
-      <c r="BG28" s="2" cm="1">
-        <f t="array" ref="BG28">_xlfn.IFS(BG9="Rarement",4,BG9="Occasionnellement",3,BG9="Souvent",1,BG9="Presque toujours/Toujours",0)</f>
-        <v>4</v>
-      </c>
-      <c r="BH28" s="2" cm="1">
-        <f t="array" ref="BH28">_xlfn.IFS(BH9="Rarement",4,BH9="Occasionnellement",3,BH9="Souvent",1,BH9="Presque toujours/Toujours",0)</f>
-        <v>0</v>
-      </c>
-      <c r="CK28" s="2"/>
-      <c r="CL28" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>6</v>
-      </c>
-      <c r="CM28" s="1">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>27</v>
-      </c>
-      <c r="CN28" s="2">
-        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>25</v>
-      </c>
-      <c r="CO28" s="7">
-        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="AA29" s="2" cm="1">
-        <f t="array" ref="AA29">_xlfn.IFS(AA10="Rarement",0,AA10="Occasionnellement",1,AA10="Souvent",3,AA10="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AA29">_xlfn.IFS(AA2="Rarement",0,AA2="Occasionnellement",1,AA2="Souvent",3,AA2="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="AB29" s="2" cm="1">
-        <f t="array" ref="AB29">_xlfn.IFS(AB10="Rarement",0,AB10="Occasionnellement",1,AB10="Souvent",3,AB10="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AB29">_xlfn.IFS(AB2="Rarement",0,AB2="Occasionnellement",1,AB2="Souvent",3,AB2="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AC29" s="2" cm="1">
-        <f t="array" ref="AC29">_xlfn.IFS(AC10="Rarement",0,AC10="Occasionnellement",1,AC10="Souvent",3,AC10="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AC29">_xlfn.IFS(AC2="Rarement",0,AC2="Occasionnellement",1,AC2="Souvent",3,AC2="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="AD29" s="2" cm="1">
-        <f t="array" ref="AD29">_xlfn.IFS(AD10="Rarement",0,AD10="Occasionnellement",1,AD10="Souvent",3,AD10="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AD29">_xlfn.IFS(AD2="Rarement",0,AD2="Occasionnellement",1,AD2="Souvent",3,AD2="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="AE29" s="2" cm="1">
-        <f t="array" ref="AE29">_xlfn.IFS(AE10="Rarement",0,AE10="Occasionnellement",1,AE10="Souvent",3,AE10="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AE29">_xlfn.IFS(AE2="Rarement",0,AE2="Occasionnellement",1,AE2="Souvent",3,AE2="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="AF29" s="2" cm="1">
-        <f t="array" ref="AF29">_xlfn.IFS(AF10="Rarement",0,AF10="Occasionnellement",1,AF10="Souvent",3,AF10="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF29">_xlfn.IFS(AF2="Rarement",4,AF2="Occasionnellement",1,AF2="Souvent",3,AF2="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG29" s="2" cm="1">
-        <f t="array" ref="AG29">_xlfn.IFS(AG10="Rarement",4,AG10="Occasionnellement",3,AG10="Souvent",1,AG10="Presque toujours/Toujours",0)</f>
-        <v>4</v>
+        <f t="array" ref="AG29">_xlfn.IFS(AG2="Rarement",4,AG2="Occasionnellement",3,AG2="Souvent",1,AG2="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AH29" s="2" cm="1">
-        <f t="array" ref="AH29">_xlfn.IFS(AH10="Rarement",4,AH10="Occasionnellement",3,AH10="Souvent",1,AH10="Presque toujours/Toujours",0)</f>
-        <v>4</v>
+        <f t="array" ref="AH29">_xlfn.IFS(AH2="Rarement",4,AH2="Occasionnellement",3,AH2="Souvent",1,AH2="Presque toujours/Toujours",0)</f>
+        <v>0</v>
       </c>
       <c r="AI29" s="2" cm="1">
-        <f t="array" ref="AI29">_xlfn.IFS(AI10="Rarement",4,AI10="Occasionnellement",3,AI10="Souvent",1,AI10="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AI29">_xlfn.IFS(AI2="Rarement",4,AI2="Occasionnellement",3,AI2="Souvent",1,AI2="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AJ29" s="2" cm="1">
-        <f t="array" ref="AJ29">_xlfn.IFS(AJ10="Rarement",4,AJ10="Occasionnellement",3,AJ10="Souvent",1,AJ10="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AJ29">_xlfn.IFS(AJ2="Rarement",4,AJ2="Occasionnellement",3,AJ2="Souvent",1,AJ2="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AK29" s="2" cm="1">
-        <f t="array" ref="AK29">_xlfn.IFS(AK10="Rarement",4,AK10="Occasionnellement",3,AK10="Souvent",1,AK10="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AK29">_xlfn.IFS(AK2="Rarement",4,AK2="Occasionnellement",3,AK2="Souvent",1,AK2="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AL29" s="2" cm="1">
-        <f t="array" ref="AL29">_xlfn.IFS(AL10="Rarement",4,AL10="Occasionnellement",3,AL10="Souvent",1,AL10="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AL29">_xlfn.IFS(AL2="Rarement",4,AL2="Occasionnellement",3,AL2="Souvent",1,AL2="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AM29" s="2" cm="1">
-        <f t="array" ref="AM29">_xlfn.IFS(AM10="Rarement",4,AM10="Occasionnellement",3,AM10="Souvent",1,AM10="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AM29">_xlfn.IFS(AM2="Rarement",4,AM2="Occasionnellement",3,AM2="Souvent",1,AM2="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AN29" s="2" cm="1">
-        <f t="array" ref="AN29">_xlfn.IFS(AN10="Rarement",4,AN10="Occasionnellement",3,AN10="Souvent",1,AN10="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AN29">_xlfn.IFS(AN2="Rarement",4,AN2="Occasionnellement",3,AN2="Souvent",1,AN2="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AO29" s="2" cm="1">
-        <f t="array" ref="AO29">_xlfn.IFS(AG10="Rarement",4,AG10="Occasionnellement",3,AG10="Souvent",1,AG10="Presque toujours/Toujours",0)</f>
-        <v>4</v>
+        <f t="array" ref="AO29">_xlfn.IFS(AG2="Rarement",4,AG2="Occasionnellement",3,AG2="Souvent",1,AG2="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AP29" s="2" cm="1">
-        <f t="array" ref="AP29">_xlfn.IFS(AP10="Rarement",0,AP10="Occasionnellement",1,AP10="Souvent",3,AP10="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AP29">_xlfn.IFS(AP2="Rarement",0,AP2="Occasionnellement",1,AP2="Souvent",3,AP2="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AQ29" s="2" cm="1">
-        <f t="array" ref="AQ29">_xlfn.IFS(AQ10="Rarement",0,AQ10="Occasionnellement",1,AQ10="Souvent",3,AQ10="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AQ29">_xlfn.IFS(AQ2="Rarement",0,AQ2="Occasionnellement",1,AQ2="Souvent",3,AQ2="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AR29" s="2" cm="1">
-        <f t="array" ref="AR29">_xlfn.IFS(AR10="Rarement",0,AR10="Occasionnellement",1,AR10="Souvent",3,AR10="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AR29">_xlfn.IFS(AR2="Rarement",0,AR2="Occasionnellement",1,AR2="Souvent",3,AR2="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AS29" s="2" cm="1">
-        <f t="array" ref="AS29">_xlfn.IFS(AS10="Rarement",4,AS10="Occasionnellement",3,AS10="Souvent",1,AS10="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AS29">_xlfn.IFS(AS2="Rarement",4,AS2="Occasionnellement",3,AS2="Souvent",1,AS2="Presque toujours/Toujours",0)</f>
+        <v>4</v>
       </c>
       <c r="AT29" s="2" cm="1">
-        <f t="array" ref="AT29">_xlfn.IFS(AT10="Rarement",0,AT10="Occasionnellement",1,AT10="Souvent",3,AT10="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AT29">_xlfn.IFS(AT2="Rarement",0,AT2="Occasionnellement",1,AT2="Souvent",3,AT2="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AU29" s="2" cm="1">
-        <f t="array" ref="AU29">_xlfn.IFS(AU10="Rarement",4,AU10="Occasionnellement",3,AU10="Souvent",1,AU10="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AU29">_xlfn.IFS(AU2="Rarement",4,AU2="Occasionnellement",3,AU2="Souvent",1,AU2="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AV29" s="2" cm="1">
-        <f t="array" ref="AV29">_xlfn.IFS(AV10="Rarement",0,AV10="Occasionnellement",1,AV10="Souvent",3,AV10="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AV29">_xlfn.IFS(AV2="Rarement",0,AV2="Occasionnellement",1,AV2="Souvent",3,AV2="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AW29" s="2" cm="1">
-        <f t="array" ref="AW29">_xlfn.IFS(AW10="Rarement",0,AW10="Occasionnellement",1,AW10="Souvent",3,AW10="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AW29">_xlfn.IFS(AW2="Rarement",0,AW2="Occasionnellement",1,AW2="Souvent",3,AW2="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AX29" s="2" cm="1">
-        <f t="array" ref="AX29">_xlfn.IFS(AX10="Rarement",0,AX10="Occasionnellement",1,AX10="Souvent",3,AX10="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AX29">_xlfn.IFS(AX2="Rarement",0,AX2="Occasionnellement",1,AX2="Souvent",3,AX2="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AY29" s="2" cm="1">
-        <f t="array" ref="AY29">_xlfn.IFS(AY10="Rarement",0,AY10="Occasionnellement",1,AY10="Souvent",3,AY10="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AY29">_xlfn.IFS(AY2="Rarement",0,AY2="Occasionnellement",1,AY2="Souvent",3,AY2="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AZ29" s="2" cm="1">
-        <f t="array" ref="AZ29">_xlfn.IFS(AZ10="Rarement",0,AZ10="Occasionnellement",1,AZ10="Souvent",3,AZ10="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AZ29">_xlfn.IFS(AZ2="Rarement",0,AZ2="Occasionnellement",1,AZ2="Souvent",3,AZ2="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BA29" s="2" cm="1">
-        <f t="array" ref="BA29">_xlfn.IFS(BA10="Rarement",0,BA10="Occasionnellement",1,BA10="Souvent",3,BA10="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="BA29">_xlfn.IFS(BA2="Rarement",0,BA2="Occasionnellement",1,BA2="Souvent",3,BA2="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="BB29" s="2" cm="1">
-        <f t="array" ref="BB29">_xlfn.IFS(BB10="Rarement",0,BB10="Occasionnellement",1,BB10="Souvent",3,BB10="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BB29">_xlfn.IFS(BB2="Rarement",0,BB2="Occasionnellement",1,BB2="Souvent",3,BB2="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="BC29" s="2" cm="1">
-        <f t="array" ref="BC29">_xlfn.IFS(BC10="Rarement",0,BC10="Occasionnellement",1,BC10="Souvent",3,BC10="Presque toujours/Toujours",4)</f>
-        <v>4</v>
+        <f t="array" ref="BC29">_xlfn.IFS(BC2="Rarement",0,BC2="Occasionnellement",1,BC2="Souvent",3,BC2="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="BD29" s="2" cm="1">
-        <f t="array" ref="BD29">_xlfn.IFS(BD10="Rarement",0,BD10="Occasionnellement",1,BD10="Souvent",3,BD10="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BD29">_xlfn.IFS(BD2="Rarement",0,BD2="Occasionnellement",1,BD2="Souvent",3,BD2="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="BE29" s="2" cm="1">
-        <f t="array" ref="BE29">_xlfn.IFS(BE10="Rarement",0,BE10="Occasionnellement",1,BE10="Souvent",3,BE10="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="BE29">_xlfn.IFS(BE2="Rarement",0,BE2="Occasionnellement",1,BE2="Souvent",3,BE2="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="BF29" s="2" cm="1">
-        <f t="array" ref="BF29">_xlfn.IFS(BF10="Rarement",0,BF10="Occasionnellement",1,BF10="Souvent",3,BF10="Presque toujours/Toujours",4)</f>
-        <v>4</v>
+        <f t="array" ref="BF29">_xlfn.IFS(BF2="Rarement",0,BF2="Occasionnellement",1,BF2="Souvent",3,BF2="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="BG29" s="2" cm="1">
-        <f t="array" ref="BG29">_xlfn.IFS(BG10="Rarement",4,BG10="Occasionnellement",3,BG10="Souvent",1,BG10="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="BG29">_xlfn.IFS(BG2="Rarement",4,BG2="Occasionnellement",3,BG2="Souvent",1,BG2="Presque toujours/Toujours",0)</f>
+        <v>0</v>
       </c>
       <c r="BH29" s="2" cm="1">
-        <f t="array" ref="BH29">_xlfn.IFS(BH10="Rarement",4,BH10="Occasionnellement",3,BH10="Souvent",1,BH10="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="BH29">_xlfn.IFS(BH2="Rarement",4,BH2="Occasionnellement",3,BH2="Souvent",1,BH2="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="CK29" s="2"/>
       <c r="CL29" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="CM29" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="CN29" s="2">
         <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="CO29" s="7">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>71</v>
+        <v>56</v>
+      </c>
+      <c r="CP29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="CQ29" s="2"/>
+      <c r="CR29" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>130</v>
-      </c>
+    <row r="30" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="AA30" s="2" cm="1">
-        <f t="array" ref="AA30">_xlfn.IFS(AA11="Rarement",0,AA11="Occasionnellement",1,AA11="Souvent",3,AA11="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AA30">_xlfn.IFS(AA3="Rarement",0,AA3="Occasionnellement",1,AA3="Souvent",3,AA3="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AB30" s="2" cm="1">
-        <f t="array" ref="AB30">_xlfn.IFS(AB11="Rarement",0,AB11="Occasionnellement",1,AB11="Souvent",3,AB11="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AB30">_xlfn.IFS(AB3="Rarement",0,AB3="Occasionnellement",1,AB3="Souvent",3,AB3="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AC30" s="2" cm="1">
-        <f t="array" ref="AC30">_xlfn.IFS(AC11="Rarement",0,AC11="Occasionnellement",1,AC11="Souvent",3,AC11="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AC30">_xlfn.IFS(AC3="Rarement",0,AC3="Occasionnellement",1,AC3="Souvent",3,AC3="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AD30" s="2" cm="1">
-        <f t="array" ref="AD30">_xlfn.IFS(AD11="Rarement",0,AD11="Occasionnellement",1,AD11="Souvent",3,AD11="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AD30">_xlfn.IFS(AD3="Rarement",0,AD3="Occasionnellement",1,AD3="Souvent",3,AD3="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AE30" s="2" cm="1">
-        <f t="array" ref="AE30">_xlfn.IFS(AE11="Rarement",0,AE11="Occasionnellement",1,AE11="Souvent",3,AE11="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AE30">_xlfn.IFS(AE3="Rarement",0,AE3="Occasionnellement",1,AE3="Souvent",3,AE3="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AF30" s="2" cm="1">
-        <f t="array" ref="AF30">_xlfn.IFS(AF11="Rarement",0,AF11="Occasionnellement",1,AF11="Souvent",3,AF11="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AF30">_xlfn.IFS(AF3="Rarement",4,AF3="Occasionnellement",1,AF3="Souvent",3,AF3="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="AG30" s="2" cm="1">
-        <f t="array" ref="AG30">_xlfn.IFS(AG11="Rarement",4,AG11="Occasionnellement",3,AG11="Souvent",1,AG11="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AG30">_xlfn.IFS(AG3="Rarement",4,AG3="Occasionnellement",3,AG3="Souvent",1,AG3="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AH30" s="2" cm="1">
-        <f t="array" ref="AH30">_xlfn.IFS(AH11="Rarement",4,AH11="Occasionnellement",3,AH11="Souvent",1,AH11="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AH30">_xlfn.IFS(AH3="Rarement",4,AH3="Occasionnellement",3,AH3="Souvent",1,AH3="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AI30" s="2" cm="1">
-        <f t="array" ref="AI30">_xlfn.IFS(AI11="Rarement",4,AI11="Occasionnellement",3,AI11="Souvent",1,AI11="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AI30">_xlfn.IFS(AI3="Rarement",4,AI3="Occasionnellement",3,AI3="Souvent",1,AI3="Presque toujours/Toujours",0)</f>
         <v>3</v>
       </c>
       <c r="AJ30" s="2" cm="1">
-        <f t="array" ref="AJ30">_xlfn.IFS(AJ11="Rarement",4,AJ11="Occasionnellement",3,AJ11="Souvent",1,AJ11="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AJ30">_xlfn.IFS(AJ3="Rarement",4,AJ3="Occasionnellement",3,AJ3="Souvent",1,AJ3="Presque toujours/Toujours",0)</f>
         <v>3</v>
       </c>
       <c r="AK30" s="2" cm="1">
-        <f t="array" ref="AK30">_xlfn.IFS(AK11="Rarement",4,AK11="Occasionnellement",3,AK11="Souvent",1,AK11="Presque toujours/Toujours",0)</f>
-        <v>4</v>
+        <f t="array" ref="AK30">_xlfn.IFS(AK3="Rarement",4,AK3="Occasionnellement",3,AK3="Souvent",1,AK3="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AL30" s="2" cm="1">
-        <f t="array" ref="AL30">_xlfn.IFS(AL11="Rarement",4,AL11="Occasionnellement",3,AL11="Souvent",1,AL11="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AL30">_xlfn.IFS(AL3="Rarement",4,AL3="Occasionnellement",3,AL3="Souvent",1,AL3="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AM30" s="2" cm="1">
-        <f t="array" ref="AM30">_xlfn.IFS(AM11="Rarement",4,AM11="Occasionnellement",3,AM11="Souvent",1,AM11="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AM30">_xlfn.IFS(AM3="Rarement",4,AM3="Occasionnellement",3,AM3="Souvent",1,AM3="Presque toujours/Toujours",0)</f>
+        <v>0</v>
       </c>
       <c r="AN30" s="2" cm="1">
-        <f t="array" ref="AN30">_xlfn.IFS(AN11="Rarement",4,AN11="Occasionnellement",3,AN11="Souvent",1,AN11="Presque toujours/Toujours",0)</f>
-        <v>4</v>
+        <f t="array" ref="AN30">_xlfn.IFS(AN3="Rarement",4,AN3="Occasionnellement",3,AN3="Souvent",1,AN3="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AO30" s="2" cm="1">
-        <f t="array" ref="AO30">_xlfn.IFS(AG11="Rarement",4,AG11="Occasionnellement",3,AG11="Souvent",1,AG11="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AO30">_xlfn.IFS(AG3="Rarement",4,AG3="Occasionnellement",3,AG3="Souvent",1,AG3="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AP30" s="2" cm="1">
-        <f t="array" ref="AP30">_xlfn.IFS(AP11="Rarement",0,AP11="Occasionnellement",1,AP11="Souvent",3,AP11="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AP30">_xlfn.IFS(AP3="Rarement",0,AP3="Occasionnellement",1,AP3="Souvent",3,AP3="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AQ30" s="2" cm="1">
-        <f t="array" ref="AQ30">_xlfn.IFS(AQ11="Rarement",0,AQ11="Occasionnellement",1,AQ11="Souvent",3,AQ11="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AQ30">_xlfn.IFS(AQ3="Rarement",0,AQ3="Occasionnellement",1,AQ3="Souvent",3,AQ3="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AR30" s="2" cm="1">
-        <f t="array" ref="AR30">_xlfn.IFS(AR11="Rarement",0,AR11="Occasionnellement",1,AR11="Souvent",3,AR11="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AR30">_xlfn.IFS(AR3="Rarement",0,AR3="Occasionnellement",1,AR3="Souvent",3,AR3="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AS30" s="2" cm="1">
-        <f t="array" ref="AS30">_xlfn.IFS(AS11="Rarement",4,AS11="Occasionnellement",3,AS11="Souvent",1,AS11="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AS30">_xlfn.IFS(AS3="Rarement",4,AS3="Occasionnellement",3,AS3="Souvent",1,AS3="Presque toujours/Toujours",0)</f>
+        <v>4</v>
       </c>
       <c r="AT30" s="2" cm="1">
-        <f t="array" ref="AT30">_xlfn.IFS(AT11="Rarement",0,AT11="Occasionnellement",1,AT11="Souvent",3,AT11="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AT30">_xlfn.IFS(AT3="Rarement",0,AT3="Occasionnellement",1,AT3="Souvent",3,AT3="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="AU30" s="2" cm="1">
-        <f t="array" ref="AU30">_xlfn.IFS(AU11="Rarement",4,AU11="Occasionnellement",3,AU11="Souvent",1,AU11="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AU30">_xlfn.IFS(AU3="Rarement",4,AU3="Occasionnellement",3,AU3="Souvent",1,AU3="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AV30" s="2" cm="1">
-        <f t="array" ref="AV30">_xlfn.IFS(AV11="Rarement",0,AV11="Occasionnellement",1,AV11="Souvent",3,AV11="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AV30">_xlfn.IFS(AV3="Rarement",0,AV3="Occasionnellement",1,AV3="Souvent",3,AV3="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AW30" s="2" cm="1">
-        <f t="array" ref="AW30">_xlfn.IFS(AW11="Rarement",0,AW11="Occasionnellement",1,AW11="Souvent",3,AW11="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AW30">_xlfn.IFS(AW3="Rarement",0,AW3="Occasionnellement",1,AW3="Souvent",3,AW3="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AX30" s="2" cm="1">
-        <f t="array" ref="AX30">_xlfn.IFS(AX11="Rarement",0,AX11="Occasionnellement",1,AX11="Souvent",3,AX11="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AX30">_xlfn.IFS(AX3="Rarement",0,AX3="Occasionnellement",1,AX3="Souvent",3,AX3="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AY30" s="2" cm="1">
-        <f t="array" ref="AY30">_xlfn.IFS(AY11="Rarement",0,AY11="Occasionnellement",1,AY11="Souvent",3,AY11="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AY30">_xlfn.IFS(AY3="Rarement",0,AY3="Occasionnellement",1,AY3="Souvent",3,AY3="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="AZ30" s="2" cm="1">
-        <f t="array" ref="AZ30">_xlfn.IFS(AZ11="Rarement",0,AZ11="Occasionnellement",1,AZ11="Souvent",3,AZ11="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AZ30">_xlfn.IFS(AZ3="Rarement",0,AZ3="Occasionnellement",1,AZ3="Souvent",3,AZ3="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="BA30" s="2" cm="1">
-        <f t="array" ref="BA30">_xlfn.IFS(BA11="Rarement",0,BA11="Occasionnellement",1,BA11="Souvent",3,BA11="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BA30">_xlfn.IFS(BA3="Rarement",0,BA3="Occasionnellement",1,BA3="Souvent",3,BA3="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="BB30" s="2" cm="1">
-        <f t="array" ref="BB30">_xlfn.IFS(BB11="Rarement",0,BB11="Occasionnellement",1,BB11="Souvent",3,BB11="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BB30">_xlfn.IFS(BB3="Rarement",0,BB3="Occasionnellement",1,BB3="Souvent",3,BB3="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="BC30" s="2" cm="1">
-        <f t="array" ref="BC30">_xlfn.IFS(BC11="Rarement",0,BC11="Occasionnellement",1,BC11="Souvent",3,BC11="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="BC30">_xlfn.IFS(BC3="Rarement",0,BC3="Occasionnellement",1,BC3="Souvent",3,BC3="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BD30" s="2" cm="1">
-        <f t="array" ref="BD30">_xlfn.IFS(BD11="Rarement",0,BD11="Occasionnellement",1,BD11="Souvent",3,BD11="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="BD30">_xlfn.IFS(BD3="Rarement",0,BD3="Occasionnellement",1,BD3="Souvent",3,BD3="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BE30" s="2" cm="1">
-        <f t="array" ref="BE30">_xlfn.IFS(BE11="Rarement",0,BE11="Occasionnellement",1,BE11="Souvent",3,BE11="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BE30">_xlfn.IFS(BE3="Rarement",0,BE3="Occasionnellement",1,BE3="Souvent",3,BE3="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="BF30" s="2" cm="1">
-        <f t="array" ref="BF30">_xlfn.IFS(BF11="Rarement",0,BF11="Occasionnellement",1,BF11="Souvent",3,BF11="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="BF30">_xlfn.IFS(BF3="Rarement",0,BF3="Occasionnellement",1,BF3="Souvent",3,BF3="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="BG30" s="2" cm="1">
-        <f t="array" ref="BG30">_xlfn.IFS(BG11="Rarement",4,BG11="Occasionnellement",3,BG11="Souvent",1,BG11="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="BG30">_xlfn.IFS(BG3="Rarement",4,BG3="Occasionnellement",3,BG3="Souvent",1,BG3="Presque toujours/Toujours",0)</f>
+        <v>4</v>
       </c>
       <c r="BH30" s="2" cm="1">
-        <f t="array" ref="BH30">_xlfn.IFS(BH11="Rarement",4,BH11="Occasionnellement",3,BH11="Souvent",1,BH11="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="BH30">_xlfn.IFS(BH3="Rarement",4,BH3="Occasionnellement",3,BH3="Souvent",1,BH3="Presque toujours/Toujours",0)</f>
         <v>3</v>
       </c>
       <c r="CK30" s="2"/>
       <c r="CL30" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="CM30" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="CN30" s="2">
         <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="CO30" s="7">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="CP30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="CQ30" s="2"/>
+      <c r="CR30" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>132</v>
-      </c>
+    <row r="31" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="AA31" s="2" cm="1">
-        <f t="array" ref="AA31">_xlfn.IFS(AA12="Rarement",0,AA12="Occasionnellement",1,AA12="Souvent",3,AA12="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AA31">_xlfn.IFS(AA4="Rarement",0,AA4="Occasionnellement",1,AA4="Souvent",3,AA4="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AB31" s="2" cm="1">
-        <f t="array" ref="AB31">_xlfn.IFS(AB12="Rarement",0,AB12="Occasionnellement",1,AB12="Souvent",3,AB12="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AB31">_xlfn.IFS(AB4="Rarement",0,AB4="Occasionnellement",1,AB4="Souvent",3,AB4="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AC31" s="2" cm="1">
-        <f t="array" ref="AC31">_xlfn.IFS(AC12="Rarement",0,AC12="Occasionnellement",1,AC12="Souvent",3,AC12="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AC31">_xlfn.IFS(AC4="Rarement",0,AC4="Occasionnellement",1,AC4="Souvent",3,AC4="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AD31" s="2" cm="1">
-        <f t="array" ref="AD31">_xlfn.IFS(AD12="Rarement",0,AD12="Occasionnellement",1,AD12="Souvent",3,AD12="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AD31">_xlfn.IFS(AD4="Rarement",0,AD4="Occasionnellement",1,AD4="Souvent",3,AD4="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="AE31" s="2" cm="1">
-        <f t="array" ref="AE31">_xlfn.IFS(AE12="Rarement",0,AE12="Occasionnellement",1,AE12="Souvent",3,AE12="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AE31">_xlfn.IFS(AE4="Rarement",0,AE4="Occasionnellement",1,AE4="Souvent",3,AE4="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AF31" s="2" cm="1">
-        <f t="array" ref="AF31">_xlfn.IFS(AF12="Rarement",0,AF12="Occasionnellement",1,AF12="Souvent",3,AF12="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF31">_xlfn.IFS(AF4="Rarement",4,AF4="Occasionnellement",1,AF4="Souvent",3,AF4="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG31" s="2" cm="1">
-        <f t="array" ref="AG31">_xlfn.IFS(AG12="Rarement",4,AG12="Occasionnellement",3,AG12="Souvent",1,AG12="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AG31">_xlfn.IFS(AG4="Rarement",4,AG4="Occasionnellement",3,AG4="Souvent",1,AG4="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AH31" s="2" cm="1">
-        <f t="array" ref="AH31">_xlfn.IFS(AH12="Rarement",4,AH12="Occasionnellement",3,AH12="Souvent",1,AH12="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AH31">_xlfn.IFS(AH4="Rarement",4,AH4="Occasionnellement",3,AH4="Souvent",1,AH4="Presque toujours/Toujours",0)</f>
         <v>0</v>
       </c>
       <c r="AI31" s="2" cm="1">
-        <f t="array" ref="AI31">_xlfn.IFS(AI12="Rarement",4,AI12="Occasionnellement",3,AI12="Souvent",1,AI12="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AI31">_xlfn.IFS(AI4="Rarement",4,AI4="Occasionnellement",3,AI4="Souvent",1,AI4="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AJ31" s="2" cm="1">
-        <f t="array" ref="AJ31">_xlfn.IFS(AJ12="Rarement",4,AJ12="Occasionnellement",3,AJ12="Souvent",1,AJ12="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AJ31">_xlfn.IFS(AJ4="Rarement",4,AJ4="Occasionnellement",3,AJ4="Souvent",1,AJ4="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AK31" s="2" cm="1">
-        <f t="array" ref="AK31">_xlfn.IFS(AK12="Rarement",4,AK12="Occasionnellement",3,AK12="Souvent",1,AK12="Presque toujours/Toujours",0)</f>
-        <v>4</v>
+        <f t="array" ref="AK31">_xlfn.IFS(AK4="Rarement",4,AK4="Occasionnellement",3,AK4="Souvent",1,AK4="Presque toujours/Toujours",0)</f>
+        <v>0</v>
       </c>
       <c r="AL31" s="2" cm="1">
-        <f t="array" ref="AL31">_xlfn.IFS(AL12="Rarement",4,AL12="Occasionnellement",3,AL12="Souvent",1,AL12="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AL31">_xlfn.IFS(AL4="Rarement",4,AL4="Occasionnellement",3,AL4="Souvent",1,AL4="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AM31" s="2" cm="1">
-        <f t="array" ref="AM31">_xlfn.IFS(AM12="Rarement",4,AM12="Occasionnellement",3,AM12="Souvent",1,AM12="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AM31">_xlfn.IFS(AM4="Rarement",4,AM4="Occasionnellement",3,AM4="Souvent",1,AM4="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AN31" s="2" cm="1">
-        <f t="array" ref="AN31">_xlfn.IFS(AN12="Rarement",4,AN12="Occasionnellement",3,AN12="Souvent",1,AN12="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AN31">_xlfn.IFS(AN4="Rarement",4,AN4="Occasionnellement",3,AN4="Souvent",1,AN4="Presque toujours/Toujours",0)</f>
         <v>3</v>
       </c>
       <c r="AO31" s="2" cm="1">
-        <f t="array" ref="AO31">_xlfn.IFS(AG12="Rarement",4,AG12="Occasionnellement",3,AG12="Souvent",1,AG12="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AO31">_xlfn.IFS(AG4="Rarement",4,AG4="Occasionnellement",3,AG4="Souvent",1,AG4="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AP31" s="2" cm="1">
-        <f t="array" ref="AP31">_xlfn.IFS(AP12="Rarement",0,AP12="Occasionnellement",1,AP12="Souvent",3,AP12="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AP31">_xlfn.IFS(AP4="Rarement",0,AP4="Occasionnellement",1,AP4="Souvent",3,AP4="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AQ31" s="2" cm="1">
-        <f t="array" ref="AQ31">_xlfn.IFS(AQ12="Rarement",0,AQ12="Occasionnellement",1,AQ12="Souvent",3,AQ12="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AQ31">_xlfn.IFS(AQ4="Rarement",0,AQ4="Occasionnellement",1,AQ4="Souvent",3,AQ4="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AR31" s="2" cm="1">
-        <f t="array" ref="AR31">_xlfn.IFS(AR12="Rarement",0,AR12="Occasionnellement",1,AR12="Souvent",3,AR12="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AR31">_xlfn.IFS(AR4="Rarement",0,AR4="Occasionnellement",1,AR4="Souvent",3,AR4="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="AS31" s="2" cm="1">
-        <f t="array" ref="AS31">_xlfn.IFS(AS12="Rarement",4,AS12="Occasionnellement",3,AS12="Souvent",1,AS12="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AS31">_xlfn.IFS(AS4="Rarement",4,AS4="Occasionnellement",3,AS4="Souvent",1,AS4="Presque toujours/Toujours",0)</f>
         <v>4</v>
       </c>
       <c r="AT31" s="2" cm="1">
-        <f t="array" ref="AT31">_xlfn.IFS(AT12="Rarement",0,AT12="Occasionnellement",1,AT12="Souvent",3,AT12="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AT31">_xlfn.IFS(AT4="Rarement",0,AT4="Occasionnellement",1,AT4="Souvent",3,AT4="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AU31" s="2" cm="1">
-        <f t="array" ref="AU31">_xlfn.IFS(AU12="Rarement",4,AU12="Occasionnellement",3,AU12="Souvent",1,AU12="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AU31">_xlfn.IFS(AU4="Rarement",4,AU4="Occasionnellement",3,AU4="Souvent",1,AU4="Presque toujours/Toujours",0)</f>
         <v>0</v>
       </c>
       <c r="AV31" s="2" cm="1">
-        <f t="array" ref="AV31">_xlfn.IFS(AV12="Rarement",0,AV12="Occasionnellement",1,AV12="Souvent",3,AV12="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AV31">_xlfn.IFS(AV4="Rarement",0,AV4="Occasionnellement",1,AV4="Souvent",3,AV4="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AW31" s="2" cm="1">
-        <f t="array" ref="AW31">_xlfn.IFS(AW12="Rarement",0,AW12="Occasionnellement",1,AW12="Souvent",3,AW12="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AW31">_xlfn.IFS(AW4="Rarement",0,AW4="Occasionnellement",1,AW4="Souvent",3,AW4="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AX31" s="2" cm="1">
-        <f t="array" ref="AX31">_xlfn.IFS(AX12="Rarement",0,AX12="Occasionnellement",1,AX12="Souvent",3,AX12="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AX31">_xlfn.IFS(AX4="Rarement",0,AX4="Occasionnellement",1,AX4="Souvent",3,AX4="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="AY31" s="2" cm="1">
-        <f t="array" ref="AY31">_xlfn.IFS(AY12="Rarement",0,AY12="Occasionnellement",1,AY12="Souvent",3,AY12="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AY31">_xlfn.IFS(AY4="Rarement",0,AY4="Occasionnellement",1,AY4="Souvent",3,AY4="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AZ31" s="2" cm="1">
-        <f t="array" ref="AZ31">_xlfn.IFS(AZ12="Rarement",0,AZ12="Occasionnellement",1,AZ12="Souvent",3,AZ12="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AZ31">_xlfn.IFS(AZ4="Rarement",0,AZ4="Occasionnellement",1,AZ4="Souvent",3,AZ4="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BA31" s="2" cm="1">
-        <f t="array" ref="BA31">_xlfn.IFS(BA12="Rarement",0,BA12="Occasionnellement",1,BA12="Souvent",3,BA12="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BA31">_xlfn.IFS(BA4="Rarement",0,BA4="Occasionnellement",1,BA4="Souvent",3,BA4="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="BB31" s="2" cm="1">
-        <f t="array" ref="BB31">_xlfn.IFS(BB12="Rarement",0,BB12="Occasionnellement",1,BB12="Souvent",3,BB12="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BB31">_xlfn.IFS(BB4="Rarement",0,BB4="Occasionnellement",1,BB4="Souvent",3,BB4="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="BC31" s="2" cm="1">
-        <f t="array" ref="BC31">_xlfn.IFS(BC12="Rarement",0,BC12="Occasionnellement",1,BC12="Souvent",3,BC12="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BC31">_xlfn.IFS(BC4="Rarement",0,BC4="Occasionnellement",1,BC4="Souvent",3,BC4="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="BD31" s="2" cm="1">
-        <f t="array" ref="BD31">_xlfn.IFS(BD12="Rarement",0,BD12="Occasionnellement",1,BD12="Souvent",3,BD12="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BD31">_xlfn.IFS(BD4="Rarement",0,BD4="Occasionnellement",1,BD4="Souvent",3,BD4="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BE31" s="2" cm="1">
-        <f t="array" ref="BE31">_xlfn.IFS(BE12="Rarement",0,BE12="Occasionnellement",1,BE12="Souvent",3,BE12="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BE31">_xlfn.IFS(BE4="Rarement",0,BE4="Occasionnellement",1,BE4="Souvent",3,BE4="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BF31" s="2" cm="1">
-        <f t="array" ref="BF31">_xlfn.IFS(BF12="Rarement",0,BF12="Occasionnellement",1,BF12="Souvent",3,BF12="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BF31">_xlfn.IFS(BF4="Rarement",0,BF4="Occasionnellement",1,BF4="Souvent",3,BF4="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BG31" s="2" cm="1">
-        <f t="array" ref="BG31">_xlfn.IFS(BG12="Rarement",4,BG12="Occasionnellement",3,BG12="Souvent",1,BG12="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="BG31">_xlfn.IFS(BG4="Rarement",4,BG4="Occasionnellement",3,BG4="Souvent",1,BG4="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="BH31" s="2" cm="1">
-        <f t="array" ref="BH31">_xlfn.IFS(BH12="Rarement",4,BH12="Occasionnellement",3,BH12="Souvent",1,BH12="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="BH31">_xlfn.IFS(BH4="Rarement",4,BH4="Occasionnellement",3,BH4="Souvent",1,BH4="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="CK31" s="2"/>
       <c r="CL31" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="CM31" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CN31" s="2">
         <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="CO31" s="7">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>42</v>
+        <v>63</v>
+      </c>
+      <c r="CP31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="CQ31" s="2"/>
+      <c r="CR31" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>134</v>
-      </c>
+    <row r="32" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="AA32" s="2" cm="1">
-        <f t="array" ref="AA32">_xlfn.IFS(AA13="Rarement",0,AA13="Occasionnellement",1,AA13="Souvent",3,AA13="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AA32">_xlfn.IFS(AA5="Rarement",0,AA5="Occasionnellement",1,AA5="Souvent",3,AA5="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AB32" s="2" cm="1">
-        <f t="array" ref="AB32">_xlfn.IFS(AB13="Rarement",0,AB13="Occasionnellement",1,AB13="Souvent",3,AB13="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AB32">_xlfn.IFS(AB5="Rarement",0,AB5="Occasionnellement",1,AB5="Souvent",3,AB5="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AC32" s="2" cm="1">
-        <f t="array" ref="AC32">_xlfn.IFS(AC13="Rarement",0,AC13="Occasionnellement",1,AC13="Souvent",3,AC13="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AC32">_xlfn.IFS(AC5="Rarement",0,AC5="Occasionnellement",1,AC5="Souvent",3,AC5="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AD32" s="2" cm="1">
-        <f t="array" ref="AD32">_xlfn.IFS(AD13="Rarement",0,AD13="Occasionnellement",1,AD13="Souvent",3,AD13="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AD32">_xlfn.IFS(AD5="Rarement",0,AD5="Occasionnellement",1,AD5="Souvent",3,AD5="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AE32" s="2" cm="1">
-        <f t="array" ref="AE32">_xlfn.IFS(AE13="Rarement",0,AE13="Occasionnellement",1,AE13="Souvent",3,AE13="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AE32">_xlfn.IFS(AE5="Rarement",0,AE5="Occasionnellement",1,AE5="Souvent",3,AE5="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AF32" s="2" cm="1">
-        <f t="array" ref="AF32">_xlfn.IFS(AF13="Rarement",0,AF13="Occasionnellement",1,AF13="Souvent",3,AF13="Presque toujours/Toujours",4)</f>
-        <v>4</v>
+        <f t="array" ref="AF32">_xlfn.IFS(AF5="Rarement",4,AF5="Occasionnellement",1,AF5="Souvent",3,AF5="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AG32" s="2" cm="1">
-        <f t="array" ref="AG32">_xlfn.IFS(AG13="Rarement",4,AG13="Occasionnellement",3,AG13="Souvent",1,AG13="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AG32">_xlfn.IFS(AG5="Rarement",4,AG5="Occasionnellement",3,AG5="Souvent",1,AG5="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AH32" s="2" cm="1">
-        <f t="array" ref="AH32">_xlfn.IFS(AH13="Rarement",4,AH13="Occasionnellement",3,AH13="Souvent",1,AH13="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AH32">_xlfn.IFS(AH5="Rarement",4,AH5="Occasionnellement",3,AH5="Souvent",1,AH5="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AI32" s="2" cm="1">
-        <f t="array" ref="AI32">_xlfn.IFS(AI13="Rarement",4,AI13="Occasionnellement",3,AI13="Souvent",1,AI13="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AI32">_xlfn.IFS(AI5="Rarement",4,AI5="Occasionnellement",3,AI5="Souvent",1,AI5="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AJ32" s="2" cm="1">
-        <f t="array" ref="AJ32">_xlfn.IFS(AJ13="Rarement",4,AJ13="Occasionnellement",3,AJ13="Souvent",1,AJ13="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AJ32">_xlfn.IFS(AJ5="Rarement",4,AJ5="Occasionnellement",3,AJ5="Souvent",1,AJ5="Presque toujours/Toujours",0)</f>
         <v>4</v>
       </c>
       <c r="AK32" s="2" cm="1">
-        <f t="array" ref="AK32">_xlfn.IFS(AK13="Rarement",4,AK13="Occasionnellement",3,AK13="Souvent",1,AK13="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AK32">_xlfn.IFS(AK5="Rarement",4,AK5="Occasionnellement",3,AK5="Souvent",1,AK5="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AL32" s="2" cm="1">
-        <f t="array" ref="AL32">_xlfn.IFS(AL13="Rarement",4,AL13="Occasionnellement",3,AL13="Souvent",1,AL13="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AL32">_xlfn.IFS(AL5="Rarement",4,AL5="Occasionnellement",3,AL5="Souvent",1,AL5="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AM32" s="2" cm="1">
-        <f t="array" ref="AM32">_xlfn.IFS(AM13="Rarement",4,AM13="Occasionnellement",3,AM13="Souvent",1,AM13="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AM32">_xlfn.IFS(AM5="Rarement",4,AM5="Occasionnellement",3,AM5="Souvent",1,AM5="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AN32" s="2" cm="1">
-        <f t="array" ref="AN32">_xlfn.IFS(AN13="Rarement",4,AN13="Occasionnellement",3,AN13="Souvent",1,AN13="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AN32">_xlfn.IFS(AN5="Rarement",4,AN5="Occasionnellement",3,AN5="Souvent",1,AN5="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AO32" s="2" cm="1">
-        <f t="array" ref="AO32">_xlfn.IFS(AG13="Rarement",4,AG13="Occasionnellement",3,AG13="Souvent",1,AG13="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AO32">_xlfn.IFS(AG5="Rarement",4,AG5="Occasionnellement",3,AG5="Souvent",1,AG5="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AP32" s="2" cm="1">
-        <f t="array" ref="AP32">_xlfn.IFS(AP13="Rarement",0,AP13="Occasionnellement",1,AP13="Souvent",3,AP13="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AP32">_xlfn.IFS(AP5="Rarement",0,AP5="Occasionnellement",1,AP5="Souvent",3,AP5="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="AQ32" s="2" cm="1">
-        <f t="array" ref="AQ32">_xlfn.IFS(AQ13="Rarement",0,AQ13="Occasionnellement",1,AQ13="Souvent",3,AQ13="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AQ32">_xlfn.IFS(AQ5="Rarement",0,AQ5="Occasionnellement",1,AQ5="Souvent",3,AQ5="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AR32" s="2" cm="1">
-        <f t="array" ref="AR32">_xlfn.IFS(AR13="Rarement",0,AR13="Occasionnellement",1,AR13="Souvent",3,AR13="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AR32">_xlfn.IFS(AR5="Rarement",0,AR5="Occasionnellement",1,AR5="Souvent",3,AR5="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AS32" s="2" cm="1">
-        <f t="array" ref="AS32">_xlfn.IFS(AS13="Rarement",4,AS13="Occasionnellement",3,AS13="Souvent",1,AS13="Presque toujours/Toujours",0)</f>
-        <v>4</v>
+        <f t="array" ref="AS32">_xlfn.IFS(AS5="Rarement",4,AS5="Occasionnellement",3,AS5="Souvent",1,AS5="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AT32" s="2" cm="1">
-        <f t="array" ref="AT32">_xlfn.IFS(AT13="Rarement",0,AT13="Occasionnellement",1,AT13="Souvent",3,AT13="Presque toujours/Toujours",4)</f>
-        <v>4</v>
+        <f t="array" ref="AT32">_xlfn.IFS(AT5="Rarement",0,AT5="Occasionnellement",1,AT5="Souvent",3,AT5="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AU32" s="2" cm="1">
-        <f t="array" ref="AU32">_xlfn.IFS(AU13="Rarement",4,AU13="Occasionnellement",3,AU13="Souvent",1,AU13="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AU32">_xlfn.IFS(AU5="Rarement",4,AU5="Occasionnellement",3,AU5="Souvent",1,AU5="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AV32" s="2" cm="1">
-        <f t="array" ref="AV32">_xlfn.IFS(AV13="Rarement",0,AV13="Occasionnellement",1,AV13="Souvent",3,AV13="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AV32">_xlfn.IFS(AV5="Rarement",0,AV5="Occasionnellement",1,AV5="Souvent",3,AV5="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AW32" s="2" cm="1">
-        <f t="array" ref="AW32">_xlfn.IFS(AW13="Rarement",0,AW13="Occasionnellement",1,AW13="Souvent",3,AW13="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AW32">_xlfn.IFS(AW5="Rarement",0,AW5="Occasionnellement",1,AW5="Souvent",3,AW5="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AX32" s="2" cm="1">
-        <f t="array" ref="AX32">_xlfn.IFS(AX13="Rarement",0,AX13="Occasionnellement",1,AX13="Souvent",3,AX13="Presque toujours/Toujours",4)</f>
-        <v>4</v>
+        <f t="array" ref="AX32">_xlfn.IFS(AX5="Rarement",0,AX5="Occasionnellement",1,AX5="Souvent",3,AX5="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AY32" s="2" cm="1">
-        <f t="array" ref="AY32">_xlfn.IFS(AY13="Rarement",0,AY13="Occasionnellement",1,AY13="Souvent",3,AY13="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AY32">_xlfn.IFS(AY5="Rarement",0,AY5="Occasionnellement",1,AY5="Souvent",3,AY5="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AZ32" s="2" cm="1">
-        <f t="array" ref="AZ32">_xlfn.IFS(AZ13="Rarement",0,AZ13="Occasionnellement",1,AZ13="Souvent",3,AZ13="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AZ32">_xlfn.IFS(AZ5="Rarement",0,AZ5="Occasionnellement",1,AZ5="Souvent",3,AZ5="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="BA32" s="2" cm="1">
-        <f t="array" ref="BA32">_xlfn.IFS(BA13="Rarement",0,BA13="Occasionnellement",1,BA13="Souvent",3,BA13="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BA32">_xlfn.IFS(BA5="Rarement",0,BA5="Occasionnellement",1,BA5="Souvent",3,BA5="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="BB32" s="2" cm="1">
-        <f t="array" ref="BB32">_xlfn.IFS(BB13="Rarement",0,BB13="Occasionnellement",1,BB13="Souvent",3,BB13="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BB32">_xlfn.IFS(BB5="Rarement",0,BB5="Occasionnellement",1,BB5="Souvent",3,BB5="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="BC32" s="2" cm="1">
-        <f t="array" ref="BC32">_xlfn.IFS(BC13="Rarement",0,BC13="Occasionnellement",1,BC13="Souvent",3,BC13="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BC32">_xlfn.IFS(BC5="Rarement",0,BC5="Occasionnellement",1,BC5="Souvent",3,BC5="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="BD32" s="2" cm="1">
-        <f t="array" ref="BD32">_xlfn.IFS(BD13="Rarement",0,BD13="Occasionnellement",1,BD13="Souvent",3,BD13="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BD32">_xlfn.IFS(BD5="Rarement",0,BD5="Occasionnellement",1,BD5="Souvent",3,BD5="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="BE32" s="2" cm="1">
-        <f t="array" ref="BE32">_xlfn.IFS(BE13="Rarement",0,BE13="Occasionnellement",1,BE13="Souvent",3,BE13="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BE32">_xlfn.IFS(BE5="Rarement",0,BE5="Occasionnellement",1,BE5="Souvent",3,BE5="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="BF32" s="2" cm="1">
-        <f t="array" ref="BF32">_xlfn.IFS(BF13="Rarement",0,BF13="Occasionnellement",1,BF13="Souvent",3,BF13="Presque toujours/Toujours",4)</f>
-        <v>4</v>
+        <f t="array" ref="BF32">_xlfn.IFS(BF5="Rarement",0,BF5="Occasionnellement",1,BF5="Souvent",3,BF5="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="BG32" s="2" cm="1">
-        <f t="array" ref="BG32">_xlfn.IFS(BG13="Rarement",4,BG13="Occasionnellement",3,BG13="Souvent",1,BG13="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="BG32">_xlfn.IFS(BG5="Rarement",4,BG5="Occasionnellement",3,BG5="Souvent",1,BG5="Presque toujours/Toujours",0)</f>
         <v>3</v>
       </c>
       <c r="BH32" s="2" cm="1">
-        <f t="array" ref="BH32">_xlfn.IFS(BH13="Rarement",4,BH13="Occasionnellement",3,BH13="Souvent",1,BH13="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="BH32">_xlfn.IFS(BH5="Rarement",4,BH5="Occasionnellement",3,BH5="Souvent",1,BH5="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="CK32" s="2"/>
       <c r="CL32" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="CM32" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="CN32" s="2">
         <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="CO32" s="7">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>54</v>
+        <v>71</v>
+      </c>
+      <c r="CP32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CQ32" s="2"/>
+      <c r="CR32" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>136</v>
-      </c>
+    <row r="33" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="AA33" s="2" cm="1">
-        <f t="array" ref="AA33">_xlfn.IFS(AA14="Rarement",0,AA14="Occasionnellement",1,AA14="Souvent",3,AA14="Presque toujours/Toujours",4)</f>
-        <v>4</v>
+        <f t="array" ref="AA33">_xlfn.IFS(AA6="Rarement",0,AA6="Occasionnellement",1,AA6="Souvent",3,AA6="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AB33" s="2" cm="1">
-        <f t="array" ref="AB33">_xlfn.IFS(AB14="Rarement",0,AB14="Occasionnellement",1,AB14="Souvent",3,AB14="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AB33">_xlfn.IFS(AB6="Rarement",0,AB6="Occasionnellement",1,AB6="Souvent",3,AB6="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AC33" s="2" cm="1">
-        <f t="array" ref="AC33">_xlfn.IFS(AC14="Rarement",0,AC14="Occasionnellement",1,AC14="Souvent",3,AC14="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AC33">_xlfn.IFS(AC6="Rarement",0,AC6="Occasionnellement",1,AC6="Souvent",3,AC6="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AD33" s="2" cm="1">
-        <f t="array" ref="AD33">_xlfn.IFS(AD14="Rarement",0,AD14="Occasionnellement",1,AD14="Souvent",3,AD14="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AD33">_xlfn.IFS(AD6="Rarement",0,AD6="Occasionnellement",1,AD6="Souvent",3,AD6="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AE33" s="2" cm="1">
-        <f t="array" ref="AE33">_xlfn.IFS(AE14="Rarement",0,AE14="Occasionnellement",1,AE14="Souvent",3,AE14="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AE33">_xlfn.IFS(AE6="Rarement",0,AE6="Occasionnellement",1,AE6="Souvent",3,AE6="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AF33" s="2" cm="1">
-        <f t="array" ref="AF33">_xlfn.IFS(AF14="Rarement",0,AF14="Occasionnellement",1,AF14="Souvent",3,AF14="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AF33">_xlfn.IFS(AF6="Rarement",4,AF6="Occasionnellement",1,AF6="Souvent",3,AF6="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="AG33" s="2" cm="1">
-        <f t="array" ref="AG33">_xlfn.IFS(AG14="Rarement",4,AG14="Occasionnellement",3,AG14="Souvent",1,AG14="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AG33">_xlfn.IFS(AG6="Rarement",4,AG6="Occasionnellement",3,AG6="Souvent",1,AG6="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AH33" s="2" cm="1">
-        <f t="array" ref="AH33">_xlfn.IFS(AH14="Rarement",4,AH14="Occasionnellement",3,AH14="Souvent",1,AH14="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AH33">_xlfn.IFS(AH6="Rarement",4,AH6="Occasionnellement",3,AH6="Souvent",1,AH6="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AI33" s="2" cm="1">
-        <f t="array" ref="AI33">_xlfn.IFS(AI14="Rarement",4,AI14="Occasionnellement",3,AI14="Souvent",1,AI14="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AI33">_xlfn.IFS(AI6="Rarement",4,AI6="Occasionnellement",3,AI6="Souvent",1,AI6="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AJ33" s="2" cm="1">
-        <f t="array" ref="AJ33">_xlfn.IFS(AJ14="Rarement",4,AJ14="Occasionnellement",3,AJ14="Souvent",1,AJ14="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AJ33">_xlfn.IFS(AJ6="Rarement",4,AJ6="Occasionnellement",3,AJ6="Souvent",1,AJ6="Presque toujours/Toujours",0)</f>
+        <v>0</v>
       </c>
       <c r="AK33" s="2" cm="1">
-        <f t="array" ref="AK33">_xlfn.IFS(AK14="Rarement",4,AK14="Occasionnellement",3,AK14="Souvent",1,AK14="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AK33">_xlfn.IFS(AK6="Rarement",4,AK6="Occasionnellement",3,AK6="Souvent",1,AK6="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AL33" s="2" cm="1">
-        <f t="array" ref="AL33">_xlfn.IFS(AL14="Rarement",4,AL14="Occasionnellement",3,AL14="Souvent",1,AL14="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AL33">_xlfn.IFS(AL6="Rarement",4,AL6="Occasionnellement",3,AL6="Souvent",1,AL6="Presque toujours/Toujours",0)</f>
         <v>0</v>
       </c>
       <c r="AM33" s="2" cm="1">
-        <f t="array" ref="AM33">_xlfn.IFS(AM14="Rarement",4,AM14="Occasionnellement",3,AM14="Souvent",1,AM14="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AM33">_xlfn.IFS(AM6="Rarement",4,AM6="Occasionnellement",3,AM6="Souvent",1,AM6="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AN33" s="2" cm="1">
-        <f t="array" ref="AN33">_xlfn.IFS(AN14="Rarement",4,AN14="Occasionnellement",3,AN14="Souvent",1,AN14="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AN33">_xlfn.IFS(AN6="Rarement",4,AN6="Occasionnellement",3,AN6="Souvent",1,AN6="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AO33" s="2" cm="1">
-        <f t="array" ref="AO33">_xlfn.IFS(AG14="Rarement",4,AG14="Occasionnellement",3,AG14="Souvent",1,AG14="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AO33">_xlfn.IFS(AG6="Rarement",4,AG6="Occasionnellement",3,AG6="Souvent",1,AG6="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AP33" s="2" cm="1">
-        <f t="array" ref="AP33">_xlfn.IFS(AP14="Rarement",0,AP14="Occasionnellement",1,AP14="Souvent",3,AP14="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AP33">_xlfn.IFS(AP6="Rarement",0,AP6="Occasionnellement",1,AP6="Souvent",3,AP6="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AQ33" s="2" cm="1">
-        <f t="array" ref="AQ33">_xlfn.IFS(AQ14="Rarement",0,AQ14="Occasionnellement",1,AQ14="Souvent",3,AQ14="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AQ33">_xlfn.IFS(AQ6="Rarement",0,AQ6="Occasionnellement",1,AQ6="Souvent",3,AQ6="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AR33" s="2" cm="1">
-        <f t="array" ref="AR33">_xlfn.IFS(AR14="Rarement",0,AR14="Occasionnellement",1,AR14="Souvent",3,AR14="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AR33">_xlfn.IFS(AR6="Rarement",0,AR6="Occasionnellement",1,AR6="Souvent",3,AR6="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AS33" s="2" cm="1">
-        <f t="array" ref="AS33">_xlfn.IFS(AS14="Rarement",4,AS14="Occasionnellement",3,AS14="Souvent",1,AS14="Presque toujours/Toujours",0)</f>
-        <v>4</v>
+        <f t="array" ref="AS33">_xlfn.IFS(AS6="Rarement",4,AS6="Occasionnellement",3,AS6="Souvent",1,AS6="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AT33" s="2" cm="1">
-        <f t="array" ref="AT33">_xlfn.IFS(AT14="Rarement",0,AT14="Occasionnellement",1,AT14="Souvent",3,AT14="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AT33">_xlfn.IFS(AT6="Rarement",0,AT6="Occasionnellement",1,AT6="Souvent",3,AT6="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AU33" s="2" cm="1">
-        <f t="array" ref="AU33">_xlfn.IFS(AU14="Rarement",4,AU14="Occasionnellement",3,AU14="Souvent",1,AU14="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AU33">_xlfn.IFS(AU6="Rarement",4,AU6="Occasionnellement",3,AU6="Souvent",1,AU6="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AV33" s="2" cm="1">
-        <f t="array" ref="AV33">_xlfn.IFS(AV14="Rarement",0,AV14="Occasionnellement",1,AV14="Souvent",3,AV14="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AV33">_xlfn.IFS(AV6="Rarement",0,AV6="Occasionnellement",1,AV6="Souvent",3,AV6="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AW33" s="2" cm="1">
-        <f t="array" ref="AW33">_xlfn.IFS(AW14="Rarement",0,AW14="Occasionnellement",1,AW14="Souvent",3,AW14="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AW33">_xlfn.IFS(AW6="Rarement",0,AW6="Occasionnellement",1,AW6="Souvent",3,AW6="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AX33" s="2" cm="1">
-        <f t="array" ref="AX33">_xlfn.IFS(AX14="Rarement",0,AX14="Occasionnellement",1,AX14="Souvent",3,AX14="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AX33">_xlfn.IFS(AX6="Rarement",0,AX6="Occasionnellement",1,AX6="Souvent",3,AX6="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AY33" s="2" cm="1">
-        <f t="array" ref="AY33">_xlfn.IFS(AY14="Rarement",0,AY14="Occasionnellement",1,AY14="Souvent",3,AY14="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AY33">_xlfn.IFS(AY6="Rarement",0,AY6="Occasionnellement",1,AY6="Souvent",3,AY6="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AZ33" s="2" cm="1">
-        <f t="array" ref="AZ33">_xlfn.IFS(AZ14="Rarement",0,AZ14="Occasionnellement",1,AZ14="Souvent",3,AZ14="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AZ33">_xlfn.IFS(AZ6="Rarement",0,AZ6="Occasionnellement",1,AZ6="Souvent",3,AZ6="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="BA33" s="2" cm="1">
-        <f t="array" ref="BA33">_xlfn.IFS(BA14="Rarement",0,BA14="Occasionnellement",1,BA14="Souvent",3,BA14="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BA33">_xlfn.IFS(BA6="Rarement",0,BA6="Occasionnellement",1,BA6="Souvent",3,BA6="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="BB33" s="2" cm="1">
-        <f t="array" ref="BB33">_xlfn.IFS(BB14="Rarement",0,BB14="Occasionnellement",1,BB14="Souvent",3,BB14="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BB33">_xlfn.IFS(BB6="Rarement",0,BB6="Occasionnellement",1,BB6="Souvent",3,BB6="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="BC33" s="2" cm="1">
-        <f t="array" ref="BC33">_xlfn.IFS(BC14="Rarement",0,BC14="Occasionnellement",1,BC14="Souvent",3,BC14="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BC33">_xlfn.IFS(BC6="Rarement",0,BC6="Occasionnellement",1,BC6="Souvent",3,BC6="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BD33" s="2" cm="1">
-        <f t="array" ref="BD33">_xlfn.IFS(BD14="Rarement",0,BD14="Occasionnellement",1,BD14="Souvent",3,BD14="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="BD33">_xlfn.IFS(BD6="Rarement",0,BD6="Occasionnellement",1,BD6="Souvent",3,BD6="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BE33" s="2" cm="1">
-        <f t="array" ref="BE33">_xlfn.IFS(BE14="Rarement",0,BE14="Occasionnellement",1,BE14="Souvent",3,BE14="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BE33">_xlfn.IFS(BE6="Rarement",0,BE6="Occasionnellement",1,BE6="Souvent",3,BE6="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="BF33" s="2" cm="1">
-        <f t="array" ref="BF33">_xlfn.IFS(BF14="Rarement",0,BF14="Occasionnellement",1,BF14="Souvent",3,BF14="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BF33">_xlfn.IFS(BF6="Rarement",0,BF6="Occasionnellement",1,BF6="Souvent",3,BF6="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="BG33" s="2" cm="1">
-        <f t="array" ref="BG33">_xlfn.IFS(BG14="Rarement",4,BG14="Occasionnellement",3,BG14="Souvent",1,BG14="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="BG33">_xlfn.IFS(BG6="Rarement",4,BG6="Occasionnellement",3,BG6="Souvent",1,BG6="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="BH33" s="2" cm="1">
-        <f t="array" ref="BH33">_xlfn.IFS(BH14="Rarement",4,BH14="Occasionnellement",3,BH14="Souvent",1,BH14="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="BH33">_xlfn.IFS(BH6="Rarement",4,BH6="Occasionnellement",3,BH6="Souvent",1,BH6="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="CK33" s="2"/>
       <c r="CL33" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CM33" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="CN33" s="2">
         <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CO33" s="7">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="CP33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CQ33" s="2"/>
+      <c r="CR33" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>138</v>
-      </c>
+    <row r="34" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="AA34" s="2" cm="1">
-        <f t="array" ref="AA34">_xlfn.IFS(AA15="Rarement",0,AA15="Occasionnellement",1,AA15="Souvent",3,AA15="Presque toujours/Toujours",4)</f>
-        <v>4</v>
+        <f t="array" ref="AA34">_xlfn.IFS(AA7="Rarement",0,AA7="Occasionnellement",1,AA7="Souvent",3,AA7="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AB34" s="2" cm="1">
-        <f t="array" ref="AB34">_xlfn.IFS(AB15="Rarement",0,AB15="Occasionnellement",1,AB15="Souvent",3,AB15="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AB34">_xlfn.IFS(AB7="Rarement",0,AB7="Occasionnellement",1,AB7="Souvent",3,AB7="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AC34" s="2" cm="1">
-        <f t="array" ref="AC34">_xlfn.IFS(AC15="Rarement",0,AC15="Occasionnellement",1,AC15="Souvent",3,AC15="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AC34">_xlfn.IFS(AC7="Rarement",0,AC7="Occasionnellement",1,AC7="Souvent",3,AC7="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AD34" s="2" cm="1">
-        <f t="array" ref="AD34">_xlfn.IFS(AD15="Rarement",0,AD15="Occasionnellement",1,AD15="Souvent",3,AD15="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AD34">_xlfn.IFS(AD7="Rarement",0,AD7="Occasionnellement",1,AD7="Souvent",3,AD7="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AE34" s="2" cm="1">
-        <f t="array" ref="AE34">_xlfn.IFS(AE15="Rarement",0,AE15="Occasionnellement",1,AE15="Souvent",3,AE15="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AE34">_xlfn.IFS(AE7="Rarement",0,AE7="Occasionnellement",1,AE7="Souvent",3,AE7="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AF34" s="2" cm="1">
-        <f t="array" ref="AF34">_xlfn.IFS(AF15="Rarement",0,AF15="Occasionnellement",1,AF15="Souvent",3,AF15="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF34">_xlfn.IFS(AF7="Rarement",4,AF7="Occasionnellement",1,AF7="Souvent",3,AF7="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG34" s="2" cm="1">
-        <f t="array" ref="AG34">_xlfn.IFS(AG15="Rarement",4,AG15="Occasionnellement",3,AG15="Souvent",1,AG15="Presque toujours/Toujours",0)</f>
-        <v>4</v>
+        <f t="array" ref="AG34">_xlfn.IFS(AG7="Rarement",4,AG7="Occasionnellement",3,AG7="Souvent",1,AG7="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AH34" s="2" cm="1">
-        <f t="array" ref="AH34">_xlfn.IFS(AH15="Rarement",4,AH15="Occasionnellement",3,AH15="Souvent",1,AH15="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AH34">_xlfn.IFS(AH7="Rarement",4,AH7="Occasionnellement",3,AH7="Souvent",1,AH7="Presque toujours/Toujours",0)</f>
+        <v>4</v>
       </c>
       <c r="AI34" s="2" cm="1">
-        <f t="array" ref="AI34">_xlfn.IFS(AI15="Rarement",4,AI15="Occasionnellement",3,AI15="Souvent",1,AI15="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AI34">_xlfn.IFS(AI7="Rarement",4,AI7="Occasionnellement",3,AI7="Souvent",1,AI7="Presque toujours/Toujours",0)</f>
+        <v>4</v>
       </c>
       <c r="AJ34" s="2" cm="1">
-        <f t="array" ref="AJ34">_xlfn.IFS(AJ15="Rarement",4,AJ15="Occasionnellement",3,AJ15="Souvent",1,AJ15="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AJ34">_xlfn.IFS(AJ7="Rarement",4,AJ7="Occasionnellement",3,AJ7="Souvent",1,AJ7="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AK34" s="2" cm="1">
-        <f t="array" ref="AK34">_xlfn.IFS(AK15="Rarement",4,AK15="Occasionnellement",3,AK15="Souvent",1,AK15="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AK34">_xlfn.IFS(AK7="Rarement",4,AK7="Occasionnellement",3,AK7="Souvent",1,AK7="Presque toujours/Toujours",0)</f>
+        <v>0</v>
       </c>
       <c r="AL34" s="2" cm="1">
-        <f t="array" ref="AL34">_xlfn.IFS(AL15="Rarement",4,AL15="Occasionnellement",3,AL15="Souvent",1,AL15="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AL34">_xlfn.IFS(AL7="Rarement",4,AL7="Occasionnellement",3,AL7="Souvent",1,AL7="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AM34" s="2" cm="1">
-        <f t="array" ref="AM34">_xlfn.IFS(AM15="Rarement",4,AM15="Occasionnellement",3,AM15="Souvent",1,AM15="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AM34">_xlfn.IFS(AM7="Rarement",4,AM7="Occasionnellement",3,AM7="Souvent",1,AM7="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AN34" s="2" cm="1">
-        <f t="array" ref="AN34">_xlfn.IFS(AN15="Rarement",4,AN15="Occasionnellement",3,AN15="Souvent",1,AN15="Presque toujours/Toujours",0)</f>
-        <v>4</v>
+        <f t="array" ref="AN34">_xlfn.IFS(AN7="Rarement",4,AN7="Occasionnellement",3,AN7="Souvent",1,AN7="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AO34" s="2" cm="1">
-        <f t="array" ref="AO34">_xlfn.IFS(AG15="Rarement",4,AG15="Occasionnellement",3,AG15="Souvent",1,AG15="Presque toujours/Toujours",0)</f>
-        <v>4</v>
+        <f t="array" ref="AO34">_xlfn.IFS(AG7="Rarement",4,AG7="Occasionnellement",3,AG7="Souvent",1,AG7="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AP34" s="2" cm="1">
-        <f t="array" ref="AP34">_xlfn.IFS(AP15="Rarement",0,AP15="Occasionnellement",1,AP15="Souvent",3,AP15="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AP34">_xlfn.IFS(AP7="Rarement",0,AP7="Occasionnellement",1,AP7="Souvent",3,AP7="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AQ34" s="2" cm="1">
-        <f t="array" ref="AQ34">_xlfn.IFS(AQ15="Rarement",0,AQ15="Occasionnellement",1,AQ15="Souvent",3,AQ15="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AQ34">_xlfn.IFS(AQ7="Rarement",0,AQ7="Occasionnellement",1,AQ7="Souvent",3,AQ7="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="AR34" s="2" cm="1">
-        <f t="array" ref="AR34">_xlfn.IFS(AR15="Rarement",0,AR15="Occasionnellement",1,AR15="Souvent",3,AR15="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AR34">_xlfn.IFS(AR7="Rarement",0,AR7="Occasionnellement",1,AR7="Souvent",3,AR7="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AS34" s="2" cm="1">
-        <f t="array" ref="AS34">_xlfn.IFS(AS15="Rarement",4,AS15="Occasionnellement",3,AS15="Souvent",1,AS15="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AS34">_xlfn.IFS(AS7="Rarement",4,AS7="Occasionnellement",3,AS7="Souvent",1,AS7="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AT34" s="2" cm="1">
-        <f t="array" ref="AT34">_xlfn.IFS(AT15="Rarement",0,AT15="Occasionnellement",1,AT15="Souvent",3,AT15="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AT34">_xlfn.IFS(AT7="Rarement",0,AT7="Occasionnellement",1,AT7="Souvent",3,AT7="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AU34" s="2" cm="1">
-        <f t="array" ref="AU34">_xlfn.IFS(AU15="Rarement",4,AU15="Occasionnellement",3,AU15="Souvent",1,AU15="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AU34">_xlfn.IFS(AU7="Rarement",4,AU7="Occasionnellement",3,AU7="Souvent",1,AU7="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AV34" s="2" cm="1">
-        <f t="array" ref="AV34">_xlfn.IFS(AV15="Rarement",0,AV15="Occasionnellement",1,AV15="Souvent",3,AV15="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AV34">_xlfn.IFS(AV7="Rarement",0,AV7="Occasionnellement",1,AV7="Souvent",3,AV7="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AW34" s="2" cm="1">
-        <f t="array" ref="AW34">_xlfn.IFS(AW15="Rarement",0,AW15="Occasionnellement",1,AW15="Souvent",3,AW15="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AW34">_xlfn.IFS(AW7="Rarement",0,AW7="Occasionnellement",1,AW7="Souvent",3,AW7="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="AX34" s="2" cm="1">
-        <f t="array" ref="AX34">_xlfn.IFS(AX15="Rarement",0,AX15="Occasionnellement",1,AX15="Souvent",3,AX15="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AX34">_xlfn.IFS(AX7="Rarement",0,AX7="Occasionnellement",1,AX7="Souvent",3,AX7="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="AY34" s="2" cm="1">
-        <f t="array" ref="AY34">_xlfn.IFS(AY15="Rarement",0,AY15="Occasionnellement",1,AY15="Souvent",3,AY15="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AY34">_xlfn.IFS(AY7="Rarement",0,AY7="Occasionnellement",1,AY7="Souvent",3,AY7="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="AZ34" s="2" cm="1">
-        <f t="array" ref="AZ34">_xlfn.IFS(AZ15="Rarement",0,AZ15="Occasionnellement",1,AZ15="Souvent",3,AZ15="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AZ34">_xlfn.IFS(AZ7="Rarement",0,AZ7="Occasionnellement",1,AZ7="Souvent",3,AZ7="Presque toujours/Toujours",4)</f>
         <v>4</v>
       </c>
       <c r="BA34" s="2" cm="1">
-        <f t="array" ref="BA34">_xlfn.IFS(BA15="Rarement",0,BA15="Occasionnellement",1,BA15="Souvent",3,BA15="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="BA34">_xlfn.IFS(BA7="Rarement",0,BA7="Occasionnellement",1,BA7="Souvent",3,BA7="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="BB34" s="2" cm="1">
-        <f t="array" ref="BB34">_xlfn.IFS(BB15="Rarement",0,BB15="Occasionnellement",1,BB15="Souvent",3,BB15="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BB34">_xlfn.IFS(BB7="Rarement",0,BB7="Occasionnellement",1,BB7="Souvent",3,BB7="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="BC34" s="2" cm="1">
-        <f t="array" ref="BC34">_xlfn.IFS(BC15="Rarement",0,BC15="Occasionnellement",1,BC15="Souvent",3,BC15="Presque toujours/Toujours",4)</f>
-        <v>4</v>
+        <f t="array" ref="BC34">_xlfn.IFS(BC7="Rarement",0,BC7="Occasionnellement",1,BC7="Souvent",3,BC7="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="BD34" s="2" cm="1">
-        <f t="array" ref="BD34">_xlfn.IFS(BD15="Rarement",0,BD15="Occasionnellement",1,BD15="Souvent",3,BD15="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BD34">_xlfn.IFS(BD7="Rarement",0,BD7="Occasionnellement",1,BD7="Souvent",3,BD7="Presque toujours/Toujours",4)</f>
         <v>4</v>
       </c>
       <c r="BE34" s="2" cm="1">
-        <f t="array" ref="BE34">_xlfn.IFS(BE15="Rarement",0,BE15="Occasionnellement",1,BE15="Souvent",3,BE15="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="BE34">_xlfn.IFS(BE7="Rarement",0,BE7="Occasionnellement",1,BE7="Souvent",3,BE7="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="BF34" s="2" cm="1">
-        <f t="array" ref="BF34">_xlfn.IFS(BF15="Rarement",0,BF15="Occasionnellement",1,BF15="Souvent",3,BF15="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BF34">_xlfn.IFS(BF7="Rarement",0,BF7="Occasionnellement",1,BF7="Souvent",3,BF7="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BG34" s="2" cm="1">
-        <f t="array" ref="BG34">_xlfn.IFS(BG15="Rarement",4,BG15="Occasionnellement",3,BG15="Souvent",1,BG15="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="BG34">_xlfn.IFS(BG7="Rarement",4,BG7="Occasionnellement",3,BG7="Souvent",1,BG7="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="BH34" s="2" cm="1">
-        <f t="array" ref="BH34">_xlfn.IFS(BH15="Rarement",4,BH15="Occasionnellement",3,BH15="Souvent",1,BH15="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="BH34">_xlfn.IFS(BH7="Rarement",4,BH7="Occasionnellement",3,BH7="Souvent",1,BH7="Presque toujours/Toujours",0)</f>
+        <v>0</v>
       </c>
       <c r="CK34" s="2"/>
       <c r="CL34" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="CM34" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="CN34" s="2">
         <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="CO34" s="7">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>55</v>
+        <v>73</v>
+      </c>
+      <c r="CP34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CQ34" s="2"/>
+      <c r="CR34" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>140</v>
-      </c>
+    <row r="35" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="AA35" s="2" cm="1">
-        <f t="array" ref="AA35">_xlfn.IFS(AA16="Rarement",0,AA16="Occasionnellement",1,AA16="Souvent",3,AA16="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AA35">_xlfn.IFS(AA8="Rarement",0,AA8="Occasionnellement",1,AA8="Souvent",3,AA8="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AB35" s="2" cm="1">
-        <f t="array" ref="AB35">_xlfn.IFS(AB16="Rarement",0,AB16="Occasionnellement",1,AB16="Souvent",3,AB16="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AB35">_xlfn.IFS(AB8="Rarement",0,AB8="Occasionnellement",1,AB8="Souvent",3,AB8="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="AC35" s="2" cm="1">
-        <f t="array" ref="AC35">_xlfn.IFS(AC16="Rarement",0,AC16="Occasionnellement",1,AC16="Souvent",3,AC16="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AC35">_xlfn.IFS(AC8="Rarement",0,AC8="Occasionnellement",1,AC8="Souvent",3,AC8="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AD35" s="2" cm="1">
-        <f t="array" ref="AD35">_xlfn.IFS(AD16="Rarement",0,AD16="Occasionnellement",1,AD16="Souvent",3,AD16="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AD35">_xlfn.IFS(AD8="Rarement",0,AD8="Occasionnellement",1,AD8="Souvent",3,AD8="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AE35" s="2" cm="1">
-        <f t="array" ref="AE35">_xlfn.IFS(AE16="Rarement",0,AE16="Occasionnellement",1,AE16="Souvent",3,AE16="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AE35">_xlfn.IFS(AE8="Rarement",0,AE8="Occasionnellement",1,AE8="Souvent",3,AE8="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AF35" s="2" cm="1">
-        <f t="array" ref="AF35">_xlfn.IFS(AF16="Rarement",0,AF16="Occasionnellement",1,AF16="Souvent",3,AF16="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF35">_xlfn.IFS(AF8="Rarement",4,AF8="Occasionnellement",1,AF8="Souvent",3,AF8="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG35" s="2" cm="1">
-        <f t="array" ref="AG35">_xlfn.IFS(AG16="Rarement",4,AG16="Occasionnellement",3,AG16="Souvent",1,AG16="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AG35">_xlfn.IFS(AG8="Rarement",4,AG8="Occasionnellement",3,AG8="Souvent",1,AG8="Presque toujours/Toujours",0)</f>
+        <v>0</v>
       </c>
       <c r="AH35" s="2" cm="1">
-        <f t="array" ref="AH35">_xlfn.IFS(AH16="Rarement",4,AH16="Occasionnellement",3,AH16="Souvent",1,AH16="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AH35">_xlfn.IFS(AH8="Rarement",4,AH8="Occasionnellement",3,AH8="Souvent",1,AH8="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AI35" s="2" cm="1">
-        <f t="array" ref="AI35">_xlfn.IFS(AI16="Rarement",4,AI16="Occasionnellement",3,AI16="Souvent",1,AI16="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AI35">_xlfn.IFS(AI8="Rarement",4,AI8="Occasionnellement",3,AI8="Souvent",1,AI8="Presque toujours/Toujours",0)</f>
+        <v>4</v>
       </c>
       <c r="AJ35" s="2" cm="1">
-        <f t="array" ref="AJ35">_xlfn.IFS(AJ16="Rarement",4,AJ16="Occasionnellement",3,AJ16="Souvent",1,AJ16="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AJ35">_xlfn.IFS(AJ8="Rarement",4,AJ8="Occasionnellement",3,AJ8="Souvent",1,AJ8="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AK35" s="2" cm="1">
-        <f t="array" ref="AK35">_xlfn.IFS(AK16="Rarement",4,AK16="Occasionnellement",3,AK16="Souvent",1,AK16="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AK35">_xlfn.IFS(AK8="Rarement",4,AK8="Occasionnellement",3,AK8="Souvent",1,AK8="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AL35" s="2" cm="1">
-        <f t="array" ref="AL35">_xlfn.IFS(AL16="Rarement",4,AL16="Occasionnellement",3,AL16="Souvent",1,AL16="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AL35">_xlfn.IFS(AL8="Rarement",4,AL8="Occasionnellement",3,AL8="Souvent",1,AL8="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AM35" s="2" cm="1">
-        <f t="array" ref="AM35">_xlfn.IFS(AM16="Rarement",4,AM16="Occasionnellement",3,AM16="Souvent",1,AM16="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AM35">_xlfn.IFS(AM8="Rarement",4,AM8="Occasionnellement",3,AM8="Souvent",1,AM8="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AN35" s="2" cm="1">
-        <f t="array" ref="AN35">_xlfn.IFS(AN16="Rarement",4,AN16="Occasionnellement",3,AN16="Souvent",1,AN16="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AN35">_xlfn.IFS(AN8="Rarement",4,AN8="Occasionnellement",3,AN8="Souvent",1,AN8="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AO35" s="2" cm="1">
-        <f t="array" ref="AO35">_xlfn.IFS(AG16="Rarement",4,AG16="Occasionnellement",3,AG16="Souvent",1,AG16="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AO35">_xlfn.IFS(AG8="Rarement",4,AG8="Occasionnellement",3,AG8="Souvent",1,AG8="Presque toujours/Toujours",0)</f>
+        <v>0</v>
       </c>
       <c r="AP35" s="2" cm="1">
-        <f t="array" ref="AP35">_xlfn.IFS(AP16="Rarement",0,AP16="Occasionnellement",1,AP16="Souvent",3,AP16="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AP35">_xlfn.IFS(AP8="Rarement",0,AP8="Occasionnellement",1,AP8="Souvent",3,AP8="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AQ35" s="2" cm="1">
-        <f t="array" ref="AQ35">_xlfn.IFS(AQ16="Rarement",0,AQ16="Occasionnellement",1,AQ16="Souvent",3,AQ16="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AQ35">_xlfn.IFS(AQ8="Rarement",0,AQ8="Occasionnellement",1,AQ8="Souvent",3,AQ8="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AR35" s="2" cm="1">
-        <f t="array" ref="AR35">_xlfn.IFS(AR16="Rarement",0,AR16="Occasionnellement",1,AR16="Souvent",3,AR16="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AR35">_xlfn.IFS(AR8="Rarement",0,AR8="Occasionnellement",1,AR8="Souvent",3,AR8="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="AS35" s="2" cm="1">
-        <f t="array" ref="AS35">_xlfn.IFS(AS16="Rarement",4,AS16="Occasionnellement",3,AS16="Souvent",1,AS16="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AS35">_xlfn.IFS(AS8="Rarement",4,AS8="Occasionnellement",3,AS8="Souvent",1,AS8="Presque toujours/Toujours",0)</f>
         <v>3</v>
       </c>
       <c r="AT35" s="2" cm="1">
-        <f t="array" ref="AT35">_xlfn.IFS(AT16="Rarement",0,AT16="Occasionnellement",1,AT16="Souvent",3,AT16="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AT35">_xlfn.IFS(AT8="Rarement",0,AT8="Occasionnellement",1,AT8="Souvent",3,AT8="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AU35" s="2" cm="1">
-        <f t="array" ref="AU35">_xlfn.IFS(AU16="Rarement",4,AU16="Occasionnellement",3,AU16="Souvent",1,AU16="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AU35">_xlfn.IFS(AU8="Rarement",4,AU8="Occasionnellement",3,AU8="Souvent",1,AU8="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AV35" s="2" cm="1">
-        <f t="array" ref="AV35">_xlfn.IFS(AV16="Rarement",0,AV16="Occasionnellement",1,AV16="Souvent",3,AV16="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AV35">_xlfn.IFS(AV8="Rarement",0,AV8="Occasionnellement",1,AV8="Souvent",3,AV8="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AW35" s="2" cm="1">
-        <f t="array" ref="AW35">_xlfn.IFS(AW16="Rarement",0,AW16="Occasionnellement",1,AW16="Souvent",3,AW16="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AW35">_xlfn.IFS(AW8="Rarement",0,AW8="Occasionnellement",1,AW8="Souvent",3,AW8="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AX35" s="2" cm="1">
-        <f t="array" ref="AX35">_xlfn.IFS(AX16="Rarement",0,AX16="Occasionnellement",1,AX16="Souvent",3,AX16="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AX35">_xlfn.IFS(AX8="Rarement",0,AX8="Occasionnellement",1,AX8="Souvent",3,AX8="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AY35" s="2" cm="1">
-        <f t="array" ref="AY35">_xlfn.IFS(AY16="Rarement",0,AY16="Occasionnellement",1,AY16="Souvent",3,AY16="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AY35">_xlfn.IFS(AY8="Rarement",0,AY8="Occasionnellement",1,AY8="Souvent",3,AY8="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AZ35" s="2" cm="1">
-        <f t="array" ref="AZ35">_xlfn.IFS(AZ16="Rarement",0,AZ16="Occasionnellement",1,AZ16="Souvent",3,AZ16="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AZ35">_xlfn.IFS(AZ8="Rarement",0,AZ8="Occasionnellement",1,AZ8="Souvent",3,AZ8="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="BA35" s="2" cm="1">
-        <f t="array" ref="BA35">_xlfn.IFS(BA16="Rarement",0,BA16="Occasionnellement",1,BA16="Souvent",3,BA16="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="BA35">_xlfn.IFS(BA8="Rarement",0,BA8="Occasionnellement",1,BA8="Souvent",3,BA8="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="BB35" s="2" cm="1">
-        <f t="array" ref="BB35">_xlfn.IFS(BB16="Rarement",0,BB16="Occasionnellement",1,BB16="Souvent",3,BB16="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BB35">_xlfn.IFS(BB8="Rarement",0,BB8="Occasionnellement",1,BB8="Souvent",3,BB8="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="BC35" s="2" cm="1">
-        <f t="array" ref="BC35">_xlfn.IFS(BC16="Rarement",0,BC16="Occasionnellement",1,BC16="Souvent",3,BC16="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="BC35">_xlfn.IFS(BC8="Rarement",0,BC8="Occasionnellement",1,BC8="Souvent",3,BC8="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="BD35" s="2" cm="1">
-        <f t="array" ref="BD35">_xlfn.IFS(BD16="Rarement",0,BD16="Occasionnellement",1,BD16="Souvent",3,BD16="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="BD35">_xlfn.IFS(BD8="Rarement",0,BD8="Occasionnellement",1,BD8="Souvent",3,BD8="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BE35" s="2" cm="1">
-        <f t="array" ref="BE35">_xlfn.IFS(BE16="Rarement",0,BE16="Occasionnellement",1,BE16="Souvent",3,BE16="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BE35">_xlfn.IFS(BE8="Rarement",0,BE8="Occasionnellement",1,BE8="Souvent",3,BE8="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="BF35" s="2" cm="1">
-        <f t="array" ref="BF35">_xlfn.IFS(BF16="Rarement",0,BF16="Occasionnellement",1,BF16="Souvent",3,BF16="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="BF35">_xlfn.IFS(BF8="Rarement",0,BF8="Occasionnellement",1,BF8="Souvent",3,BF8="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="BG35" s="2" cm="1">
-        <f t="array" ref="BG35">_xlfn.IFS(BG16="Rarement",4,BG16="Occasionnellement",3,BG16="Souvent",1,BG16="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="BG35">_xlfn.IFS(BG8="Rarement",4,BG8="Occasionnellement",3,BG8="Souvent",1,BG8="Presque toujours/Toujours",0)</f>
+        <v>4</v>
       </c>
       <c r="BH35" s="2" cm="1">
-        <f t="array" ref="BH35">_xlfn.IFS(BH16="Rarement",4,BH16="Occasionnellement",3,BH16="Souvent",1,BH16="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="BH35">_xlfn.IFS(BH8="Rarement",4,BH8="Occasionnellement",3,BH8="Souvent",1,BH8="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="CK35" s="2"/>
       <c r="CL35" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="CM35" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="CN35" s="2">
         <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="CO35" s="7">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>36</v>
+        <v>79</v>
+      </c>
+      <c r="CP35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="CQ35" s="2"/>
+      <c r="CR35" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>142</v>
-      </c>
+    <row r="36" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="AA36" s="2" cm="1">
-        <f t="array" ref="AA36">_xlfn.IFS(AA17="Rarement",0,AA17="Occasionnellement",1,AA17="Souvent",3,AA17="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AA36">_xlfn.IFS(AA9="Rarement",0,AA9="Occasionnellement",1,AA9="Souvent",3,AA9="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AB36" s="2" cm="1">
-        <f t="array" ref="AB36">_xlfn.IFS(AB17="Rarement",0,AB17="Occasionnellement",1,AB17="Souvent",3,AB17="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AB36">_xlfn.IFS(AB9="Rarement",0,AB9="Occasionnellement",1,AB9="Souvent",3,AB9="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AC36" s="2" cm="1">
-        <f t="array" ref="AC36">_xlfn.IFS(AC17="Rarement",0,AC17="Occasionnellement",1,AC17="Souvent",3,AC17="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AC36">_xlfn.IFS(AC9="Rarement",0,AC9="Occasionnellement",1,AC9="Souvent",3,AC9="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AD36" s="2" cm="1">
-        <f t="array" ref="AD36">_xlfn.IFS(AD17="Rarement",0,AD17="Occasionnellement",1,AD17="Souvent",3,AD17="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AD36">_xlfn.IFS(AD9="Rarement",0,AD9="Occasionnellement",1,AD9="Souvent",3,AD9="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AE36" s="2" cm="1">
-        <f t="array" ref="AE36">_xlfn.IFS(AE17="Rarement",0,AE17="Occasionnellement",1,AE17="Souvent",3,AE17="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AE36">_xlfn.IFS(AE9="Rarement",0,AE9="Occasionnellement",1,AE9="Souvent",3,AE9="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AF36" s="2" cm="1">
-        <f t="array" ref="AF36">_xlfn.IFS(AF17="Rarement",0,AF17="Occasionnellement",1,AF17="Souvent",3,AF17="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AF36">_xlfn.IFS(AF9="Rarement",4,AF9="Occasionnellement",1,AF9="Souvent",3,AF9="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AG36" s="2" cm="1">
-        <f t="array" ref="AG36">_xlfn.IFS(AG17="Rarement",4,AG17="Occasionnellement",3,AG17="Souvent",1,AG17="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AG36">_xlfn.IFS(AG9="Rarement",4,AG9="Occasionnellement",3,AG9="Souvent",1,AG9="Presque toujours/Toujours",0)</f>
+        <v>0</v>
       </c>
       <c r="AH36" s="2" cm="1">
-        <f t="array" ref="AH36">_xlfn.IFS(AH17="Rarement",4,AH17="Occasionnellement",3,AH17="Souvent",1,AH17="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AH36">_xlfn.IFS(AH9="Rarement",4,AH9="Occasionnellement",3,AH9="Souvent",1,AH9="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AI36" s="2" cm="1">
-        <f t="array" ref="AI36">_xlfn.IFS(AI17="Rarement",4,AI17="Occasionnellement",3,AI17="Souvent",1,AI17="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AI36">_xlfn.IFS(AI9="Rarement",4,AI9="Occasionnellement",3,AI9="Souvent",1,AI9="Presque toujours/Toujours",0)</f>
         <v>3</v>
       </c>
       <c r="AJ36" s="2" cm="1">
-        <f t="array" ref="AJ36">_xlfn.IFS(AJ17="Rarement",4,AJ17="Occasionnellement",3,AJ17="Souvent",1,AJ17="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AJ36">_xlfn.IFS(AJ9="Rarement",4,AJ9="Occasionnellement",3,AJ9="Souvent",1,AJ9="Presque toujours/Toujours",0)</f>
         <v>0</v>
       </c>
       <c r="AK36" s="2" cm="1">
-        <f t="array" ref="AK36">_xlfn.IFS(AK17="Rarement",4,AK17="Occasionnellement",3,AK17="Souvent",1,AK17="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AK36">_xlfn.IFS(AK9="Rarement",4,AK9="Occasionnellement",3,AK9="Souvent",1,AK9="Presque toujours/Toujours",0)</f>
+        <v>4</v>
       </c>
       <c r="AL36" s="2" cm="1">
-        <f t="array" ref="AL36">_xlfn.IFS(AL17="Rarement",4,AL17="Occasionnellement",3,AL17="Souvent",1,AL17="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AL36">_xlfn.IFS(AL9="Rarement",4,AL9="Occasionnellement",3,AL9="Souvent",1,AL9="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AM36" s="2" cm="1">
-        <f t="array" ref="AM36">_xlfn.IFS(AM17="Rarement",4,AM17="Occasionnellement",3,AM17="Souvent",1,AM17="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AM36">_xlfn.IFS(AM9="Rarement",4,AM9="Occasionnellement",3,AM9="Souvent",1,AM9="Presque toujours/Toujours",0)</f>
+        <v>0</v>
       </c>
       <c r="AN36" s="2" cm="1">
-        <f t="array" ref="AN36">_xlfn.IFS(AN17="Rarement",4,AN17="Occasionnellement",3,AN17="Souvent",1,AN17="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AN36">_xlfn.IFS(AN9="Rarement",4,AN9="Occasionnellement",3,AN9="Souvent",1,AN9="Presque toujours/Toujours",0)</f>
+        <v>4</v>
       </c>
       <c r="AO36" s="2" cm="1">
-        <f t="array" ref="AO36">_xlfn.IFS(AG17="Rarement",4,AG17="Occasionnellement",3,AG17="Souvent",1,AG17="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AO36">_xlfn.IFS(AG9="Rarement",4,AG9="Occasionnellement",3,AG9="Souvent",1,AG9="Presque toujours/Toujours",0)</f>
+        <v>0</v>
       </c>
       <c r="AP36" s="2" cm="1">
-        <f t="array" ref="AP36">_xlfn.IFS(AP17="Rarement",0,AP17="Occasionnellement",1,AP17="Souvent",3,AP17="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AP36">_xlfn.IFS(AP9="Rarement",0,AP9="Occasionnellement",1,AP9="Souvent",3,AP9="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AQ36" s="2" cm="1">
-        <f t="array" ref="AQ36">_xlfn.IFS(AQ17="Rarement",0,AQ17="Occasionnellement",1,AQ17="Souvent",3,AQ17="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AQ36">_xlfn.IFS(AQ9="Rarement",0,AQ9="Occasionnellement",1,AQ9="Souvent",3,AQ9="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AR36" s="2" cm="1">
-        <f t="array" ref="AR36">_xlfn.IFS(AR17="Rarement",0,AR17="Occasionnellement",1,AR17="Souvent",3,AR17="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AR36">_xlfn.IFS(AR9="Rarement",0,AR9="Occasionnellement",1,AR9="Souvent",3,AR9="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="AS36" s="2" cm="1">
-        <f t="array" ref="AS36">_xlfn.IFS(AS17="Rarement",4,AS17="Occasionnellement",3,AS17="Souvent",1,AS17="Presque toujours/Toujours",0)</f>
-        <v>4</v>
+        <f t="array" ref="AS36">_xlfn.IFS(AS9="Rarement",4,AS9="Occasionnellement",3,AS9="Souvent",1,AS9="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AT36" s="2" cm="1">
-        <f t="array" ref="AT36">_xlfn.IFS(AT17="Rarement",0,AT17="Occasionnellement",1,AT17="Souvent",3,AT17="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AT36">_xlfn.IFS(AT9="Rarement",0,AT9="Occasionnellement",1,AT9="Souvent",3,AT9="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="AU36" s="2" cm="1">
-        <f t="array" ref="AU36">_xlfn.IFS(AU17="Rarement",4,AU17="Occasionnellement",3,AU17="Souvent",1,AU17="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AU36">_xlfn.IFS(AU9="Rarement",4,AU9="Occasionnellement",3,AU9="Souvent",1,AU9="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AV36" s="2" cm="1">
-        <f t="array" ref="AV36">_xlfn.IFS(AV17="Rarement",0,AV17="Occasionnellement",1,AV17="Souvent",3,AV17="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AV36">_xlfn.IFS(AV9="Rarement",0,AV9="Occasionnellement",1,AV9="Souvent",3,AV9="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AW36" s="2" cm="1">
-        <f t="array" ref="AW36">_xlfn.IFS(AW17="Rarement",0,AW17="Occasionnellement",1,AW17="Souvent",3,AW17="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AW36">_xlfn.IFS(AW9="Rarement",0,AW9="Occasionnellement",1,AW9="Souvent",3,AW9="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AX36" s="2" cm="1">
-        <f t="array" ref="AX36">_xlfn.IFS(AX17="Rarement",0,AX17="Occasionnellement",1,AX17="Souvent",3,AX17="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AX36">_xlfn.IFS(AX9="Rarement",0,AX9="Occasionnellement",1,AX9="Souvent",3,AX9="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="AY36" s="2" cm="1">
-        <f t="array" ref="AY36">_xlfn.IFS(AY17="Rarement",0,AY17="Occasionnellement",1,AY17="Souvent",3,AY17="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AY36">_xlfn.IFS(AY9="Rarement",0,AY9="Occasionnellement",1,AY9="Souvent",3,AY9="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AZ36" s="2" cm="1">
-        <f t="array" ref="AZ36">_xlfn.IFS(AZ17="Rarement",0,AZ17="Occasionnellement",1,AZ17="Souvent",3,AZ17="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AZ36">_xlfn.IFS(AZ9="Rarement",0,AZ9="Occasionnellement",1,AZ9="Souvent",3,AZ9="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BA36" s="2" cm="1">
-        <f t="array" ref="BA36">_xlfn.IFS(BA17="Rarement",0,BA17="Occasionnellement",1,BA17="Souvent",3,BA17="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="BA36">_xlfn.IFS(BA9="Rarement",0,BA9="Occasionnellement",1,BA9="Souvent",3,BA9="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BB36" s="2" cm="1">
-        <f t="array" ref="BB36">_xlfn.IFS(BB17="Rarement",0,BB17="Occasionnellement",1,BB17="Souvent",3,BB17="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BB36">_xlfn.IFS(BB9="Rarement",0,BB9="Occasionnellement",1,BB9="Souvent",3,BB9="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="BC36" s="2" cm="1">
-        <f t="array" ref="BC36">_xlfn.IFS(BC17="Rarement",0,BC17="Occasionnellement",1,BC17="Souvent",3,BC17="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BC36">_xlfn.IFS(BC9="Rarement",0,BC9="Occasionnellement",1,BC9="Souvent",3,BC9="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BD36" s="2" cm="1">
-        <f t="array" ref="BD36">_xlfn.IFS(BD17="Rarement",0,BD17="Occasionnellement",1,BD17="Souvent",3,BD17="Presque toujours/Toujours",4)</f>
-        <v>4</v>
+        <f t="array" ref="BD36">_xlfn.IFS(BD9="Rarement",0,BD9="Occasionnellement",1,BD9="Souvent",3,BD9="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="BE36" s="2" cm="1">
-        <f t="array" ref="BE36">_xlfn.IFS(BE17="Rarement",0,BE17="Occasionnellement",1,BE17="Souvent",3,BE17="Presque toujours/Toujours",4)</f>
-        <v>4</v>
+        <f t="array" ref="BE36">_xlfn.IFS(BE9="Rarement",0,BE9="Occasionnellement",1,BE9="Souvent",3,BE9="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="BF36" s="2" cm="1">
-        <f t="array" ref="BF36">_xlfn.IFS(BF17="Rarement",0,BF17="Occasionnellement",1,BF17="Souvent",3,BF17="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BF36">_xlfn.IFS(BF9="Rarement",0,BF9="Occasionnellement",1,BF9="Souvent",3,BF9="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="BG36" s="2" cm="1">
-        <f t="array" ref="BG36">_xlfn.IFS(BG17="Rarement",4,BG17="Occasionnellement",3,BG17="Souvent",1,BG17="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="BG36">_xlfn.IFS(BG9="Rarement",4,BG9="Occasionnellement",3,BG9="Souvent",1,BG9="Presque toujours/Toujours",0)</f>
+        <v>4</v>
       </c>
       <c r="BH36" s="2" cm="1">
-        <f t="array" ref="BH36">_xlfn.IFS(BH17="Rarement",4,BH17="Occasionnellement",3,BH17="Souvent",1,BH17="Presque toujours/Toujours",0)</f>
-        <v>4</v>
+        <f t="array" ref="BH36">_xlfn.IFS(BH9="Rarement",4,BH9="Occasionnellement",3,BH9="Souvent",1,BH9="Presque toujours/Toujours",0)</f>
+        <v>0</v>
       </c>
       <c r="CK36" s="2"/>
       <c r="CL36" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="CM36" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="CN36" s="2">
         <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CO36" s="7">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="CP36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ36" s="2"/>
+      <c r="CR36" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
-        <v>144</v>
-      </c>
+    <row r="37" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AA37" s="2" cm="1">
-        <f t="array" ref="AA37">_xlfn.IFS(AA18="Rarement",0,AA18="Occasionnellement",1,AA18="Souvent",3,AA18="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AA37">_xlfn.IFS(AA10="Rarement",0,AA10="Occasionnellement",1,AA10="Souvent",3,AA10="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AB37" s="2" cm="1">
-        <f t="array" ref="AB37">_xlfn.IFS(AB18="Rarement",0,AB18="Occasionnellement",1,AB18="Souvent",3,AB18="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AB37">_xlfn.IFS(AB10="Rarement",0,AB10="Occasionnellement",1,AB10="Souvent",3,AB10="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AC37" s="2" cm="1">
-        <f t="array" ref="AC37">_xlfn.IFS(AC18="Rarement",0,AC18="Occasionnellement",1,AC18="Souvent",3,AC18="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AC37">_xlfn.IFS(AC10="Rarement",0,AC10="Occasionnellement",1,AC10="Souvent",3,AC10="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AD37" s="2" cm="1">
-        <f t="array" ref="AD37">_xlfn.IFS(AD18="Rarement",0,AD18="Occasionnellement",1,AD18="Souvent",3,AD18="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AD37">_xlfn.IFS(AD10="Rarement",0,AD10="Occasionnellement",1,AD10="Souvent",3,AD10="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AE37" s="2" cm="1">
-        <f t="array" ref="AE37">_xlfn.IFS(AE18="Rarement",0,AE18="Occasionnellement",1,AE18="Souvent",3,AE18="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AE37">_xlfn.IFS(AE10="Rarement",0,AE10="Occasionnellement",1,AE10="Souvent",3,AE10="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="AF37" s="2" cm="1">
-        <f t="array" ref="AF37">_xlfn.IFS(AF18="Rarement",0,AF18="Occasionnellement",1,AF18="Souvent",3,AF18="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AF37">_xlfn.IFS(AF10="Rarement",4,AF10="Occasionnellement",1,AF10="Souvent",3,AF10="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AG37" s="2" cm="1">
-        <f t="array" ref="AG37">_xlfn.IFS(AG18="Rarement",4,AG18="Occasionnellement",3,AG18="Souvent",1,AG18="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AG37">_xlfn.IFS(AG10="Rarement",4,AG10="Occasionnellement",3,AG10="Souvent",1,AG10="Presque toujours/Toujours",0)</f>
         <v>4</v>
       </c>
       <c r="AH37" s="2" cm="1">
-        <f t="array" ref="AH37">_xlfn.IFS(AH18="Rarement",4,AH18="Occasionnellement",3,AH18="Souvent",1,AH18="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AH37">_xlfn.IFS(AH10="Rarement",4,AH10="Occasionnellement",3,AH10="Souvent",1,AH10="Presque toujours/Toujours",0)</f>
+        <v>4</v>
       </c>
       <c r="AI37" s="2" cm="1">
-        <f t="array" ref="AI37">_xlfn.IFS(AI18="Rarement",4,AI18="Occasionnellement",3,AI18="Souvent",1,AI18="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AI37">_xlfn.IFS(AI10="Rarement",4,AI10="Occasionnellement",3,AI10="Souvent",1,AI10="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AJ37" s="2" cm="1">
-        <f t="array" ref="AJ37">_xlfn.IFS(AJ18="Rarement",4,AJ18="Occasionnellement",3,AJ18="Souvent",1,AJ18="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AJ37">_xlfn.IFS(AJ10="Rarement",4,AJ10="Occasionnellement",3,AJ10="Souvent",1,AJ10="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AK37" s="2" cm="1">
-        <f t="array" ref="AK37">_xlfn.IFS(AK18="Rarement",4,AK18="Occasionnellement",3,AK18="Souvent",1,AK18="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AK37">_xlfn.IFS(AK10="Rarement",4,AK10="Occasionnellement",3,AK10="Souvent",1,AK10="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AL37" s="2" cm="1">
-        <f t="array" ref="AL37">_xlfn.IFS(AL18="Rarement",4,AL18="Occasionnellement",3,AL18="Souvent",1,AL18="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AL37">_xlfn.IFS(AL10="Rarement",4,AL10="Occasionnellement",3,AL10="Souvent",1,AL10="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AM37" s="2" cm="1">
-        <f t="array" ref="AM37">_xlfn.IFS(AM18="Rarement",4,AM18="Occasionnellement",3,AM18="Souvent",1,AM18="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AM37">_xlfn.IFS(AM10="Rarement",4,AM10="Occasionnellement",3,AM10="Souvent",1,AM10="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AN37" s="2" cm="1">
-        <f t="array" ref="AN37">_xlfn.IFS(AN18="Rarement",4,AN18="Occasionnellement",3,AN18="Souvent",1,AN18="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AN37">_xlfn.IFS(AN10="Rarement",4,AN10="Occasionnellement",3,AN10="Souvent",1,AN10="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AO37" s="2" cm="1">
-        <f t="array" ref="AO37">_xlfn.IFS(AG18="Rarement",4,AG18="Occasionnellement",3,AG18="Souvent",1,AG18="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AO37">_xlfn.IFS(AG10="Rarement",4,AG10="Occasionnellement",3,AG10="Souvent",1,AG10="Presque toujours/Toujours",0)</f>
         <v>4</v>
       </c>
       <c r="AP37" s="2" cm="1">
-        <f t="array" ref="AP37">_xlfn.IFS(AP18="Rarement",0,AP18="Occasionnellement",1,AP18="Souvent",3,AP18="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AP37">_xlfn.IFS(AP10="Rarement",0,AP10="Occasionnellement",1,AP10="Souvent",3,AP10="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AQ37" s="2" cm="1">
-        <f t="array" ref="AQ37">_xlfn.IFS(AQ18="Rarement",0,AQ18="Occasionnellement",1,AQ18="Souvent",3,AQ18="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AQ37">_xlfn.IFS(AQ10="Rarement",0,AQ10="Occasionnellement",1,AQ10="Souvent",3,AQ10="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="AR37" s="2" cm="1">
-        <f t="array" ref="AR37">_xlfn.IFS(AR18="Rarement",0,AR18="Occasionnellement",1,AR18="Souvent",3,AR18="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AR37">_xlfn.IFS(AR10="Rarement",0,AR10="Occasionnellement",1,AR10="Souvent",3,AR10="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AS37" s="2" cm="1">
-        <f t="array" ref="AS37">_xlfn.IFS(AS18="Rarement",4,AS18="Occasionnellement",3,AS18="Souvent",1,AS18="Presque toujours/Toujours",0)</f>
-        <v>4</v>
+        <f t="array" ref="AS37">_xlfn.IFS(AS10="Rarement",4,AS10="Occasionnellement",3,AS10="Souvent",1,AS10="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AT37" s="2" cm="1">
-        <f t="array" ref="AT37">_xlfn.IFS(AT18="Rarement",0,AT18="Occasionnellement",1,AT18="Souvent",3,AT18="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AT37">_xlfn.IFS(AT10="Rarement",0,AT10="Occasionnellement",1,AT10="Souvent",3,AT10="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AU37" s="2" cm="1">
-        <f t="array" ref="AU37">_xlfn.IFS(AU18="Rarement",4,AU18="Occasionnellement",3,AU18="Souvent",1,AU18="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AU37">_xlfn.IFS(AU10="Rarement",4,AU10="Occasionnellement",3,AU10="Souvent",1,AU10="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AV37" s="2" cm="1">
-        <f t="array" ref="AV37">_xlfn.IFS(AV18="Rarement",0,AV18="Occasionnellement",1,AV18="Souvent",3,AV18="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AV37">_xlfn.IFS(AV10="Rarement",0,AV10="Occasionnellement",1,AV10="Souvent",3,AV10="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AW37" s="2" cm="1">
-        <f t="array" ref="AW37">_xlfn.IFS(AW18="Rarement",0,AW18="Occasionnellement",1,AW18="Souvent",3,AW18="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AW37">_xlfn.IFS(AW10="Rarement",0,AW10="Occasionnellement",1,AW10="Souvent",3,AW10="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AX37" s="2" cm="1">
-        <f t="array" ref="AX37">_xlfn.IFS(AX18="Rarement",0,AX18="Occasionnellement",1,AX18="Souvent",3,AX18="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AX37">_xlfn.IFS(AX10="Rarement",0,AX10="Occasionnellement",1,AX10="Souvent",3,AX10="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AY37" s="2" cm="1">
-        <f t="array" ref="AY37">_xlfn.IFS(AY18="Rarement",0,AY18="Occasionnellement",1,AY18="Souvent",3,AY18="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AY37">_xlfn.IFS(AY10="Rarement",0,AY10="Occasionnellement",1,AY10="Souvent",3,AY10="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AZ37" s="2" cm="1">
-        <f t="array" ref="AZ37">_xlfn.IFS(AZ18="Rarement",0,AZ18="Occasionnellement",1,AZ18="Souvent",3,AZ18="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AZ37">_xlfn.IFS(AZ10="Rarement",0,AZ10="Occasionnellement",1,AZ10="Souvent",3,AZ10="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="BA37" s="2" cm="1">
-        <f t="array" ref="BA37">_xlfn.IFS(BA18="Rarement",0,BA18="Occasionnellement",1,BA18="Souvent",3,BA18="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="BA37">_xlfn.IFS(BA10="Rarement",0,BA10="Occasionnellement",1,BA10="Souvent",3,BA10="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="BB37" s="2" cm="1">
-        <f t="array" ref="BB37">_xlfn.IFS(BB18="Rarement",0,BB18="Occasionnellement",1,BB18="Souvent",3,BB18="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="BB37">_xlfn.IFS(BB10="Rarement",0,BB10="Occasionnellement",1,BB10="Souvent",3,BB10="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="BC37" s="2" cm="1">
-        <f t="array" ref="BC37">_xlfn.IFS(BC18="Rarement",0,BC18="Occasionnellement",1,BC18="Souvent",3,BC18="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BC37">_xlfn.IFS(BC10="Rarement",0,BC10="Occasionnellement",1,BC10="Souvent",3,BC10="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BD37" s="2" cm="1">
-        <f t="array" ref="BD37">_xlfn.IFS(BD18="Rarement",0,BD18="Occasionnellement",1,BD18="Souvent",3,BD18="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BD37">_xlfn.IFS(BD10="Rarement",0,BD10="Occasionnellement",1,BD10="Souvent",3,BD10="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="BE37" s="2" cm="1">
-        <f t="array" ref="BE37">_xlfn.IFS(BE18="Rarement",0,BE18="Occasionnellement",1,BE18="Souvent",3,BE18="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BE37">_xlfn.IFS(BE10="Rarement",0,BE10="Occasionnellement",1,BE10="Souvent",3,BE10="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="BF37" s="2" cm="1">
-        <f t="array" ref="BF37">_xlfn.IFS(BF18="Rarement",0,BF18="Occasionnellement",1,BF18="Souvent",3,BF18="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BF37">_xlfn.IFS(BF10="Rarement",0,BF10="Occasionnellement",1,BF10="Souvent",3,BF10="Presque toujours/Toujours",4)</f>
+        <v>4</v>
       </c>
       <c r="BG37" s="2" cm="1">
-        <f t="array" ref="BG37">_xlfn.IFS(BG18="Rarement",4,BG18="Occasionnellement",3,BG18="Souvent",1,BG18="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="BG37">_xlfn.IFS(BG10="Rarement",4,BG10="Occasionnellement",3,BG10="Souvent",1,BG10="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="BH37" s="2" cm="1">
-        <f t="array" ref="BH37">_xlfn.IFS(BH18="Rarement",4,BH18="Occasionnellement",3,BH18="Souvent",1,BH18="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="BH37">_xlfn.IFS(BH10="Rarement",4,BH10="Occasionnellement",3,BH10="Souvent",1,BH10="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="CK37" s="2"/>
@@ -10079,184 +10836,2550 @@
       </c>
       <c r="CM37" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="CN37" s="2">
         <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="CO37" s="7">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
-        <v>51</v>
+        <v>71</v>
+      </c>
+      <c r="CP37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="CQ37" s="2"/>
+      <c r="CR37" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>146</v>
-      </c>
+    <row r="38" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AA38" s="2" cm="1">
-        <f t="array" ref="AA38">_xlfn.IFS(AA19="Rarement",0,AA19="Occasionnellement",1,AA19="Souvent",3,AA19="Presque toujours/Toujours",4)</f>
-        <v>4</v>
+        <f t="array" ref="AA38">_xlfn.IFS(AA11="Rarement",0,AA11="Occasionnellement",1,AA11="Souvent",3,AA11="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="AB38" s="2" cm="1">
-        <f t="array" ref="AB38">_xlfn.IFS(AB19="Rarement",0,AB19="Occasionnellement",1,AB19="Souvent",3,AB19="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AB38">_xlfn.IFS(AB11="Rarement",0,AB11="Occasionnellement",1,AB11="Souvent",3,AB11="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AC38" s="2" cm="1">
-        <f t="array" ref="AC38">_xlfn.IFS(AC19="Rarement",0,AC19="Occasionnellement",1,AC19="Souvent",3,AC19="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AC38">_xlfn.IFS(AC11="Rarement",0,AC11="Occasionnellement",1,AC11="Souvent",3,AC11="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AD38" s="2" cm="1">
-        <f t="array" ref="AD38">_xlfn.IFS(AD19="Rarement",0,AD19="Occasionnellement",1,AD19="Souvent",3,AD19="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AD38">_xlfn.IFS(AD11="Rarement",0,AD11="Occasionnellement",1,AD11="Souvent",3,AD11="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="AE38" s="2" cm="1">
-        <f t="array" ref="AE38">_xlfn.IFS(AE19="Rarement",0,AE19="Occasionnellement",1,AE19="Souvent",3,AE19="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AE38">_xlfn.IFS(AE11="Rarement",0,AE11="Occasionnellement",1,AE11="Souvent",3,AE11="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AF38" s="2" cm="1">
-        <f t="array" ref="AF38">_xlfn.IFS(AF19="Rarement",0,AF19="Occasionnellement",1,AF19="Souvent",3,AF19="Presque toujours/Toujours",4)</f>
-        <v>4</v>
+        <f t="array" ref="AF38">_xlfn.IFS(AF11="Rarement",4,AF11="Occasionnellement",1,AF11="Souvent",3,AF11="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AG38" s="2" cm="1">
-        <f t="array" ref="AG38">_xlfn.IFS(AG19="Rarement",4,AG19="Occasionnellement",3,AG19="Souvent",1,AG19="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AG38">_xlfn.IFS(AG11="Rarement",4,AG11="Occasionnellement",3,AG11="Souvent",1,AG11="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AH38" s="2" cm="1">
-        <f t="array" ref="AH38">_xlfn.IFS(AH19="Rarement",4,AH19="Occasionnellement",3,AH19="Souvent",1,AH19="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AH38">_xlfn.IFS(AH11="Rarement",4,AH11="Occasionnellement",3,AH11="Souvent",1,AH11="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AI38" s="2" cm="1">
-        <f t="array" ref="AI38">_xlfn.IFS(AI19="Rarement",4,AI19="Occasionnellement",3,AI19="Souvent",1,AI19="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AI38">_xlfn.IFS(AI11="Rarement",4,AI11="Occasionnellement",3,AI11="Souvent",1,AI11="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AJ38" s="2" cm="1">
-        <f t="array" ref="AJ38">_xlfn.IFS(AJ19="Rarement",4,AJ19="Occasionnellement",3,AJ19="Souvent",1,AJ19="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AJ38">_xlfn.IFS(AJ11="Rarement",4,AJ11="Occasionnellement",3,AJ11="Souvent",1,AJ11="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AK38" s="2" cm="1">
-        <f t="array" ref="AK38">_xlfn.IFS(AK19="Rarement",4,AK19="Occasionnellement",3,AK19="Souvent",1,AK19="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="AK38">_xlfn.IFS(AK11="Rarement",4,AK11="Occasionnellement",3,AK11="Souvent",1,AK11="Presque toujours/Toujours",0)</f>
+        <v>4</v>
       </c>
       <c r="AL38" s="2" cm="1">
-        <f t="array" ref="AL38">_xlfn.IFS(AL19="Rarement",4,AL19="Occasionnellement",3,AL19="Souvent",1,AL19="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AL38">_xlfn.IFS(AL11="Rarement",4,AL11="Occasionnellement",3,AL11="Souvent",1,AL11="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="AM38" s="2" cm="1">
-        <f t="array" ref="AM38">_xlfn.IFS(AM19="Rarement",4,AM19="Occasionnellement",3,AM19="Souvent",1,AM19="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AM38">_xlfn.IFS(AM11="Rarement",4,AM11="Occasionnellement",3,AM11="Souvent",1,AM11="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AN38" s="2" cm="1">
-        <f t="array" ref="AN38">_xlfn.IFS(AN19="Rarement",4,AN19="Occasionnellement",3,AN19="Souvent",1,AN19="Presque toujours/Toujours",0)</f>
-        <v>1</v>
+        <f t="array" ref="AN38">_xlfn.IFS(AN11="Rarement",4,AN11="Occasionnellement",3,AN11="Souvent",1,AN11="Presque toujours/Toujours",0)</f>
+        <v>4</v>
       </c>
       <c r="AO38" s="2" cm="1">
-        <f t="array" ref="AO38">_xlfn.IFS(AG19="Rarement",4,AG19="Occasionnellement",3,AG19="Souvent",1,AG19="Presque toujours/Toujours",0)</f>
-        <v>3</v>
+        <f t="array" ref="AO38">_xlfn.IFS(AG11="Rarement",4,AG11="Occasionnellement",3,AG11="Souvent",1,AG11="Presque toujours/Toujours",0)</f>
+        <v>1</v>
       </c>
       <c r="AP38" s="2" cm="1">
-        <f t="array" ref="AP38">_xlfn.IFS(AP19="Rarement",0,AP19="Occasionnellement",1,AP19="Souvent",3,AP19="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AP38">_xlfn.IFS(AP11="Rarement",0,AP11="Occasionnellement",1,AP11="Souvent",3,AP11="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AQ38" s="2" cm="1">
-        <f t="array" ref="AQ38">_xlfn.IFS(AQ19="Rarement",0,AQ19="Occasionnellement",1,AQ19="Souvent",3,AQ19="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AQ38">_xlfn.IFS(AQ11="Rarement",0,AQ11="Occasionnellement",1,AQ11="Souvent",3,AQ11="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AR38" s="2" cm="1">
-        <f t="array" ref="AR38">_xlfn.IFS(AR19="Rarement",0,AR19="Occasionnellement",1,AR19="Souvent",3,AR19="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AR38">_xlfn.IFS(AR11="Rarement",0,AR11="Occasionnellement",1,AR11="Souvent",3,AR11="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AS38" s="2" cm="1">
-        <f t="array" ref="AS38">_xlfn.IFS(AS19="Rarement",4,AS19="Occasionnellement",3,AS19="Souvent",1,AS19="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AS38">_xlfn.IFS(AS11="Rarement",4,AS11="Occasionnellement",3,AS11="Souvent",1,AS11="Presque toujours/Toujours",0)</f>
         <v>3</v>
       </c>
       <c r="AT38" s="2" cm="1">
-        <f t="array" ref="AT38">_xlfn.IFS(AT19="Rarement",0,AT19="Occasionnellement",1,AT19="Souvent",3,AT19="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="AT38">_xlfn.IFS(AT11="Rarement",0,AT11="Occasionnellement",1,AT11="Souvent",3,AT11="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AU38" s="2" cm="1">
-        <f t="array" ref="AU38">_xlfn.IFS(AU19="Rarement",4,AU19="Occasionnellement",3,AU19="Souvent",1,AU19="Presque toujours/Toujours",0)</f>
+        <f t="array" ref="AU38">_xlfn.IFS(AU11="Rarement",4,AU11="Occasionnellement",3,AU11="Souvent",1,AU11="Presque toujours/Toujours",0)</f>
         <v>1</v>
       </c>
       <c r="AV38" s="2" cm="1">
-        <f t="array" ref="AV38">_xlfn.IFS(AV19="Rarement",0,AV19="Occasionnellement",1,AV19="Souvent",3,AV19="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AV38">_xlfn.IFS(AV11="Rarement",0,AV11="Occasionnellement",1,AV11="Souvent",3,AV11="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AW38" s="2" cm="1">
-        <f t="array" ref="AW38">_xlfn.IFS(AW19="Rarement",0,AW19="Occasionnellement",1,AW19="Souvent",3,AW19="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="AW38">_xlfn.IFS(AW11="Rarement",0,AW11="Occasionnellement",1,AW11="Souvent",3,AW11="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="AX38" s="2" cm="1">
-        <f t="array" ref="AX38">_xlfn.IFS(AX19="Rarement",0,AX19="Occasionnellement",1,AX19="Souvent",3,AX19="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AX38">_xlfn.IFS(AX11="Rarement",0,AX11="Occasionnellement",1,AX11="Souvent",3,AX11="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="AY38" s="2" cm="1">
-        <f t="array" ref="AY38">_xlfn.IFS(AY19="Rarement",0,AY19="Occasionnellement",1,AY19="Souvent",3,AY19="Presque toujours/Toujours",4)</f>
-        <v>0</v>
+        <f t="array" ref="AY38">_xlfn.IFS(AY11="Rarement",0,AY11="Occasionnellement",1,AY11="Souvent",3,AY11="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="AZ38" s="2" cm="1">
-        <f t="array" ref="AZ38">_xlfn.IFS(AZ19="Rarement",0,AZ19="Occasionnellement",1,AZ19="Souvent",3,AZ19="Presque toujours/Toujours",4)</f>
-        <v>4</v>
+        <f t="array" ref="AZ38">_xlfn.IFS(AZ11="Rarement",0,AZ11="Occasionnellement",1,AZ11="Souvent",3,AZ11="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="BA38" s="2" cm="1">
-        <f t="array" ref="BA38">_xlfn.IFS(BA19="Rarement",0,BA19="Occasionnellement",1,BA19="Souvent",3,BA19="Presque toujours/Toujours",4)</f>
-        <v>3</v>
+        <f t="array" ref="BA38">_xlfn.IFS(BA11="Rarement",0,BA11="Occasionnellement",1,BA11="Souvent",3,BA11="Presque toujours/Toujours",4)</f>
+        <v>1</v>
       </c>
       <c r="BB38" s="2" cm="1">
-        <f t="array" ref="BB38">_xlfn.IFS(BB19="Rarement",0,BB19="Occasionnellement",1,BB19="Souvent",3,BB19="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BB38">_xlfn.IFS(BB11="Rarement",0,BB11="Occasionnellement",1,BB11="Souvent",3,BB11="Presque toujours/Toujours",4)</f>
         <v>0</v>
       </c>
       <c r="BC38" s="2" cm="1">
-        <f t="array" ref="BC38">_xlfn.IFS(BC19="Rarement",0,BC19="Occasionnellement",1,BC19="Souvent",3,BC19="Presque toujours/Toujours",4)</f>
-        <v>1</v>
+        <f t="array" ref="BC38">_xlfn.IFS(BC11="Rarement",0,BC11="Occasionnellement",1,BC11="Souvent",3,BC11="Presque toujours/Toujours",4)</f>
+        <v>3</v>
       </c>
       <c r="BD38" s="2" cm="1">
-        <f t="array" ref="BD38">_xlfn.IFS(BD19="Rarement",0,BD19="Occasionnellement",1,BD19="Souvent",3,BD19="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BD38">_xlfn.IFS(BD11="Rarement",0,BD11="Occasionnellement",1,BD11="Souvent",3,BD11="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="BE38" s="2" cm="1">
-        <f t="array" ref="BE38">_xlfn.IFS(BE19="Rarement",0,BE19="Occasionnellement",1,BE19="Souvent",3,BE19="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="BE38">_xlfn.IFS(BE11="Rarement",0,BE11="Occasionnellement",1,BE11="Souvent",3,BE11="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="BF38" s="2" cm="1">
-        <f t="array" ref="BF38">_xlfn.IFS(BF19="Rarement",0,BF19="Occasionnellement",1,BF19="Souvent",3,BF19="Presque toujours/Toujours",4)</f>
-        <v>4</v>
+        <f t="array" ref="BF38">_xlfn.IFS(BF11="Rarement",0,BF11="Occasionnellement",1,BF11="Souvent",3,BF11="Presque toujours/Toujours",4)</f>
+        <v>0</v>
       </c>
       <c r="BG38" s="2" cm="1">
-        <f t="array" ref="BG38">_xlfn.IFS(BG19="Rarement",4,BG19="Occasionnellement",3,BG19="Souvent",1,BG19="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="BG38">_xlfn.IFS(BG11="Rarement",4,BG11="Occasionnellement",3,BG11="Souvent",1,BG11="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="BH38" s="2" cm="1">
-        <f t="array" ref="BH38">_xlfn.IFS(BH19="Rarement",4,BH19="Occasionnellement",3,BH19="Souvent",1,BH19="Presque toujours/Toujours",0)</f>
-        <v>0</v>
+        <f t="array" ref="BH38">_xlfn.IFS(BH11="Rarement",4,BH11="Occasionnellement",3,BH11="Souvent",1,BH11="Presque toujours/Toujours",0)</f>
+        <v>3</v>
       </c>
       <c r="CK38" s="2"/>
       <c r="CL38" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CM38" s="1">
         <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CN38" s="2">
         <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="CO38" s="7">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>47</v>
+      </c>
+      <c r="CP38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="CQ38" s="2"/>
+      <c r="CR38" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA39" s="2" cm="1">
+        <f t="array" ref="AA39">_xlfn.IFS(AA12="Rarement",0,AA12="Occasionnellement",1,AA12="Souvent",3,AA12="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AB39" s="2" cm="1">
+        <f t="array" ref="AB39">_xlfn.IFS(AB12="Rarement",0,AB12="Occasionnellement",1,AB12="Souvent",3,AB12="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2" cm="1">
+        <f t="array" ref="AC39">_xlfn.IFS(AC12="Rarement",0,AC12="Occasionnellement",1,AC12="Souvent",3,AC12="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AD39" s="2" cm="1">
+        <f t="array" ref="AD39">_xlfn.IFS(AD12="Rarement",0,AD12="Occasionnellement",1,AD12="Souvent",3,AD12="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AE39" s="2" cm="1">
+        <f t="array" ref="AE39">_xlfn.IFS(AE12="Rarement",0,AE12="Occasionnellement",1,AE12="Souvent",3,AE12="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="2" cm="1">
+        <f t="array" ref="AF39">_xlfn.IFS(AF12="Rarement",4,AF12="Occasionnellement",1,AF12="Souvent",3,AF12="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AG39" s="2" cm="1">
+        <f t="array" ref="AG39">_xlfn.IFS(AG12="Rarement",4,AG12="Occasionnellement",3,AG12="Souvent",1,AG12="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH39" s="2" cm="1">
+        <f t="array" ref="AH39">_xlfn.IFS(AH12="Rarement",4,AH12="Occasionnellement",3,AH12="Souvent",1,AH12="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="2" cm="1">
+        <f t="array" ref="AI39">_xlfn.IFS(AI12="Rarement",4,AI12="Occasionnellement",3,AI12="Souvent",1,AI12="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="2" cm="1">
+        <f t="array" ref="AJ39">_xlfn.IFS(AJ12="Rarement",4,AJ12="Occasionnellement",3,AJ12="Souvent",1,AJ12="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK39" s="2" cm="1">
+        <f t="array" ref="AK39">_xlfn.IFS(AK12="Rarement",4,AK12="Occasionnellement",3,AK12="Souvent",1,AK12="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AL39" s="2" cm="1">
+        <f t="array" ref="AL39">_xlfn.IFS(AL12="Rarement",4,AL12="Occasionnellement",3,AL12="Souvent",1,AL12="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM39" s="2" cm="1">
+        <f t="array" ref="AM39">_xlfn.IFS(AM12="Rarement",4,AM12="Occasionnellement",3,AM12="Souvent",1,AM12="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN39" s="2" cm="1">
+        <f t="array" ref="AN39">_xlfn.IFS(AN12="Rarement",4,AN12="Occasionnellement",3,AN12="Souvent",1,AN12="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AO39" s="2" cm="1">
+        <f t="array" ref="AO39">_xlfn.IFS(AG12="Rarement",4,AG12="Occasionnellement",3,AG12="Souvent",1,AG12="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP39" s="2" cm="1">
+        <f t="array" ref="AP39">_xlfn.IFS(AP12="Rarement",0,AP12="Occasionnellement",1,AP12="Souvent",3,AP12="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="2" cm="1">
+        <f t="array" ref="AQ39">_xlfn.IFS(AQ12="Rarement",0,AQ12="Occasionnellement",1,AQ12="Souvent",3,AQ12="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AR39" s="2" cm="1">
+        <f t="array" ref="AR39">_xlfn.IFS(AR12="Rarement",0,AR12="Occasionnellement",1,AR12="Souvent",3,AR12="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AS39" s="2" cm="1">
+        <f t="array" ref="AS39">_xlfn.IFS(AS12="Rarement",4,AS12="Occasionnellement",3,AS12="Souvent",1,AS12="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AT39" s="2" cm="1">
+        <f t="array" ref="AT39">_xlfn.IFS(AT12="Rarement",0,AT12="Occasionnellement",1,AT12="Souvent",3,AT12="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AU39" s="2" cm="1">
+        <f t="array" ref="AU39">_xlfn.IFS(AU12="Rarement",4,AU12="Occasionnellement",3,AU12="Souvent",1,AU12="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV39" s="2" cm="1">
+        <f t="array" ref="AV39">_xlfn.IFS(AV12="Rarement",0,AV12="Occasionnellement",1,AV12="Souvent",3,AV12="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AW39" s="2" cm="1">
+        <f t="array" ref="AW39">_xlfn.IFS(AW12="Rarement",0,AW12="Occasionnellement",1,AW12="Souvent",3,AW12="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AX39" s="2" cm="1">
+        <f t="array" ref="AX39">_xlfn.IFS(AX12="Rarement",0,AX12="Occasionnellement",1,AX12="Souvent",3,AX12="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AY39" s="2" cm="1">
+        <f t="array" ref="AY39">_xlfn.IFS(AY12="Rarement",0,AY12="Occasionnellement",1,AY12="Souvent",3,AY12="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AZ39" s="2" cm="1">
+        <f t="array" ref="AZ39">_xlfn.IFS(AZ12="Rarement",0,AZ12="Occasionnellement",1,AZ12="Souvent",3,AZ12="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BA39" s="2" cm="1">
+        <f t="array" ref="BA39">_xlfn.IFS(BA12="Rarement",0,BA12="Occasionnellement",1,BA12="Souvent",3,BA12="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BB39" s="2" cm="1">
+        <f t="array" ref="BB39">_xlfn.IFS(BB12="Rarement",0,BB12="Occasionnellement",1,BB12="Souvent",3,BB12="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC39" s="2" cm="1">
+        <f t="array" ref="BC39">_xlfn.IFS(BC12="Rarement",0,BC12="Occasionnellement",1,BC12="Souvent",3,BC12="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BD39" s="2" cm="1">
+        <f t="array" ref="BD39">_xlfn.IFS(BD12="Rarement",0,BD12="Occasionnellement",1,BD12="Souvent",3,BD12="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BE39" s="2" cm="1">
+        <f t="array" ref="BE39">_xlfn.IFS(BE12="Rarement",0,BE12="Occasionnellement",1,BE12="Souvent",3,BE12="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BF39" s="2" cm="1">
+        <f t="array" ref="BF39">_xlfn.IFS(BF12="Rarement",0,BF12="Occasionnellement",1,BF12="Souvent",3,BF12="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BG39" s="2" cm="1">
+        <f t="array" ref="BG39">_xlfn.IFS(BG12="Rarement",4,BG12="Occasionnellement",3,BG12="Souvent",1,BG12="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH39" s="2" cm="1">
+        <f t="array" ref="BH39">_xlfn.IFS(BH12="Rarement",4,BH12="Occasionnellement",3,BH12="Souvent",1,BH12="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="CK39" s="2"/>
+      <c r="CL39" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>15</v>
+      </c>
+      <c r="CM39" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>16</v>
+      </c>
+      <c r="CN39" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>11</v>
+      </c>
+      <c r="CO39" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>42</v>
+      </c>
+      <c r="CP39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="CQ39" s="2"/>
+      <c r="CR39" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA40" s="2" cm="1">
+        <f t="array" ref="AA40">_xlfn.IFS(AA13="Rarement",0,AA13="Occasionnellement",1,AA13="Souvent",3,AA13="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AB40" s="2" cm="1">
+        <f t="array" ref="AB40">_xlfn.IFS(AB13="Rarement",0,AB13="Occasionnellement",1,AB13="Souvent",3,AB13="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AC40" s="2" cm="1">
+        <f t="array" ref="AC40">_xlfn.IFS(AC13="Rarement",0,AC13="Occasionnellement",1,AC13="Souvent",3,AC13="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AD40" s="2" cm="1">
+        <f t="array" ref="AD40">_xlfn.IFS(AD13="Rarement",0,AD13="Occasionnellement",1,AD13="Souvent",3,AD13="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AE40" s="2" cm="1">
+        <f t="array" ref="AE40">_xlfn.IFS(AE13="Rarement",0,AE13="Occasionnellement",1,AE13="Souvent",3,AE13="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AF40" s="2" cm="1">
+        <f t="array" ref="AF40">_xlfn.IFS(AF13="Rarement",4,AF13="Occasionnellement",1,AF13="Souvent",3,AF13="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AG40" s="2" cm="1">
+        <f t="array" ref="AG40">_xlfn.IFS(AG13="Rarement",4,AG13="Occasionnellement",3,AG13="Souvent",1,AG13="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="2" cm="1">
+        <f t="array" ref="AH40">_xlfn.IFS(AH13="Rarement",4,AH13="Occasionnellement",3,AH13="Souvent",1,AH13="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI40" s="2" cm="1">
+        <f t="array" ref="AI40">_xlfn.IFS(AI13="Rarement",4,AI13="Occasionnellement",3,AI13="Souvent",1,AI13="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="2" cm="1">
+        <f t="array" ref="AJ40">_xlfn.IFS(AJ13="Rarement",4,AJ13="Occasionnellement",3,AJ13="Souvent",1,AJ13="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AK40" s="2" cm="1">
+        <f t="array" ref="AK40">_xlfn.IFS(AK13="Rarement",4,AK13="Occasionnellement",3,AK13="Souvent",1,AK13="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL40" s="2" cm="1">
+        <f t="array" ref="AL40">_xlfn.IFS(AL13="Rarement",4,AL13="Occasionnellement",3,AL13="Souvent",1,AL13="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AM40" s="2" cm="1">
+        <f t="array" ref="AM40">_xlfn.IFS(AM13="Rarement",4,AM13="Occasionnellement",3,AM13="Souvent",1,AM13="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN40" s="2" cm="1">
+        <f t="array" ref="AN40">_xlfn.IFS(AN13="Rarement",4,AN13="Occasionnellement",3,AN13="Souvent",1,AN13="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AO40" s="2" cm="1">
+        <f t="array" ref="AO40">_xlfn.IFS(AG13="Rarement",4,AG13="Occasionnellement",3,AG13="Souvent",1,AG13="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP40" s="2" cm="1">
+        <f t="array" ref="AP40">_xlfn.IFS(AP13="Rarement",0,AP13="Occasionnellement",1,AP13="Souvent",3,AP13="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="2" cm="1">
+        <f t="array" ref="AQ40">_xlfn.IFS(AQ13="Rarement",0,AQ13="Occasionnellement",1,AQ13="Souvent",3,AQ13="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AR40" s="2" cm="1">
+        <f t="array" ref="AR40">_xlfn.IFS(AR13="Rarement",0,AR13="Occasionnellement",1,AR13="Souvent",3,AR13="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AS40" s="2" cm="1">
+        <f t="array" ref="AS40">_xlfn.IFS(AS13="Rarement",4,AS13="Occasionnellement",3,AS13="Souvent",1,AS13="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AT40" s="2" cm="1">
+        <f t="array" ref="AT40">_xlfn.IFS(AT13="Rarement",0,AT13="Occasionnellement",1,AT13="Souvent",3,AT13="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AU40" s="2" cm="1">
+        <f t="array" ref="AU40">_xlfn.IFS(AU13="Rarement",4,AU13="Occasionnellement",3,AU13="Souvent",1,AU13="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV40" s="2" cm="1">
+        <f t="array" ref="AV40">_xlfn.IFS(AV13="Rarement",0,AV13="Occasionnellement",1,AV13="Souvent",3,AV13="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AW40" s="2" cm="1">
+        <f t="array" ref="AW40">_xlfn.IFS(AW13="Rarement",0,AW13="Occasionnellement",1,AW13="Souvent",3,AW13="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AX40" s="2" cm="1">
+        <f t="array" ref="AX40">_xlfn.IFS(AX13="Rarement",0,AX13="Occasionnellement",1,AX13="Souvent",3,AX13="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AY40" s="2" cm="1">
+        <f t="array" ref="AY40">_xlfn.IFS(AY13="Rarement",0,AY13="Occasionnellement",1,AY13="Souvent",3,AY13="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="2" cm="1">
+        <f t="array" ref="AZ40">_xlfn.IFS(AZ13="Rarement",0,AZ13="Occasionnellement",1,AZ13="Souvent",3,AZ13="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BA40" s="2" cm="1">
+        <f t="array" ref="BA40">_xlfn.IFS(BA13="Rarement",0,BA13="Occasionnellement",1,BA13="Souvent",3,BA13="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BB40" s="2" cm="1">
+        <f t="array" ref="BB40">_xlfn.IFS(BB13="Rarement",0,BB13="Occasionnellement",1,BB13="Souvent",3,BB13="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BC40" s="2" cm="1">
+        <f t="array" ref="BC40">_xlfn.IFS(BC13="Rarement",0,BC13="Occasionnellement",1,BC13="Souvent",3,BC13="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BD40" s="2" cm="1">
+        <f t="array" ref="BD40">_xlfn.IFS(BD13="Rarement",0,BD13="Occasionnellement",1,BD13="Souvent",3,BD13="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BE40" s="2" cm="1">
+        <f t="array" ref="BE40">_xlfn.IFS(BE13="Rarement",0,BE13="Occasionnellement",1,BE13="Souvent",3,BE13="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BF40" s="2" cm="1">
+        <f t="array" ref="BF40">_xlfn.IFS(BF13="Rarement",0,BF13="Occasionnellement",1,BF13="Souvent",3,BF13="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="BG40" s="2" cm="1">
+        <f t="array" ref="BG40">_xlfn.IFS(BG13="Rarement",4,BG13="Occasionnellement",3,BG13="Souvent",1,BG13="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="BH40" s="2" cm="1">
+        <f t="array" ref="BH40">_xlfn.IFS(BH13="Rarement",4,BH13="Occasionnellement",3,BH13="Souvent",1,BH13="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="CK40" s="2"/>
+      <c r="CL40" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>15</v>
+      </c>
+      <c r="CM40" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>17</v>
+      </c>
+      <c r="CN40" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>22</v>
+      </c>
+      <c r="CO40" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>54</v>
+      </c>
+      <c r="CP40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="CQ40" s="2"/>
+      <c r="CR40" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA41" s="2" cm="1">
+        <f t="array" ref="AA41">_xlfn.IFS(AA14="Rarement",0,AA14="Occasionnellement",1,AA14="Souvent",3,AA14="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AB41" s="2" cm="1">
+        <f t="array" ref="AB41">_xlfn.IFS(AB14="Rarement",0,AB14="Occasionnellement",1,AB14="Souvent",3,AB14="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="2" cm="1">
+        <f t="array" ref="AC41">_xlfn.IFS(AC14="Rarement",0,AC14="Occasionnellement",1,AC14="Souvent",3,AC14="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AD41" s="2" cm="1">
+        <f t="array" ref="AD41">_xlfn.IFS(AD14="Rarement",0,AD14="Occasionnellement",1,AD14="Souvent",3,AD14="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="2" cm="1">
+        <f t="array" ref="AE41">_xlfn.IFS(AE14="Rarement",0,AE14="Occasionnellement",1,AE14="Souvent",3,AE14="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="2" cm="1">
+        <f t="array" ref="AF41">_xlfn.IFS(AF14="Rarement",4,AF14="Occasionnellement",1,AF14="Souvent",3,AF14="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AG41" s="2" cm="1">
+        <f t="array" ref="AG41">_xlfn.IFS(AG14="Rarement",4,AG14="Occasionnellement",3,AG14="Souvent",1,AG14="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH41" s="2" cm="1">
+        <f t="array" ref="AH41">_xlfn.IFS(AH14="Rarement",4,AH14="Occasionnellement",3,AH14="Souvent",1,AH14="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI41" s="2" cm="1">
+        <f t="array" ref="AI41">_xlfn.IFS(AI14="Rarement",4,AI14="Occasionnellement",3,AI14="Souvent",1,AI14="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="2" cm="1">
+        <f t="array" ref="AJ41">_xlfn.IFS(AJ14="Rarement",4,AJ14="Occasionnellement",3,AJ14="Souvent",1,AJ14="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AK41" s="2" cm="1">
+        <f t="array" ref="AK41">_xlfn.IFS(AK14="Rarement",4,AK14="Occasionnellement",3,AK14="Souvent",1,AK14="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AL41" s="2" cm="1">
+        <f t="array" ref="AL41">_xlfn.IFS(AL14="Rarement",4,AL14="Occasionnellement",3,AL14="Souvent",1,AL14="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM41" s="2" cm="1">
+        <f t="array" ref="AM41">_xlfn.IFS(AM14="Rarement",4,AM14="Occasionnellement",3,AM14="Souvent",1,AM14="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN41" s="2" cm="1">
+        <f t="array" ref="AN41">_xlfn.IFS(AN14="Rarement",4,AN14="Occasionnellement",3,AN14="Souvent",1,AN14="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO41" s="2" cm="1">
+        <f t="array" ref="AO41">_xlfn.IFS(AG14="Rarement",4,AG14="Occasionnellement",3,AG14="Souvent",1,AG14="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP41" s="2" cm="1">
+        <f t="array" ref="AP41">_xlfn.IFS(AP14="Rarement",0,AP14="Occasionnellement",1,AP14="Souvent",3,AP14="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="2" cm="1">
+        <f t="array" ref="AQ41">_xlfn.IFS(AQ14="Rarement",0,AQ14="Occasionnellement",1,AQ14="Souvent",3,AQ14="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AR41" s="2" cm="1">
+        <f t="array" ref="AR41">_xlfn.IFS(AR14="Rarement",0,AR14="Occasionnellement",1,AR14="Souvent",3,AR14="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AS41" s="2" cm="1">
+        <f t="array" ref="AS41">_xlfn.IFS(AS14="Rarement",4,AS14="Occasionnellement",3,AS14="Souvent",1,AS14="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AT41" s="2" cm="1">
+        <f t="array" ref="AT41">_xlfn.IFS(AT14="Rarement",0,AT14="Occasionnellement",1,AT14="Souvent",3,AT14="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AU41" s="2" cm="1">
+        <f t="array" ref="AU41">_xlfn.IFS(AU14="Rarement",4,AU14="Occasionnellement",3,AU14="Souvent",1,AU14="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV41" s="2" cm="1">
+        <f t="array" ref="AV41">_xlfn.IFS(AV14="Rarement",0,AV14="Occasionnellement",1,AV14="Souvent",3,AV14="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AW41" s="2" cm="1">
+        <f t="array" ref="AW41">_xlfn.IFS(AW14="Rarement",0,AW14="Occasionnellement",1,AW14="Souvent",3,AW14="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AX41" s="2" cm="1">
+        <f t="array" ref="AX41">_xlfn.IFS(AX14="Rarement",0,AX14="Occasionnellement",1,AX14="Souvent",3,AX14="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AY41" s="2" cm="1">
+        <f t="array" ref="AY41">_xlfn.IFS(AY14="Rarement",0,AY14="Occasionnellement",1,AY14="Souvent",3,AY14="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="2" cm="1">
+        <f t="array" ref="AZ41">_xlfn.IFS(AZ14="Rarement",0,AZ14="Occasionnellement",1,AZ14="Souvent",3,AZ14="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BA41" s="2" cm="1">
+        <f t="array" ref="BA41">_xlfn.IFS(BA14="Rarement",0,BA14="Occasionnellement",1,BA14="Souvent",3,BA14="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BB41" s="2" cm="1">
+        <f t="array" ref="BB41">_xlfn.IFS(BB14="Rarement",0,BB14="Occasionnellement",1,BB14="Souvent",3,BB14="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC41" s="2" cm="1">
+        <f t="array" ref="BC41">_xlfn.IFS(BC14="Rarement",0,BC14="Occasionnellement",1,BC14="Souvent",3,BC14="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BD41" s="2" cm="1">
+        <f t="array" ref="BD41">_xlfn.IFS(BD14="Rarement",0,BD14="Occasionnellement",1,BD14="Souvent",3,BD14="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BE41" s="2" cm="1">
+        <f t="array" ref="BE41">_xlfn.IFS(BE14="Rarement",0,BE14="Occasionnellement",1,BE14="Souvent",3,BE14="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BF41" s="2" cm="1">
+        <f t="array" ref="BF41">_xlfn.IFS(BF14="Rarement",0,BF14="Occasionnellement",1,BF14="Souvent",3,BF14="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BG41" s="2" cm="1">
+        <f t="array" ref="BG41">_xlfn.IFS(BG14="Rarement",4,BG14="Occasionnellement",3,BG14="Souvent",1,BG14="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH41" s="2" cm="1">
+        <f t="array" ref="BH41">_xlfn.IFS(BH14="Rarement",4,BH14="Occasionnellement",3,BH14="Souvent",1,BH14="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="CK41" s="2"/>
+      <c r="CL41" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>13</v>
+      </c>
+      <c r="CM41" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>12</v>
+      </c>
+      <c r="CN41" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>15</v>
+      </c>
+      <c r="CO41" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>40</v>
+      </c>
+      <c r="CP41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="CQ41" s="2"/>
+      <c r="CR41" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA42" s="2" cm="1">
+        <f t="array" ref="AA42">_xlfn.IFS(AA15="Rarement",0,AA15="Occasionnellement",1,AA15="Souvent",3,AA15="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AB42" s="2" cm="1">
+        <f t="array" ref="AB42">_xlfn.IFS(AB15="Rarement",0,AB15="Occasionnellement",1,AB15="Souvent",3,AB15="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="2" cm="1">
+        <f t="array" ref="AC42">_xlfn.IFS(AC15="Rarement",0,AC15="Occasionnellement",1,AC15="Souvent",3,AC15="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AD42" s="2" cm="1">
+        <f t="array" ref="AD42">_xlfn.IFS(AD15="Rarement",0,AD15="Occasionnellement",1,AD15="Souvent",3,AD15="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AE42" s="2" cm="1">
+        <f t="array" ref="AE42">_xlfn.IFS(AE15="Rarement",0,AE15="Occasionnellement",1,AE15="Souvent",3,AE15="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="2" cm="1">
+        <f t="array" ref="AF42">_xlfn.IFS(AF15="Rarement",4,AF15="Occasionnellement",1,AF15="Souvent",3,AF15="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AG42" s="2" cm="1">
+        <f t="array" ref="AG42">_xlfn.IFS(AG15="Rarement",4,AG15="Occasionnellement",3,AG15="Souvent",1,AG15="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AH42" s="2" cm="1">
+        <f t="array" ref="AH42">_xlfn.IFS(AH15="Rarement",4,AH15="Occasionnellement",3,AH15="Souvent",1,AH15="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="2" cm="1">
+        <f t="array" ref="AI42">_xlfn.IFS(AI15="Rarement",4,AI15="Occasionnellement",3,AI15="Souvent",1,AI15="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="2" cm="1">
+        <f t="array" ref="AJ42">_xlfn.IFS(AJ15="Rarement",4,AJ15="Occasionnellement",3,AJ15="Souvent",1,AJ15="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="2" cm="1">
+        <f t="array" ref="AK42">_xlfn.IFS(AK15="Rarement",4,AK15="Occasionnellement",3,AK15="Souvent",1,AK15="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL42" s="2" cm="1">
+        <f t="array" ref="AL42">_xlfn.IFS(AL15="Rarement",4,AL15="Occasionnellement",3,AL15="Souvent",1,AL15="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM42" s="2" cm="1">
+        <f t="array" ref="AM42">_xlfn.IFS(AM15="Rarement",4,AM15="Occasionnellement",3,AM15="Souvent",1,AM15="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN42" s="2" cm="1">
+        <f t="array" ref="AN42">_xlfn.IFS(AN15="Rarement",4,AN15="Occasionnellement",3,AN15="Souvent",1,AN15="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AO42" s="2" cm="1">
+        <f t="array" ref="AO42">_xlfn.IFS(AG15="Rarement",4,AG15="Occasionnellement",3,AG15="Souvent",1,AG15="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AP42" s="2" cm="1">
+        <f t="array" ref="AP42">_xlfn.IFS(AP15="Rarement",0,AP15="Occasionnellement",1,AP15="Souvent",3,AP15="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="2" cm="1">
+        <f t="array" ref="AQ42">_xlfn.IFS(AQ15="Rarement",0,AQ15="Occasionnellement",1,AQ15="Souvent",3,AQ15="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AR42" s="2" cm="1">
+        <f t="array" ref="AR42">_xlfn.IFS(AR15="Rarement",0,AR15="Occasionnellement",1,AR15="Souvent",3,AR15="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AS42" s="2" cm="1">
+        <f t="array" ref="AS42">_xlfn.IFS(AS15="Rarement",4,AS15="Occasionnellement",3,AS15="Souvent",1,AS15="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AT42" s="2" cm="1">
+        <f t="array" ref="AT42">_xlfn.IFS(AT15="Rarement",0,AT15="Occasionnellement",1,AT15="Souvent",3,AT15="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AU42" s="2" cm="1">
+        <f t="array" ref="AU42">_xlfn.IFS(AU15="Rarement",4,AU15="Occasionnellement",3,AU15="Souvent",1,AU15="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV42" s="2" cm="1">
+        <f t="array" ref="AV42">_xlfn.IFS(AV15="Rarement",0,AV15="Occasionnellement",1,AV15="Souvent",3,AV15="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AW42" s="2" cm="1">
+        <f t="array" ref="AW42">_xlfn.IFS(AW15="Rarement",0,AW15="Occasionnellement",1,AW15="Souvent",3,AW15="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AX42" s="2" cm="1">
+        <f t="array" ref="AX42">_xlfn.IFS(AX15="Rarement",0,AX15="Occasionnellement",1,AX15="Souvent",3,AX15="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AY42" s="2" cm="1">
+        <f t="array" ref="AY42">_xlfn.IFS(AY15="Rarement",0,AY15="Occasionnellement",1,AY15="Souvent",3,AY15="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="2" cm="1">
+        <f t="array" ref="AZ42">_xlfn.IFS(AZ15="Rarement",0,AZ15="Occasionnellement",1,AZ15="Souvent",3,AZ15="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="BA42" s="2" cm="1">
+        <f t="array" ref="BA42">_xlfn.IFS(BA15="Rarement",0,BA15="Occasionnellement",1,BA15="Souvent",3,BA15="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BB42" s="2" cm="1">
+        <f t="array" ref="BB42">_xlfn.IFS(BB15="Rarement",0,BB15="Occasionnellement",1,BB15="Souvent",3,BB15="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC42" s="2" cm="1">
+        <f t="array" ref="BC42">_xlfn.IFS(BC15="Rarement",0,BC15="Occasionnellement",1,BC15="Souvent",3,BC15="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="BD42" s="2" cm="1">
+        <f t="array" ref="BD42">_xlfn.IFS(BD15="Rarement",0,BD15="Occasionnellement",1,BD15="Souvent",3,BD15="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="BE42" s="2" cm="1">
+        <f t="array" ref="BE42">_xlfn.IFS(BE15="Rarement",0,BE15="Occasionnellement",1,BE15="Souvent",3,BE15="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BF42" s="2" cm="1">
+        <f t="array" ref="BF42">_xlfn.IFS(BF15="Rarement",0,BF15="Occasionnellement",1,BF15="Souvent",3,BF15="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BG42" s="2" cm="1">
+        <f t="array" ref="BG42">_xlfn.IFS(BG15="Rarement",4,BG15="Occasionnellement",3,BG15="Souvent",1,BG15="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH42" s="2" cm="1">
+        <f t="array" ref="BH42">_xlfn.IFS(BH15="Rarement",4,BH15="Occasionnellement",3,BH15="Souvent",1,BH15="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="CK42" s="2"/>
+      <c r="CL42" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>23</v>
+      </c>
+      <c r="CM42" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>14</v>
+      </c>
+      <c r="CN42" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>18</v>
+      </c>
+      <c r="CO42" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>55</v>
+      </c>
+      <c r="CP42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="CQ42" s="2"/>
+      <c r="CR42" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA43" s="2" cm="1">
+        <f t="array" ref="AA43">_xlfn.IFS(AA16="Rarement",0,AA16="Occasionnellement",1,AA16="Souvent",3,AA16="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AB43" s="2" cm="1">
+        <f t="array" ref="AB43">_xlfn.IFS(AB16="Rarement",0,AB16="Occasionnellement",1,AB16="Souvent",3,AB16="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AC43" s="2" cm="1">
+        <f t="array" ref="AC43">_xlfn.IFS(AC16="Rarement",0,AC16="Occasionnellement",1,AC16="Souvent",3,AC16="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="2" cm="1">
+        <f t="array" ref="AD43">_xlfn.IFS(AD16="Rarement",0,AD16="Occasionnellement",1,AD16="Souvent",3,AD16="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="2" cm="1">
+        <f t="array" ref="AE43">_xlfn.IFS(AE16="Rarement",0,AE16="Occasionnellement",1,AE16="Souvent",3,AE16="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="2" cm="1">
+        <f t="array" ref="AF43">_xlfn.IFS(AF16="Rarement",4,AF16="Occasionnellement",1,AF16="Souvent",3,AF16="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AG43" s="2" cm="1">
+        <f t="array" ref="AG43">_xlfn.IFS(AG16="Rarement",4,AG16="Occasionnellement",3,AG16="Souvent",1,AG16="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH43" s="2" cm="1">
+        <f t="array" ref="AH43">_xlfn.IFS(AH16="Rarement",4,AH16="Occasionnellement",3,AH16="Souvent",1,AH16="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI43" s="2" cm="1">
+        <f t="array" ref="AI43">_xlfn.IFS(AI16="Rarement",4,AI16="Occasionnellement",3,AI16="Souvent",1,AI16="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="2" cm="1">
+        <f t="array" ref="AJ43">_xlfn.IFS(AJ16="Rarement",4,AJ16="Occasionnellement",3,AJ16="Souvent",1,AJ16="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="2" cm="1">
+        <f t="array" ref="AK43">_xlfn.IFS(AK16="Rarement",4,AK16="Occasionnellement",3,AK16="Souvent",1,AK16="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AL43" s="2" cm="1">
+        <f t="array" ref="AL43">_xlfn.IFS(AL16="Rarement",4,AL16="Occasionnellement",3,AL16="Souvent",1,AL16="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM43" s="2" cm="1">
+        <f t="array" ref="AM43">_xlfn.IFS(AM16="Rarement",4,AM16="Occasionnellement",3,AM16="Souvent",1,AM16="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN43" s="2" cm="1">
+        <f t="array" ref="AN43">_xlfn.IFS(AN16="Rarement",4,AN16="Occasionnellement",3,AN16="Souvent",1,AN16="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO43" s="2" cm="1">
+        <f t="array" ref="AO43">_xlfn.IFS(AG16="Rarement",4,AG16="Occasionnellement",3,AG16="Souvent",1,AG16="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP43" s="2" cm="1">
+        <f t="array" ref="AP43">_xlfn.IFS(AP16="Rarement",0,AP16="Occasionnellement",1,AP16="Souvent",3,AP16="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="2" cm="1">
+        <f t="array" ref="AQ43">_xlfn.IFS(AQ16="Rarement",0,AQ16="Occasionnellement",1,AQ16="Souvent",3,AQ16="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AR43" s="2" cm="1">
+        <f t="array" ref="AR43">_xlfn.IFS(AR16="Rarement",0,AR16="Occasionnellement",1,AR16="Souvent",3,AR16="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AS43" s="2" cm="1">
+        <f t="array" ref="AS43">_xlfn.IFS(AS16="Rarement",4,AS16="Occasionnellement",3,AS16="Souvent",1,AS16="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AT43" s="2" cm="1">
+        <f t="array" ref="AT43">_xlfn.IFS(AT16="Rarement",0,AT16="Occasionnellement",1,AT16="Souvent",3,AT16="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AU43" s="2" cm="1">
+        <f t="array" ref="AU43">_xlfn.IFS(AU16="Rarement",4,AU16="Occasionnellement",3,AU16="Souvent",1,AU16="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV43" s="2" cm="1">
+        <f t="array" ref="AV43">_xlfn.IFS(AV16="Rarement",0,AV16="Occasionnellement",1,AV16="Souvent",3,AV16="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AW43" s="2" cm="1">
+        <f t="array" ref="AW43">_xlfn.IFS(AW16="Rarement",0,AW16="Occasionnellement",1,AW16="Souvent",3,AW16="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AX43" s="2" cm="1">
+        <f t="array" ref="AX43">_xlfn.IFS(AX16="Rarement",0,AX16="Occasionnellement",1,AX16="Souvent",3,AX16="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AY43" s="2" cm="1">
+        <f t="array" ref="AY43">_xlfn.IFS(AY16="Rarement",0,AY16="Occasionnellement",1,AY16="Souvent",3,AY16="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ43" s="2" cm="1">
+        <f t="array" ref="AZ43">_xlfn.IFS(AZ16="Rarement",0,AZ16="Occasionnellement",1,AZ16="Souvent",3,AZ16="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BA43" s="2" cm="1">
+        <f t="array" ref="BA43">_xlfn.IFS(BA16="Rarement",0,BA16="Occasionnellement",1,BA16="Souvent",3,BA16="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BB43" s="2" cm="1">
+        <f t="array" ref="BB43">_xlfn.IFS(BB16="Rarement",0,BB16="Occasionnellement",1,BB16="Souvent",3,BB16="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC43" s="2" cm="1">
+        <f t="array" ref="BC43">_xlfn.IFS(BC16="Rarement",0,BC16="Occasionnellement",1,BC16="Souvent",3,BC16="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BD43" s="2" cm="1">
+        <f t="array" ref="BD43">_xlfn.IFS(BD16="Rarement",0,BD16="Occasionnellement",1,BD16="Souvent",3,BD16="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BE43" s="2" cm="1">
+        <f t="array" ref="BE43">_xlfn.IFS(BE16="Rarement",0,BE16="Occasionnellement",1,BE16="Souvent",3,BE16="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BF43" s="2" cm="1">
+        <f t="array" ref="BF43">_xlfn.IFS(BF16="Rarement",0,BF16="Occasionnellement",1,BF16="Souvent",3,BF16="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BG43" s="2" cm="1">
+        <f t="array" ref="BG43">_xlfn.IFS(BG16="Rarement",4,BG16="Occasionnellement",3,BG16="Souvent",1,BG16="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH43" s="2" cm="1">
+        <f t="array" ref="BH43">_xlfn.IFS(BH16="Rarement",4,BH16="Occasionnellement",3,BH16="Souvent",1,BH16="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="CK43" s="2"/>
+      <c r="CL43" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>10</v>
+      </c>
+      <c r="CM43" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>13</v>
+      </c>
+      <c r="CN43" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>13</v>
+      </c>
+      <c r="CO43" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>36</v>
+      </c>
+      <c r="CP43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="CQ43" s="2"/>
+      <c r="CR43" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA44" s="2" cm="1">
+        <f t="array" ref="AA44">_xlfn.IFS(AA17="Rarement",0,AA17="Occasionnellement",1,AA17="Souvent",3,AA17="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AB44" s="2" cm="1">
+        <f t="array" ref="AB44">_xlfn.IFS(AB17="Rarement",0,AB17="Occasionnellement",1,AB17="Souvent",3,AB17="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AC44" s="2" cm="1">
+        <f t="array" ref="AC44">_xlfn.IFS(AC17="Rarement",0,AC17="Occasionnellement",1,AC17="Souvent",3,AC17="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AD44" s="2" cm="1">
+        <f t="array" ref="AD44">_xlfn.IFS(AD17="Rarement",0,AD17="Occasionnellement",1,AD17="Souvent",3,AD17="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AE44" s="2" cm="1">
+        <f t="array" ref="AE44">_xlfn.IFS(AE17="Rarement",0,AE17="Occasionnellement",1,AE17="Souvent",3,AE17="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AF44" s="2" cm="1">
+        <f t="array" ref="AF44">_xlfn.IFS(AF17="Rarement",4,AF17="Occasionnellement",1,AF17="Souvent",3,AF17="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AG44" s="2" cm="1">
+        <f t="array" ref="AG44">_xlfn.IFS(AG17="Rarement",4,AG17="Occasionnellement",3,AG17="Souvent",1,AG17="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AH44" s="2" cm="1">
+        <f t="array" ref="AH44">_xlfn.IFS(AH17="Rarement",4,AH17="Occasionnellement",3,AH17="Souvent",1,AH17="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI44" s="2" cm="1">
+        <f t="array" ref="AI44">_xlfn.IFS(AI17="Rarement",4,AI17="Occasionnellement",3,AI17="Souvent",1,AI17="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ44" s="2" cm="1">
+        <f t="array" ref="AJ44">_xlfn.IFS(AJ17="Rarement",4,AJ17="Occasionnellement",3,AJ17="Souvent",1,AJ17="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK44" s="2" cm="1">
+        <f t="array" ref="AK44">_xlfn.IFS(AK17="Rarement",4,AK17="Occasionnellement",3,AK17="Souvent",1,AK17="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL44" s="2" cm="1">
+        <f t="array" ref="AL44">_xlfn.IFS(AL17="Rarement",4,AL17="Occasionnellement",3,AL17="Souvent",1,AL17="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM44" s="2" cm="1">
+        <f t="array" ref="AM44">_xlfn.IFS(AM17="Rarement",4,AM17="Occasionnellement",3,AM17="Souvent",1,AM17="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AN44" s="2" cm="1">
+        <f t="array" ref="AN44">_xlfn.IFS(AN17="Rarement",4,AN17="Occasionnellement",3,AN17="Souvent",1,AN17="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AO44" s="2" cm="1">
+        <f t="array" ref="AO44">_xlfn.IFS(AG17="Rarement",4,AG17="Occasionnellement",3,AG17="Souvent",1,AG17="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AP44" s="2" cm="1">
+        <f t="array" ref="AP44">_xlfn.IFS(AP17="Rarement",0,AP17="Occasionnellement",1,AP17="Souvent",3,AP17="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="2" cm="1">
+        <f t="array" ref="AQ44">_xlfn.IFS(AQ17="Rarement",0,AQ17="Occasionnellement",1,AQ17="Souvent",3,AQ17="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AR44" s="2" cm="1">
+        <f t="array" ref="AR44">_xlfn.IFS(AR17="Rarement",0,AR17="Occasionnellement",1,AR17="Souvent",3,AR17="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AS44" s="2" cm="1">
+        <f t="array" ref="AS44">_xlfn.IFS(AS17="Rarement",4,AS17="Occasionnellement",3,AS17="Souvent",1,AS17="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AT44" s="2" cm="1">
+        <f t="array" ref="AT44">_xlfn.IFS(AT17="Rarement",0,AT17="Occasionnellement",1,AT17="Souvent",3,AT17="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AU44" s="2" cm="1">
+        <f t="array" ref="AU44">_xlfn.IFS(AU17="Rarement",4,AU17="Occasionnellement",3,AU17="Souvent",1,AU17="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV44" s="2" cm="1">
+        <f t="array" ref="AV44">_xlfn.IFS(AV17="Rarement",0,AV17="Occasionnellement",1,AV17="Souvent",3,AV17="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AW44" s="2" cm="1">
+        <f t="array" ref="AW44">_xlfn.IFS(AW17="Rarement",0,AW17="Occasionnellement",1,AW17="Souvent",3,AW17="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AX44" s="2" cm="1">
+        <f t="array" ref="AX44">_xlfn.IFS(AX17="Rarement",0,AX17="Occasionnellement",1,AX17="Souvent",3,AX17="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AY44" s="2" cm="1">
+        <f t="array" ref="AY44">_xlfn.IFS(AY17="Rarement",0,AY17="Occasionnellement",1,AY17="Souvent",3,AY17="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="2" cm="1">
+        <f t="array" ref="AZ44">_xlfn.IFS(AZ17="Rarement",0,AZ17="Occasionnellement",1,AZ17="Souvent",3,AZ17="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BA44" s="2" cm="1">
+        <f t="array" ref="BA44">_xlfn.IFS(BA17="Rarement",0,BA17="Occasionnellement",1,BA17="Souvent",3,BA17="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BB44" s="2" cm="1">
+        <f t="array" ref="BB44">_xlfn.IFS(BB17="Rarement",0,BB17="Occasionnellement",1,BB17="Souvent",3,BB17="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC44" s="2" cm="1">
+        <f t="array" ref="BC44">_xlfn.IFS(BC17="Rarement",0,BC17="Occasionnellement",1,BC17="Souvent",3,BC17="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BD44" s="2" cm="1">
+        <f t="array" ref="BD44">_xlfn.IFS(BD17="Rarement",0,BD17="Occasionnellement",1,BD17="Souvent",3,BD17="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="BE44" s="2" cm="1">
+        <f t="array" ref="BE44">_xlfn.IFS(BE17="Rarement",0,BE17="Occasionnellement",1,BE17="Souvent",3,BE17="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="BF44" s="2" cm="1">
+        <f t="array" ref="BF44">_xlfn.IFS(BF17="Rarement",0,BF17="Occasionnellement",1,BF17="Souvent",3,BF17="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BG44" s="2" cm="1">
+        <f t="array" ref="BG44">_xlfn.IFS(BG17="Rarement",4,BG17="Occasionnellement",3,BG17="Souvent",1,BG17="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="BH44" s="2" cm="1">
+        <f t="array" ref="BH44">_xlfn.IFS(BH17="Rarement",4,BH17="Occasionnellement",3,BH17="Souvent",1,BH17="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="CK44" s="2"/>
+      <c r="CL44" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>24</v>
+      </c>
+      <c r="CM44" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>17</v>
+      </c>
+      <c r="CN44" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>26</v>
+      </c>
+      <c r="CO44" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>67</v>
+      </c>
+      <c r="CP44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="CQ44" s="2"/>
+      <c r="CR44" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA45" s="2" cm="1">
+        <f t="array" ref="AA45">_xlfn.IFS(AA18="Rarement",0,AA18="Occasionnellement",1,AA18="Souvent",3,AA18="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AB45" s="2" cm="1">
+        <f t="array" ref="AB45">_xlfn.IFS(AB18="Rarement",0,AB18="Occasionnellement",1,AB18="Souvent",3,AB18="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AC45" s="2" cm="1">
+        <f t="array" ref="AC45">_xlfn.IFS(AC18="Rarement",0,AC18="Occasionnellement",1,AC18="Souvent",3,AC18="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AD45" s="2" cm="1">
+        <f t="array" ref="AD45">_xlfn.IFS(AD18="Rarement",0,AD18="Occasionnellement",1,AD18="Souvent",3,AD18="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AE45" s="2" cm="1">
+        <f t="array" ref="AE45">_xlfn.IFS(AE18="Rarement",0,AE18="Occasionnellement",1,AE18="Souvent",3,AE18="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AF45" s="2" cm="1">
+        <f t="array" ref="AF45">_xlfn.IFS(AF18="Rarement",4,AF18="Occasionnellement",1,AF18="Souvent",3,AF18="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AG45" s="2" cm="1">
+        <f t="array" ref="AG45">_xlfn.IFS(AG18="Rarement",4,AG18="Occasionnellement",3,AG18="Souvent",1,AG18="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AH45" s="2" cm="1">
+        <f t="array" ref="AH45">_xlfn.IFS(AH18="Rarement",4,AH18="Occasionnellement",3,AH18="Souvent",1,AH18="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI45" s="2" cm="1">
+        <f t="array" ref="AI45">_xlfn.IFS(AI18="Rarement",4,AI18="Occasionnellement",3,AI18="Souvent",1,AI18="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="2" cm="1">
+        <f t="array" ref="AJ45">_xlfn.IFS(AJ18="Rarement",4,AJ18="Occasionnellement",3,AJ18="Souvent",1,AJ18="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AK45" s="2" cm="1">
+        <f t="array" ref="AK45">_xlfn.IFS(AK18="Rarement",4,AK18="Occasionnellement",3,AK18="Souvent",1,AK18="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AL45" s="2" cm="1">
+        <f t="array" ref="AL45">_xlfn.IFS(AL18="Rarement",4,AL18="Occasionnellement",3,AL18="Souvent",1,AL18="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM45" s="2" cm="1">
+        <f t="array" ref="AM45">_xlfn.IFS(AM18="Rarement",4,AM18="Occasionnellement",3,AM18="Souvent",1,AM18="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN45" s="2" cm="1">
+        <f t="array" ref="AN45">_xlfn.IFS(AN18="Rarement",4,AN18="Occasionnellement",3,AN18="Souvent",1,AN18="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AO45" s="2" cm="1">
+        <f t="array" ref="AO45">_xlfn.IFS(AG18="Rarement",4,AG18="Occasionnellement",3,AG18="Souvent",1,AG18="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AP45" s="2" cm="1">
+        <f t="array" ref="AP45">_xlfn.IFS(AP18="Rarement",0,AP18="Occasionnellement",1,AP18="Souvent",3,AP18="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="2" cm="1">
+        <f t="array" ref="AQ45">_xlfn.IFS(AQ18="Rarement",0,AQ18="Occasionnellement",1,AQ18="Souvent",3,AQ18="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AR45" s="2" cm="1">
+        <f t="array" ref="AR45">_xlfn.IFS(AR18="Rarement",0,AR18="Occasionnellement",1,AR18="Souvent",3,AR18="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AS45" s="2" cm="1">
+        <f t="array" ref="AS45">_xlfn.IFS(AS18="Rarement",4,AS18="Occasionnellement",3,AS18="Souvent",1,AS18="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AT45" s="2" cm="1">
+        <f t="array" ref="AT45">_xlfn.IFS(AT18="Rarement",0,AT18="Occasionnellement",1,AT18="Souvent",3,AT18="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AU45" s="2" cm="1">
+        <f t="array" ref="AU45">_xlfn.IFS(AU18="Rarement",4,AU18="Occasionnellement",3,AU18="Souvent",1,AU18="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV45" s="2" cm="1">
+        <f t="array" ref="AV45">_xlfn.IFS(AV18="Rarement",0,AV18="Occasionnellement",1,AV18="Souvent",3,AV18="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AW45" s="2" cm="1">
+        <f t="array" ref="AW45">_xlfn.IFS(AW18="Rarement",0,AW18="Occasionnellement",1,AW18="Souvent",3,AW18="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AX45" s="2" cm="1">
+        <f t="array" ref="AX45">_xlfn.IFS(AX18="Rarement",0,AX18="Occasionnellement",1,AX18="Souvent",3,AX18="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AY45" s="2" cm="1">
+        <f t="array" ref="AY45">_xlfn.IFS(AY18="Rarement",0,AY18="Occasionnellement",1,AY18="Souvent",3,AY18="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ45" s="2" cm="1">
+        <f t="array" ref="AZ45">_xlfn.IFS(AZ18="Rarement",0,AZ18="Occasionnellement",1,AZ18="Souvent",3,AZ18="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BA45" s="2" cm="1">
+        <f t="array" ref="BA45">_xlfn.IFS(BA18="Rarement",0,BA18="Occasionnellement",1,BA18="Souvent",3,BA18="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BB45" s="2" cm="1">
+        <f t="array" ref="BB45">_xlfn.IFS(BB18="Rarement",0,BB18="Occasionnellement",1,BB18="Souvent",3,BB18="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC45" s="2" cm="1">
+        <f t="array" ref="BC45">_xlfn.IFS(BC18="Rarement",0,BC18="Occasionnellement",1,BC18="Souvent",3,BC18="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BD45" s="2" cm="1">
+        <f t="array" ref="BD45">_xlfn.IFS(BD18="Rarement",0,BD18="Occasionnellement",1,BD18="Souvent",3,BD18="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BE45" s="2" cm="1">
+        <f t="array" ref="BE45">_xlfn.IFS(BE18="Rarement",0,BE18="Occasionnellement",1,BE18="Souvent",3,BE18="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BF45" s="2" cm="1">
+        <f t="array" ref="BF45">_xlfn.IFS(BF18="Rarement",0,BF18="Occasionnellement",1,BF18="Souvent",3,BF18="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BG45" s="2" cm="1">
+        <f t="array" ref="BG45">_xlfn.IFS(BG18="Rarement",4,BG18="Occasionnellement",3,BG18="Souvent",1,BG18="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH45" s="2" cm="1">
+        <f t="array" ref="BH45">_xlfn.IFS(BH18="Rarement",4,BH18="Occasionnellement",3,BH18="Souvent",1,BH18="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="CK45" s="2"/>
+      <c r="CL45" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>19</v>
+      </c>
+      <c r="CM45" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>15</v>
+      </c>
+      <c r="CN45" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>17</v>
+      </c>
+      <c r="CO45" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>51</v>
+      </c>
+      <c r="CP45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="CQ45" s="2"/>
+      <c r="CR45" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA46" s="2" cm="1">
+        <f t="array" ref="AA46">_xlfn.IFS(AA19="Rarement",0,AA19="Occasionnellement",1,AA19="Souvent",3,AA19="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AB46" s="2" cm="1">
+        <f t="array" ref="AB46">_xlfn.IFS(AB19="Rarement",0,AB19="Occasionnellement",1,AB19="Souvent",3,AB19="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AC46" s="2" cm="1">
+        <f t="array" ref="AC46">_xlfn.IFS(AC19="Rarement",0,AC19="Occasionnellement",1,AC19="Souvent",3,AC19="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AD46" s="2" cm="1">
+        <f t="array" ref="AD46">_xlfn.IFS(AD19="Rarement",0,AD19="Occasionnellement",1,AD19="Souvent",3,AD19="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AE46" s="2" cm="1">
+        <f t="array" ref="AE46">_xlfn.IFS(AE19="Rarement",0,AE19="Occasionnellement",1,AE19="Souvent",3,AE19="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="2" cm="1">
+        <f t="array" ref="AF46">_xlfn.IFS(AF19="Rarement",4,AF19="Occasionnellement",1,AF19="Souvent",3,AF19="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AG46" s="2" cm="1">
+        <f t="array" ref="AG46">_xlfn.IFS(AG19="Rarement",4,AG19="Occasionnellement",3,AG19="Souvent",1,AG19="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AH46" s="2" cm="1">
+        <f t="array" ref="AH46">_xlfn.IFS(AH19="Rarement",4,AH19="Occasionnellement",3,AH19="Souvent",1,AH19="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="2" cm="1">
+        <f t="array" ref="AI46">_xlfn.IFS(AI19="Rarement",4,AI19="Occasionnellement",3,AI19="Souvent",1,AI19="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="2" cm="1">
+        <f t="array" ref="AJ46">_xlfn.IFS(AJ19="Rarement",4,AJ19="Occasionnellement",3,AJ19="Souvent",1,AJ19="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AK46" s="2" cm="1">
+        <f t="array" ref="AK46">_xlfn.IFS(AK19="Rarement",4,AK19="Occasionnellement",3,AK19="Souvent",1,AK19="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL46" s="2" cm="1">
+        <f t="array" ref="AL46">_xlfn.IFS(AL19="Rarement",4,AL19="Occasionnellement",3,AL19="Souvent",1,AL19="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM46" s="2" cm="1">
+        <f t="array" ref="AM46">_xlfn.IFS(AM19="Rarement",4,AM19="Occasionnellement",3,AM19="Souvent",1,AM19="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN46" s="2" cm="1">
+        <f t="array" ref="AN46">_xlfn.IFS(AN19="Rarement",4,AN19="Occasionnellement",3,AN19="Souvent",1,AN19="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO46" s="2" cm="1">
+        <f t="array" ref="AO46">_xlfn.IFS(AG19="Rarement",4,AG19="Occasionnellement",3,AG19="Souvent",1,AG19="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AP46" s="2" cm="1">
+        <f t="array" ref="AP46">_xlfn.IFS(AP19="Rarement",0,AP19="Occasionnellement",1,AP19="Souvent",3,AP19="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="2" cm="1">
+        <f t="array" ref="AQ46">_xlfn.IFS(AQ19="Rarement",0,AQ19="Occasionnellement",1,AQ19="Souvent",3,AQ19="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AR46" s="2" cm="1">
+        <f t="array" ref="AR46">_xlfn.IFS(AR19="Rarement",0,AR19="Occasionnellement",1,AR19="Souvent",3,AR19="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AS46" s="2" cm="1">
+        <f t="array" ref="AS46">_xlfn.IFS(AS19="Rarement",4,AS19="Occasionnellement",3,AS19="Souvent",1,AS19="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AT46" s="2" cm="1">
+        <f t="array" ref="AT46">_xlfn.IFS(AT19="Rarement",0,AT19="Occasionnellement",1,AT19="Souvent",3,AT19="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AU46" s="2" cm="1">
+        <f t="array" ref="AU46">_xlfn.IFS(AU19="Rarement",4,AU19="Occasionnellement",3,AU19="Souvent",1,AU19="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV46" s="2" cm="1">
+        <f t="array" ref="AV46">_xlfn.IFS(AV19="Rarement",0,AV19="Occasionnellement",1,AV19="Souvent",3,AV19="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AW46" s="2" cm="1">
+        <f t="array" ref="AW46">_xlfn.IFS(AW19="Rarement",0,AW19="Occasionnellement",1,AW19="Souvent",3,AW19="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AX46" s="2" cm="1">
+        <f t="array" ref="AX46">_xlfn.IFS(AX19="Rarement",0,AX19="Occasionnellement",1,AX19="Souvent",3,AX19="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AY46" s="2" cm="1">
+        <f t="array" ref="AY46">_xlfn.IFS(AY19="Rarement",0,AY19="Occasionnellement",1,AY19="Souvent",3,AY19="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ46" s="2" cm="1">
+        <f t="array" ref="AZ46">_xlfn.IFS(AZ19="Rarement",0,AZ19="Occasionnellement",1,AZ19="Souvent",3,AZ19="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="BA46" s="2" cm="1">
+        <f t="array" ref="BA46">_xlfn.IFS(BA19="Rarement",0,BA19="Occasionnellement",1,BA19="Souvent",3,BA19="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BB46" s="2" cm="1">
+        <f t="array" ref="BB46">_xlfn.IFS(BB19="Rarement",0,BB19="Occasionnellement",1,BB19="Souvent",3,BB19="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC46" s="2" cm="1">
+        <f t="array" ref="BC46">_xlfn.IFS(BC19="Rarement",0,BC19="Occasionnellement",1,BC19="Souvent",3,BC19="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BD46" s="2" cm="1">
+        <f t="array" ref="BD46">_xlfn.IFS(BD19="Rarement",0,BD19="Occasionnellement",1,BD19="Souvent",3,BD19="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BE46" s="2" cm="1">
+        <f t="array" ref="BE46">_xlfn.IFS(BE19="Rarement",0,BE19="Occasionnellement",1,BE19="Souvent",3,BE19="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BF46" s="2" cm="1">
+        <f t="array" ref="BF46">_xlfn.IFS(BF19="Rarement",0,BF19="Occasionnellement",1,BF19="Souvent",3,BF19="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="BG46" s="2" cm="1">
+        <f t="array" ref="BG46">_xlfn.IFS(BG19="Rarement",4,BG19="Occasionnellement",3,BG19="Souvent",1,BG19="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH46" s="2" cm="1">
+        <f t="array" ref="BH46">_xlfn.IFS(BH19="Rarement",4,BH19="Occasionnellement",3,BH19="Souvent",1,BH19="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="CK46" s="2"/>
+      <c r="CL46" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>14</v>
+      </c>
+      <c r="CM46" s="1">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>18</v>
+      </c>
+      <c r="CN46" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>20</v>
+      </c>
+      <c r="CO46" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
         <v>52</v>
+      </c>
+      <c r="CP46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CQ46" s="2"/>
+      <c r="CR46" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA47" s="2" cm="1">
+        <f t="array" ref="AA47">_xlfn.IFS(AA20="Rarement",0,AA20="Occasionnellement",1,AA20="Souvent",3,AA20="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AB47" s="2" cm="1">
+        <f t="array" ref="AB47">_xlfn.IFS(AB20="Rarement",0,AB20="Occasionnellement",1,AB20="Souvent",3,AB20="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AC47" s="2" cm="1">
+        <f t="array" ref="AC47">_xlfn.IFS(AC20="Rarement",0,AC20="Occasionnellement",1,AC20="Souvent",3,AC20="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="2" cm="1">
+        <f t="array" ref="AD47">_xlfn.IFS(AD20="Rarement",0,AD20="Occasionnellement",1,AD20="Souvent",3,AD20="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="2" cm="1">
+        <f t="array" ref="AE47">_xlfn.IFS(AE20="Rarement",0,AE20="Occasionnellement",1,AE20="Souvent",3,AE20="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="2" cm="1">
+        <f t="array" ref="AF47">_xlfn.IFS(AF20="Rarement",4,AF20="Occasionnellement",1,AF20="Souvent",3,AF20="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AG47" s="2" cm="1">
+        <f t="array" ref="AG47">_xlfn.IFS(AG20="Rarement",4,AG20="Occasionnellement",3,AG20="Souvent",1,AG20="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH47" s="2" cm="1">
+        <f t="array" ref="AH47">_xlfn.IFS(AH20="Rarement",4,AH20="Occasionnellement",3,AH20="Souvent",1,AH20="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AI47" s="2" cm="1">
+        <f t="array" ref="AI47">_xlfn.IFS(AI20="Rarement",4,AI20="Occasionnellement",3,AI20="Souvent",1,AI20="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ47" s="2" cm="1">
+        <f t="array" ref="AJ47">_xlfn.IFS(AJ20="Rarement",4,AJ20="Occasionnellement",3,AJ20="Souvent",1,AJ20="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AK47" s="2" cm="1">
+        <f t="array" ref="AK47">_xlfn.IFS(AK20="Rarement",4,AK20="Occasionnellement",3,AK20="Souvent",1,AK20="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AL47" s="2" cm="1">
+        <f t="array" ref="AL47">_xlfn.IFS(AL20="Rarement",4,AL20="Occasionnellement",3,AL20="Souvent",1,AL20="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AM47" s="2" cm="1">
+        <f t="array" ref="AM47">_xlfn.IFS(AM20="Rarement",4,AM20="Occasionnellement",3,AM20="Souvent",1,AM20="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN47" s="2" cm="1">
+        <f t="array" ref="AN47">_xlfn.IFS(AN20="Rarement",4,AN20="Occasionnellement",3,AN20="Souvent",1,AN20="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AO47" s="2" cm="1">
+        <f t="array" ref="AO47">_xlfn.IFS(AG20="Rarement",4,AG20="Occasionnellement",3,AG20="Souvent",1,AG20="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP47" s="2" cm="1">
+        <f t="array" ref="AP47">_xlfn.IFS(AP20="Rarement",0,AP20="Occasionnellement",1,AP20="Souvent",3,AP20="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ47" s="2" cm="1">
+        <f t="array" ref="AQ47">_xlfn.IFS(AQ20="Rarement",0,AQ20="Occasionnellement",1,AQ20="Souvent",3,AQ20="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AR47" s="2" cm="1">
+        <f t="array" ref="AR47">_xlfn.IFS(AR20="Rarement",0,AR20="Occasionnellement",1,AR20="Souvent",3,AR20="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AS47" s="2" cm="1">
+        <f t="array" ref="AS47">_xlfn.IFS(AS20="Rarement",4,AS20="Occasionnellement",3,AS20="Souvent",1,AS20="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AT47" s="2" cm="1">
+        <f t="array" ref="AT47">_xlfn.IFS(AT20="Rarement",0,AT20="Occasionnellement",1,AT20="Souvent",3,AT20="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AU47" s="2" cm="1">
+        <f t="array" ref="AU47">_xlfn.IFS(AU20="Rarement",4,AU20="Occasionnellement",3,AU20="Souvent",1,AU20="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV47" s="2" cm="1">
+        <f t="array" ref="AV47">_xlfn.IFS(AV20="Rarement",0,AV20="Occasionnellement",1,AV20="Souvent",3,AV20="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AW47" s="2" cm="1">
+        <f t="array" ref="AW47">_xlfn.IFS(AW20="Rarement",0,AW20="Occasionnellement",1,AW20="Souvent",3,AW20="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AX47" s="2" cm="1">
+        <f t="array" ref="AX47">_xlfn.IFS(AX20="Rarement",0,AX20="Occasionnellement",1,AX20="Souvent",3,AX20="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AY47" s="2" cm="1">
+        <f t="array" ref="AY47">_xlfn.IFS(AY20="Rarement",0,AY20="Occasionnellement",1,AY20="Souvent",3,AY20="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AZ47" s="2" cm="1">
+        <f t="array" ref="AZ47">_xlfn.IFS(AZ20="Rarement",0,AZ20="Occasionnellement",1,AZ20="Souvent",3,AZ20="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="BA47" s="2" cm="1">
+        <f t="array" ref="BA47">_xlfn.IFS(BA20="Rarement",0,BA20="Occasionnellement",1,BA20="Souvent",3,BA20="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BB47" s="2" cm="1">
+        <f t="array" ref="BB47">_xlfn.IFS(BB20="Rarement",0,BB20="Occasionnellement",1,BB20="Souvent",3,BB20="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BC47" s="2" cm="1">
+        <f t="array" ref="BC47">_xlfn.IFS(BC20="Rarement",0,BC20="Occasionnellement",1,BC20="Souvent",3,BC20="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BD47" s="2" cm="1">
+        <f t="array" ref="BD47">_xlfn.IFS(BD20="Rarement",0,BD20="Occasionnellement",1,BD20="Souvent",3,BD20="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="BE47" s="2" cm="1">
+        <f t="array" ref="BE47">_xlfn.IFS(BE20="Rarement",0,BE20="Occasionnellement",1,BE20="Souvent",3,BE20="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BF47" s="2" cm="1">
+        <f t="array" ref="BF47">_xlfn.IFS(BF20="Rarement",0,BF20="Occasionnellement",1,BF20="Souvent",3,BF20="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BG47" s="2" cm="1">
+        <f t="array" ref="BG47">_xlfn.IFS(BG20="Rarement",4,BG20="Occasionnellement",3,BG20="Souvent",1,BG20="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH47" s="2" cm="1">
+        <f t="array" ref="BH47">_xlfn.IFS(BH20="Rarement",4,BH20="Occasionnellement",3,BH20="Souvent",1,BH20="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="CK47" s="2"/>
+      <c r="CL47" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>22</v>
+      </c>
+      <c r="CM47" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>26</v>
+      </c>
+      <c r="CN47" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>20</v>
+      </c>
+      <c r="CO47" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>68</v>
+      </c>
+      <c r="CP47" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="CQ47" s="2"/>
+      <c r="CR47" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:96" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA48" s="2" cm="1">
+        <f t="array" ref="AA48">_xlfn.IFS(AA21="Rarement",0,AA21="Occasionnellement",1,AA21="Souvent",3,AA21="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AB48" s="2" cm="1">
+        <f t="array" ref="AB48">_xlfn.IFS(AB21="Rarement",0,AB21="Occasionnellement",1,AB21="Souvent",3,AB21="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AC48" s="2" cm="1">
+        <f t="array" ref="AC48">_xlfn.IFS(AC21="Rarement",0,AC21="Occasionnellement",1,AC21="Souvent",3,AC21="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AD48" s="2" cm="1">
+        <f t="array" ref="AD48">_xlfn.IFS(AD21="Rarement",0,AD21="Occasionnellement",1,AD21="Souvent",3,AD21="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AE48" s="2" cm="1">
+        <f t="array" ref="AE48">_xlfn.IFS(AE21="Rarement",0,AE21="Occasionnellement",1,AE21="Souvent",3,AE21="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AF48" s="2" cm="1">
+        <f t="array" ref="AF48">_xlfn.IFS(AF21="Rarement",4,AF21="Occasionnellement",1,AF21="Souvent",3,AF21="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AG48" s="2" cm="1">
+        <f t="array" ref="AG48">_xlfn.IFS(AG21="Rarement",4,AG21="Occasionnellement",3,AG21="Souvent",1,AG21="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="2" cm="1">
+        <f t="array" ref="AH48">_xlfn.IFS(AH21="Rarement",4,AH21="Occasionnellement",3,AH21="Souvent",1,AH21="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI48" s="2" cm="1">
+        <f t="array" ref="AI48">_xlfn.IFS(AI21="Rarement",4,AI21="Occasionnellement",3,AI21="Souvent",1,AI21="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ48" s="2" cm="1">
+        <f t="array" ref="AJ48">_xlfn.IFS(AJ21="Rarement",4,AJ21="Occasionnellement",3,AJ21="Souvent",1,AJ21="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="2" cm="1">
+        <f t="array" ref="AK48">_xlfn.IFS(AK21="Rarement",4,AK21="Occasionnellement",3,AK21="Souvent",1,AK21="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AL48" s="2" cm="1">
+        <f t="array" ref="AL48">_xlfn.IFS(AL21="Rarement",4,AL21="Occasionnellement",3,AL21="Souvent",1,AL21="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM48" s="2" cm="1">
+        <f t="array" ref="AM48">_xlfn.IFS(AM21="Rarement",4,AM21="Occasionnellement",3,AM21="Souvent",1,AM21="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN48" s="2" cm="1">
+        <f t="array" ref="AN48">_xlfn.IFS(AN21="Rarement",4,AN21="Occasionnellement",3,AN21="Souvent",1,AN21="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AO48" s="2" cm="1">
+        <f t="array" ref="AO48">_xlfn.IFS(AG21="Rarement",4,AG21="Occasionnellement",3,AG21="Souvent",1,AG21="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP48" s="2" cm="1">
+        <f t="array" ref="AP48">_xlfn.IFS(AP21="Rarement",0,AP21="Occasionnellement",1,AP21="Souvent",3,AP21="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="2" cm="1">
+        <f t="array" ref="AQ48">_xlfn.IFS(AQ21="Rarement",0,AQ21="Occasionnellement",1,AQ21="Souvent",3,AQ21="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AR48" s="2" cm="1">
+        <f t="array" ref="AR48">_xlfn.IFS(AR21="Rarement",0,AR21="Occasionnellement",1,AR21="Souvent",3,AR21="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AS48" s="2" cm="1">
+        <f t="array" ref="AS48">_xlfn.IFS(AS21="Rarement",4,AS21="Occasionnellement",3,AS21="Souvent",1,AS21="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT48" s="2" cm="1">
+        <f t="array" ref="AT48">_xlfn.IFS(AT21="Rarement",0,AT21="Occasionnellement",1,AT21="Souvent",3,AT21="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AU48" s="2" cm="1">
+        <f t="array" ref="AU48">_xlfn.IFS(AU21="Rarement",4,AU21="Occasionnellement",3,AU21="Souvent",1,AU21="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV48" s="2" cm="1">
+        <f t="array" ref="AV48">_xlfn.IFS(AV21="Rarement",0,AV21="Occasionnellement",1,AV21="Souvent",3,AV21="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AW48" s="2" cm="1">
+        <f t="array" ref="AW48">_xlfn.IFS(AW21="Rarement",0,AW21="Occasionnellement",1,AW21="Souvent",3,AW21="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AX48" s="2" cm="1">
+        <f t="array" ref="AX48">_xlfn.IFS(AX21="Rarement",0,AX21="Occasionnellement",1,AX21="Souvent",3,AX21="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AY48" s="2" cm="1">
+        <f t="array" ref="AY48">_xlfn.IFS(AY21="Rarement",0,AY21="Occasionnellement",1,AY21="Souvent",3,AY21="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ48" s="2" cm="1">
+        <f t="array" ref="AZ48">_xlfn.IFS(AZ21="Rarement",0,AZ21="Occasionnellement",1,AZ21="Souvent",3,AZ21="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BA48" s="2" cm="1">
+        <f t="array" ref="BA48">_xlfn.IFS(BA21="Rarement",0,BA21="Occasionnellement",1,BA21="Souvent",3,BA21="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BB48" s="2" cm="1">
+        <f t="array" ref="BB48">_xlfn.IFS(BB21="Rarement",0,BB21="Occasionnellement",1,BB21="Souvent",3,BB21="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC48" s="2" cm="1">
+        <f t="array" ref="BC48">_xlfn.IFS(BC21="Rarement",0,BC21="Occasionnellement",1,BC21="Souvent",3,BC21="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BD48" s="2" cm="1">
+        <f t="array" ref="BD48">_xlfn.IFS(BD21="Rarement",0,BD21="Occasionnellement",1,BD21="Souvent",3,BD21="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="BE48" s="2" cm="1">
+        <f t="array" ref="BE48">_xlfn.IFS(BE21="Rarement",0,BE21="Occasionnellement",1,BE21="Souvent",3,BE21="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BF48" s="2" cm="1">
+        <f t="array" ref="BF48">_xlfn.IFS(BF21="Rarement",0,BF21="Occasionnellement",1,BF21="Souvent",3,BF21="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BG48" s="2" cm="1">
+        <f t="array" ref="BG48">_xlfn.IFS(BG21="Rarement",4,BG21="Occasionnellement",3,BG21="Souvent",1,BG21="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH48" s="2" cm="1">
+        <f t="array" ref="BH48">_xlfn.IFS(BH21="Rarement",4,BH21="Occasionnellement",3,BH21="Souvent",1,BH21="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="CK48" s="2"/>
+      <c r="CL48" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>5</v>
+      </c>
+      <c r="CM48" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>18</v>
+      </c>
+      <c r="CN48" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>14</v>
+      </c>
+      <c r="CO48" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>37</v>
+      </c>
+      <c r="CP48" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="CQ48" s="2"/>
+      <c r="CR48" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="2:96" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA49" s="2" cm="1">
+        <f t="array" ref="AA49">_xlfn.IFS(AA22="Rarement",0,AA22="Occasionnellement",1,AA22="Souvent",3,AA22="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AB49" s="2" cm="1">
+        <f t="array" ref="AB49">_xlfn.IFS(AB22="Rarement",0,AB22="Occasionnellement",1,AB22="Souvent",3,AB22="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="2" cm="1">
+        <f t="array" ref="AC49">_xlfn.IFS(AC22="Rarement",0,AC22="Occasionnellement",1,AC22="Souvent",3,AC22="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AD49" s="2" cm="1">
+        <f t="array" ref="AD49">_xlfn.IFS(AD22="Rarement",0,AD22="Occasionnellement",1,AD22="Souvent",3,AD22="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AE49" s="2" cm="1">
+        <f t="array" ref="AE49">_xlfn.IFS(AE22="Rarement",0,AE22="Occasionnellement",1,AE22="Souvent",3,AE22="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="2" cm="1">
+        <f t="array" ref="AF49">_xlfn.IFS(AF22="Rarement",4,AF22="Occasionnellement",1,AF22="Souvent",3,AF22="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AG49" s="2" cm="1">
+        <f t="array" ref="AG49">_xlfn.IFS(AG22="Rarement",4,AG22="Occasionnellement",3,AG22="Souvent",1,AG22="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH49" s="2" cm="1">
+        <f t="array" ref="AH49">_xlfn.IFS(AH22="Rarement",4,AH22="Occasionnellement",3,AH22="Souvent",1,AH22="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="2" cm="1">
+        <f t="array" ref="AI49">_xlfn.IFS(AI22="Rarement",4,AI22="Occasionnellement",3,AI22="Souvent",1,AI22="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="2" cm="1">
+        <f t="array" ref="AJ49">_xlfn.IFS(AJ22="Rarement",4,AJ22="Occasionnellement",3,AJ22="Souvent",1,AJ22="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AK49" s="2" cm="1">
+        <f t="array" ref="AK49">_xlfn.IFS(AK22="Rarement",4,AK22="Occasionnellement",3,AK22="Souvent",1,AK22="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AL49" s="2" cm="1">
+        <f t="array" ref="AL49">_xlfn.IFS(AL22="Rarement",4,AL22="Occasionnellement",3,AL22="Souvent",1,AL22="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM49" s="2" cm="1">
+        <f t="array" ref="AM49">_xlfn.IFS(AM22="Rarement",4,AM22="Occasionnellement",3,AM22="Souvent",1,AM22="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AN49" s="2" cm="1">
+        <f t="array" ref="AN49">_xlfn.IFS(AN22="Rarement",4,AN22="Occasionnellement",3,AN22="Souvent",1,AN22="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AO49" s="2" cm="1">
+        <f t="array" ref="AO49">_xlfn.IFS(AG22="Rarement",4,AG22="Occasionnellement",3,AG22="Souvent",1,AG22="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP49" s="2" cm="1">
+        <f t="array" ref="AP49">_xlfn.IFS(AP22="Rarement",0,AP22="Occasionnellement",1,AP22="Souvent",3,AP22="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="2" cm="1">
+        <f t="array" ref="AQ49">_xlfn.IFS(AQ22="Rarement",0,AQ22="Occasionnellement",1,AQ22="Souvent",3,AQ22="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AR49" s="2" cm="1">
+        <f t="array" ref="AR49">_xlfn.IFS(AR22="Rarement",0,AR22="Occasionnellement",1,AR22="Souvent",3,AR22="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AS49" s="2" cm="1">
+        <f t="array" ref="AS49">_xlfn.IFS(AS22="Rarement",4,AS22="Occasionnellement",3,AS22="Souvent",1,AS22="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AT49" s="2" cm="1">
+        <f t="array" ref="AT49">_xlfn.IFS(AT22="Rarement",0,AT22="Occasionnellement",1,AT22="Souvent",3,AT22="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AU49" s="2" cm="1">
+        <f t="array" ref="AU49">_xlfn.IFS(AU22="Rarement",4,AU22="Occasionnellement",3,AU22="Souvent",1,AU22="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV49" s="2" cm="1">
+        <f t="array" ref="AV49">_xlfn.IFS(AV22="Rarement",0,AV22="Occasionnellement",1,AV22="Souvent",3,AV22="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AW49" s="2" cm="1">
+        <f t="array" ref="AW49">_xlfn.IFS(AW22="Rarement",0,AW22="Occasionnellement",1,AW22="Souvent",3,AW22="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AX49" s="2" cm="1">
+        <f t="array" ref="AX49">_xlfn.IFS(AX22="Rarement",0,AX22="Occasionnellement",1,AX22="Souvent",3,AX22="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AY49" s="2" cm="1">
+        <f t="array" ref="AY49">_xlfn.IFS(AY22="Rarement",0,AY22="Occasionnellement",1,AY22="Souvent",3,AY22="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ49" s="2" cm="1">
+        <f t="array" ref="AZ49">_xlfn.IFS(AZ22="Rarement",0,AZ22="Occasionnellement",1,AZ22="Souvent",3,AZ22="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="BA49" s="2" cm="1">
+        <f t="array" ref="BA49">_xlfn.IFS(BA22="Rarement",0,BA22="Occasionnellement",1,BA22="Souvent",3,BA22="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BB49" s="2" cm="1">
+        <f t="array" ref="BB49">_xlfn.IFS(BB22="Rarement",0,BB22="Occasionnellement",1,BB22="Souvent",3,BB22="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC49" s="2" cm="1">
+        <f t="array" ref="BC49">_xlfn.IFS(BC22="Rarement",0,BC22="Occasionnellement",1,BC22="Souvent",3,BC22="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BD49" s="2" cm="1">
+        <f t="array" ref="BD49">_xlfn.IFS(BD22="Rarement",0,BD22="Occasionnellement",1,BD22="Souvent",3,BD22="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BE49" s="2" cm="1">
+        <f t="array" ref="BE49">_xlfn.IFS(BE22="Rarement",0,BE22="Occasionnellement",1,BE22="Souvent",3,BE22="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BF49" s="2" cm="1">
+        <f t="array" ref="BF49">_xlfn.IFS(BF22="Rarement",0,BF22="Occasionnellement",1,BF22="Souvent",3,BF22="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BG49" s="2" cm="1">
+        <f t="array" ref="BG49">_xlfn.IFS(BG22="Rarement",4,BG22="Occasionnellement",3,BG22="Souvent",1,BG22="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH49" s="2" cm="1">
+        <f t="array" ref="BH49">_xlfn.IFS(BH22="Rarement",4,BH22="Occasionnellement",3,BH22="Souvent",1,BH22="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="CK49" s="2"/>
+      <c r="CL49" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>10</v>
+      </c>
+      <c r="CM49" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>17</v>
+      </c>
+      <c r="CN49" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>10</v>
+      </c>
+      <c r="CO49" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>37</v>
+      </c>
+      <c r="CP49" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="CQ49" s="2"/>
+      <c r="CR49" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="2:96" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA50" s="2" cm="1">
+        <f t="array" ref="AA50">_xlfn.IFS(AA23="Rarement",0,AA23="Occasionnellement",1,AA23="Souvent",3,AA23="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AB50" s="2" cm="1">
+        <f t="array" ref="AB50">_xlfn.IFS(AB23="Rarement",0,AB23="Occasionnellement",1,AB23="Souvent",3,AB23="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="2" cm="1">
+        <f t="array" ref="AC50">_xlfn.IFS(AC23="Rarement",0,AC23="Occasionnellement",1,AC23="Souvent",3,AC23="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AD50" s="2" cm="1">
+        <f t="array" ref="AD50">_xlfn.IFS(AD23="Rarement",0,AD23="Occasionnellement",1,AD23="Souvent",3,AD23="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="2" cm="1">
+        <f t="array" ref="AE50">_xlfn.IFS(AE23="Rarement",0,AE23="Occasionnellement",1,AE23="Souvent",3,AE23="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="2" cm="1">
+        <f t="array" ref="AF50">_xlfn.IFS(AF23="Rarement",4,AF23="Occasionnellement",1,AF23="Souvent",3,AF23="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AG50" s="2" cm="1">
+        <f t="array" ref="AG50">_xlfn.IFS(AG23="Rarement",4,AG23="Occasionnellement",3,AG23="Souvent",1,AG23="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH50" s="2" cm="1">
+        <f t="array" ref="AH50">_xlfn.IFS(AH23="Rarement",4,AH23="Occasionnellement",3,AH23="Souvent",1,AH23="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI50" s="2" cm="1">
+        <f t="array" ref="AI50">_xlfn.IFS(AI23="Rarement",4,AI23="Occasionnellement",3,AI23="Souvent",1,AI23="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ50" s="2" cm="1">
+        <f t="array" ref="AJ50">_xlfn.IFS(AJ23="Rarement",4,AJ23="Occasionnellement",3,AJ23="Souvent",1,AJ23="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK50" s="2" cm="1">
+        <f t="array" ref="AK50">_xlfn.IFS(AK23="Rarement",4,AK23="Occasionnellement",3,AK23="Souvent",1,AK23="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AL50" s="2" cm="1">
+        <f t="array" ref="AL50">_xlfn.IFS(AL23="Rarement",4,AL23="Occasionnellement",3,AL23="Souvent",1,AL23="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM50" s="2" cm="1">
+        <f t="array" ref="AM50">_xlfn.IFS(AM23="Rarement",4,AM23="Occasionnellement",3,AM23="Souvent",1,AM23="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AN50" s="2" cm="1">
+        <f t="array" ref="AN50">_xlfn.IFS(AN23="Rarement",4,AN23="Occasionnellement",3,AN23="Souvent",1,AN23="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AO50" s="2" cm="1">
+        <f t="array" ref="AO50">_xlfn.IFS(AG23="Rarement",4,AG23="Occasionnellement",3,AG23="Souvent",1,AG23="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP50" s="2" cm="1">
+        <f t="array" ref="AP50">_xlfn.IFS(AP23="Rarement",0,AP23="Occasionnellement",1,AP23="Souvent",3,AP23="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="2" cm="1">
+        <f t="array" ref="AQ50">_xlfn.IFS(AQ23="Rarement",0,AQ23="Occasionnellement",1,AQ23="Souvent",3,AQ23="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AR50" s="2" cm="1">
+        <f t="array" ref="AR50">_xlfn.IFS(AR23="Rarement",0,AR23="Occasionnellement",1,AR23="Souvent",3,AR23="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AS50" s="2" cm="1">
+        <f t="array" ref="AS50">_xlfn.IFS(AS23="Rarement",4,AS23="Occasionnellement",3,AS23="Souvent",1,AS23="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AT50" s="2" cm="1">
+        <f t="array" ref="AT50">_xlfn.IFS(AT23="Rarement",0,AT23="Occasionnellement",1,AT23="Souvent",3,AT23="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AU50" s="2" cm="1">
+        <f t="array" ref="AU50">_xlfn.IFS(AU23="Rarement",4,AU23="Occasionnellement",3,AU23="Souvent",1,AU23="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV50" s="2" cm="1">
+        <f t="array" ref="AV50">_xlfn.IFS(AV23="Rarement",0,AV23="Occasionnellement",1,AV23="Souvent",3,AV23="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AW50" s="2" cm="1">
+        <f t="array" ref="AW50">_xlfn.IFS(AW23="Rarement",0,AW23="Occasionnellement",1,AW23="Souvent",3,AW23="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AX50" s="2" cm="1">
+        <f t="array" ref="AX50">_xlfn.IFS(AX23="Rarement",0,AX23="Occasionnellement",1,AX23="Souvent",3,AX23="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AY50" s="2" cm="1">
+        <f t="array" ref="AY50">_xlfn.IFS(AY23="Rarement",0,AY23="Occasionnellement",1,AY23="Souvent",3,AY23="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ50" s="2" cm="1">
+        <f t="array" ref="AZ50">_xlfn.IFS(AZ23="Rarement",0,AZ23="Occasionnellement",1,AZ23="Souvent",3,AZ23="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="BA50" s="2" cm="1">
+        <f t="array" ref="BA50">_xlfn.IFS(BA23="Rarement",0,BA23="Occasionnellement",1,BA23="Souvent",3,BA23="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BB50" s="2" cm="1">
+        <f t="array" ref="BB50">_xlfn.IFS(BB23="Rarement",0,BB23="Occasionnellement",1,BB23="Souvent",3,BB23="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC50" s="2" cm="1">
+        <f t="array" ref="BC50">_xlfn.IFS(BC23="Rarement",0,BC23="Occasionnellement",1,BC23="Souvent",3,BC23="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BD50" s="2" cm="1">
+        <f t="array" ref="BD50">_xlfn.IFS(BD23="Rarement",0,BD23="Occasionnellement",1,BD23="Souvent",3,BD23="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BE50" s="2" cm="1">
+        <f t="array" ref="BE50">_xlfn.IFS(BE23="Rarement",0,BE23="Occasionnellement",1,BE23="Souvent",3,BE23="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BF50" s="2" cm="1">
+        <f t="array" ref="BF50">_xlfn.IFS(BF23="Rarement",0,BF23="Occasionnellement",1,BF23="Souvent",3,BF23="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BG50" s="2" cm="1">
+        <f t="array" ref="BG50">_xlfn.IFS(BG23="Rarement",4,BG23="Occasionnellement",3,BG23="Souvent",1,BG23="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH50" s="2" cm="1">
+        <f t="array" ref="BH50">_xlfn.IFS(BH23="Rarement",4,BH23="Occasionnellement",3,BH23="Souvent",1,BH23="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="CK50" s="2"/>
+      <c r="CL50" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>18</v>
+      </c>
+      <c r="CM50" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>15</v>
+      </c>
+      <c r="CN50" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>14</v>
+      </c>
+      <c r="CO50" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>47</v>
+      </c>
+      <c r="CP50" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="CQ50" s="2"/>
+      <c r="CR50" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="2:96" x14ac:dyDescent="0.35">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA51" s="2" cm="1">
+        <f t="array" ref="AA51">_xlfn.IFS(AA24="Rarement",0,AA24="Occasionnellement",1,AA24="Souvent",3,AA24="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AB51" s="2" cm="1">
+        <f t="array" ref="AB51">_xlfn.IFS(AB24="Rarement",0,AB24="Occasionnellement",1,AB24="Souvent",3,AB24="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AC51" s="2" cm="1">
+        <f t="array" ref="AC51">_xlfn.IFS(AC24="Rarement",0,AC24="Occasionnellement",1,AC24="Souvent",3,AC24="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AD51" s="2" cm="1">
+        <f t="array" ref="AD51">_xlfn.IFS(AD24="Rarement",0,AD24="Occasionnellement",1,AD24="Souvent",3,AD24="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AE51" s="2" cm="1">
+        <f t="array" ref="AE51">_xlfn.IFS(AE24="Rarement",0,AE24="Occasionnellement",1,AE24="Souvent",3,AE24="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AF51" s="2" cm="1">
+        <f t="array" ref="AF51">_xlfn.IFS(AF24="Rarement",4,AF24="Occasionnellement",1,AF24="Souvent",3,AF24="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AG51" s="2" cm="1">
+        <f t="array" ref="AG51">_xlfn.IFS(AG24="Rarement",4,AG24="Occasionnellement",3,AG24="Souvent",1,AG24="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AH51" s="2" cm="1">
+        <f t="array" ref="AH51">_xlfn.IFS(AH24="Rarement",4,AH24="Occasionnellement",3,AH24="Souvent",1,AH24="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI51" s="2" cm="1">
+        <f t="array" ref="AI51">_xlfn.IFS(AI24="Rarement",4,AI24="Occasionnellement",3,AI24="Souvent",1,AI24="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ51" s="2" cm="1">
+        <f t="array" ref="AJ51">_xlfn.IFS(AJ24="Rarement",4,AJ24="Occasionnellement",3,AJ24="Souvent",1,AJ24="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AK51" s="2" cm="1">
+        <f t="array" ref="AK51">_xlfn.IFS(AK24="Rarement",4,AK24="Occasionnellement",3,AK24="Souvent",1,AK24="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AL51" s="2" cm="1">
+        <f t="array" ref="AL51">_xlfn.IFS(AL24="Rarement",4,AL24="Occasionnellement",3,AL24="Souvent",1,AL24="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AM51" s="2" cm="1">
+        <f t="array" ref="AM51">_xlfn.IFS(AM24="Rarement",4,AM24="Occasionnellement",3,AM24="Souvent",1,AM24="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN51" s="2" cm="1">
+        <f t="array" ref="AN51">_xlfn.IFS(AN24="Rarement",4,AN24="Occasionnellement",3,AN24="Souvent",1,AN24="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO51" s="2" cm="1">
+        <f t="array" ref="AO51">_xlfn.IFS(AG24="Rarement",4,AG24="Occasionnellement",3,AG24="Souvent",1,AG24="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AP51" s="2" cm="1">
+        <f t="array" ref="AP51">_xlfn.IFS(AP24="Rarement",0,AP24="Occasionnellement",1,AP24="Souvent",3,AP24="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ51" s="2" cm="1">
+        <f t="array" ref="AQ51">_xlfn.IFS(AQ24="Rarement",0,AQ24="Occasionnellement",1,AQ24="Souvent",3,AQ24="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AR51" s="2" cm="1">
+        <f t="array" ref="AR51">_xlfn.IFS(AR24="Rarement",0,AR24="Occasionnellement",1,AR24="Souvent",3,AR24="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AS51" s="2" cm="1">
+        <f t="array" ref="AS51">_xlfn.IFS(AS24="Rarement",4,AS24="Occasionnellement",3,AS24="Souvent",1,AS24="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AT51" s="2" cm="1">
+        <f t="array" ref="AT51">_xlfn.IFS(AT24="Rarement",0,AT24="Occasionnellement",1,AT24="Souvent",3,AT24="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AU51" s="2" cm="1">
+        <f t="array" ref="AU51">_xlfn.IFS(AU24="Rarement",4,AU24="Occasionnellement",3,AU24="Souvent",1,AU24="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV51" s="2" cm="1">
+        <f t="array" ref="AV51">_xlfn.IFS(AV24="Rarement",0,AV24="Occasionnellement",1,AV24="Souvent",3,AV24="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AW51" s="2" cm="1">
+        <f t="array" ref="AW51">_xlfn.IFS(AW24="Rarement",0,AW24="Occasionnellement",1,AW24="Souvent",3,AW24="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AX51" s="2" cm="1">
+        <f t="array" ref="AX51">_xlfn.IFS(AX24="Rarement",0,AX24="Occasionnellement",1,AX24="Souvent",3,AX24="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AY51" s="2" cm="1">
+        <f t="array" ref="AY51">_xlfn.IFS(AY24="Rarement",0,AY24="Occasionnellement",1,AY24="Souvent",3,AY24="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ51" s="2" cm="1">
+        <f t="array" ref="AZ51">_xlfn.IFS(AZ24="Rarement",0,AZ24="Occasionnellement",1,AZ24="Souvent",3,AZ24="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BA51" s="2" cm="1">
+        <f t="array" ref="BA51">_xlfn.IFS(BA24="Rarement",0,BA24="Occasionnellement",1,BA24="Souvent",3,BA24="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BB51" s="2" cm="1">
+        <f t="array" ref="BB51">_xlfn.IFS(BB24="Rarement",0,BB24="Occasionnellement",1,BB24="Souvent",3,BB24="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC51" s="2" cm="1">
+        <f t="array" ref="BC51">_xlfn.IFS(BC24="Rarement",0,BC24="Occasionnellement",1,BC24="Souvent",3,BC24="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="BD51" s="2" cm="1">
+        <f t="array" ref="BD51">_xlfn.IFS(BD24="Rarement",0,BD24="Occasionnellement",1,BD24="Souvent",3,BD24="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BE51" s="2" cm="1">
+        <f t="array" ref="BE51">_xlfn.IFS(BE24="Rarement",0,BE24="Occasionnellement",1,BE24="Souvent",3,BE24="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BF51" s="2" cm="1">
+        <f t="array" ref="BF51">_xlfn.IFS(BF24="Rarement",0,BF24="Occasionnellement",1,BF24="Souvent",3,BF24="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BG51" s="2" cm="1">
+        <f t="array" ref="BG51">_xlfn.IFS(BG24="Rarement",4,BG24="Occasionnellement",3,BG24="Souvent",1,BG24="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH51" s="2" cm="1">
+        <f t="array" ref="BH51">_xlfn.IFS(BH24="Rarement",4,BH24="Occasionnellement",3,BH24="Souvent",1,BH24="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="CK51" s="2"/>
+      <c r="CL51" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>20</v>
+      </c>
+      <c r="CM51" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>21</v>
+      </c>
+      <c r="CN51" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>22</v>
+      </c>
+      <c r="CO51" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>63</v>
+      </c>
+      <c r="CP51" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="CQ51" s="2"/>
+      <c r="CR51" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="2:96" x14ac:dyDescent="0.35">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA52" s="2" cm="1">
+        <f t="array" ref="AA52">_xlfn.IFS(AA25="Rarement",0,AA25="Occasionnellement",1,AA25="Souvent",3,AA25="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AB52" s="2" cm="1">
+        <f t="array" ref="AB52">_xlfn.IFS(AB25="Rarement",0,AB25="Occasionnellement",1,AB25="Souvent",3,AB25="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AC52" s="2" cm="1">
+        <f t="array" ref="AC52">_xlfn.IFS(AC25="Rarement",0,AC25="Occasionnellement",1,AC25="Souvent",3,AC25="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="2" cm="1">
+        <f t="array" ref="AD52">_xlfn.IFS(AD25="Rarement",0,AD25="Occasionnellement",1,AD25="Souvent",3,AD25="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AE52" s="2" cm="1">
+        <f t="array" ref="AE52">_xlfn.IFS(AE25="Rarement",0,AE25="Occasionnellement",1,AE25="Souvent",3,AE25="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AF52" s="2" cm="1">
+        <f t="array" ref="AF52">_xlfn.IFS(AF25="Rarement",4,AF25="Occasionnellement",1,AF25="Souvent",3,AF25="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AG52" s="2" cm="1">
+        <f t="array" ref="AG52">_xlfn.IFS(AG25="Rarement",4,AG25="Occasionnellement",3,AG25="Souvent",1,AG25="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AH52" s="2" cm="1">
+        <f t="array" ref="AH52">_xlfn.IFS(AH25="Rarement",4,AH25="Occasionnellement",3,AH25="Souvent",1,AH25="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI52" s="2" cm="1">
+        <f t="array" ref="AI52">_xlfn.IFS(AI25="Rarement",4,AI25="Occasionnellement",3,AI25="Souvent",1,AI25="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ52" s="2" cm="1">
+        <f t="array" ref="AJ52">_xlfn.IFS(AJ25="Rarement",4,AJ25="Occasionnellement",3,AJ25="Souvent",1,AJ25="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AK52" s="2" cm="1">
+        <f t="array" ref="AK52">_xlfn.IFS(AK25="Rarement",4,AK25="Occasionnellement",3,AK25="Souvent",1,AK25="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL52" s="2" cm="1">
+        <f t="array" ref="AL52">_xlfn.IFS(AL25="Rarement",4,AL25="Occasionnellement",3,AL25="Souvent",1,AL25="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AM52" s="2" cm="1">
+        <f t="array" ref="AM52">_xlfn.IFS(AM25="Rarement",4,AM25="Occasionnellement",3,AM25="Souvent",1,AM25="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN52" s="2" cm="1">
+        <f t="array" ref="AN52">_xlfn.IFS(AN25="Rarement",4,AN25="Occasionnellement",3,AN25="Souvent",1,AN25="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AO52" s="2" cm="1">
+        <f t="array" ref="AO52">_xlfn.IFS(AG25="Rarement",4,AG25="Occasionnellement",3,AG25="Souvent",1,AG25="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AP52" s="2" cm="1">
+        <f t="array" ref="AP52">_xlfn.IFS(AP25="Rarement",0,AP25="Occasionnellement",1,AP25="Souvent",3,AP25="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ52" s="2" cm="1">
+        <f t="array" ref="AQ52">_xlfn.IFS(AQ25="Rarement",0,AQ25="Occasionnellement",1,AQ25="Souvent",3,AQ25="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AR52" s="2" cm="1">
+        <f t="array" ref="AR52">_xlfn.IFS(AR25="Rarement",0,AR25="Occasionnellement",1,AR25="Souvent",3,AR25="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AS52" s="2" cm="1">
+        <f t="array" ref="AS52">_xlfn.IFS(AS25="Rarement",4,AS25="Occasionnellement",3,AS25="Souvent",1,AS25="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AT52" s="2" cm="1">
+        <f t="array" ref="AT52">_xlfn.IFS(AT25="Rarement",0,AT25="Occasionnellement",1,AT25="Souvent",3,AT25="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AU52" s="2" cm="1">
+        <f t="array" ref="AU52">_xlfn.IFS(AU25="Rarement",4,AU25="Occasionnellement",3,AU25="Souvent",1,AU25="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV52" s="2" cm="1">
+        <f t="array" ref="AV52">_xlfn.IFS(AV25="Rarement",0,AV25="Occasionnellement",1,AV25="Souvent",3,AV25="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AW52" s="2" cm="1">
+        <f t="array" ref="AW52">_xlfn.IFS(AW25="Rarement",0,AW25="Occasionnellement",1,AW25="Souvent",3,AW25="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AX52" s="2" cm="1">
+        <f t="array" ref="AX52">_xlfn.IFS(AX25="Rarement",0,AX25="Occasionnellement",1,AX25="Souvent",3,AX25="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AY52" s="2" cm="1">
+        <f t="array" ref="AY52">_xlfn.IFS(AY25="Rarement",0,AY25="Occasionnellement",1,AY25="Souvent",3,AY25="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ52" s="2" cm="1">
+        <f t="array" ref="AZ52">_xlfn.IFS(AZ25="Rarement",0,AZ25="Occasionnellement",1,AZ25="Souvent",3,AZ25="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BA52" s="2" cm="1">
+        <f t="array" ref="BA52">_xlfn.IFS(BA25="Rarement",0,BA25="Occasionnellement",1,BA25="Souvent",3,BA25="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BB52" s="2" cm="1">
+        <f t="array" ref="BB52">_xlfn.IFS(BB25="Rarement",0,BB25="Occasionnellement",1,BB25="Souvent",3,BB25="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC52" s="2" cm="1">
+        <f t="array" ref="BC52">_xlfn.IFS(BC25="Rarement",0,BC25="Occasionnellement",1,BC25="Souvent",3,BC25="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BD52" s="2" cm="1">
+        <f t="array" ref="BD52">_xlfn.IFS(BD25="Rarement",0,BD25="Occasionnellement",1,BD25="Souvent",3,BD25="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BE52" s="2" cm="1">
+        <f t="array" ref="BE52">_xlfn.IFS(BE25="Rarement",0,BE25="Occasionnellement",1,BE25="Souvent",3,BE25="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BF52" s="2" cm="1">
+        <f t="array" ref="BF52">_xlfn.IFS(BF25="Rarement",0,BF25="Occasionnellement",1,BF25="Souvent",3,BF25="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BG52" s="2" cm="1">
+        <f t="array" ref="BG52">_xlfn.IFS(BG25="Rarement",4,BG25="Occasionnellement",3,BG25="Souvent",1,BG25="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="BH52" s="2" cm="1">
+        <f t="array" ref="BH52">_xlfn.IFS(BH25="Rarement",4,BH25="Occasionnellement",3,BH25="Souvent",1,BH25="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="CK52" s="2"/>
+      <c r="CL52" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>22</v>
+      </c>
+      <c r="CM52" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>17</v>
+      </c>
+      <c r="CN52" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>17</v>
+      </c>
+      <c r="CO52" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>56</v>
+      </c>
+      <c r="CP52" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="CQ52" s="2"/>
+      <c r="CR52" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{51080165-479D-4709-8B53-F082E7B38B17}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Questionnaires de personnalité0303 .xlsx
+++ b/Questionnaires de personnalité0303 .xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376199C9-A7E5-49DF-8C1F-302E41339862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{376199C9-A7E5-49DF-8C1F-302E41339862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DDEADE6-C2C0-4D1A-9F9F-8D0F5834511A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11260" yWindow="2050" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questionnaires de personnalité" sheetId="2" r:id="rId1"/>
     <sheet name="Questionnaires de personnalité " sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'Questionnaires de personnalité'!$B$1:$CJ$54</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'Questionnaires de personnalité'!$B$1:$CJ$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="199">
   <si>
     <t xml:space="preserve">Horodateur,"Nom d'utilisateur","Je suis ","Je suis ","Je suis","Je suis ","Je suis","Je suis","Je suis ","Je suis","Je suis","Je suis ","Je suis","Je suis","Je suis ","Je suis ","Je suis ","Je suis ","Je suis ","Je suis ","Je suis ","Je suis","Je suis ","Je suis","Je suis","Je prÃ©pare soigneusement les tÃ¢ches Ã  accomplir","Je fais les choses sans y penser","Je me dÃ©cide rapidement","J'ai tendance Ã  ne pas m'en faire","Je ne fais pas attention","J'ai des idÃ©es qui fusent","Je projette mes voyages longtemps Ã  l'avance","Je suis maÃ®tre de moi","Je me concentre facilement","Je mets de l'argent de cÃ´tÃ© rÃ©guliÃ¨rement","J'ai la ""bougeotte"" aux spectacles ou aux confÃ©rences","Je rÃ©flÃ©chis soigneusement","Je veille Ã  ma sÃ©curitÃ© d'emploi","Je dis les choses sans y penser","J'aime rÃ©flÃ©chir Ã  des problÃ¨mes complexes","Je change de travail","J'agis sur un ""coup de tÃªte""","RÃ©flÃ©chir Ã  un problÃ¨me m'ennuie vite","Je me fais faire rÃ©guliÃ¨rement des bilans de santÃ©","J'agis selon l'inspiration du moment","Je suis quelqu'un de rÃ©flÃ©chi","Je change de domicile","J'achÃ¨te les choses ""sur un coup de tÃªte""","Je ne peux penser qu'Ã  un problÃ¨me Ã  la fois","Je change de passe-temps","Je marche et bouge vite","Je rÃ©sous les problÃ¨mes par tÃ¢tonnements","Je dÃ©pense ou paye Ã  crÃ©dit plus que je ne gagne","Je parle vite","Quand je rÃ©flÃ©chis mes pensÃ©es s'Ã©garent souvent","Je m'intÃ©resse plus au prÃ©sent qu'Ã  l'avenir","Je me sens agitÃ© au spectacle ou lors de confÃ©rences","J'aime les ""casses-tÃªtes""","Je pense Ã  l'avenir","Il m'est facile de me concentrer sur mes activitÃ©s.","Il m'arrive frÃ©quemment, lorsque je travaille, de me prÃ©occuper d'autres choses.","Le temps semble toujours passer lentement.","Je me retrouve souvent Ã  l'Ã©cart, sans savoir quoi faire.","Je suis souvent pris au piÃ¨ge dans des situations oÃ¹ je dois faire des choses insignifiantes.","Le fait de devoir regarder les films familiaux ou les diapositives de voyage de quelqu'un m'ennuie Ã©normÃ©ment.","J'ai tout le temps des projets en tÃªte, des choses Ã  faire.","Je trouve qu'il est facile de se divertir.","Beaucoup de choses que j'ai Ã  faire sont rÃ©pÃ©titives et monotones.","Il faut plus de stimulation pour me faire avancer que la plupart des gens.","Je prends plaisir Ã  faire la plupart des choses que je fais.","Je suis rarement enthousiasmÃ©(e) par mon travail.","Dans n'importe quelle situation, je peux gÃ©nÃ©ralement trouver quelque chose Ã  faire ou Ã  voir pour maintenir mon intÃ©rÃªt.","La plupart du temps, je reste assis Ã  ne rien faire.","Je suis douÃ© pour attendre patiemment.","Je me retrouve souvent avec rien Ã  faire - du temps libre.","Dans les situations oÃ¹ je dois attendre, comme dans une file d'attente, je deviens trÃ¨s agitÃ©.","Je me rÃ©veille souvent avec une nouvelle idÃ©e.","Il me serait trÃ¨s difficile de trouver un travail qui soit suffisamment passionnant.","J'aimerais faire des choses plus stimulantes dans la vie. ","J'ai l'impression de travailler en dessous de mes capacitÃ©s la plupart du temps.","Beaucoup de gens diraient que je suis une personne crÃ©ative ou imaginative.","J'ai tellement d'intÃ©rÃªts que je n'ai pas le temps de tout faire.","Parmi mes amis, je suis celui qui continue Ã  faire quelque chose le plus longtemps.","Si je ne fais pas quelque-choses d'excitant, voire de dangereux, je me sens Ã  moitiÃ© mort et terne.","Il faut beaucoup de changement et de variÃ©tÃ© pour que je sois vraiment heureux.","Il semble que les mÃªmes choses passent tout le temps Ã  la tÃ©lÃ©vision ou au cinÃ©ma </t>
   </si>
@@ -645,6 +645,24 @@
   </si>
   <si>
     <t>sub-00AD</t>
+  </si>
+  <si>
+    <t>2022/03/31 2:27:08 PM UTC+2</t>
+  </si>
+  <si>
+    <t>clemence.bonnet@u-bourgogne.fr</t>
+  </si>
+  <si>
+    <t>sub-01CB</t>
+  </si>
+  <si>
+    <t>2022/03/29 11:09:30 AM UTC+2</t>
+  </si>
+  <si>
+    <t>denisbarbusse@gmail.com</t>
+  </si>
+  <si>
+    <t>sub-07DB</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1196,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -1193,6 +1211,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1705,8 +1725,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Questionnaires_de_personnalité" displayName="Questionnaires_de_personnalité" ref="B1:CR54" tableType="queryTable" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
-  <autoFilter ref="B1:CR54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Questionnaires_de_personnalité" displayName="Questionnaires_de_personnalité" ref="B1:CR63" tableType="queryTable" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+  <autoFilter ref="B1:CR63" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="95">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Horodateur" queryTableFieldId="1" dataDxfId="94"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Nom d'utilisateur" queryTableFieldId="2" dataDxfId="93"/>
@@ -2115,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CR54"/>
+  <dimension ref="A1:CR63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CM1" sqref="CM1"/>
+    <sheetView tabSelected="1" topLeftCell="CG28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CL55" sqref="CL55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2175,7 +2195,9 @@
     <col min="59" max="59" width="23.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="23.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="88" width="5.6328125" style="1" customWidth="1"/>
-    <col min="89" max="92" width="10.90625" style="1"/>
+    <col min="89" max="90" width="10.90625" style="1"/>
+    <col min="91" max="91" width="16.81640625" style="1" customWidth="1"/>
+    <col min="92" max="92" width="10.90625" style="1"/>
     <col min="93" max="93" width="10.90625" style="9"/>
     <col min="94" max="16384" width="10.90625" style="1"/>
   </cols>
@@ -7853,7 +7875,7 @@
       <c r="CJ21">
         <v>1</v>
       </c>
-      <c r="CK21" s="2">
+      <c r="CK21" s="1">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
         <v>132</v>
       </c>
@@ -8132,7 +8154,7 @@
       <c r="CJ22">
         <v>1</v>
       </c>
-      <c r="CK22" s="2">
+      <c r="CK22" s="1">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
         <v>85</v>
       </c>
@@ -8411,7 +8433,7 @@
       <c r="CJ23">
         <v>1</v>
       </c>
-      <c r="CK23" s="2">
+      <c r="CK23" s="1">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
         <v>104</v>
       </c>
@@ -8690,7 +8712,7 @@
       <c r="CJ24">
         <v>1</v>
       </c>
-      <c r="CK24" s="2">
+      <c r="CK24" s="1">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
         <v>95</v>
       </c>
@@ -8969,7 +8991,7 @@
       <c r="CJ25">
         <v>3</v>
       </c>
-      <c r="CK25" s="2">
+      <c r="CK25" s="1">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
         <v>104</v>
       </c>
@@ -9248,7 +9270,7 @@
       <c r="CJ26">
         <v>6</v>
       </c>
-      <c r="CK26" s="2">
+      <c r="CK26" s="1">
         <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
         <v>103</v>
       </c>
@@ -9263,96 +9285,560 @@
       <c r="CR26" s="2"/>
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="2"/>
-      <c r="AQ27" s="2"/>
-      <c r="AR27" s="2"/>
-      <c r="AS27" s="2"/>
-      <c r="AT27" s="2"/>
-      <c r="AU27" s="2"/>
-      <c r="AV27" s="2"/>
-      <c r="AW27" s="2"/>
-      <c r="AX27" s="2"/>
-      <c r="AY27" s="2"/>
-      <c r="AZ27" s="2"/>
-      <c r="BA27" s="2"/>
-      <c r="BB27" s="2"/>
-      <c r="BC27" s="2"/>
-      <c r="BD27" s="2"/>
-      <c r="BE27" s="2"/>
-      <c r="BF27" s="2"/>
-      <c r="BG27" s="2"/>
-      <c r="BH27" s="2"/>
-      <c r="CK27" s="2"/>
+      <c r="A27" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>8</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>6</v>
+      </c>
+      <c r="X27">
+        <v>2</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI27">
+        <v>7</v>
+      </c>
+      <c r="BJ27">
+        <v>4</v>
+      </c>
+      <c r="BK27">
+        <v>1</v>
+      </c>
+      <c r="BL27">
+        <v>5</v>
+      </c>
+      <c r="BM27">
+        <v>1</v>
+      </c>
+      <c r="BN27">
+        <v>1</v>
+      </c>
+      <c r="BO27">
+        <v>7</v>
+      </c>
+      <c r="BP27">
+        <v>7</v>
+      </c>
+      <c r="BQ27">
+        <v>1</v>
+      </c>
+      <c r="BR27">
+        <v>1</v>
+      </c>
+      <c r="BS27">
+        <v>7</v>
+      </c>
+      <c r="BT27">
+        <v>1</v>
+      </c>
+      <c r="BU27">
+        <v>5</v>
+      </c>
+      <c r="BV27">
+        <v>1</v>
+      </c>
+      <c r="BW27">
+        <v>3</v>
+      </c>
+      <c r="BX27">
+        <v>2</v>
+      </c>
+      <c r="BY27">
+        <v>6</v>
+      </c>
+      <c r="BZ27">
+        <v>4</v>
+      </c>
+      <c r="CA27">
+        <v>1</v>
+      </c>
+      <c r="CB27">
+        <v>4</v>
+      </c>
+      <c r="CC27">
+        <v>2</v>
+      </c>
+      <c r="CD27">
+        <v>4</v>
+      </c>
+      <c r="CE27">
+        <v>1</v>
+      </c>
+      <c r="CF27">
+        <v>2</v>
+      </c>
+      <c r="CG27">
+        <v>1</v>
+      </c>
+      <c r="CH27">
+        <v>3</v>
+      </c>
+      <c r="CI27">
+        <v>2</v>
+      </c>
+      <c r="CJ27">
+        <v>1</v>
+      </c>
+      <c r="CK27" s="1">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>85</v>
+      </c>
       <c r="CL27" s="2"/>
       <c r="CM27" s="2"/>
       <c r="CN27" s="2"/>
       <c r="CO27" s="7"/>
-      <c r="CP27" s="2"/>
+      <c r="CP27" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="CQ27" s="2"/>
       <c r="CR27" s="2"/>
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
-      <c r="AM28" s="2"/>
-      <c r="AN28" s="2"/>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="2"/>
-      <c r="AQ28" s="2"/>
-      <c r="AR28" s="2"/>
-      <c r="AS28" s="2"/>
-      <c r="AT28" s="2"/>
-      <c r="AU28" s="2"/>
-      <c r="AV28" s="2"/>
-      <c r="AW28" s="2"/>
-      <c r="AX28" s="2"/>
-      <c r="AY28" s="2"/>
-      <c r="AZ28" s="2"/>
-      <c r="BA28" s="2"/>
-      <c r="BB28" s="2"/>
-      <c r="BC28" s="2"/>
-      <c r="BD28" s="2"/>
-      <c r="BE28" s="2"/>
-      <c r="BF28" s="2"/>
-      <c r="BG28" s="2"/>
-      <c r="BH28" s="2"/>
-      <c r="CK28" s="2"/>
+      <c r="A28" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28">
+        <v>8</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>6</v>
+      </c>
+      <c r="U28">
+        <v>6</v>
+      </c>
+      <c r="V28">
+        <v>3</v>
+      </c>
+      <c r="W28">
+        <v>4</v>
+      </c>
+      <c r="X28">
+        <v>5</v>
+      </c>
+      <c r="Y28">
+        <v>5</v>
+      </c>
+      <c r="Z28">
+        <v>3</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>112</v>
+      </c>
+      <c r="BI28">
+        <v>3</v>
+      </c>
+      <c r="BJ28">
+        <v>5</v>
+      </c>
+      <c r="BK28">
+        <v>5</v>
+      </c>
+      <c r="BL28">
+        <v>4</v>
+      </c>
+      <c r="BM28">
+        <v>6</v>
+      </c>
+      <c r="BN28">
+        <v>2</v>
+      </c>
+      <c r="BO28">
+        <v>7</v>
+      </c>
+      <c r="BP28">
+        <v>6</v>
+      </c>
+      <c r="BQ28">
+        <v>3</v>
+      </c>
+      <c r="BR28">
+        <v>4</v>
+      </c>
+      <c r="BS28">
+        <v>6</v>
+      </c>
+      <c r="BT28">
+        <v>3</v>
+      </c>
+      <c r="BU28">
+        <v>5</v>
+      </c>
+      <c r="BV28">
+        <v>2</v>
+      </c>
+      <c r="BW28">
+        <v>6</v>
+      </c>
+      <c r="BX28">
+        <v>3</v>
+      </c>
+      <c r="BY28">
+        <v>6</v>
+      </c>
+      <c r="BZ28">
+        <v>3</v>
+      </c>
+      <c r="CA28">
+        <v>5</v>
+      </c>
+      <c r="CB28">
+        <v>6</v>
+      </c>
+      <c r="CC28">
+        <v>6</v>
+      </c>
+      <c r="CD28">
+        <v>5</v>
+      </c>
+      <c r="CE28">
+        <v>6</v>
+      </c>
+      <c r="CF28">
+        <v>5</v>
+      </c>
+      <c r="CG28">
+        <v>5</v>
+      </c>
+      <c r="CH28">
+        <v>4</v>
+      </c>
+      <c r="CI28">
+        <v>5</v>
+      </c>
+      <c r="CJ28">
+        <v>2</v>
+      </c>
+      <c r="CK28" s="1">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>128</v>
+      </c>
       <c r="CL28" s="2"/>
       <c r="CM28" s="2"/>
       <c r="CN28" s="2"/>
       <c r="CO28" s="7"/>
-      <c r="CP28" s="2"/>
+      <c r="CP28" s="15" t="s">
+        <v>198</v>
+      </c>
       <c r="CQ28" s="2"/>
       <c r="CR28" s="2"/>
     </row>
@@ -9683,7 +10169,9 @@
         <v>53</v>
       </c>
       <c r="CP30" s="3"/>
-      <c r="CQ30" s="3"/>
+      <c r="CQ30" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="CR30" s="3"/>
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.35">
@@ -9715,7 +10203,7 @@
         <v>1</v>
       </c>
       <c r="AF31" s="2" cm="1">
-        <f t="array" ref="AF31">_xlfn.IFS(AF3="Rarement",4,AF3="Occasionnellement",1,AF3="Souvent",3,AF3="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF31">_xlfn.IFS(AF3="Rarement",0,AF3="Occasionnellement",1,AF3="Souvent",3,AF3="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG31" s="2" cm="1">
@@ -9850,7 +10338,9 @@
       <c r="CP31" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="CQ31" s="2"/>
+      <c r="CQ31" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="CR31" s="2" t="s">
         <v>108</v>
       </c>
@@ -9884,7 +10374,7 @@
         <v>1</v>
       </c>
       <c r="AF32" s="2" cm="1">
-        <f t="array" ref="AF32">_xlfn.IFS(AF4="Rarement",4,AF4="Occasionnellement",1,AF4="Souvent",3,AF4="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF32">_xlfn.IFS(AF4="Rarement",0,AF4="Occasionnellement",1,AF4="Souvent",3,AF4="Presque toujours/Toujours",4)</f>
         <v>4</v>
       </c>
       <c r="AG32" s="2" cm="1">
@@ -10019,7 +10509,9 @@
       <c r="CP32" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="CQ32" s="2"/>
+      <c r="CQ32" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="CR32" s="2" t="s">
         <v>114</v>
       </c>
@@ -10053,7 +10545,7 @@
         <v>1</v>
       </c>
       <c r="AF33" s="2" cm="1">
-        <f t="array" ref="AF33">_xlfn.IFS(AF5="Rarement",4,AF5="Occasionnellement",1,AF5="Souvent",3,AF5="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF33">_xlfn.IFS(AF5="Rarement",0,AF5="Occasionnellement",1,AF5="Souvent",3,AF5="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG33" s="2" cm="1">
@@ -10188,7 +10680,9 @@
       <c r="CP33" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="CQ33" s="2"/>
+      <c r="CQ33" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="CR33" s="2" t="s">
         <v>116</v>
       </c>
@@ -10222,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="2" cm="1">
-        <f t="array" ref="AF34">_xlfn.IFS(AF6="Rarement",4,AF6="Occasionnellement",1,AF6="Souvent",3,AF6="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF34">_xlfn.IFS(AF6="Rarement",0,AF6="Occasionnellement",1,AF6="Souvent",3,AF6="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG34" s="2" cm="1">
@@ -10357,7 +10851,9 @@
       <c r="CP34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="CQ34" s="2"/>
+      <c r="CQ34" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="CR34" s="2" t="s">
         <v>118</v>
       </c>
@@ -10391,7 +10887,7 @@
         <v>3</v>
       </c>
       <c r="AF35" s="2" cm="1">
-        <f t="array" ref="AF35">_xlfn.IFS(AF7="Rarement",4,AF7="Occasionnellement",1,AF7="Souvent",3,AF7="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF35">_xlfn.IFS(AF7="Rarement",0,AF7="Occasionnellement",1,AF7="Souvent",3,AF7="Presque toujours/Toujours",4)</f>
         <v>4</v>
       </c>
       <c r="AG35" s="2" cm="1">
@@ -10526,7 +11022,9 @@
       <c r="CP35" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="CQ35" s="2"/>
+      <c r="CQ35" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="CR35" s="2" t="s">
         <v>120</v>
       </c>
@@ -10560,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="AF36" s="2" cm="1">
-        <f t="array" ref="AF36">_xlfn.IFS(AF8="Rarement",4,AF8="Occasionnellement",1,AF8="Souvent",3,AF8="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF36">_xlfn.IFS(AF8="Rarement",0,AF8="Occasionnellement",1,AF8="Souvent",3,AF8="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG36" s="2" cm="1">
@@ -10695,7 +11193,9 @@
       <c r="CP36" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="CQ36" s="2"/>
+      <c r="CQ36" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="CR36" s="2" t="s">
         <v>122</v>
       </c>
@@ -10729,7 +11229,7 @@
         <v>1</v>
       </c>
       <c r="AF37" s="2" cm="1">
-        <f t="array" ref="AF37">_xlfn.IFS(AF9="Rarement",4,AF9="Occasionnellement",1,AF9="Souvent",3,AF9="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF37">_xlfn.IFS(AF9="Rarement",0,AF9="Occasionnellement",1,AF9="Souvent",3,AF9="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG37" s="2" cm="1">
@@ -10864,7 +11364,9 @@
       <c r="CP37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="CQ37" s="2"/>
+      <c r="CQ37" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="CR37" s="2" t="s">
         <v>124</v>
       </c>
@@ -10898,7 +11400,7 @@
         <v>3</v>
       </c>
       <c r="AF38" s="2" cm="1">
-        <f t="array" ref="AF38">_xlfn.IFS(AF10="Rarement",4,AF10="Occasionnellement",1,AF10="Souvent",3,AF10="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF38">_xlfn.IFS(AF10="Rarement",0,AF10="Occasionnellement",1,AF10="Souvent",3,AF10="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG38" s="2" cm="1">
@@ -11033,7 +11535,9 @@
       <c r="CP38" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="CQ38" s="2"/>
+      <c r="CQ38" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="CR38" s="2" t="s">
         <v>126</v>
       </c>
@@ -11067,7 +11571,7 @@
         <v>1</v>
       </c>
       <c r="AF39" s="2" cm="1">
-        <f t="array" ref="AF39">_xlfn.IFS(AF11="Rarement",4,AF11="Occasionnellement",1,AF11="Souvent",3,AF11="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF39">_xlfn.IFS(AF11="Rarement",0,AF11="Occasionnellement",1,AF11="Souvent",3,AF11="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG39" s="2" cm="1">
@@ -11202,7 +11706,9 @@
       <c r="CP39" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="CQ39" s="2"/>
+      <c r="CQ39" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="CR39" s="2" t="s">
         <v>128</v>
       </c>
@@ -11236,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="AF40" s="2" cm="1">
-        <f t="array" ref="AF40">_xlfn.IFS(AF12="Rarement",4,AF12="Occasionnellement",1,AF12="Souvent",3,AF12="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF40">_xlfn.IFS(AF12="Rarement",0,AF12="Occasionnellement",1,AF12="Souvent",3,AF12="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="AG40" s="2" cm="1">
@@ -11371,7 +11877,9 @@
       <c r="CP40" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="CQ40" s="2"/>
+      <c r="CQ40" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="CR40" s="2" t="s">
         <v>130</v>
       </c>
@@ -11405,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="2" cm="1">
-        <f t="array" ref="AF41">_xlfn.IFS(AF13="Rarement",4,AF13="Occasionnellement",1,AF13="Souvent",3,AF13="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF41">_xlfn.IFS(AF13="Rarement",0,AF13="Occasionnellement",1,AF13="Souvent",3,AF13="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG41" s="2" cm="1">
@@ -11540,7 +12048,9 @@
       <c r="CP41" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="CQ41" s="2"/>
+      <c r="CQ41" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="CR41" s="2" t="s">
         <v>132</v>
       </c>
@@ -11574,7 +12084,7 @@
         <v>3</v>
       </c>
       <c r="AF42" s="2" cm="1">
-        <f t="array" ref="AF42">_xlfn.IFS(AF14="Rarement",4,AF14="Occasionnellement",1,AF14="Souvent",3,AF14="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF42">_xlfn.IFS(AF14="Rarement",0,AF14="Occasionnellement",1,AF14="Souvent",3,AF14="Presque toujours/Toujours",4)</f>
         <v>4</v>
       </c>
       <c r="AG42" s="2" cm="1">
@@ -11709,7 +12219,9 @@
       <c r="CP42" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="CQ42" s="2"/>
+      <c r="CQ42" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="CR42" s="2" t="s">
         <v>134</v>
       </c>
@@ -11743,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="AF43" s="2" cm="1">
-        <f t="array" ref="AF43">_xlfn.IFS(AF15="Rarement",4,AF15="Occasionnellement",1,AF15="Souvent",3,AF15="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF43">_xlfn.IFS(AF15="Rarement",0,AF15="Occasionnellement",1,AF15="Souvent",3,AF15="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG43" s="2" cm="1">
@@ -11878,7 +12390,9 @@
       <c r="CP43" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="CQ43" s="2"/>
+      <c r="CQ43" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="CR43" s="2" t="s">
         <v>136</v>
       </c>
@@ -11912,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="AF44" s="2" cm="1">
-        <f t="array" ref="AF44">_xlfn.IFS(AF16="Rarement",4,AF16="Occasionnellement",1,AF16="Souvent",3,AF16="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF44">_xlfn.IFS(AF16="Rarement",0,AF16="Occasionnellement",1,AF16="Souvent",3,AF16="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG44" s="2" cm="1">
@@ -12047,7 +12561,9 @@
       <c r="CP44" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="CQ44" s="2"/>
+      <c r="CQ44" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="CR44" s="2" t="s">
         <v>138</v>
       </c>
@@ -12081,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="AF45" s="2" cm="1">
-        <f t="array" ref="AF45">_xlfn.IFS(AF17="Rarement",4,AF17="Occasionnellement",1,AF17="Souvent",3,AF17="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF45">_xlfn.IFS(AF17="Rarement",0,AF17="Occasionnellement",1,AF17="Souvent",3,AF17="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG45" s="2" cm="1">
@@ -12216,7 +12732,9 @@
       <c r="CP45" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="CQ45" s="2"/>
+      <c r="CQ45" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="CR45" s="2" t="s">
         <v>140</v>
       </c>
@@ -12250,7 +12768,7 @@
         <v>1</v>
       </c>
       <c r="AF46" s="2" cm="1">
-        <f t="array" ref="AF46">_xlfn.IFS(AF18="Rarement",4,AF18="Occasionnellement",1,AF18="Souvent",3,AF18="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF46">_xlfn.IFS(AF18="Rarement",0,AF18="Occasionnellement",1,AF18="Souvent",3,AF18="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="AG46" s="2" cm="1">
@@ -12385,7 +12903,9 @@
       <c r="CP46" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="CQ46" s="2"/>
+      <c r="CQ46" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="CR46" s="2" t="s">
         <v>142</v>
       </c>
@@ -12419,7 +12939,7 @@
         <v>1</v>
       </c>
       <c r="AF47" s="2" cm="1">
-        <f t="array" ref="AF47">_xlfn.IFS(AF19="Rarement",4,AF19="Occasionnellement",1,AF19="Souvent",3,AF19="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF47">_xlfn.IFS(AF19="Rarement",0,AF19="Occasionnellement",1,AF19="Souvent",3,AF19="Presque toujours/Toujours",4)</f>
         <v>1</v>
       </c>
       <c r="AG47" s="2" cm="1">
@@ -12554,7 +13074,9 @@
       <c r="CP47" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="CQ47" s="2"/>
+      <c r="CQ47" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="CR47" s="2" t="s">
         <v>144</v>
       </c>
@@ -12585,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="AF48" s="2" cm="1">
-        <f t="array" ref="AF48">_xlfn.IFS(AF20="Rarement",4,AF20="Occasionnellement",1,AF20="Souvent",3,AF20="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF48">_xlfn.IFS(AF20="Rarement",0,AF20="Occasionnellement",1,AF20="Souvent",3,AF20="Presque toujours/Toujours",4)</f>
         <v>4</v>
       </c>
       <c r="AG48" s="2" cm="1">
@@ -12720,7 +13242,9 @@
       <c r="CP48" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="CQ48" s="2"/>
+      <c r="CQ48" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="CR48" s="2" t="s">
         <v>146</v>
       </c>
@@ -12751,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="AF49" s="2" cm="1">
-        <f t="array" ref="AF49">_xlfn.IFS(AF21="Rarement",4,AF21="Occasionnellement",1,AF21="Souvent",3,AF21="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF49">_xlfn.IFS(AF21="Rarement",0,AF21="Occasionnellement",1,AF21="Souvent",3,AF21="Presque toujours/Toujours",4)</f>
         <v>4</v>
       </c>
       <c r="AG49" s="2" cm="1">
@@ -12886,7 +13410,9 @@
       <c r="CP49" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="CQ49" s="2"/>
+      <c r="CQ49" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="CR49" s="2" t="s">
         <v>173</v>
       </c>
@@ -12917,7 +13443,7 @@
         <v>1</v>
       </c>
       <c r="AF50" s="2" cm="1">
-        <f t="array" ref="AF50">_xlfn.IFS(AF22="Rarement",4,AF22="Occasionnellement",1,AF22="Souvent",3,AF22="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF50">_xlfn.IFS(AF22="Rarement",0,AF22="Occasionnellement",1,AF22="Souvent",3,AF22="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG50" s="2" cm="1">
@@ -13052,7 +13578,9 @@
       <c r="CP50" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="CQ50" s="2"/>
+      <c r="CQ50" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="CR50" s="2" t="s">
         <v>175</v>
       </c>
@@ -13083,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="2" cm="1">
-        <f t="array" ref="AF51">_xlfn.IFS(AF23="Rarement",4,AF23="Occasionnellement",1,AF23="Souvent",3,AF23="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF51">_xlfn.IFS(AF23="Rarement",0,AF23="Occasionnellement",1,AF23="Souvent",3,AF23="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG51" s="2" cm="1">
@@ -13218,7 +13746,9 @@
       <c r="CP51" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="CQ51" s="2"/>
+      <c r="CQ51" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="CR51" s="2" t="s">
         <v>177</v>
       </c>
@@ -13249,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="AF52" s="2" cm="1">
-        <f t="array" ref="AF52">_xlfn.IFS(AF24="Rarement",4,AF24="Occasionnellement",1,AF24="Souvent",3,AF24="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF52">_xlfn.IFS(AF24="Rarement",0,AF24="Occasionnellement",1,AF24="Souvent",3,AF24="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG52" s="2" cm="1">
@@ -13384,7 +13914,9 @@
       <c r="CP52" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="CQ52" s="2"/>
+      <c r="CQ52" s="12" t="s">
+        <v>189</v>
+      </c>
       <c r="CR52" s="2" t="s">
         <v>179</v>
       </c>
@@ -13415,7 +13947,7 @@
         <v>1</v>
       </c>
       <c r="AF53" s="2" cm="1">
-        <f t="array" ref="AF53">_xlfn.IFS(AF25="Rarement",4,AF25="Occasionnellement",1,AF25="Souvent",3,AF25="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF53">_xlfn.IFS(AF25="Rarement",0,AF25="Occasionnellement",1,AF25="Souvent",3,AF25="Presque toujours/Toujours",4)</f>
         <v>4</v>
       </c>
       <c r="AG53" s="2" cm="1">
@@ -13550,7 +14082,9 @@
       <c r="CP53" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="CQ53" s="2"/>
+      <c r="CQ53" s="11" t="s">
+        <v>190</v>
+      </c>
       <c r="CR53" s="2" t="s">
         <v>181</v>
       </c>
@@ -13581,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="AF54" s="2" cm="1">
-        <f t="array" ref="AF54">_xlfn.IFS(AF26="Rarement",4,AF26="Occasionnellement",1,AF26="Souvent",3,AF26="Presque toujours/Toujours",4)</f>
+        <f t="array" ref="AF54">_xlfn.IFS(AF26="Rarement",0,AF26="Occasionnellement",1,AF26="Souvent",3,AF26="Presque toujours/Toujours",4)</f>
         <v>3</v>
       </c>
       <c r="AG54" s="2" cm="1">
@@ -13716,10 +14250,1393 @@
       <c r="CP54" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="CQ54" s="2"/>
+      <c r="CQ54" s="12" t="s">
+        <v>191</v>
+      </c>
       <c r="CR54" s="2" t="s">
         <v>183</v>
       </c>
+    </row>
+    <row r="55" spans="2:96" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="AA55" s="2" cm="1">
+        <f t="array" ref="AA55">_xlfn.IFS(AA27="Rarement",0,AA27="Occasionnellement",1,AA27="Souvent",3,AA27="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AB55" s="2" cm="1">
+        <f t="array" ref="AB55">_xlfn.IFS(AB27="Rarement",0,AB27="Occasionnellement",1,AB27="Souvent",3,AB27="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="2" cm="1">
+        <f t="array" ref="AC55">_xlfn.IFS(AC27="Rarement",0,AC27="Occasionnellement",1,AC27="Souvent",3,AC27="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AD55" s="2" cm="1">
+        <f t="array" ref="AD55">_xlfn.IFS(AD27="Rarement",0,AD27="Occasionnellement",1,AD27="Souvent",3,AD27="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AE55" s="2" cm="1">
+        <f t="array" ref="AE55">_xlfn.IFS(AE27="Rarement",0,AE27="Occasionnellement",1,AE27="Souvent",3,AE27="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="2" cm="1">
+        <f t="array" ref="AF55">_xlfn.IFS(AF27="Rarement",0,AF27="Occasionnellement",1,AF27="Souvent",3,AF27="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="AG55" s="2" cm="1">
+        <f t="array" ref="AG55">_xlfn.IFS(AG27="Rarement",4,AG27="Occasionnellement",3,AG27="Souvent",1,AG27="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH55" s="2" cm="1">
+        <f t="array" ref="AH55">_xlfn.IFS(AH27="Rarement",4,AH27="Occasionnellement",3,AH27="Souvent",1,AH27="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI55" s="2" cm="1">
+        <f t="array" ref="AI55">_xlfn.IFS(AI27="Rarement",4,AI27="Occasionnellement",3,AI27="Souvent",1,AI27="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="2" cm="1">
+        <f t="array" ref="AJ55">_xlfn.IFS(AJ27="Rarement",4,AJ27="Occasionnellement",3,AJ27="Souvent",1,AJ27="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AK55" s="2" cm="1">
+        <f t="array" ref="AK55">_xlfn.IFS(AK27="Rarement",4,AK27="Occasionnellement",3,AK27="Souvent",1,AK27="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AL55" s="2" cm="1">
+        <f t="array" ref="AL55">_xlfn.IFS(AL27="Rarement",4,AL27="Occasionnellement",3,AL27="Souvent",1,AL27="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM55" s="2" cm="1">
+        <f t="array" ref="AM55">_xlfn.IFS(AM27="Rarement",4,AM27="Occasionnellement",3,AM27="Souvent",1,AM27="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN55" s="2" cm="1">
+        <f t="array" ref="AN55">_xlfn.IFS(AN27="Rarement",4,AN27="Occasionnellement",3,AN27="Souvent",1,AN27="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AO55" s="2" cm="1">
+        <f t="array" ref="AO55">_xlfn.IFS(AG27="Rarement",4,AG27="Occasionnellement",3,AG27="Souvent",1,AG27="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP55" s="2" cm="1">
+        <f t="array" ref="AP55">_xlfn.IFS(AP27="Rarement",0,AP27="Occasionnellement",1,AP27="Souvent",3,AP27="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="2" cm="1">
+        <f t="array" ref="AQ55">_xlfn.IFS(AQ27="Rarement",0,AQ27="Occasionnellement",1,AQ27="Souvent",3,AQ27="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AR55" s="2" cm="1">
+        <f t="array" ref="AR55">_xlfn.IFS(AR27="Rarement",0,AR27="Occasionnellement",1,AR27="Souvent",3,AR27="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AS55" s="2" cm="1">
+        <f t="array" ref="AS55">_xlfn.IFS(AS27="Rarement",4,AS27="Occasionnellement",3,AS27="Souvent",1,AS27="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AT55" s="2" cm="1">
+        <f t="array" ref="AT55">_xlfn.IFS(AT27="Rarement",0,AT27="Occasionnellement",1,AT27="Souvent",3,AT27="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AU55" s="2" cm="1">
+        <f t="array" ref="AU55">_xlfn.IFS(AU27="Rarement",4,AU27="Occasionnellement",3,AU27="Souvent",1,AU27="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV55" s="2" cm="1">
+        <f t="array" ref="AV55">_xlfn.IFS(AV27="Rarement",0,AV27="Occasionnellement",1,AV27="Souvent",3,AV27="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AW55" s="2" cm="1">
+        <f t="array" ref="AW55">_xlfn.IFS(AW27="Rarement",0,AW27="Occasionnellement",1,AW27="Souvent",3,AW27="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AX55" s="2" cm="1">
+        <f t="array" ref="AX55">_xlfn.IFS(AX27="Rarement",0,AX27="Occasionnellement",1,AX27="Souvent",3,AX27="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AY55" s="2" cm="1">
+        <f t="array" ref="AY55">_xlfn.IFS(AY27="Rarement",0,AY27="Occasionnellement",1,AY27="Souvent",3,AY27="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ55" s="2" cm="1">
+        <f t="array" ref="AZ55">_xlfn.IFS(AZ27="Rarement",0,AZ27="Occasionnellement",1,AZ27="Souvent",3,AZ27="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BA55" s="2" cm="1">
+        <f t="array" ref="BA55">_xlfn.IFS(BA27="Rarement",0,BA27="Occasionnellement",1,BA27="Souvent",3,BA27="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BB55" s="2" cm="1">
+        <f t="array" ref="BB55">_xlfn.IFS(BB27="Rarement",0,BB27="Occasionnellement",1,BB27="Souvent",3,BB27="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BC55" s="2" cm="1">
+        <f t="array" ref="BC55">_xlfn.IFS(BC27="Rarement",0,BC27="Occasionnellement",1,BC27="Souvent",3,BC27="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="BD55" s="2" cm="1">
+        <f t="array" ref="BD55">_xlfn.IFS(BD27="Rarement",0,BD27="Occasionnellement",1,BD27="Souvent",3,BD27="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BE55" s="2" cm="1">
+        <f t="array" ref="BE55">_xlfn.IFS(BE27="Rarement",0,BE27="Occasionnellement",1,BE27="Souvent",3,BE27="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BF55" s="2" cm="1">
+        <f t="array" ref="BF55">_xlfn.IFS(BF27="Rarement",0,BF27="Occasionnellement",1,BF27="Souvent",3,BF27="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BG55" s="2" cm="1">
+        <f t="array" ref="BG55">_xlfn.IFS(BG27="Rarement",4,BG27="Occasionnellement",3,BG27="Souvent",1,BG27="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH55" s="2" cm="1">
+        <f t="array" ref="BH55">_xlfn.IFS(BH27="Rarement",4,BH27="Occasionnellement",3,BH27="Souvent",1,BH27="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="CK55" s="2">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>0</v>
+      </c>
+      <c r="CL55" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>18</v>
+      </c>
+      <c r="CM55" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>13</v>
+      </c>
+      <c r="CN55" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>10</v>
+      </c>
+      <c r="CO55" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>41</v>
+      </c>
+      <c r="CP55" s="2"/>
+      <c r="CQ55" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="CR55" s="2"/>
+    </row>
+    <row r="56" spans="2:96" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="AA56" s="2" cm="1">
+        <f t="array" ref="AA56">_xlfn.IFS(AA28="Rarement",0,AA28="Occasionnellement",1,AA28="Souvent",3,AA28="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AB56" s="2" cm="1">
+        <f t="array" ref="AB56">_xlfn.IFS(AB28="Rarement",0,AB28="Occasionnellement",1,AB28="Souvent",3,AB28="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AC56" s="2" cm="1">
+        <f t="array" ref="AC56">_xlfn.IFS(AC28="Rarement",0,AC28="Occasionnellement",1,AC28="Souvent",3,AC28="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AD56" s="2" cm="1">
+        <f t="array" ref="AD56">_xlfn.IFS(AD28="Rarement",0,AD28="Occasionnellement",1,AD28="Souvent",3,AD28="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE56" s="2" cm="1">
+        <f t="array" ref="AE56">_xlfn.IFS(AE28="Rarement",0,AE28="Occasionnellement",1,AE28="Souvent",3,AE28="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="2" cm="1">
+        <f t="array" ref="AF56">_xlfn.IFS(AF28="Rarement",0,AF28="Occasionnellement",1,AF28="Souvent",3,AF28="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AG56" s="2" cm="1">
+        <f t="array" ref="AG56">_xlfn.IFS(AG28="Rarement",4,AG28="Occasionnellement",3,AG28="Souvent",1,AG28="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH56" s="2" cm="1">
+        <f t="array" ref="AH56">_xlfn.IFS(AH28="Rarement",4,AH28="Occasionnellement",3,AH28="Souvent",1,AH28="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI56" s="2" cm="1">
+        <f t="array" ref="AI56">_xlfn.IFS(AI28="Rarement",4,AI28="Occasionnellement",3,AI28="Souvent",1,AI28="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ56" s="2" cm="1">
+        <f t="array" ref="AJ56">_xlfn.IFS(AJ28="Rarement",4,AJ28="Occasionnellement",3,AJ28="Souvent",1,AJ28="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AK56" s="2" cm="1">
+        <f t="array" ref="AK56">_xlfn.IFS(AK28="Rarement",4,AK28="Occasionnellement",3,AK28="Souvent",1,AK28="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL56" s="2" cm="1">
+        <f t="array" ref="AL56">_xlfn.IFS(AL28="Rarement",4,AL28="Occasionnellement",3,AL28="Souvent",1,AL28="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM56" s="2" cm="1">
+        <f t="array" ref="AM56">_xlfn.IFS(AM28="Rarement",4,AM28="Occasionnellement",3,AM28="Souvent",1,AM28="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN56" s="2" cm="1">
+        <f t="array" ref="AN56">_xlfn.IFS(AN28="Rarement",4,AN28="Occasionnellement",3,AN28="Souvent",1,AN28="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="AO56" s="2" cm="1">
+        <f t="array" ref="AO56">_xlfn.IFS(AG28="Rarement",4,AG28="Occasionnellement",3,AG28="Souvent",1,AG28="Presque toujours/Toujours",0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP56" s="2" cm="1">
+        <f t="array" ref="AP56">_xlfn.IFS(AP28="Rarement",0,AP28="Occasionnellement",1,AP28="Souvent",3,AP28="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="2" cm="1">
+        <f t="array" ref="AQ56">_xlfn.IFS(AQ28="Rarement",0,AQ28="Occasionnellement",1,AQ28="Souvent",3,AQ28="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AR56" s="2" cm="1">
+        <f t="array" ref="AR56">_xlfn.IFS(AR28="Rarement",0,AR28="Occasionnellement",1,AR28="Souvent",3,AR28="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AS56" s="2" cm="1">
+        <f t="array" ref="AS56">_xlfn.IFS(AS28="Rarement",4,AS28="Occasionnellement",3,AS28="Souvent",1,AS28="Presque toujours/Toujours",0)</f>
+        <v>4</v>
+      </c>
+      <c r="AT56" s="2" cm="1">
+        <f t="array" ref="AT56">_xlfn.IFS(AT28="Rarement",0,AT28="Occasionnellement",1,AT28="Souvent",3,AT28="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="AU56" s="2" cm="1">
+        <f t="array" ref="AU56">_xlfn.IFS(AU28="Rarement",4,AU28="Occasionnellement",3,AU28="Souvent",1,AU28="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV56" s="2" cm="1">
+        <f t="array" ref="AV56">_xlfn.IFS(AV28="Rarement",0,AV28="Occasionnellement",1,AV28="Souvent",3,AV28="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AW56" s="2" cm="1">
+        <f t="array" ref="AW56">_xlfn.IFS(AW28="Rarement",0,AW28="Occasionnellement",1,AW28="Souvent",3,AW28="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AX56" s="2" cm="1">
+        <f t="array" ref="AX56">_xlfn.IFS(AX28="Rarement",0,AX28="Occasionnellement",1,AX28="Souvent",3,AX28="Presque toujours/Toujours",4)</f>
+        <v>1</v>
+      </c>
+      <c r="AY56" s="2" cm="1">
+        <f t="array" ref="AY56">_xlfn.IFS(AY28="Rarement",0,AY28="Occasionnellement",1,AY28="Souvent",3,AY28="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ56" s="2" cm="1">
+        <f t="array" ref="AZ56">_xlfn.IFS(AZ28="Rarement",0,AZ28="Occasionnellement",1,AZ28="Souvent",3,AZ28="Presque toujours/Toujours",4)</f>
+        <v>4</v>
+      </c>
+      <c r="BA56" s="2" cm="1">
+        <f t="array" ref="BA56">_xlfn.IFS(BA28="Rarement",0,BA28="Occasionnellement",1,BA28="Souvent",3,BA28="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BB56" s="2" cm="1">
+        <f t="array" ref="BB56">_xlfn.IFS(BB28="Rarement",0,BB28="Occasionnellement",1,BB28="Souvent",3,BB28="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC56" s="2" cm="1">
+        <f t="array" ref="BC56">_xlfn.IFS(BC28="Rarement",0,BC28="Occasionnellement",1,BC28="Souvent",3,BC28="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BD56" s="2" cm="1">
+        <f t="array" ref="BD56">_xlfn.IFS(BD28="Rarement",0,BD28="Occasionnellement",1,BD28="Souvent",3,BD28="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BE56" s="2" cm="1">
+        <f t="array" ref="BE56">_xlfn.IFS(BE28="Rarement",0,BE28="Occasionnellement",1,BE28="Souvent",3,BE28="Presque toujours/Toujours",4)</f>
+        <v>0</v>
+      </c>
+      <c r="BF56" s="2" cm="1">
+        <f t="array" ref="BF56">_xlfn.IFS(BF28="Rarement",0,BF28="Occasionnellement",1,BF28="Souvent",3,BF28="Presque toujours/Toujours",4)</f>
+        <v>3</v>
+      </c>
+      <c r="BG56" s="2" cm="1">
+        <f t="array" ref="BG56">_xlfn.IFS(BG28="Rarement",4,BG28="Occasionnellement",3,BG28="Souvent",1,BG28="Presque toujours/Toujours",0)</f>
+        <v>3</v>
+      </c>
+      <c r="BH56" s="2" cm="1">
+        <f t="array" ref="BH56">_xlfn.IFS(BH28="Rarement",4,BH28="Occasionnellement",3,BH28="Souvent",1,BH28="Presque toujours/Toujours",0)</f>
+        <v>1</v>
+      </c>
+      <c r="CK56" s="2">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>0</v>
+      </c>
+      <c r="CL56" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>10</v>
+      </c>
+      <c r="CM56" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>21</v>
+      </c>
+      <c r="CN56" s="2">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>20</v>
+      </c>
+      <c r="CO56" s="7">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>51</v>
+      </c>
+      <c r="CP56" s="2"/>
+      <c r="CQ56" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="CR56" s="2"/>
+    </row>
+    <row r="57" spans="2:96" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="AA57" s="2" t="e" cm="1">
+        <f t="array" ref="AA57">_xlfn.IFS(AA29="Rarement",0,AA29="Occasionnellement",1,AA29="Souvent",3,AA29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB57" s="2" t="e" cm="1">
+        <f t="array" ref="AB57">_xlfn.IFS(AB29="Rarement",0,AB29="Occasionnellement",1,AB29="Souvent",3,AB29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC57" s="2" t="e" cm="1">
+        <f t="array" ref="AC57">_xlfn.IFS(AC29="Rarement",0,AC29="Occasionnellement",1,AC29="Souvent",3,AC29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD57" s="2" t="e" cm="1">
+        <f t="array" ref="AD57">_xlfn.IFS(AD29="Rarement",0,AD29="Occasionnellement",1,AD29="Souvent",3,AD29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE57" s="2" t="e" cm="1">
+        <f t="array" ref="AE57">_xlfn.IFS(AE29="Rarement",0,AE29="Occasionnellement",1,AE29="Souvent",3,AE29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF57" s="2" t="e" cm="1">
+        <f t="array" ref="AF57">_xlfn.IFS(AF29="Rarement",0,AF29="Occasionnellement",1,AF29="Souvent",3,AF29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG57" s="2" t="e" cm="1">
+        <f t="array" ref="AG57">_xlfn.IFS(AG29="Rarement",4,AG29="Occasionnellement",3,AG29="Souvent",1,AG29="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH57" s="2" t="e" cm="1">
+        <f t="array" ref="AH57">_xlfn.IFS(AH29="Rarement",4,AH29="Occasionnellement",3,AH29="Souvent",1,AH29="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI57" s="2" t="e" cm="1">
+        <f t="array" ref="AI57">_xlfn.IFS(AI29="Rarement",4,AI29="Occasionnellement",3,AI29="Souvent",1,AI29="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ57" s="2" t="e" cm="1">
+        <f t="array" ref="AJ57">_xlfn.IFS(AJ29="Rarement",4,AJ29="Occasionnellement",3,AJ29="Souvent",1,AJ29="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK57" s="2" t="e" cm="1">
+        <f t="array" ref="AK57">_xlfn.IFS(AK29="Rarement",4,AK29="Occasionnellement",3,AK29="Souvent",1,AK29="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL57" s="2" t="e" cm="1">
+        <f t="array" ref="AL57">_xlfn.IFS(AL29="Rarement",4,AL29="Occasionnellement",3,AL29="Souvent",1,AL29="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM57" s="2" t="e" cm="1">
+        <f t="array" ref="AM57">_xlfn.IFS(AM29="Rarement",4,AM29="Occasionnellement",3,AM29="Souvent",1,AM29="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN57" s="2" t="e" cm="1">
+        <f t="array" ref="AN57">_xlfn.IFS(AN29="Rarement",4,AN29="Occasionnellement",3,AN29="Souvent",1,AN29="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO57" s="2" t="e" cm="1">
+        <f t="array" ref="AO57">_xlfn.IFS(AG29="Rarement",4,AG29="Occasionnellement",3,AG29="Souvent",1,AG29="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP57" s="2" t="e" cm="1">
+        <f t="array" ref="AP57">_xlfn.IFS(AP29="Rarement",0,AP29="Occasionnellement",1,AP29="Souvent",3,AP29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ57" s="2" t="e" cm="1">
+        <f t="array" ref="AQ57">_xlfn.IFS(AQ29="Rarement",0,AQ29="Occasionnellement",1,AQ29="Souvent",3,AQ29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR57" s="2" t="e" cm="1">
+        <f t="array" ref="AR57">_xlfn.IFS(AR29="Rarement",0,AR29="Occasionnellement",1,AR29="Souvent",3,AR29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS57" s="2" t="e" cm="1">
+        <f t="array" ref="AS57">_xlfn.IFS(AS29="Rarement",4,AS29="Occasionnellement",3,AS29="Souvent",1,AS29="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT57" s="2" t="e" cm="1">
+        <f t="array" ref="AT57">_xlfn.IFS(AT29="Rarement",0,AT29="Occasionnellement",1,AT29="Souvent",3,AT29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU57" s="2" t="e" cm="1">
+        <f t="array" ref="AU57">_xlfn.IFS(AU29="Rarement",4,AU29="Occasionnellement",3,AU29="Souvent",1,AU29="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV57" s="2" t="e" cm="1">
+        <f t="array" ref="AV57">_xlfn.IFS(AV29="Rarement",0,AV29="Occasionnellement",1,AV29="Souvent",3,AV29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW57" s="2" t="e" cm="1">
+        <f t="array" ref="AW57">_xlfn.IFS(AW29="Rarement",0,AW29="Occasionnellement",1,AW29="Souvent",3,AW29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX57" s="2" t="e" cm="1">
+        <f t="array" ref="AX57">_xlfn.IFS(AX29="Rarement",0,AX29="Occasionnellement",1,AX29="Souvent",3,AX29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY57" s="2" t="e" cm="1">
+        <f t="array" ref="AY57">_xlfn.IFS(AY29="Rarement",0,AY29="Occasionnellement",1,AY29="Souvent",3,AY29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ57" s="2" t="e" cm="1">
+        <f t="array" ref="AZ57">_xlfn.IFS(AZ29="Rarement",0,AZ29="Occasionnellement",1,AZ29="Souvent",3,AZ29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA57" s="2" t="e" cm="1">
+        <f t="array" ref="BA57">_xlfn.IFS(BA29="Rarement",0,BA29="Occasionnellement",1,BA29="Souvent",3,BA29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB57" s="2" t="e" cm="1">
+        <f t="array" ref="BB57">_xlfn.IFS(BB29="Rarement",0,BB29="Occasionnellement",1,BB29="Souvent",3,BB29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC57" s="2" t="e" cm="1">
+        <f t="array" ref="BC57">_xlfn.IFS(BC29="Rarement",0,BC29="Occasionnellement",1,BC29="Souvent",3,BC29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD57" s="2" t="e" cm="1">
+        <f t="array" ref="BD57">_xlfn.IFS(BD29="Rarement",0,BD29="Occasionnellement",1,BD29="Souvent",3,BD29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE57" s="2" t="e" cm="1">
+        <f t="array" ref="BE57">_xlfn.IFS(BE29="Rarement",0,BE29="Occasionnellement",1,BE29="Souvent",3,BE29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF57" s="2" t="e" cm="1">
+        <f t="array" ref="BF57">_xlfn.IFS(BF29="Rarement",0,BF29="Occasionnellement",1,BF29="Souvent",3,BF29="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG57" s="2" t="e" cm="1">
+        <f t="array" ref="BG57">_xlfn.IFS(BG29="Rarement",4,BG29="Occasionnellement",3,BG29="Souvent",1,BG29="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH57" s="2" t="e" cm="1">
+        <f t="array" ref="BH57">_xlfn.IFS(BH29="Rarement",4,BH29="Occasionnellement",3,BH29="Souvent",1,BH29="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CK57" s="2">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>0</v>
+      </c>
+      <c r="CL57" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CM57" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CN57" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CO57" s="7" t="e">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CP57" s="2"/>
+      <c r="CQ57" s="2"/>
+      <c r="CR57" s="2"/>
+    </row>
+    <row r="58" spans="2:96" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="AA58" s="2" t="e" cm="1">
+        <f t="array" ref="AA58">_xlfn.IFS(AA30="Rarement",0,AA30="Occasionnellement",1,AA30="Souvent",3,AA30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB58" s="2" t="e" cm="1">
+        <f t="array" ref="AB58">_xlfn.IFS(AB30="Rarement",0,AB30="Occasionnellement",1,AB30="Souvent",3,AB30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC58" s="2" t="e" cm="1">
+        <f t="array" ref="AC58">_xlfn.IFS(AC30="Rarement",0,AC30="Occasionnellement",1,AC30="Souvent",3,AC30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD58" s="2" t="e" cm="1">
+        <f t="array" ref="AD58">_xlfn.IFS(AD30="Rarement",0,AD30="Occasionnellement",1,AD30="Souvent",3,AD30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE58" s="2" t="e" cm="1">
+        <f t="array" ref="AE58">_xlfn.IFS(AE30="Rarement",0,AE30="Occasionnellement",1,AE30="Souvent",3,AE30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF58" s="2" t="e" cm="1">
+        <f t="array" ref="AF58">_xlfn.IFS(AF30="Rarement",0,AF30="Occasionnellement",1,AF30="Souvent",3,AF30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG58" s="2" t="e" cm="1">
+        <f t="array" ref="AG58">_xlfn.IFS(AG30="Rarement",4,AG30="Occasionnellement",3,AG30="Souvent",1,AG30="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH58" s="2" t="e" cm="1">
+        <f t="array" ref="AH58">_xlfn.IFS(AH30="Rarement",4,AH30="Occasionnellement",3,AH30="Souvent",1,AH30="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI58" s="2" t="e" cm="1">
+        <f t="array" ref="AI58">_xlfn.IFS(AI30="Rarement",4,AI30="Occasionnellement",3,AI30="Souvent",1,AI30="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ58" s="2" t="e" cm="1">
+        <f t="array" ref="AJ58">_xlfn.IFS(AJ30="Rarement",4,AJ30="Occasionnellement",3,AJ30="Souvent",1,AJ30="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK58" s="2" t="e" cm="1">
+        <f t="array" ref="AK58">_xlfn.IFS(AK30="Rarement",4,AK30="Occasionnellement",3,AK30="Souvent",1,AK30="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL58" s="2" t="e" cm="1">
+        <f t="array" ref="AL58">_xlfn.IFS(AL30="Rarement",4,AL30="Occasionnellement",3,AL30="Souvent",1,AL30="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM58" s="2" t="e" cm="1">
+        <f t="array" ref="AM58">_xlfn.IFS(AM30="Rarement",4,AM30="Occasionnellement",3,AM30="Souvent",1,AM30="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN58" s="2" t="e" cm="1">
+        <f t="array" ref="AN58">_xlfn.IFS(AN30="Rarement",4,AN30="Occasionnellement",3,AN30="Souvent",1,AN30="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO58" s="2" t="e" cm="1">
+        <f t="array" ref="AO58">_xlfn.IFS(AG30="Rarement",4,AG30="Occasionnellement",3,AG30="Souvent",1,AG30="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP58" s="2" t="e" cm="1">
+        <f t="array" ref="AP58">_xlfn.IFS(AP30="Rarement",0,AP30="Occasionnellement",1,AP30="Souvent",3,AP30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ58" s="2" t="e" cm="1">
+        <f t="array" ref="AQ58">_xlfn.IFS(AQ30="Rarement",0,AQ30="Occasionnellement",1,AQ30="Souvent",3,AQ30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR58" s="2" t="e" cm="1">
+        <f t="array" ref="AR58">_xlfn.IFS(AR30="Rarement",0,AR30="Occasionnellement",1,AR30="Souvent",3,AR30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS58" s="2" t="e" cm="1">
+        <f t="array" ref="AS58">_xlfn.IFS(AS30="Rarement",4,AS30="Occasionnellement",3,AS30="Souvent",1,AS30="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT58" s="2" t="e" cm="1">
+        <f t="array" ref="AT58">_xlfn.IFS(AT30="Rarement",0,AT30="Occasionnellement",1,AT30="Souvent",3,AT30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU58" s="2" t="e" cm="1">
+        <f t="array" ref="AU58">_xlfn.IFS(AU30="Rarement",4,AU30="Occasionnellement",3,AU30="Souvent",1,AU30="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV58" s="2" t="e" cm="1">
+        <f t="array" ref="AV58">_xlfn.IFS(AV30="Rarement",0,AV30="Occasionnellement",1,AV30="Souvent",3,AV30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW58" s="2" t="e" cm="1">
+        <f t="array" ref="AW58">_xlfn.IFS(AW30="Rarement",0,AW30="Occasionnellement",1,AW30="Souvent",3,AW30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX58" s="2" t="e" cm="1">
+        <f t="array" ref="AX58">_xlfn.IFS(AX30="Rarement",0,AX30="Occasionnellement",1,AX30="Souvent",3,AX30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY58" s="2" t="e" cm="1">
+        <f t="array" ref="AY58">_xlfn.IFS(AY30="Rarement",0,AY30="Occasionnellement",1,AY30="Souvent",3,AY30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ58" s="2" t="e" cm="1">
+        <f t="array" ref="AZ58">_xlfn.IFS(AZ30="Rarement",0,AZ30="Occasionnellement",1,AZ30="Souvent",3,AZ30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA58" s="2" t="e" cm="1">
+        <f t="array" ref="BA58">_xlfn.IFS(BA30="Rarement",0,BA30="Occasionnellement",1,BA30="Souvent",3,BA30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB58" s="2" t="e" cm="1">
+        <f t="array" ref="BB58">_xlfn.IFS(BB30="Rarement",0,BB30="Occasionnellement",1,BB30="Souvent",3,BB30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC58" s="2" t="e" cm="1">
+        <f t="array" ref="BC58">_xlfn.IFS(BC30="Rarement",0,BC30="Occasionnellement",1,BC30="Souvent",3,BC30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD58" s="2" t="e" cm="1">
+        <f t="array" ref="BD58">_xlfn.IFS(BD30="Rarement",0,BD30="Occasionnellement",1,BD30="Souvent",3,BD30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE58" s="2" t="e" cm="1">
+        <f t="array" ref="BE58">_xlfn.IFS(BE30="Rarement",0,BE30="Occasionnellement",1,BE30="Souvent",3,BE30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF58" s="2" t="e" cm="1">
+        <f t="array" ref="BF58">_xlfn.IFS(BF30="Rarement",0,BF30="Occasionnellement",1,BF30="Souvent",3,BF30="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG58" s="2" t="e" cm="1">
+        <f t="array" ref="BG58">_xlfn.IFS(BG30="Rarement",4,BG30="Occasionnellement",3,BG30="Souvent",1,BG30="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH58" s="2" t="e" cm="1">
+        <f t="array" ref="BH58">_xlfn.IFS(BH30="Rarement",4,BH30="Occasionnellement",3,BH30="Souvent",1,BH30="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CK58" s="2">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>0</v>
+      </c>
+      <c r="CL58" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CM58" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CN58" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CO58" s="7" t="e">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CP58" s="2"/>
+      <c r="CQ58" s="2"/>
+      <c r="CR58" s="2"/>
+    </row>
+    <row r="59" spans="2:96" x14ac:dyDescent="0.35">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="AA59" s="2" t="e" cm="1">
+        <f t="array" ref="AA59">_xlfn.IFS(AA31="Rarement",0,AA31="Occasionnellement",1,AA31="Souvent",3,AA31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB59" s="2" t="e" cm="1">
+        <f t="array" ref="AB59">_xlfn.IFS(AB31="Rarement",0,AB31="Occasionnellement",1,AB31="Souvent",3,AB31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC59" s="2" t="e" cm="1">
+        <f t="array" ref="AC59">_xlfn.IFS(AC31="Rarement",0,AC31="Occasionnellement",1,AC31="Souvent",3,AC31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD59" s="2" t="e" cm="1">
+        <f t="array" ref="AD59">_xlfn.IFS(AD31="Rarement",0,AD31="Occasionnellement",1,AD31="Souvent",3,AD31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE59" s="2" t="e" cm="1">
+        <f t="array" ref="AE59">_xlfn.IFS(AE31="Rarement",0,AE31="Occasionnellement",1,AE31="Souvent",3,AE31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF59" s="2" t="e" cm="1">
+        <f t="array" ref="AF59">_xlfn.IFS(AF31="Rarement",0,AF31="Occasionnellement",1,AF31="Souvent",3,AF31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG59" s="2" t="e" cm="1">
+        <f t="array" ref="AG59">_xlfn.IFS(AG31="Rarement",4,AG31="Occasionnellement",3,AG31="Souvent",1,AG31="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH59" s="2" t="e" cm="1">
+        <f t="array" ref="AH59">_xlfn.IFS(AH31="Rarement",4,AH31="Occasionnellement",3,AH31="Souvent",1,AH31="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI59" s="2" t="e" cm="1">
+        <f t="array" ref="AI59">_xlfn.IFS(AI31="Rarement",4,AI31="Occasionnellement",3,AI31="Souvent",1,AI31="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ59" s="2" t="e" cm="1">
+        <f t="array" ref="AJ59">_xlfn.IFS(AJ31="Rarement",4,AJ31="Occasionnellement",3,AJ31="Souvent",1,AJ31="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK59" s="2" t="e" cm="1">
+        <f t="array" ref="AK59">_xlfn.IFS(AK31="Rarement",4,AK31="Occasionnellement",3,AK31="Souvent",1,AK31="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL59" s="2" t="e" cm="1">
+        <f t="array" ref="AL59">_xlfn.IFS(AL31="Rarement",4,AL31="Occasionnellement",3,AL31="Souvent",1,AL31="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM59" s="2" t="e" cm="1">
+        <f t="array" ref="AM59">_xlfn.IFS(AM31="Rarement",4,AM31="Occasionnellement",3,AM31="Souvent",1,AM31="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN59" s="2" t="e" cm="1">
+        <f t="array" ref="AN59">_xlfn.IFS(AN31="Rarement",4,AN31="Occasionnellement",3,AN31="Souvent",1,AN31="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO59" s="2" t="e" cm="1">
+        <f t="array" ref="AO59">_xlfn.IFS(AG31="Rarement",4,AG31="Occasionnellement",3,AG31="Souvent",1,AG31="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP59" s="2" t="e" cm="1">
+        <f t="array" ref="AP59">_xlfn.IFS(AP31="Rarement",0,AP31="Occasionnellement",1,AP31="Souvent",3,AP31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ59" s="2" t="e" cm="1">
+        <f t="array" ref="AQ59">_xlfn.IFS(AQ31="Rarement",0,AQ31="Occasionnellement",1,AQ31="Souvent",3,AQ31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR59" s="2" t="e" cm="1">
+        <f t="array" ref="AR59">_xlfn.IFS(AR31="Rarement",0,AR31="Occasionnellement",1,AR31="Souvent",3,AR31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS59" s="2" t="e" cm="1">
+        <f t="array" ref="AS59">_xlfn.IFS(AS31="Rarement",4,AS31="Occasionnellement",3,AS31="Souvent",1,AS31="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT59" s="2" t="e" cm="1">
+        <f t="array" ref="AT59">_xlfn.IFS(AT31="Rarement",0,AT31="Occasionnellement",1,AT31="Souvent",3,AT31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU59" s="2" t="e" cm="1">
+        <f t="array" ref="AU59">_xlfn.IFS(AU31="Rarement",4,AU31="Occasionnellement",3,AU31="Souvent",1,AU31="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV59" s="2" t="e" cm="1">
+        <f t="array" ref="AV59">_xlfn.IFS(AV31="Rarement",0,AV31="Occasionnellement",1,AV31="Souvent",3,AV31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW59" s="2" t="e" cm="1">
+        <f t="array" ref="AW59">_xlfn.IFS(AW31="Rarement",0,AW31="Occasionnellement",1,AW31="Souvent",3,AW31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX59" s="2" t="e" cm="1">
+        <f t="array" ref="AX59">_xlfn.IFS(AX31="Rarement",0,AX31="Occasionnellement",1,AX31="Souvent",3,AX31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY59" s="2" t="e" cm="1">
+        <f t="array" ref="AY59">_xlfn.IFS(AY31="Rarement",0,AY31="Occasionnellement",1,AY31="Souvent",3,AY31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ59" s="2" t="e" cm="1">
+        <f t="array" ref="AZ59">_xlfn.IFS(AZ31="Rarement",0,AZ31="Occasionnellement",1,AZ31="Souvent",3,AZ31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA59" s="2" t="e" cm="1">
+        <f t="array" ref="BA59">_xlfn.IFS(BA31="Rarement",0,BA31="Occasionnellement",1,BA31="Souvent",3,BA31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB59" s="2" t="e" cm="1">
+        <f t="array" ref="BB59">_xlfn.IFS(BB31="Rarement",0,BB31="Occasionnellement",1,BB31="Souvent",3,BB31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC59" s="2" t="e" cm="1">
+        <f t="array" ref="BC59">_xlfn.IFS(BC31="Rarement",0,BC31="Occasionnellement",1,BC31="Souvent",3,BC31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD59" s="2" t="e" cm="1">
+        <f t="array" ref="BD59">_xlfn.IFS(BD31="Rarement",0,BD31="Occasionnellement",1,BD31="Souvent",3,BD31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE59" s="2" t="e" cm="1">
+        <f t="array" ref="BE59">_xlfn.IFS(BE31="Rarement",0,BE31="Occasionnellement",1,BE31="Souvent",3,BE31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF59" s="2" t="e" cm="1">
+        <f t="array" ref="BF59">_xlfn.IFS(BF31="Rarement",0,BF31="Occasionnellement",1,BF31="Souvent",3,BF31="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG59" s="2" t="e" cm="1">
+        <f t="array" ref="BG59">_xlfn.IFS(BG31="Rarement",4,BG31="Occasionnellement",3,BG31="Souvent",1,BG31="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH59" s="2" t="e" cm="1">
+        <f t="array" ref="BH59">_xlfn.IFS(BH31="Rarement",4,BH31="Occasionnellement",3,BH31="Souvent",1,BH31="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CK59" s="2">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>0</v>
+      </c>
+      <c r="CL59" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CM59" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CN59" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CO59" s="7" t="e">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CP59" s="2"/>
+      <c r="CQ59" s="2"/>
+      <c r="CR59" s="2"/>
+    </row>
+    <row r="60" spans="2:96" x14ac:dyDescent="0.35">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="AA60" s="2" t="e" cm="1">
+        <f t="array" ref="AA60">_xlfn.IFS(AA32="Rarement",0,AA32="Occasionnellement",1,AA32="Souvent",3,AA32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB60" s="2" t="e" cm="1">
+        <f t="array" ref="AB60">_xlfn.IFS(AB32="Rarement",0,AB32="Occasionnellement",1,AB32="Souvent",3,AB32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC60" s="2" t="e" cm="1">
+        <f t="array" ref="AC60">_xlfn.IFS(AC32="Rarement",0,AC32="Occasionnellement",1,AC32="Souvent",3,AC32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD60" s="2" t="e" cm="1">
+        <f t="array" ref="AD60">_xlfn.IFS(AD32="Rarement",0,AD32="Occasionnellement",1,AD32="Souvent",3,AD32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE60" s="2" t="e" cm="1">
+        <f t="array" ref="AE60">_xlfn.IFS(AE32="Rarement",0,AE32="Occasionnellement",1,AE32="Souvent",3,AE32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF60" s="2" t="e" cm="1">
+        <f t="array" ref="AF60">_xlfn.IFS(AF32="Rarement",0,AF32="Occasionnellement",1,AF32="Souvent",3,AF32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG60" s="2" t="e" cm="1">
+        <f t="array" ref="AG60">_xlfn.IFS(AG32="Rarement",4,AG32="Occasionnellement",3,AG32="Souvent",1,AG32="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH60" s="2" t="e" cm="1">
+        <f t="array" ref="AH60">_xlfn.IFS(AH32="Rarement",4,AH32="Occasionnellement",3,AH32="Souvent",1,AH32="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI60" s="2" t="e" cm="1">
+        <f t="array" ref="AI60">_xlfn.IFS(AI32="Rarement",4,AI32="Occasionnellement",3,AI32="Souvent",1,AI32="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ60" s="2" t="e" cm="1">
+        <f t="array" ref="AJ60">_xlfn.IFS(AJ32="Rarement",4,AJ32="Occasionnellement",3,AJ32="Souvent",1,AJ32="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK60" s="2" t="e" cm="1">
+        <f t="array" ref="AK60">_xlfn.IFS(AK32="Rarement",4,AK32="Occasionnellement",3,AK32="Souvent",1,AK32="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL60" s="2" t="e" cm="1">
+        <f t="array" ref="AL60">_xlfn.IFS(AL32="Rarement",4,AL32="Occasionnellement",3,AL32="Souvent",1,AL32="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM60" s="2" t="e" cm="1">
+        <f t="array" ref="AM60">_xlfn.IFS(AM32="Rarement",4,AM32="Occasionnellement",3,AM32="Souvent",1,AM32="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN60" s="2" t="e" cm="1">
+        <f t="array" ref="AN60">_xlfn.IFS(AN32="Rarement",4,AN32="Occasionnellement",3,AN32="Souvent",1,AN32="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO60" s="2" t="e" cm="1">
+        <f t="array" ref="AO60">_xlfn.IFS(AG32="Rarement",4,AG32="Occasionnellement",3,AG32="Souvent",1,AG32="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP60" s="2" t="e" cm="1">
+        <f t="array" ref="AP60">_xlfn.IFS(AP32="Rarement",0,AP32="Occasionnellement",1,AP32="Souvent",3,AP32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ60" s="2" t="e" cm="1">
+        <f t="array" ref="AQ60">_xlfn.IFS(AQ32="Rarement",0,AQ32="Occasionnellement",1,AQ32="Souvent",3,AQ32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR60" s="2" t="e" cm="1">
+        <f t="array" ref="AR60">_xlfn.IFS(AR32="Rarement",0,AR32="Occasionnellement",1,AR32="Souvent",3,AR32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS60" s="2" t="e" cm="1">
+        <f t="array" ref="AS60">_xlfn.IFS(AS32="Rarement",4,AS32="Occasionnellement",3,AS32="Souvent",1,AS32="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT60" s="2" t="e" cm="1">
+        <f t="array" ref="AT60">_xlfn.IFS(AT32="Rarement",0,AT32="Occasionnellement",1,AT32="Souvent",3,AT32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU60" s="2" t="e" cm="1">
+        <f t="array" ref="AU60">_xlfn.IFS(AU32="Rarement",4,AU32="Occasionnellement",3,AU32="Souvent",1,AU32="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV60" s="2" t="e" cm="1">
+        <f t="array" ref="AV60">_xlfn.IFS(AV32="Rarement",0,AV32="Occasionnellement",1,AV32="Souvent",3,AV32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW60" s="2" t="e" cm="1">
+        <f t="array" ref="AW60">_xlfn.IFS(AW32="Rarement",0,AW32="Occasionnellement",1,AW32="Souvent",3,AW32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX60" s="2" t="e" cm="1">
+        <f t="array" ref="AX60">_xlfn.IFS(AX32="Rarement",0,AX32="Occasionnellement",1,AX32="Souvent",3,AX32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY60" s="2" t="e" cm="1">
+        <f t="array" ref="AY60">_xlfn.IFS(AY32="Rarement",0,AY32="Occasionnellement",1,AY32="Souvent",3,AY32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ60" s="2" t="e" cm="1">
+        <f t="array" ref="AZ60">_xlfn.IFS(AZ32="Rarement",0,AZ32="Occasionnellement",1,AZ32="Souvent",3,AZ32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA60" s="2" t="e" cm="1">
+        <f t="array" ref="BA60">_xlfn.IFS(BA32="Rarement",0,BA32="Occasionnellement",1,BA32="Souvent",3,BA32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB60" s="2" t="e" cm="1">
+        <f t="array" ref="BB60">_xlfn.IFS(BB32="Rarement",0,BB32="Occasionnellement",1,BB32="Souvent",3,BB32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC60" s="2" t="e" cm="1">
+        <f t="array" ref="BC60">_xlfn.IFS(BC32="Rarement",0,BC32="Occasionnellement",1,BC32="Souvent",3,BC32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD60" s="2" t="e" cm="1">
+        <f t="array" ref="BD60">_xlfn.IFS(BD32="Rarement",0,BD32="Occasionnellement",1,BD32="Souvent",3,BD32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE60" s="2" t="e" cm="1">
+        <f t="array" ref="BE60">_xlfn.IFS(BE32="Rarement",0,BE32="Occasionnellement",1,BE32="Souvent",3,BE32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF60" s="2" t="e" cm="1">
+        <f t="array" ref="BF60">_xlfn.IFS(BF32="Rarement",0,BF32="Occasionnellement",1,BF32="Souvent",3,BF32="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG60" s="2" t="e" cm="1">
+        <f t="array" ref="BG60">_xlfn.IFS(BG32="Rarement",4,BG32="Occasionnellement",3,BG32="Souvent",1,BG32="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH60" s="2" t="e" cm="1">
+        <f t="array" ref="BH60">_xlfn.IFS(BH32="Rarement",4,BH32="Occasionnellement",3,BH32="Souvent",1,BH32="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CK60" s="2">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>0</v>
+      </c>
+      <c r="CL60" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CM60" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CN60" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CO60" s="7" t="e">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CP60" s="2"/>
+      <c r="CQ60" s="2"/>
+      <c r="CR60" s="2"/>
+    </row>
+    <row r="61" spans="2:96" x14ac:dyDescent="0.35">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="AA61" s="2" t="e" cm="1">
+        <f t="array" ref="AA61">_xlfn.IFS(AA33="Rarement",0,AA33="Occasionnellement",1,AA33="Souvent",3,AA33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB61" s="2" t="e" cm="1">
+        <f t="array" ref="AB61">_xlfn.IFS(AB33="Rarement",0,AB33="Occasionnellement",1,AB33="Souvent",3,AB33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC61" s="2" t="e" cm="1">
+        <f t="array" ref="AC61">_xlfn.IFS(AC33="Rarement",0,AC33="Occasionnellement",1,AC33="Souvent",3,AC33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2" t="e" cm="1">
+        <f t="array" ref="AF61">_xlfn.IFS(AF33="Rarement",0,AF33="Occasionnellement",1,AF33="Souvent",3,AF33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="2"/>
+      <c r="AK61" s="2" t="e" cm="1">
+        <f t="array" ref="AK61">_xlfn.IFS(AK33="Rarement",4,AK33="Occasionnellement",3,AK33="Souvent",1,AK33="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL61" s="2" t="e" cm="1">
+        <f t="array" ref="AL61">_xlfn.IFS(AL33="Rarement",4,AL33="Occasionnellement",3,AL33="Souvent",1,AL33="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM61" s="2" t="e" cm="1">
+        <f t="array" ref="AM61">_xlfn.IFS(AM33="Rarement",4,AM33="Occasionnellement",3,AM33="Souvent",1,AM33="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN61" s="2" t="e" cm="1">
+        <f t="array" ref="AN61">_xlfn.IFS(AN33="Rarement",4,AN33="Occasionnellement",3,AN33="Souvent",1,AN33="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO61" s="2" t="e" cm="1">
+        <f t="array" ref="AO61">_xlfn.IFS(AG33="Rarement",4,AG33="Occasionnellement",3,AG33="Souvent",1,AG33="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP61" s="2" t="e" cm="1">
+        <f t="array" ref="AP61">_xlfn.IFS(AP33="Rarement",0,AP33="Occasionnellement",1,AP33="Souvent",3,AP33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ61" s="2" t="e" cm="1">
+        <f t="array" ref="AQ61">_xlfn.IFS(AQ33="Rarement",0,AQ33="Occasionnellement",1,AQ33="Souvent",3,AQ33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR61" s="2" t="e" cm="1">
+        <f t="array" ref="AR61">_xlfn.IFS(AR33="Rarement",0,AR33="Occasionnellement",1,AR33="Souvent",3,AR33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS61" s="2" t="e" cm="1">
+        <f t="array" ref="AS61">_xlfn.IFS(AS33="Rarement",4,AS33="Occasionnellement",3,AS33="Souvent",1,AS33="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT61" s="2" t="e" cm="1">
+        <f t="array" ref="AT61">_xlfn.IFS(AT33="Rarement",0,AT33="Occasionnellement",1,AT33="Souvent",3,AT33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU61" s="2" t="e" cm="1">
+        <f t="array" ref="AU61">_xlfn.IFS(AU33="Rarement",4,AU33="Occasionnellement",3,AU33="Souvent",1,AU33="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV61" s="2" t="e" cm="1">
+        <f t="array" ref="AV61">_xlfn.IFS(AV33="Rarement",0,AV33="Occasionnellement",1,AV33="Souvent",3,AV33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW61" s="2" t="e" cm="1">
+        <f t="array" ref="AW61">_xlfn.IFS(AW33="Rarement",0,AW33="Occasionnellement",1,AW33="Souvent",3,AW33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX61" s="2" t="e" cm="1">
+        <f t="array" ref="AX61">_xlfn.IFS(AX33="Rarement",0,AX33="Occasionnellement",1,AX33="Souvent",3,AX33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY61" s="2" t="e" cm="1">
+        <f t="array" ref="AY61">_xlfn.IFS(AY33="Rarement",0,AY33="Occasionnellement",1,AY33="Souvent",3,AY33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ61" s="2" t="e" cm="1">
+        <f t="array" ref="AZ61">_xlfn.IFS(AZ33="Rarement",0,AZ33="Occasionnellement",1,AZ33="Souvent",3,AZ33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA61" s="2" t="e" cm="1">
+        <f t="array" ref="BA61">_xlfn.IFS(BA33="Rarement",0,BA33="Occasionnellement",1,BA33="Souvent",3,BA33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB61" s="2" t="e" cm="1">
+        <f t="array" ref="BB61">_xlfn.IFS(BB33="Rarement",0,BB33="Occasionnellement",1,BB33="Souvent",3,BB33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC61" s="2" t="e" cm="1">
+        <f t="array" ref="BC61">_xlfn.IFS(BC33="Rarement",0,BC33="Occasionnellement",1,BC33="Souvent",3,BC33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD61" s="2" t="e" cm="1">
+        <f t="array" ref="BD61">_xlfn.IFS(BD33="Rarement",0,BD33="Occasionnellement",1,BD33="Souvent",3,BD33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE61" s="2" t="e" cm="1">
+        <f t="array" ref="BE61">_xlfn.IFS(BE33="Rarement",0,BE33="Occasionnellement",1,BE33="Souvent",3,BE33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF61" s="2" t="e" cm="1">
+        <f t="array" ref="BF61">_xlfn.IFS(BF33="Rarement",0,BF33="Occasionnellement",1,BF33="Souvent",3,BF33="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG61" s="2" t="e" cm="1">
+        <f t="array" ref="BG61">_xlfn.IFS(BG33="Rarement",4,BG33="Occasionnellement",3,BG33="Souvent",1,BG33="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH61" s="2" t="e" cm="1">
+        <f t="array" ref="BH61">_xlfn.IFS(BH33="Rarement",4,BH33="Occasionnellement",3,BH33="Souvent",1,BH33="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CK61" s="2">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>0</v>
+      </c>
+      <c r="CL61" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CM61" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CN61" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CO61" s="7" t="e">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CP61" s="2"/>
+      <c r="CQ61" s="2"/>
+      <c r="CR61" s="2"/>
+    </row>
+    <row r="62" spans="2:96" x14ac:dyDescent="0.35">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2"/>
+      <c r="AJ62" s="2"/>
+      <c r="AK62" s="2"/>
+      <c r="AL62" s="2"/>
+      <c r="AM62" s="2" t="e" cm="1">
+        <f t="array" ref="AM62">_xlfn.IFS(AM34="Rarement",4,AM34="Occasionnellement",3,AM34="Souvent",1,AM34="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN62" s="2" t="e" cm="1">
+        <f t="array" ref="AN62">_xlfn.IFS(AN34="Rarement",4,AN34="Occasionnellement",3,AN34="Souvent",1,AN34="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO62" s="2" t="e" cm="1">
+        <f t="array" ref="AO62">_xlfn.IFS(AG34="Rarement",4,AG34="Occasionnellement",3,AG34="Souvent",1,AG34="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP62" s="2" t="e" cm="1">
+        <f t="array" ref="AP62">_xlfn.IFS(AP34="Rarement",0,AP34="Occasionnellement",1,AP34="Souvent",3,AP34="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ62" s="2" t="e" cm="1">
+        <f t="array" ref="AQ62">_xlfn.IFS(AQ34="Rarement",0,AQ34="Occasionnellement",1,AQ34="Souvent",3,AQ34="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR62" s="2" t="e" cm="1">
+        <f t="array" ref="AR62">_xlfn.IFS(AR34="Rarement",0,AR34="Occasionnellement",1,AR34="Souvent",3,AR34="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS62" s="2" t="e" cm="1">
+        <f t="array" ref="AS62">_xlfn.IFS(AS34="Rarement",4,AS34="Occasionnellement",3,AS34="Souvent",1,AS34="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT62" s="2" t="e" cm="1">
+        <f t="array" ref="AT62">_xlfn.IFS(AT34="Rarement",0,AT34="Occasionnellement",1,AT34="Souvent",3,AT34="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU62" s="2" t="e" cm="1">
+        <f t="array" ref="AU62">_xlfn.IFS(AU34="Rarement",4,AU34="Occasionnellement",3,AU34="Souvent",1,AU34="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV62" s="2" t="e" cm="1">
+        <f t="array" ref="AV62">_xlfn.IFS(AV34="Rarement",0,AV34="Occasionnellement",1,AV34="Souvent",3,AV34="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW62" s="2" t="e" cm="1">
+        <f t="array" ref="AW62">_xlfn.IFS(AW34="Rarement",0,AW34="Occasionnellement",1,AW34="Souvent",3,AW34="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX62" s="2" t="e" cm="1">
+        <f t="array" ref="AX62">_xlfn.IFS(AX34="Rarement",0,AX34="Occasionnellement",1,AX34="Souvent",3,AX34="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY62" s="2" t="e" cm="1">
+        <f t="array" ref="AY62">_xlfn.IFS(AY34="Rarement",0,AY34="Occasionnellement",1,AY34="Souvent",3,AY34="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ62" s="2" t="e" cm="1">
+        <f t="array" ref="AZ62">_xlfn.IFS(AZ34="Rarement",0,AZ34="Occasionnellement",1,AZ34="Souvent",3,AZ34="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA62" s="2" t="e" cm="1">
+        <f t="array" ref="BA62">_xlfn.IFS(BA34="Rarement",0,BA34="Occasionnellement",1,BA34="Souvent",3,BA34="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB62" s="2" t="e" cm="1">
+        <f t="array" ref="BB62">_xlfn.IFS(BB34="Rarement",0,BB34="Occasionnellement",1,BB34="Souvent",3,BB34="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC62" s="2" t="e" cm="1">
+        <f t="array" ref="BC62">_xlfn.IFS(BC34="Rarement",0,BC34="Occasionnellement",1,BC34="Souvent",3,BC34="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD62" s="2" t="e" cm="1">
+        <f t="array" ref="BD62">_xlfn.IFS(BD34="Rarement",0,BD34="Occasionnellement",1,BD34="Souvent",3,BD34="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE62" s="2" t="e" cm="1">
+        <f t="array" ref="BE62">_xlfn.IFS(BE34="Rarement",0,BE34="Occasionnellement",1,BE34="Souvent",3,BE34="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF62" s="2" t="e" cm="1">
+        <f t="array" ref="BF62">_xlfn.IFS(BF34="Rarement",0,BF34="Occasionnellement",1,BF34="Souvent",3,BF34="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG62" s="2" t="e" cm="1">
+        <f t="array" ref="BG62">_xlfn.IFS(BG34="Rarement",4,BG34="Occasionnellement",3,BG34="Souvent",1,BG34="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH62" s="2" t="e" cm="1">
+        <f t="array" ref="BH62">_xlfn.IFS(BH34="Rarement",4,BH34="Occasionnellement",3,BH34="Souvent",1,BH34="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CK62" s="2">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>0</v>
+      </c>
+      <c r="CL62" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CM62" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CN62" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CO62" s="7" t="e">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CP62" s="2"/>
+      <c r="CQ62" s="2"/>
+      <c r="CR62" s="2"/>
+    </row>
+    <row r="63" spans="2:96" x14ac:dyDescent="0.35">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="2"/>
+      <c r="AM63" s="2" t="e" cm="1">
+        <f t="array" ref="AM63">_xlfn.IFS(AM35="Rarement",4,AM35="Occasionnellement",3,AM35="Souvent",1,AM35="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN63" s="2" t="e" cm="1">
+        <f t="array" ref="AN63">_xlfn.IFS(AN35="Rarement",4,AN35="Occasionnellement",3,AN35="Souvent",1,AN35="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO63" s="2" t="e" cm="1">
+        <f t="array" ref="AO63">_xlfn.IFS(AG35="Rarement",4,AG35="Occasionnellement",3,AG35="Souvent",1,AG35="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AP63" s="2" t="e" cm="1">
+        <f t="array" ref="AP63">_xlfn.IFS(AP35="Rarement",0,AP35="Occasionnellement",1,AP35="Souvent",3,AP35="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ63" s="2" t="e" cm="1">
+        <f t="array" ref="AQ63">_xlfn.IFS(AQ35="Rarement",0,AQ35="Occasionnellement",1,AQ35="Souvent",3,AQ35="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR63" s="2" t="e" cm="1">
+        <f t="array" ref="AR63">_xlfn.IFS(AR35="Rarement",0,AR35="Occasionnellement",1,AR35="Souvent",3,AR35="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AS63" s="2" t="e" cm="1">
+        <f t="array" ref="AS63">_xlfn.IFS(AS35="Rarement",4,AS35="Occasionnellement",3,AS35="Souvent",1,AS35="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT63" s="2" t="e" cm="1">
+        <f t="array" ref="AT63">_xlfn.IFS(AT35="Rarement",0,AT35="Occasionnellement",1,AT35="Souvent",3,AT35="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AU63" s="2" t="e" cm="1">
+        <f t="array" ref="AU63">_xlfn.IFS(AU35="Rarement",4,AU35="Occasionnellement",3,AU35="Souvent",1,AU35="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV63" s="2" t="e" cm="1">
+        <f t="array" ref="AV63">_xlfn.IFS(AV35="Rarement",0,AV35="Occasionnellement",1,AV35="Souvent",3,AV35="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW63" s="2" t="e" cm="1">
+        <f t="array" ref="AW63">_xlfn.IFS(AW35="Rarement",0,AW35="Occasionnellement",1,AW35="Souvent",3,AW35="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AX63" s="2" t="e" cm="1">
+        <f t="array" ref="AX63">_xlfn.IFS(AX35="Rarement",0,AX35="Occasionnellement",1,AX35="Souvent",3,AX35="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY63" s="2" t="e" cm="1">
+        <f t="array" ref="AY63">_xlfn.IFS(AY35="Rarement",0,AY35="Occasionnellement",1,AY35="Souvent",3,AY35="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AZ63" s="2" t="e" cm="1">
+        <f t="array" ref="AZ63">_xlfn.IFS(AZ35="Rarement",0,AZ35="Occasionnellement",1,AZ35="Souvent",3,AZ35="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA63" s="2" t="e" cm="1">
+        <f t="array" ref="BA63">_xlfn.IFS(BA35="Rarement",0,BA35="Occasionnellement",1,BA35="Souvent",3,BA35="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB63" s="2" t="e" cm="1">
+        <f t="array" ref="BB63">_xlfn.IFS(BB35="Rarement",0,BB35="Occasionnellement",1,BB35="Souvent",3,BB35="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC63" s="2" t="e" cm="1">
+        <f t="array" ref="BC63">_xlfn.IFS(BC35="Rarement",0,BC35="Occasionnellement",1,BC35="Souvent",3,BC35="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD63" s="2" t="e" cm="1">
+        <f t="array" ref="BD63">_xlfn.IFS(BD35="Rarement",0,BD35="Occasionnellement",1,BD35="Souvent",3,BD35="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE63" s="2" t="e" cm="1">
+        <f t="array" ref="BE63">_xlfn.IFS(BE35="Rarement",0,BE35="Occasionnellement",1,BE35="Souvent",3,BE35="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF63" s="2" t="e" cm="1">
+        <f t="array" ref="BF63">_xlfn.IFS(BF35="Rarement",0,BF35="Occasionnellement",1,BF35="Souvent",3,BF35="Presque toujours/Toujours",4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG63" s="2" t="e" cm="1">
+        <f t="array" ref="BG63">_xlfn.IFS(BG35="Rarement",4,BG35="Occasionnellement",3,BG35="Souvent",1,BG35="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH63" s="2" t="e" cm="1">
+        <f t="array" ref="BH63">_xlfn.IFS(BH35="Rarement",4,BH35="Occasionnellement",3,BH35="Souvent",1,BH35="Presque toujours/Toujours",0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CK63" s="2">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Il m''est facile de me concentrer sur mes activités.]:[Quand j''étais jeune, j''étais souvent dans des situations monotones et fatigantes.]])</f>
+        <v>0</v>
+      </c>
+      <c r="CL63" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je prépare soigneusement les tâches à accomplir]]+Questionnaires_de_personnalité[[#This Row],[J''ai tendance à ne pas m''en faire]]+Questionnaires_de_personnalité[[#This Row],[Je projette mes voyages longtemps à l''avance]]+Questionnaires_de_personnalité[[#This Row],[Je mets de l''argent de côté régulièrement]]+Questionnaires_de_personnalité[[#This Row],[Je veille à ma sécurité d''emploi]]+Questionnaires_de_personnalité[[#This Row],[Je change de travail]]+Questionnaires_de_personnalité[[#This Row],[Je me fais faire régulièrement des bilans de santé]]+Questionnaires_de_personnalité[[#This Row],[Je change de domicile]]+Questionnaires_de_personnalité[[#This Row],[Je change de passe-temps]]+Questionnaires_de_personnalité[[#This Row],[Je dépense ou paye à crédit plus que je ne gagne]]+Questionnaires_de_personnalité[[#This Row],[Je m''intéresse plus au présent qu''à l''avenir]]+Questionnaires_de_personnalité[[#This Row],[Je pense à l''avenir]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CM63" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je fais les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[Je ne fais pas attention]]+Questionnaires_de_personnalité[[#This Row],[Je suis maître de moi]]+Questionnaires_de_personnalité[[#This Row],[J''ai la "bougeotte" aux spectacles ou aux conférences]]+Questionnaires_de_personnalité[[#This Row],[Je dis les choses sans y penser]]+Questionnaires_de_personnalité[[#This Row],[J''agis sur un "coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[J''agis selon l''inspiration du moment]]+Questionnaires_de_personnalité[[#This Row],[J''achète les choses "sur un coup de tête"]]+Questionnaires_de_personnalité[[#This Row],[Je marche et bouge vite]]+Questionnaires_de_personnalité[[#This Row],[Je parle vite]]+Questionnaires_de_personnalité[[#This Row],[Je me sens agité au spectacle ou lors de conférences]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CN63" s="2" t="e">
+        <f>Questionnaires_de_personnalité[[#This Row],[Je me décide rapidement]]+Questionnaires_de_personnalité[[#This Row],[J''ai des idées qui fusent]]+Questionnaires_de_personnalité[[#This Row],[Je me concentre facilement]]+Questionnaires_de_personnalité[[#This Row],[Je réfléchis soigneusement]]+Questionnaires_de_personnalité[[#This Row],[J''aime réfléchir à des problèmes complexes]]+Questionnaires_de_personnalité[[#This Row],[Réfléchir à un problème m''ennuie vite]]+Questionnaires_de_personnalité[[#This Row],[Je suis quelqu''un de réfléchi]]+Questionnaires_de_personnalité[[#This Row],[Je ne peux penser qu''à un problème à la fois]]+Questionnaires_de_personnalité[[#This Row],[Je résous les problèmes par tâtonnements]]+Questionnaires_de_personnalité[[#This Row],[Quand je réfléchis mes pensées s''égarent souvent]]+Questionnaires_de_personnalité[[#This Row],[J''aime les "casses-têtes"]]</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CO63" s="7" t="e">
+        <f>SUM(Questionnaires_de_personnalité[[#This Row],[Non planning]:[Impulsivité cognitive]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CP63" s="2"/>
+      <c r="CQ63" s="2"/>
+      <c r="CR63" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
